--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -4328,7 +4328,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C57" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D57" s="0" t="n">
         <x:v>0</x:v>
@@ -4382,7 +4382,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U57" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -984,7 +984,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O5" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P5" s="0" t="n">
         <x:v>0</x:v>
@@ -1002,7 +1002,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U5" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:21">
@@ -2136,7 +2136,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="I23" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="J23" s="0" t="n">
         <x:v>1</x:v>
@@ -2172,7 +2172,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="U23" s="1" t="n">
-        <x:v>739</x:v>
+        <x:v>740</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:21">
@@ -2907,7 +2907,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G35" s="0" t="n">
         <x:v>0</x:v>
@@ -2952,7 +2952,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U35" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:21">
@@ -3643,7 +3643,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M46" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="N46" s="0" t="n">
         <x:v>0</x:v>
@@ -3667,7 +3667,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U46" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:21">
@@ -3714,7 +3714,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="O47" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="P47" s="0" t="n">
         <x:v>0</x:v>
@@ -3732,7 +3732,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U47" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:21">
@@ -4429,7 +4429,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="O58" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="P58" s="0" t="n">
         <x:v>0</x:v>
@@ -4447,7 +4447,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U58" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">
@@ -4618,7 +4618,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="M61" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="N61" s="0" t="n">
         <x:v>4</x:v>
@@ -4642,7 +4642,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U61" s="1" t="n">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">
@@ -4653,7 +4653,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C62" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D62" s="0" t="n">
         <x:v>0</x:v>
@@ -4662,7 +4662,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>0</x:v>
@@ -4680,7 +4680,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L62" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M62" s="0" t="n">
         <x:v>0</x:v>
@@ -4707,7 +4707,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U62" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -3058,7 +3058,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M37" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N37" s="0" t="n">
         <x:v>0</x:v>
@@ -3082,7 +3082,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U37" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -4878,7 +4878,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M65" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N65" s="0" t="n">
         <x:v>0</x:v>
@@ -4902,7 +4902,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U65" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -1693,7 +1693,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M16" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N16" s="0" t="n">
         <x:v>1</x:v>
@@ -1717,7 +1717,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="U16" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:21">
@@ -2154,7 +2154,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="O23" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="P23" s="0" t="n">
         <x:v>3</x:v>
@@ -2172,7 +2172,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="U23" s="1" t="n">
-        <x:v>740</x:v>
+        <x:v>741</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:21">
@@ -3297,7 +3297,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>0</x:v>
@@ -3342,7 +3342,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U41" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
@@ -4618,7 +4618,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="M61" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="N61" s="0" t="n">
         <x:v>4</x:v>
@@ -4642,7 +4642,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U61" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -836,7 +836,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
         <x:v>1</x:v>
@@ -848,7 +848,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -872,7 +872,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -2136,7 +2136,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="I23" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="J23" s="0" t="n">
         <x:v>1</x:v>
@@ -2166,13 +2166,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="S23" s="0" t="n">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="T23" s="0" t="n">
         <x:v>57</x:v>
       </x:c>
       <x:c r="U23" s="1" t="n">
-        <x:v>741</x:v>
+        <x:v>743</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:21">
@@ -4411,7 +4411,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I58" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J58" s="0" t="n">
         <x:v>0</x:v>
@@ -4423,10 +4423,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M58" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N58" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O58" s="0" t="n">
         <x:v>7</x:v>
@@ -4447,7 +4447,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U58" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -5138,7 +5138,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M69" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N69" s="0" t="n">
         <x:v>0</x:v>
@@ -5162,7 +5162,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U69" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -4012,7 +4012,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G52" s="0" t="n">
         <x:v>0</x:v>
@@ -4033,7 +4033,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="M52" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="N52" s="0" t="n">
         <x:v>0</x:v>
@@ -4057,7 +4057,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="U52" s="1" t="n">
-        <x:v>175</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -848,7 +848,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -872,7 +872,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -1108,7 +1108,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M7" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="N7" s="0" t="n">
         <x:v>0</x:v>
@@ -1132,7 +1132,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U7" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:21">
@@ -3761,7 +3761,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I48" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J48" s="0" t="n">
         <x:v>0</x:v>
@@ -3779,7 +3779,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O48" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P48" s="0" t="n">
         <x:v>0</x:v>
@@ -3797,7 +3797,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U48" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <x:si>
     <x:t>County</x:t>
   </x:si>
@@ -260,6 +260,9 @@
   </x:si>
   <x:si>
     <x:t>Steele</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stevens</x:t>
   </x:si>
   <x:si>
     <x:t>Todd</x:t>
@@ -670,7 +673,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:U72"/>
+  <x:dimension ref="A1:U73"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -783,7 +786,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M2" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N2" s="0" t="n">
         <x:v>0</x:v>
@@ -804,10 +807,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T2" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U2" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:21">
@@ -818,16 +821,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
@@ -836,19 +839,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L3" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -863,16 +866,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="S3" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="T3" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>139</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -889,7 +892,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>4</x:v>
@@ -913,7 +916,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M4" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N4" s="0" t="n">
         <x:v>0</x:v>
@@ -937,7 +940,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U4" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:21">
@@ -966,7 +969,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I5" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="J5" s="0" t="n">
         <x:v>0</x:v>
@@ -981,10 +984,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="N5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O5" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P5" s="0" t="n">
         <x:v>0</x:v>
@@ -1002,7 +1005,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U5" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:21">
@@ -1078,7 +1081,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
         <x:v>0</x:v>
@@ -1087,7 +1090,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>0</x:v>
@@ -1096,7 +1099,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I7" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J7" s="0" t="n">
         <x:v>0</x:v>
@@ -1108,7 +1111,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M7" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="N7" s="0" t="n">
         <x:v>0</x:v>
@@ -1129,10 +1132,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U7" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:21">
@@ -1152,7 +1155,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>0</x:v>
@@ -1161,7 +1164,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I8" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J8" s="0" t="n">
         <x:v>0</x:v>
@@ -1173,7 +1176,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M8" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="N8" s="0" t="n">
         <x:v>0</x:v>
@@ -1197,7 +1200,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U8" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:21">
@@ -1226,7 +1229,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I9" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J9" s="0" t="n">
         <x:v>0</x:v>
@@ -1238,13 +1241,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M9" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N9" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P9" s="0" t="n">
         <x:v>0</x:v>
@@ -1256,13 +1259,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T9" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="U9" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:21">
@@ -1300,16 +1303,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L10" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="M10" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N10" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="O10" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="P10" s="0" t="n">
         <x:v>0</x:v>
@@ -1321,13 +1324,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S10" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T10" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U10" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:21">
@@ -1386,13 +1389,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S11" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T11" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U11" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:21">
@@ -1433,13 +1436,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M12" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N12" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O12" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="P12" s="0" t="n">
         <x:v>0</x:v>
@@ -1451,13 +1454,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S12" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T12" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="U12" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:21">
@@ -1465,22 +1468,22 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B13" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H13" s="0" t="n">
         <x:v>0</x:v>
@@ -1489,7 +1492,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J13" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K13" s="0" t="n">
         <x:v>0</x:v>
@@ -1498,31 +1501,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M13" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N13" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="O13" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="P13" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q13" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="R13" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="S13" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T13" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U13" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:21">
@@ -1601,13 +1604,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
@@ -1625,10 +1628,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L15" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M15" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N15" s="0" t="n">
         <x:v>1</x:v>
@@ -1646,13 +1649,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S15" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="T15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U15" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:21">
@@ -1672,16 +1675,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I16" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J16" s="0" t="n">
         <x:v>0</x:v>
@@ -1699,7 +1702,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="O16" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="P16" s="0" t="n">
         <x:v>1</x:v>
@@ -1711,13 +1714,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S16" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="T16" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="U16" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:21">
@@ -1820,17 +1823,17 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L18" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M18" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="N18" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O18" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="N18" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O18" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="P18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -1841,13 +1844,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="S18" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T18" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="U18" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
@@ -1988,7 +1991,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C21" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D21" s="0" t="n">
         <x:v>0</x:v>
@@ -1997,7 +2000,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G21" s="0" t="n">
         <x:v>0</x:v>
@@ -2018,7 +2021,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M21" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="N21" s="0" t="n">
         <x:v>0</x:v>
@@ -2036,13 +2039,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S21" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T21" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U21" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:21">
@@ -2062,7 +2065,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G22" s="0" t="n">
         <x:v>0</x:v>
@@ -2083,7 +2086,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M22" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N22" s="0" t="n">
         <x:v>0</x:v>
@@ -2104,10 +2107,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T22" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U22" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:21">
@@ -2115,46 +2118,46 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B23" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G23" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H23" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I23" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="J23" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K23" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="L23" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M23" s="0" t="n">
-        <x:v>113</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="N23" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="O23" s="0" t="n">
-        <x:v>92</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="P23" s="0" t="n">
         <x:v>3</x:v>
@@ -2163,16 +2166,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R23" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="S23" s="0" t="n">
-        <x:v>131</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="T23" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="U23" s="1" t="n">
-        <x:v>743</x:v>
+        <x:v>986</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:21">
@@ -2266,7 +2269,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I25" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J25" s="0" t="n">
         <x:v>0</x:v>
@@ -2284,7 +2287,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O25" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="P25" s="0" t="n">
         <x:v>0</x:v>
@@ -2302,7 +2305,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U25" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:21">
@@ -2408,7 +2411,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M27" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N27" s="0" t="n">
         <x:v>1</x:v>
@@ -2432,7 +2435,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
@@ -2470,7 +2473,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L28" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M28" s="0" t="n">
         <x:v>2</x:v>
@@ -2497,7 +2500,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U28" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:21">
@@ -2573,7 +2576,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C30" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D30" s="0" t="n">
         <x:v>0</x:v>
@@ -2582,7 +2585,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G30" s="0" t="n">
         <x:v>0</x:v>
@@ -2603,7 +2606,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M30" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="N30" s="0" t="n">
         <x:v>0</x:v>
@@ -2627,7 +2630,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U30" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:21">
@@ -2668,7 +2671,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M31" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N31" s="0" t="n">
         <x:v>0</x:v>
@@ -2692,7 +2695,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U31" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:21">
@@ -2768,7 +2771,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C33" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D33" s="0" t="n">
         <x:v>0</x:v>
@@ -2777,7 +2780,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G33" s="0" t="n">
         <x:v>0</x:v>
@@ -2822,7 +2825,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U33" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:21">
@@ -2928,7 +2931,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M35" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N35" s="0" t="n">
         <x:v>0</x:v>
@@ -2952,7 +2955,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U35" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:21">
@@ -3090,7 +3093,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="B38" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C38" s="0" t="n">
         <x:v>1</x:v>
@@ -3102,7 +3105,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>0</x:v>
@@ -3120,10 +3123,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L38" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M38" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="N38" s="0" t="n">
         <x:v>0</x:v>
@@ -3147,7 +3150,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U38" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:21">
@@ -3188,7 +3191,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M39" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="N39" s="0" t="n">
         <x:v>0</x:v>
@@ -3212,7 +3215,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U39" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:21">
@@ -3229,10 +3232,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>0</x:v>
@@ -3241,7 +3244,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I40" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J40" s="0" t="n">
         <x:v>0</x:v>
@@ -3253,13 +3256,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M40" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="N40" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O40" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P40" s="0" t="n">
         <x:v>1</x:v>
@@ -3274,10 +3277,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="T40" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U40" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:21">
@@ -3297,7 +3300,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>0</x:v>
@@ -3324,7 +3327,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O41" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="P41" s="0" t="n">
         <x:v>0</x:v>
@@ -3342,7 +3345,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U41" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
@@ -3353,7 +3356,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C42" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D42" s="0" t="n">
         <x:v>0</x:v>
@@ -3389,7 +3392,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O42" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="P42" s="0" t="n">
         <x:v>0</x:v>
@@ -3407,7 +3410,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U42" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:21">
@@ -3427,7 +3430,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G43" s="0" t="n">
         <x:v>0</x:v>
@@ -3436,7 +3439,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I43" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J43" s="0" t="n">
         <x:v>0</x:v>
@@ -3448,7 +3451,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M43" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N43" s="0" t="n">
         <x:v>0</x:v>
@@ -3460,7 +3463,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q43" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R43" s="0" t="n">
         <x:v>0</x:v>
@@ -3472,7 +3475,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U43" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:21">
@@ -3545,10 +3548,10 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="B45" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C45" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D45" s="0" t="n">
         <x:v>0</x:v>
@@ -3557,7 +3560,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
         <x:v>1</x:v>
@@ -3566,7 +3569,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I45" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="J45" s="0" t="n">
         <x:v>0</x:v>
@@ -3578,16 +3581,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="M45" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="N45" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="O45" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P45" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q45" s="0" t="n">
         <x:v>0</x:v>
@@ -3596,13 +3599,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="S45" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="T45" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U45" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:21">
@@ -3622,7 +3625,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
         <x:v>0</x:v>
@@ -3643,7 +3646,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M46" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N46" s="0" t="n">
         <x:v>0</x:v>
@@ -3661,13 +3664,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S46" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T46" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U46" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:21">
@@ -3687,7 +3690,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>0</x:v>
@@ -3714,7 +3717,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="O47" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="P47" s="0" t="n">
         <x:v>0</x:v>
@@ -3732,7 +3735,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U47" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:21">
@@ -3743,7 +3746,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C48" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D48" s="0" t="n">
         <x:v>0</x:v>
@@ -3773,13 +3776,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M48" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N48" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O48" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="P48" s="0" t="n">
         <x:v>0</x:v>
@@ -3794,10 +3797,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T48" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U48" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:21">
@@ -3838,7 +3841,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M49" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N49" s="0" t="n">
         <x:v>0</x:v>
@@ -3856,13 +3859,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S49" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U49" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
@@ -3882,7 +3885,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
         <x:v>0</x:v>
@@ -3903,7 +3906,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M50" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="N50" s="0" t="n">
         <x:v>0</x:v>
@@ -3927,7 +3930,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U50" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:21">
@@ -4000,19 +4003,19 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="B52" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C52" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D52" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E52" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G52" s="0" t="n">
         <x:v>0</x:v>
@@ -4021,7 +4024,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I52" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J52" s="0" t="n">
         <x:v>0</x:v>
@@ -4030,34 +4033,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L52" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="M52" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N52" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O52" s="0" t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="P52" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q52" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="R52" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="S52" s="0" t="n">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="P52" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q52" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R52" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="S52" s="0" t="n">
-        <x:v>17</x:v>
-      </x:c>
       <x:c r="T52" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="U52" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:21">
@@ -4077,7 +4080,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F53" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G53" s="0" t="n">
         <x:v>0</x:v>
@@ -4122,7 +4125,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U53" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:21">
@@ -4228,13 +4231,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M55" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N55" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O55" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P55" s="0" t="n">
         <x:v>0</x:v>
@@ -4252,7 +4255,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U55" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:21">
@@ -4328,7 +4331,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C57" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D57" s="0" t="n">
         <x:v>0</x:v>
@@ -4337,16 +4340,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G57" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H57" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I57" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J57" s="0" t="n">
         <x:v>0</x:v>
@@ -4358,31 +4361,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M57" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="N57" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O57" s="0" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P57" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q57" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R57" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="S57" s="0" t="n">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="P57" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q57" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R57" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S57" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
       <x:c r="T57" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U57" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:21">
@@ -4390,7 +4393,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="B58" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C58" s="0" t="n">
         <x:v>0</x:v>
@@ -4399,10 +4402,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E58" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F58" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G58" s="0" t="n">
         <x:v>0</x:v>
@@ -4429,7 +4432,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O58" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="P58" s="0" t="n">
         <x:v>0</x:v>
@@ -4441,13 +4444,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S58" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T58" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U58" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">
@@ -4467,7 +4470,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F59" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G59" s="0" t="n">
         <x:v>0</x:v>
@@ -4476,7 +4479,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I59" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J59" s="0" t="n">
         <x:v>0</x:v>
@@ -4488,7 +4491,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M59" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N59" s="0" t="n">
         <x:v>0</x:v>
@@ -4512,7 +4515,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U59" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:21">
@@ -4523,7 +4526,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C60" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D60" s="0" t="n">
         <x:v>0</x:v>
@@ -4532,7 +4535,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G60" s="0" t="n">
         <x:v>0</x:v>
@@ -4553,13 +4556,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M60" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N60" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O60" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="P60" s="0" t="n">
         <x:v>2</x:v>
@@ -4577,7 +4580,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U60" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">
@@ -4585,19 +4588,19 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="B61" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C61" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
         <x:v>0</x:v>
@@ -4606,10 +4609,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I61" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="J61" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K61" s="0" t="n">
         <x:v>0</x:v>
@@ -4618,13 +4621,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="M61" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="N61" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O61" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P61" s="0" t="n">
         <x:v>1</x:v>
@@ -4636,13 +4639,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="S61" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="T61" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U61" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">
@@ -4662,7 +4665,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>0</x:v>
@@ -4689,7 +4692,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="O62" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P62" s="0" t="n">
         <x:v>0</x:v>
@@ -4707,7 +4710,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U62" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">
@@ -4718,7 +4721,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C63" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D63" s="0" t="n">
         <x:v>0</x:v>
@@ -4748,7 +4751,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M63" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N63" s="0" t="n">
         <x:v>0</x:v>
@@ -4772,7 +4775,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U63" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:21">
@@ -4783,7 +4786,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C64" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D64" s="0" t="n">
         <x:v>0</x:v>
@@ -4813,7 +4816,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M64" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N64" s="0" t="n">
         <x:v>0</x:v>
@@ -4822,7 +4825,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P64" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q64" s="0" t="n">
         <x:v>0</x:v>
@@ -4831,13 +4834,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S64" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T64" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U64" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
@@ -4848,7 +4851,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C65" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D65" s="0" t="n">
         <x:v>0</x:v>
@@ -4878,16 +4881,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M65" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N65" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O65" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P65" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q65" s="0" t="n">
         <x:v>0</x:v>
@@ -4896,13 +4899,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S65" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T65" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U65" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">
@@ -4922,7 +4925,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>0</x:v>
@@ -4931,7 +4934,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I66" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J66" s="0" t="n">
         <x:v>0</x:v>
@@ -4943,13 +4946,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M66" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O66" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P66" s="0" t="n">
         <x:v>0</x:v>
@@ -4975,10 +4978,10 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B67" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C67" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D67" s="0" t="n">
         <x:v>0</x:v>
@@ -4987,52 +4990,52 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G67" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H67" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I67" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J67" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K67" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L67" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M67" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="N67" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O67" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P67" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q67" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R67" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S67" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T67" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U67" s="1" t="n">
         <x:v>5</x:v>
-      </x:c>
-      <x:c r="G67" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H67" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I67" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="J67" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K67" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L67" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="M67" s="0" t="n">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="N67" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O67" s="0" t="n">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="P67" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q67" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R67" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="S67" s="0" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="T67" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="U67" s="1" t="n">
-        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:21">
@@ -5040,10 +5043,10 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D68" s="0" t="n">
         <x:v>0</x:v>
@@ -5052,7 +5055,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G68" s="0" t="n">
         <x:v>0</x:v>
@@ -5061,7 +5064,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J68" s="0" t="n">
         <x:v>0</x:v>
@@ -5070,34 +5073,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M68" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="N68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="P68" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="S68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="T68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U68" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:21">
@@ -5108,7 +5111,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C69" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D69" s="0" t="n">
         <x:v>0</x:v>
@@ -5138,7 +5141,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M69" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N69" s="0" t="n">
         <x:v>0</x:v>
@@ -5162,7 +5165,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U69" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:21">
@@ -5173,43 +5176,43 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C70" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D70" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E70" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F70" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G70" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H70" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I70" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J70" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K70" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L70" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M70" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D70" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E70" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F70" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G70" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H70" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I70" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="J70" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K70" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L70" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M70" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="N70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O70" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P70" s="0" t="n">
         <x:v>0</x:v>
@@ -5218,16 +5221,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R70" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S70" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U70" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:21">
@@ -5238,25 +5241,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C71" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H71" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I71" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J71" s="0" t="n">
         <x:v>0</x:v>
@@ -5265,34 +5268,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L71" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M71" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N71" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O71" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="P71" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R71" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S71" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T71" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U71" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:21">
@@ -5303,25 +5306,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C72" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I72" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J72" s="0" t="n">
         <x:v>0</x:v>
@@ -5330,34 +5333,99 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L72" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="M72" s="0" t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="N72" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O72" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="P72" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q72" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R72" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S72" s="0" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="T72" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="U72" s="1" t="n">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:21">
+      <x:c r="A73" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B73" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C73" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D73" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E73" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F73" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G73" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H73" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I73" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J73" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K73" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L73" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M73" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="N72" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O72" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P72" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q72" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R72" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S72" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T72" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U72" s="1" t="n">
-        <x:v>5</x:v>
+      <x:c r="N73" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O73" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P73" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q73" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R73" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S73" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T73" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U73" s="1" t="n">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -821,7 +821,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
         <x:v>0</x:v>
@@ -875,7 +875,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -1099,7 +1099,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I7" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="J7" s="0" t="n">
         <x:v>0</x:v>
@@ -1135,7 +1135,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U7" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:21">
@@ -1681,7 +1681,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I16" s="0" t="n">
         <x:v>6</x:v>
@@ -1720,7 +1720,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="U16" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:21">
@@ -2033,19 +2033,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q21" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R21" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S21" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T21" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U21" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:21">
@@ -2121,7 +2121,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
         <x:v>1</x:v>
@@ -2139,7 +2139,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="I23" s="0" t="n">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="J23" s="0" t="n">
         <x:v>2</x:v>
@@ -2151,7 +2151,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="M23" s="0" t="n">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="N23" s="0" t="n">
         <x:v>3</x:v>
@@ -2175,7 +2175,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="U23" s="1" t="n">
-        <x:v>986</x:v>
+        <x:v>987</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:21">
@@ -2585,7 +2585,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G30" s="0" t="n">
         <x:v>0</x:v>
@@ -2630,7 +2630,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U30" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:21">
@@ -3327,7 +3327,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O41" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="P41" s="0" t="n">
         <x:v>0</x:v>
@@ -3345,7 +3345,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U41" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
@@ -4228,7 +4228,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L55" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M55" s="0" t="n">
         <x:v>1</x:v>
@@ -4255,7 +4255,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U55" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -1675,7 +1675,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
@@ -1720,7 +1720,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="U16" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:21">
@@ -2157,7 +2157,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="O23" s="0" t="n">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="P23" s="0" t="n">
         <x:v>3</x:v>
@@ -2175,7 +2175,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="U23" s="1" t="n">
-        <x:v>987</x:v>
+        <x:v>986</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -1566,13 +1566,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M14" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N14" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="O14" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P14" s="0" t="n">
         <x:v>0</x:v>
@@ -1590,7 +1590,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U14" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:21">
@@ -2000,7 +2000,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G21" s="0" t="n">
         <x:v>0</x:v>
@@ -2045,7 +2045,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U21" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:21">
@@ -5046,7 +5046,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C68" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D68" s="0" t="n">
         <x:v>0</x:v>
@@ -5073,7 +5073,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L68" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M68" s="0" t="n">
         <x:v>23</x:v>
@@ -5100,7 +5100,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="U68" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -2151,7 +2151,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="M23" s="0" t="n">
-        <x:v>151</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="N23" s="0" t="n">
         <x:v>3</x:v>
@@ -2175,7 +2175,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="U23" s="1" t="n">
-        <x:v>986</x:v>
+        <x:v>985</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:21">
@@ -4405,7 +4405,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F58" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G58" s="0" t="n">
         <x:v>0</x:v>
@@ -4450,7 +4450,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U58" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">
@@ -4591,7 +4591,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C61" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D61" s="0" t="n">
         <x:v>0</x:v>
@@ -4600,7 +4600,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
         <x:v>0</x:v>
@@ -4645,7 +4645,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="U61" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -3625,7 +3625,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
         <x:v>0</x:v>
@@ -3670,7 +3670,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U46" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:21">
@@ -4367,7 +4367,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O57" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="P57" s="0" t="n">
         <x:v>0</x:v>
@@ -4385,7 +4385,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U57" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -851,7 +851,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>106</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -875,7 +875,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -2157,7 +2157,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="O23" s="0" t="n">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="P23" s="0" t="n">
         <x:v>3</x:v>
@@ -2175,7 +2175,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="U23" s="1" t="n">
-        <x:v>985</x:v>
+        <x:v>986</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:21">
@@ -3646,7 +3646,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M46" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N46" s="0" t="n">
         <x:v>0</x:v>
@@ -3670,7 +3670,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U46" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -851,7 +851,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -875,7 +875,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -1468,64 +1468,64 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B13" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H13" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I13" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J13" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K13" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L13" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M13" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N13" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="O13" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="P13" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q13" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="R13" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="S13" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="T13" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="U13" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:21">
@@ -3906,7 +3906,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M50" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N50" s="0" t="n">
         <x:v>0</x:v>
@@ -3930,7 +3930,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U50" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:21">
@@ -4201,7 +4201,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C55" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D55" s="0" t="n">
         <x:v>0</x:v>
@@ -4255,7 +4255,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U55" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:21">
@@ -4556,7 +4556,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M60" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N60" s="0" t="n">
         <x:v>0</x:v>
@@ -4580,7 +4580,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U60" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -1247,7 +1247,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O9" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="P9" s="0" t="n">
         <x:v>0</x:v>
@@ -1265,7 +1265,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U9" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:21">
@@ -4237,7 +4237,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O55" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P55" s="0" t="n">
         <x:v>0</x:v>
@@ -4255,7 +4255,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U55" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:21">
@@ -4367,7 +4367,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O57" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="P57" s="0" t="n">
         <x:v>0</x:v>
@@ -4385,7 +4385,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U57" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -4358,25 +4358,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M57" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="N57" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O57" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="P57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q57" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="R57" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="S57" s="0" t="n">
         <x:v>13</x:v>
@@ -4385,7 +4385,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U57" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:21">
@@ -4556,7 +4556,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M60" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N60" s="0" t="n">
         <x:v>0</x:v>
@@ -4580,7 +4580,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U60" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">
@@ -5315,7 +5315,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>0</x:v>
@@ -5336,31 +5336,31 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="M72" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N72" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O72" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="P72" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q72" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R72" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S72" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="T72" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="P72" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q72" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R72" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S72" s="0" t="n">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="T72" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
       <x:c r="U72" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>County</x:t>
   </x:si>
@@ -263,6 +263,9 @@
   </x:si>
   <x:si>
     <x:t>Stevens</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Swift</x:t>
   </x:si>
   <x:si>
     <x:t>Todd</x:t>
@@ -673,7 +676,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:U73"/>
+  <x:dimension ref="A1:U74"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -786,7 +789,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M2" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="N2" s="0" t="n">
         <x:v>0</x:v>
@@ -804,13 +807,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S2" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T2" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U2" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:21">
@@ -821,25 +824,25 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
         <x:v>2</x:v>
@@ -851,7 +854,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -860,22 +863,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R3" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="S3" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="T3" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -895,7 +898,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>0</x:v>
@@ -916,13 +919,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M4" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N4" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O4" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="P4" s="0" t="n">
         <x:v>0</x:v>
@@ -931,7 +934,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R4" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S4" s="0" t="n">
         <x:v>7</x:v>
@@ -940,7 +943,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U4" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:21">
@@ -951,7 +954,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
         <x:v>0</x:v>
@@ -987,7 +990,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="O5" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="P5" s="0" t="n">
         <x:v>0</x:v>
@@ -999,13 +1002,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="S5" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="T5" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="U5" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:21">
@@ -1034,7 +1037,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I6" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J6" s="0" t="n">
         <x:v>0</x:v>
@@ -1070,7 +1073,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U6" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:21">
@@ -1081,7 +1084,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
         <x:v>0</x:v>
@@ -1090,7 +1093,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>0</x:v>
@@ -1099,7 +1102,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I7" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J7" s="0" t="n">
         <x:v>0</x:v>
@@ -1108,10 +1111,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L7" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M7" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="N7" s="0" t="n">
         <x:v>0</x:v>
@@ -1132,10 +1135,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T7" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U7" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:21">
@@ -1155,7 +1158,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>0</x:v>
@@ -1194,13 +1197,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S8" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T8" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U8" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:21">
@@ -1214,7 +1217,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
         <x:v>1</x:v>
@@ -1241,7 +1244,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M9" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N9" s="0" t="n">
         <x:v>0</x:v>
@@ -1262,10 +1265,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T9" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="U9" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:21">
@@ -1306,7 +1309,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="M10" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="N10" s="0" t="n">
         <x:v>2</x:v>
@@ -1324,13 +1327,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S10" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="T10" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U10" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:21">
@@ -1371,10 +1374,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M11" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="N11" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O11" s="0" t="n">
         <x:v>0</x:v>
@@ -1386,16 +1389,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R11" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S11" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="T11" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U11" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:21">
@@ -1454,13 +1457,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S12" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="T12" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="U12" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:21">
@@ -1501,13 +1504,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M13" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="N13" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="O13" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P13" s="0" t="n">
         <x:v>0</x:v>
@@ -1525,7 +1528,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="U13" s="1" t="n">
-        <x:v>112</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:21">
@@ -1566,7 +1569,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M14" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N14" s="0" t="n">
         <x:v>1</x:v>
@@ -1590,7 +1593,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U14" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:21">
@@ -1598,10 +1601,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="B15" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C15" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
         <x:v>3</x:v>
@@ -1610,13 +1613,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I15" s="0" t="n">
         <x:v>8</x:v>
@@ -1628,10 +1631,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L15" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M15" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="N15" s="0" t="n">
         <x:v>1</x:v>
@@ -1649,13 +1652,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S15" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="T15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U15" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:21">
@@ -1663,7 +1666,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B16" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C16" s="0" t="n">
         <x:v>2</x:v>
@@ -1699,10 +1702,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="N16" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O16" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="P16" s="0" t="n">
         <x:v>1</x:v>
@@ -1717,10 +1720,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="T16" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="U16" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:21">
@@ -1767,7 +1770,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O17" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P17" s="0" t="n">
         <x:v>0</x:v>
@@ -1785,7 +1788,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U17" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:21">
@@ -1796,7 +1799,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C18" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D18" s="0" t="n">
         <x:v>0</x:v>
@@ -1805,7 +1808,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
@@ -1826,13 +1829,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M18" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N18" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="O18" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P18" s="0" t="n">
         <x:v>0</x:v>
@@ -1850,7 +1853,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U18" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
@@ -1991,7 +1994,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C21" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D21" s="0" t="n">
         <x:v>0</x:v>
@@ -2000,7 +2003,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G21" s="0" t="n">
         <x:v>0</x:v>
@@ -2030,22 +2033,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P21" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q21" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="R21" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S21" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="T21" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U21" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:21">
@@ -2065,7 +2068,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G22" s="0" t="n">
         <x:v>0</x:v>
@@ -2110,7 +2113,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U22" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:21">
@@ -2118,28 +2121,28 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B23" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
-        <x:v>63</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>94</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G23" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H23" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I23" s="0" t="n">
-        <x:v>110</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="J23" s="0" t="n">
         <x:v>2</x:v>
@@ -2148,34 +2151,34 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="L23" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="M23" s="0" t="n">
-        <x:v>150</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="N23" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O23" s="0" t="n">
-        <x:v>124</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="P23" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q23" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R23" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="S23" s="0" t="n">
-        <x:v>176</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="T23" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="U23" s="1" t="n">
-        <x:v>986</x:v>
+        <x:v>1175</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:21">
@@ -2287,7 +2290,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O25" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="P25" s="0" t="n">
         <x:v>0</x:v>
@@ -2299,13 +2302,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S25" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T25" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U25" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:21">
@@ -2346,13 +2349,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M26" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N26" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O26" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P26" s="0" t="n">
         <x:v>0</x:v>
@@ -2370,7 +2373,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -2411,7 +2414,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M27" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="N27" s="0" t="n">
         <x:v>1</x:v>
@@ -2435,7 +2438,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
@@ -2547,7 +2550,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O29" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P29" s="0" t="n">
         <x:v>0</x:v>
@@ -2565,7 +2568,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U29" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:21">
@@ -2576,7 +2579,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C30" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D30" s="0" t="n">
         <x:v>0</x:v>
@@ -2585,7 +2588,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G30" s="0" t="n">
         <x:v>0</x:v>
@@ -2606,13 +2609,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M30" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="N30" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O30" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="P30" s="0" t="n">
         <x:v>0</x:v>
@@ -2630,7 +2633,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U30" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:21">
@@ -2780,13 +2783,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G33" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H33" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I33" s="0" t="n">
         <x:v>0</x:v>
@@ -2813,7 +2816,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q33" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R33" s="0" t="n">
         <x:v>0</x:v>
@@ -2825,7 +2828,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U33" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:21">
@@ -2907,7 +2910,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E35" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
         <x:v>4</x:v>
@@ -2919,7 +2922,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I35" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J35" s="0" t="n">
         <x:v>0</x:v>
@@ -2931,7 +2934,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M35" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N35" s="0" t="n">
         <x:v>0</x:v>
@@ -2955,7 +2958,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U35" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:21">
@@ -2996,7 +2999,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M36" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N36" s="0" t="n">
         <x:v>0</x:v>
@@ -3020,7 +3023,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U36" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:21">
@@ -3031,7 +3034,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C37" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D37" s="0" t="n">
         <x:v>0</x:v>
@@ -3058,10 +3061,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L37" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M37" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N37" s="0" t="n">
         <x:v>0</x:v>
@@ -3085,7 +3088,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U37" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:21">
@@ -3105,7 +3108,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>0</x:v>
@@ -3114,7 +3117,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I38" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J38" s="0" t="n">
         <x:v>0</x:v>
@@ -3132,7 +3135,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O38" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P38" s="0" t="n">
         <x:v>0</x:v>
@@ -3150,7 +3153,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U38" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:21">
@@ -3167,7 +3170,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
         <x:v>4</x:v>
@@ -3179,7 +3182,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I39" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J39" s="0" t="n">
         <x:v>0</x:v>
@@ -3191,7 +3194,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M39" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N39" s="0" t="n">
         <x:v>0</x:v>
@@ -3215,7 +3218,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U39" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:21">
@@ -3235,52 +3238,52 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I40" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J40" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K40" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L40" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M40" s="0" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="N40" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O40" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="P40" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q40" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R40" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S40" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="G40" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H40" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I40" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="J40" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K40" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L40" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M40" s="0" t="n">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="N40" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O40" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="P40" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q40" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R40" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S40" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="T40" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U40" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:21">
@@ -3300,7 +3303,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>0</x:v>
@@ -3309,7 +3312,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I41" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J41" s="0" t="n">
         <x:v>0</x:v>
@@ -3327,7 +3330,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O41" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="P41" s="0" t="n">
         <x:v>0</x:v>
@@ -3345,7 +3348,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U41" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
@@ -3371,7 +3374,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I42" s="0" t="n">
         <x:v>3</x:v>
@@ -3410,7 +3413,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U42" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:21">
@@ -3430,7 +3433,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G43" s="0" t="n">
         <x:v>0</x:v>
@@ -3439,7 +3442,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I43" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J43" s="0" t="n">
         <x:v>0</x:v>
@@ -3451,7 +3454,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M43" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="N43" s="0" t="n">
         <x:v>0</x:v>
@@ -3475,7 +3478,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U43" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:21">
@@ -3483,7 +3486,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="B44" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C44" s="0" t="n">
         <x:v>0</x:v>
@@ -3495,7 +3498,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>0</x:v>
@@ -3516,7 +3519,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M44" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N44" s="0" t="n">
         <x:v>1</x:v>
@@ -3540,7 +3543,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U44" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:21">
@@ -3548,10 +3551,10 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="B45" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C45" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D45" s="0" t="n">
         <x:v>0</x:v>
@@ -3560,7 +3563,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
         <x:v>1</x:v>
@@ -3569,7 +3572,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I45" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J45" s="0" t="n">
         <x:v>0</x:v>
@@ -3578,34 +3581,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L45" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M45" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N45" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O45" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="P45" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q45" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R45" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="S45" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="T45" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="U45" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:21">
@@ -3622,7 +3625,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
         <x:v>4</x:v>
@@ -3631,7 +3634,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H46" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I46" s="0" t="n">
         <x:v>3</x:v>
@@ -3646,16 +3649,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M46" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="N46" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O46" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="P46" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q46" s="0" t="n">
         <x:v>0</x:v>
@@ -3670,7 +3673,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U46" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:21">
@@ -3690,7 +3693,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>0</x:v>
@@ -3711,13 +3714,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M47" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N47" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="O47" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="P47" s="0" t="n">
         <x:v>0</x:v>
@@ -3735,7 +3738,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U47" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:21">
@@ -3746,7 +3749,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C48" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D48" s="0" t="n">
         <x:v>0</x:v>
@@ -3776,7 +3779,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M48" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="N48" s="0" t="n">
         <x:v>1</x:v>
@@ -3800,7 +3803,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U48" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:21">
@@ -3859,13 +3862,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S49" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U49" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
@@ -3885,13 +3888,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H50" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I50" s="0" t="n">
         <x:v>1</x:v>
@@ -3903,22 +3906,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L50" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M50" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N50" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O50" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P50" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q50" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R50" s="0" t="n">
         <x:v>0</x:v>
@@ -3930,7 +3933,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U50" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:21">
@@ -3971,7 +3974,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M51" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N51" s="0" t="n">
         <x:v>0</x:v>
@@ -3995,7 +3998,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U51" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:21">
@@ -4003,28 +4006,28 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="B52" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C52" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D52" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E52" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G52" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H52" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I52" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="J52" s="0" t="n">
         <x:v>0</x:v>
@@ -4033,19 +4036,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L52" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="M52" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="N52" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O52" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="P52" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q52" s="0" t="n">
         <x:v>2</x:v>
@@ -4054,13 +4057,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="S52" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="T52" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="U52" s="1" t="n">
-        <x:v>257</x:v>
+        <x:v>313</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:21">
@@ -4080,7 +4083,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F53" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G53" s="0" t="n">
         <x:v>0</x:v>
@@ -4101,7 +4104,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M53" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="N53" s="0" t="n">
         <x:v>0</x:v>
@@ -4119,13 +4122,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S53" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T53" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U53" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:21">
@@ -4231,13 +4234,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="M55" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N55" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O55" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="P55" s="0" t="n">
         <x:v>0</x:v>
@@ -4255,7 +4258,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U55" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:21">
@@ -4331,43 +4334,43 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C57" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D57" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G57" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H57" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I57" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="J57" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L57" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="M57" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="N57" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O57" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P57" s="0" t="n">
         <x:v>1</x:v>
@@ -4379,13 +4382,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="S57" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="T57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U57" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:21">
@@ -4414,7 +4417,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I58" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J58" s="0" t="n">
         <x:v>0</x:v>
@@ -4426,13 +4429,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M58" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N58" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O58" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="P58" s="0" t="n">
         <x:v>0</x:v>
@@ -4450,7 +4453,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U58" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">
@@ -4497,7 +4500,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O59" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P59" s="0" t="n">
         <x:v>0</x:v>
@@ -4515,7 +4518,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U59" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:21">
@@ -4526,7 +4529,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C60" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D60" s="0" t="n">
         <x:v>0</x:v>
@@ -4535,7 +4538,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G60" s="0" t="n">
         <x:v>0</x:v>
@@ -4544,7 +4547,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I60" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="J60" s="0" t="n">
         <x:v>0</x:v>
@@ -4556,13 +4559,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M60" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="N60" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O60" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="P60" s="0" t="n">
         <x:v>2</x:v>
@@ -4574,13 +4577,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S60" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="T60" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U60" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">
@@ -4588,28 +4591,28 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="B61" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C61" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F61" s="0" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G61" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H61" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F61" s="0" t="n">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G61" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H61" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="I61" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="J61" s="0" t="n">
         <x:v>1</x:v>
@@ -4621,13 +4624,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="M61" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N61" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O61" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="P61" s="0" t="n">
         <x:v>1</x:v>
@@ -4639,13 +4642,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="S61" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="T61" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="U61" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">
@@ -4686,7 +4689,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M62" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N62" s="0" t="n">
         <x:v>1</x:v>
@@ -4710,7 +4713,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U62" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">
@@ -4816,13 +4819,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M64" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N64" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O64" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P64" s="0" t="n">
         <x:v>0</x:v>
@@ -4840,7 +4843,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U64" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
@@ -4851,7 +4854,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C65" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D65" s="0" t="n">
         <x:v>0</x:v>
@@ -4881,7 +4884,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M65" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N65" s="0" t="n">
         <x:v>0</x:v>
@@ -4890,7 +4893,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P65" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q65" s="0" t="n">
         <x:v>0</x:v>
@@ -4899,7 +4902,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S65" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T65" s="0" t="n">
         <x:v>0</x:v>
@@ -4916,7 +4919,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C66" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D66" s="0" t="n">
         <x:v>0</x:v>
@@ -4946,16 +4949,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M66" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O66" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P66" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q66" s="0" t="n">
         <x:v>0</x:v>
@@ -4964,13 +4967,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S66" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U66" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:21">
@@ -4981,7 +4984,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C67" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D67" s="0" t="n">
         <x:v>0</x:v>
@@ -4990,7 +4993,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G67" s="0" t="n">
         <x:v>0</x:v>
@@ -4999,7 +5002,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I67" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J67" s="0" t="n">
         <x:v>0</x:v>
@@ -5011,13 +5014,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M67" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N67" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O67" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P67" s="0" t="n">
         <x:v>0</x:v>
@@ -5035,7 +5038,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U67" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:21">
@@ -5043,10 +5046,10 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B68" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C68" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D68" s="0" t="n">
         <x:v>0</x:v>
@@ -5055,7 +5058,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G68" s="0" t="n">
         <x:v>0</x:v>
@@ -5064,7 +5067,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I68" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J68" s="0" t="n">
         <x:v>0</x:v>
@@ -5073,34 +5076,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L68" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M68" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N68" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O68" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P68" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q68" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R68" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S68" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T68" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U68" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:21">
@@ -5108,28 +5111,28 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="B69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D69" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G69" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J69" s="0" t="n">
         <x:v>0</x:v>
@@ -5138,34 +5141,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M69" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="N69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="P69" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="S69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="T69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U69" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:21">
@@ -5176,7 +5179,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C70" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D70" s="0" t="n">
         <x:v>0</x:v>
@@ -5206,7 +5209,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M70" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N70" s="0" t="n">
         <x:v>0</x:v>
@@ -5230,7 +5233,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U70" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:21">
@@ -5241,7 +5244,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C71" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D71" s="0" t="n">
         <x:v>0</x:v>
@@ -5259,7 +5262,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I71" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J71" s="0" t="n">
         <x:v>0</x:v>
@@ -5271,13 +5274,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M71" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="N71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O71" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P71" s="0" t="n">
         <x:v>0</x:v>
@@ -5286,16 +5289,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R71" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S71" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U71" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:21">
@@ -5306,25 +5309,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C72" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I72" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J72" s="0" t="n">
         <x:v>0</x:v>
@@ -5333,34 +5336,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L72" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M72" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N72" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O72" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P72" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R72" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S72" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T72" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U72" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:21">
@@ -5371,25 +5374,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D73" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I73" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J73" s="0" t="n">
         <x:v>0</x:v>
@@ -5398,19 +5401,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="M73" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="N73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q73" s="0" t="n">
         <x:v>0</x:v>
@@ -5419,13 +5422,78 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="T73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U73" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>102</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:21">
+      <x:c r="A74" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B74" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C74" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D74" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E74" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F74" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G74" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H74" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I74" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J74" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K74" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L74" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M74" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="N74" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O74" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P74" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q74" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R74" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S74" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T74" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U74" s="1" t="n">
+        <x:v>8</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -963,7 +963,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>1</x:v>
@@ -1008,7 +1008,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U5" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:21">
@@ -1720,10 +1720,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="T16" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="U16" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:21">
@@ -1829,10 +1829,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M18" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N18" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O18" s="0" t="n">
         <x:v>8</x:v>
@@ -1847,13 +1847,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="S18" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="T18" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="U18" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
@@ -2121,10 +2121,10 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B23" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
         <x:v>1</x:v>
@@ -2133,7 +2133,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="G23" s="0" t="n">
         <x:v>0</x:v>
@@ -2160,7 +2160,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="O23" s="0" t="n">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="P23" s="0" t="n">
         <x:v>5</x:v>
@@ -2172,13 +2172,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="S23" s="0" t="n">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="T23" s="0" t="n">
         <x:v>104</x:v>
       </x:c>
       <x:c r="U23" s="1" t="n">
-        <x:v>1175</x:v>
+        <x:v>1182</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:21">
@@ -4169,7 +4169,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M54" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N54" s="0" t="n">
         <x:v>0</x:v>
@@ -4193,7 +4193,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U54" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:21">
@@ -4334,7 +4334,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C57" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D57" s="0" t="n">
         <x:v>0</x:v>
@@ -4349,7 +4349,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H57" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I57" s="0" t="n">
         <x:v>11</x:v>
@@ -4364,7 +4364,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M57" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="N57" s="0" t="n">
         <x:v>0</x:v>
@@ -4388,7 +4388,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U57" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:21">
@@ -5123,7 +5123,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G69" s="0" t="n">
         <x:v>0</x:v>
@@ -5144,7 +5144,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="M69" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="N69" s="0" t="n">
         <x:v>4</x:v>
@@ -5168,7 +5168,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U69" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:21">
@@ -5383,7 +5383,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
         <x:v>0</x:v>
@@ -5395,13 +5395,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="J73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K73" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L73" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M73" s="0" t="n">
         <x:v>38</x:v>
@@ -5422,13 +5422,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S73" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="T73" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="U73" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -1829,7 +1829,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M18" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N18" s="0" t="n">
         <x:v>2</x:v>
@@ -1853,7 +1853,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U18" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
@@ -2121,7 +2121,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B23" s="0" t="n">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
         <x:v>80</x:v>
@@ -2133,7 +2133,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G23" s="0" t="n">
         <x:v>0</x:v>
@@ -2142,7 +2142,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="I23" s="0" t="n">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="J23" s="0" t="n">
         <x:v>2</x:v>
@@ -2154,7 +2154,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="M23" s="0" t="n">
-        <x:v>178</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="N23" s="0" t="n">
         <x:v>10</x:v>
@@ -2169,16 +2169,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R23" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="S23" s="0" t="n">
-        <x:v>202</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="T23" s="0" t="n">
         <x:v>104</x:v>
       </x:c>
       <x:c r="U23" s="1" t="n">
-        <x:v>1182</x:v>
+        <x:v>1194</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:21">
@@ -2349,7 +2349,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M26" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N26" s="0" t="n">
         <x:v>0</x:v>
@@ -2373,7 +2373,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -4240,7 +4240,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O55" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P55" s="0" t="n">
         <x:v>0</x:v>
@@ -4258,7 +4258,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U55" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:21">
@@ -4689,7 +4689,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M62" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N62" s="0" t="n">
         <x:v>1</x:v>
@@ -4713,7 +4713,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U62" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -756,7 +756,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
         <x:v>0</x:v>
@@ -810,10 +810,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T2" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U2" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:21">
@@ -4334,7 +4334,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C57" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D57" s="0" t="n">
         <x:v>0</x:v>
@@ -4370,7 +4370,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O57" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P57" s="0" t="n">
         <x:v>1</x:v>
@@ -4388,7 +4388,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U57" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -1699,7 +1699,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M16" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="N16" s="0" t="n">
         <x:v>2</x:v>
@@ -1723,7 +1723,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="U16" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:21">
@@ -2160,7 +2160,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="O23" s="0" t="n">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="P23" s="0" t="n">
         <x:v>5</x:v>
@@ -2178,7 +2178,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="U23" s="1" t="n">
-        <x:v>1194</x:v>
+        <x:v>1195</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:21">
@@ -2370,10 +2370,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -1720,10 +1720,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="T16" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="U16" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:21">
@@ -4352,7 +4352,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I57" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="J57" s="0" t="n">
         <x:v>0</x:v>
@@ -4388,7 +4388,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U57" s="1" t="n">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:21">
@@ -4399,7 +4399,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C58" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D58" s="0" t="n">
         <x:v>0</x:v>
@@ -4417,7 +4417,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I58" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J58" s="0" t="n">
         <x:v>0</x:v>
@@ -4435,7 +4435,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="O58" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="P58" s="0" t="n">
         <x:v>0</x:v>
@@ -4453,7 +4453,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U58" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -1829,7 +1829,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M18" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="N18" s="0" t="n">
         <x:v>2</x:v>
@@ -1853,7 +1853,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U18" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
@@ -2124,7 +2124,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
         <x:v>1</x:v>
@@ -2133,7 +2133,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G23" s="0" t="n">
         <x:v>0</x:v>
@@ -2178,7 +2178,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="U23" s="1" t="n">
-        <x:v>1195</x:v>
+        <x:v>1197</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:21">
@@ -3117,7 +3117,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I38" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J38" s="0" t="n">
         <x:v>0</x:v>
@@ -3129,7 +3129,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="M38" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="N38" s="0" t="n">
         <x:v>0</x:v>
@@ -3153,7 +3153,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U38" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:21">
@@ -4240,7 +4240,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O55" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="P55" s="0" t="n">
         <x:v>0</x:v>
@@ -4258,7 +4258,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U55" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:21">
@@ -4334,7 +4334,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C57" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D57" s="0" t="n">
         <x:v>0</x:v>
@@ -4364,7 +4364,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M57" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="N57" s="0" t="n">
         <x:v>0</x:v>
@@ -4388,7 +4388,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U57" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:21">
@@ -4529,7 +4529,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C60" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D60" s="0" t="n">
         <x:v>0</x:v>
@@ -4583,7 +4583,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U60" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>County</x:t>
   </x:si>
@@ -206,6 +206,9 @@
   </x:si>
   <x:si>
     <x:t>Nobles</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Norman</x:t>
   </x:si>
   <x:si>
     <x:t>Olmsted</x:t>
@@ -676,7 +679,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:U74"/>
+  <x:dimension ref="A1:U75"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -821,40 +824,40 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="n">
+      <x:c r="I3" s="0" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L3" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="I3" s="0" t="n">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="J3" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K3" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L3" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>117</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -869,16 +872,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="R3" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="S3" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="T3" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>210</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -895,38 +898,38 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="N4" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O4" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J4" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K4" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L4" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M4" s="0" t="n">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="N4" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O4" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="P4" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -937,13 +940,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="S4" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="T4" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="U4" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:21">
@@ -963,7 +966,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>1</x:v>
@@ -987,10 +990,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="N5" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O5" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="P5" s="0" t="n">
         <x:v>0</x:v>
@@ -1002,13 +1005,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="S5" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="T5" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="U5" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:21">
@@ -1093,7 +1096,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>0</x:v>
@@ -1102,7 +1105,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I7" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="J7" s="0" t="n">
         <x:v>0</x:v>
@@ -1111,10 +1114,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L7" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M7" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N7" s="0" t="n">
         <x:v>0</x:v>
@@ -1132,13 +1135,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T7" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="U7" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:21">
@@ -1158,7 +1161,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>0</x:v>
@@ -1179,7 +1182,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M8" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N8" s="0" t="n">
         <x:v>0</x:v>
@@ -1191,7 +1194,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q8" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R8" s="0" t="n">
         <x:v>0</x:v>
@@ -1203,7 +1206,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U8" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:21">
@@ -1223,7 +1226,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>1</x:v>
@@ -1244,7 +1247,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M9" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="N9" s="0" t="n">
         <x:v>0</x:v>
@@ -1268,7 +1271,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="U9" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:21">
@@ -1276,7 +1279,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
         <x:v>0</x:v>
@@ -1288,7 +1291,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>0</x:v>
@@ -1306,7 +1309,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L10" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="M10" s="0" t="n">
         <x:v>7</x:v>
@@ -1315,7 +1318,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="O10" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P10" s="0" t="n">
         <x:v>0</x:v>
@@ -1333,7 +1336,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U10" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:21">
@@ -1374,7 +1377,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M11" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N11" s="0" t="n">
         <x:v>5</x:v>
@@ -1392,13 +1395,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="S11" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="T11" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U11" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:21">
@@ -1471,13 +1474,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B13" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
         <x:v>4</x:v>
@@ -1495,7 +1498,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J13" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="K13" s="0" t="n">
         <x:v>0</x:v>
@@ -1504,19 +1507,19 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M13" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="N13" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O13" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P13" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q13" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="R13" s="0" t="n">
         <x:v>4</x:v>
@@ -1528,7 +1531,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="U13" s="1" t="n">
-        <x:v>120</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:21">
@@ -1610,19 +1613,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E15" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="n">
         <x:v>11</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I15" s="0" t="n">
-        <x:v>8</x:v>
       </x:c>
       <x:c r="J15" s="0" t="n">
         <x:v>0</x:v>
@@ -1634,7 +1637,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="M15" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N15" s="0" t="n">
         <x:v>1</x:v>
@@ -1658,7 +1661,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U15" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:21">
@@ -1678,7 +1681,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
@@ -1687,7 +1690,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I16" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J16" s="0" t="n">
         <x:v>0</x:v>
@@ -1699,31 +1702,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M16" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="N16" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="O16" s="0" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="P16" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q16" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R16" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S16" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="N16" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="O16" s="0" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="P16" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q16" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R16" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S16" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="T16" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="U16" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:21">
@@ -1808,7 +1811,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
@@ -1829,13 +1832,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M18" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N18" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="O18" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="P18" s="0" t="n">
         <x:v>0</x:v>
@@ -1853,7 +1856,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U18" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
@@ -2003,7 +2006,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G21" s="0" t="n">
         <x:v>0</x:v>
@@ -2012,7 +2015,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I21" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J21" s="0" t="n">
         <x:v>0</x:v>
@@ -2024,7 +2027,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M21" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N21" s="0" t="n">
         <x:v>0</x:v>
@@ -2048,7 +2051,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U21" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:21">
@@ -2059,7 +2062,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C22" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D22" s="0" t="n">
         <x:v>0</x:v>
@@ -2089,7 +2092,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M22" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="N22" s="0" t="n">
         <x:v>0</x:v>
@@ -2107,13 +2110,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S22" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T22" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="U22" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:21">
@@ -2121,28 +2124,28 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B23" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G23" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H23" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I23" s="0" t="n">
-        <x:v>132</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="J23" s="0" t="n">
         <x:v>2</x:v>
@@ -2154,13 +2157,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="M23" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="N23" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="O23" s="0" t="n">
-        <x:v>147</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="P23" s="0" t="n">
         <x:v>5</x:v>
@@ -2169,16 +2172,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R23" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="S23" s="0" t="n">
-        <x:v>205</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="T23" s="0" t="n">
-        <x:v>104</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="U23" s="1" t="n">
-        <x:v>1197</x:v>
+        <x:v>1389</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:21">
@@ -2290,7 +2293,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O25" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P25" s="0" t="n">
         <x:v>0</x:v>
@@ -2308,7 +2311,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U25" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:21">
@@ -2337,7 +2340,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
         <x:v>0</x:v>
@@ -2349,7 +2352,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M26" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="N26" s="0" t="n">
         <x:v>0</x:v>
@@ -2367,13 +2370,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -2411,7 +2414,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L27" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M27" s="0" t="n">
         <x:v>15</x:v>
@@ -2438,7 +2441,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
@@ -2520,7 +2523,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
         <x:v>0</x:v>
@@ -2562,13 +2565,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S29" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T29" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U29" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:21">
@@ -2597,7 +2600,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I30" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="J30" s="0" t="n">
         <x:v>0</x:v>
@@ -2609,13 +2612,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M30" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N30" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O30" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="P30" s="0" t="n">
         <x:v>0</x:v>
@@ -2633,7 +2636,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U30" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:21">
@@ -2680,7 +2683,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O31" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P31" s="0" t="n">
         <x:v>0</x:v>
@@ -2698,7 +2701,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U31" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:21">
@@ -2771,7 +2774,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="B33" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C33" s="0" t="n">
         <x:v>1</x:v>
@@ -2810,7 +2813,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O33" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P33" s="0" t="n">
         <x:v>0</x:v>
@@ -2828,7 +2831,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U33" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:21">
@@ -2922,7 +2925,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I35" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J35" s="0" t="n">
         <x:v>0</x:v>
@@ -2934,13 +2937,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M35" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N35" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O35" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P35" s="0" t="n">
         <x:v>0</x:v>
@@ -2958,7 +2961,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U35" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:21">
@@ -2975,13 +2978,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
         <x:v>0</x:v>
@@ -2996,10 +2999,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L36" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M36" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N36" s="0" t="n">
         <x:v>0</x:v>
@@ -3023,7 +3026,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U36" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:21">
@@ -3061,10 +3064,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L37" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M37" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="N37" s="0" t="n">
         <x:v>0</x:v>
@@ -3082,13 +3085,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S37" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T37" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="U37" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:21">
@@ -3099,7 +3102,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C38" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D38" s="0" t="n">
         <x:v>0</x:v>
@@ -3129,13 +3132,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="M38" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N38" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O38" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P38" s="0" t="n">
         <x:v>0</x:v>
@@ -3153,7 +3156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U38" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:21">
@@ -3173,7 +3176,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G39" s="0" t="n">
         <x:v>0</x:v>
@@ -3218,7 +3221,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U39" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:21">
@@ -3235,16 +3238,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I40" s="0" t="n">
         <x:v>8</x:v>
@@ -3256,16 +3259,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L40" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M40" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="N40" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O40" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="P40" s="0" t="n">
         <x:v>1</x:v>
@@ -3277,13 +3280,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="S40" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="T40" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="U40" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:21">
@@ -3330,7 +3333,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O41" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="P41" s="0" t="n">
         <x:v>0</x:v>
@@ -3345,10 +3348,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T41" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U41" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
@@ -3374,7 +3377,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I42" s="0" t="n">
         <x:v>3</x:v>
@@ -3389,13 +3392,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M42" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="N42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O42" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="P42" s="0" t="n">
         <x:v>0</x:v>
@@ -3413,7 +3416,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U42" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:21">
@@ -3424,38 +3427,38 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C43" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D43" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G43" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I43" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="J43" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K43" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L43" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M43" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="G43" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H43" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I43" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="J43" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K43" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L43" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M43" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
       <x:c r="N43" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -3463,7 +3466,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P43" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q43" s="0" t="n">
         <x:v>2</x:v>
@@ -3478,7 +3481,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U43" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:21">
@@ -3486,7 +3489,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="B44" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C44" s="0" t="n">
         <x:v>0</x:v>
@@ -3498,7 +3501,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>0</x:v>
@@ -3519,7 +3522,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M44" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="N44" s="0" t="n">
         <x:v>1</x:v>
@@ -3537,13 +3540,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S44" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T44" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U44" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:21">
@@ -3551,28 +3554,28 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="B45" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C45" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D45" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H45" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I45" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J45" s="0" t="n">
         <x:v>0</x:v>
@@ -3581,34 +3584,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L45" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M45" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N45" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O45" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P45" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q45" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R45" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S45" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T45" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U45" s="1" t="n">
-        <x:v>220</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:21">
@@ -3616,64 +3619,64 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="B46" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C46" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D46" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="n">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I46" s="0" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="J46" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K46" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L46" s="0" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M46" s="0" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="N46" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="O46" s="0" t="n">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="P46" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="Q46" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R46" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F46" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="G46" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H46" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I46" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="J46" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K46" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L46" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="M46" s="0" t="n">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="N46" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O46" s="0" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="P46" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q46" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R46" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="S46" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="T46" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="U46" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:21">
@@ -3684,16 +3687,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C47" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>0</x:v>
@@ -3702,7 +3705,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="I47" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J47" s="0" t="n">
         <x:v>0</x:v>
@@ -3711,19 +3714,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L47" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M47" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="N47" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O47" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="P47" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q47" s="0" t="n">
         <x:v>0</x:v>
@@ -3732,13 +3735,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S47" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U47" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:21">
@@ -3758,16 +3761,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I48" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J48" s="0" t="n">
         <x:v>0</x:v>
@@ -3779,13 +3782,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M48" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N48" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="O48" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="P48" s="0" t="n">
         <x:v>0</x:v>
@@ -3797,13 +3800,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S48" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T48" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U48" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:21">
@@ -3823,7 +3826,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>0</x:v>
@@ -3832,7 +3835,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I49" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J49" s="0" t="n">
         <x:v>0</x:v>
@@ -3844,16 +3847,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M49" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="N49" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O49" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="P49" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q49" s="0" t="n">
         <x:v>0</x:v>
@@ -3862,13 +3865,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S49" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T49" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U49" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
@@ -3879,7 +3882,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C50" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D50" s="0" t="n">
         <x:v>0</x:v>
@@ -3888,16 +3891,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H50" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I50" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J50" s="0" t="n">
         <x:v>0</x:v>
@@ -3906,34 +3909,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L50" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M50" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="N50" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O50" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P50" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q50" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R50" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S50" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T50" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U50" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:21">
@@ -3953,16 +3956,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G51" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H51" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I51" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J51" s="0" t="n">
         <x:v>0</x:v>
@@ -3971,22 +3974,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L51" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M51" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="N51" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O51" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P51" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q51" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R51" s="0" t="n">
         <x:v>0</x:v>
@@ -3998,7 +4001,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U51" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:21">
@@ -4006,28 +4009,28 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="B52" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C52" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D52" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E52" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G52" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H52" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I52" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J52" s="0" t="n">
         <x:v>0</x:v>
@@ -4036,34 +4039,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L52" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M52" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N52" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O52" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P52" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q52" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R52" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S52" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T52" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U52" s="1" t="n">
-        <x:v>313</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:21">
@@ -4071,28 +4074,28 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="B53" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C53" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D53" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E53" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F53" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G53" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H53" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I53" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="J53" s="0" t="n">
         <x:v>0</x:v>
@@ -4101,34 +4104,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L53" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="M53" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="N53" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O53" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P53" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="Q53" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="R53" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="S53" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="T53" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="U53" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>365</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:21">
@@ -4136,10 +4139,10 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="B54" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C54" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D54" s="0" t="n">
         <x:v>0</x:v>
@@ -4148,7 +4151,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F54" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G54" s="0" t="n">
         <x:v>0</x:v>
@@ -4157,7 +4160,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I54" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J54" s="0" t="n">
         <x:v>0</x:v>
@@ -4166,34 +4169,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L54" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M54" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="N54" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O54" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P54" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q54" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R54" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S54" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="N54" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O54" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="P54" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q54" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R54" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="S54" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="T54" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U54" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:21">
@@ -4201,10 +4204,10 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="B55" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C55" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D55" s="0" t="n">
         <x:v>0</x:v>
@@ -4213,7 +4216,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G55" s="0" t="n">
         <x:v>0</x:v>
@@ -4231,16 +4234,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L55" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M55" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="M55" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="N55" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O55" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P55" s="0" t="n">
         <x:v>0</x:v>
@@ -4249,16 +4252,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R55" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S55" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T55" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U55" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:21">
@@ -4269,7 +4272,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C56" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D56" s="0" t="n">
         <x:v>0</x:v>
@@ -4278,7 +4281,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F56" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G56" s="0" t="n">
         <x:v>0</x:v>
@@ -4296,16 +4299,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L56" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M56" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N56" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O56" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="P56" s="0" t="n">
         <x:v>0</x:v>
@@ -4323,7 +4326,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U56" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
@@ -4331,64 +4334,64 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="B57" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C57" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D57" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G57" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H57" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I57" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J57" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K57" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L57" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M57" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N57" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O57" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P57" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q57" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R57" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S57" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T57" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U57" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:21">
@@ -4399,7 +4402,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C58" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D58" s="0" t="n">
         <x:v>0</x:v>
@@ -4408,52 +4411,52 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F58" s="0" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H58" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G58" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H58" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="I58" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="J58" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K58" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L58" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M58" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N58" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O58" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P58" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q58" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R58" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="S58" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="T58" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U58" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">
@@ -4461,19 +4464,19 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="B59" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C59" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D59" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E59" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F59" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G59" s="0" t="n">
         <x:v>0</x:v>
@@ -4482,7 +4485,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I59" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J59" s="0" t="n">
         <x:v>0</x:v>
@@ -4491,16 +4494,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L59" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M59" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N59" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O59" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="P59" s="0" t="n">
         <x:v>0</x:v>
@@ -4512,13 +4515,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S59" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T59" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U59" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:21">
@@ -4529,16 +4532,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C60" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D60" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G60" s="0" t="n">
         <x:v>0</x:v>
@@ -4547,7 +4550,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I60" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J60" s="0" t="n">
         <x:v>0</x:v>
@@ -4556,19 +4559,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L60" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M60" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N60" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O60" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P60" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q60" s="0" t="n">
         <x:v>0</x:v>
@@ -4577,13 +4580,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S60" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T60" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U60" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">
@@ -4591,64 +4594,64 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="B61" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C61" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D61" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E61" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F61" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D61" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E61" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F61" s="0" t="n">
-        <x:v>25</x:v>
-      </x:c>
       <x:c r="G61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H61" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I61" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J61" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L61" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M61" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N61" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O61" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="P61" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="Q61" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R61" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S61" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="O61" s="0" t="n">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="P61" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q61" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R61" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S61" s="0" t="n">
-        <x:v>25</x:v>
-      </x:c>
       <x:c r="T61" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U61" s="1" t="n">
-        <x:v>183</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">
@@ -4656,64 +4659,64 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="B62" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C62" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H62" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I62" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J62" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L62" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="M62" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="N62" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="O62" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="P62" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R62" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S62" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="T62" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="U62" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">
@@ -4724,7 +4727,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C63" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D63" s="0" t="n">
         <x:v>0</x:v>
@@ -4733,7 +4736,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
         <x:v>0</x:v>
@@ -4751,16 +4754,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L63" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M63" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N63" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O63" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P63" s="0" t="n">
         <x:v>0</x:v>
@@ -4772,13 +4775,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S63" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T63" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U63" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:21">
@@ -4789,7 +4792,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C64" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D64" s="0" t="n">
         <x:v>0</x:v>
@@ -4819,13 +4822,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M64" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N64" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O64" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P64" s="0" t="n">
         <x:v>0</x:v>
@@ -4843,7 +4846,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U64" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
@@ -4884,13 +4887,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M65" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N65" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O65" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P65" s="0" t="n">
         <x:v>0</x:v>
@@ -4908,7 +4911,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U65" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">
@@ -4919,7 +4922,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C66" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D66" s="0" t="n">
         <x:v>0</x:v>
@@ -4937,7 +4940,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I66" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J66" s="0" t="n">
         <x:v>0</x:v>
@@ -4949,7 +4952,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M66" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N66" s="0" t="n">
         <x:v>0</x:v>
@@ -4958,7 +4961,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P66" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q66" s="0" t="n">
         <x:v>0</x:v>
@@ -4967,13 +4970,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S66" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U66" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:21">
@@ -4984,7 +4987,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C67" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D67" s="0" t="n">
         <x:v>0</x:v>
@@ -5014,16 +5017,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M67" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N67" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O67" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P67" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q67" s="0" t="n">
         <x:v>0</x:v>
@@ -5032,13 +5035,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S67" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T67" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U67" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:21">
@@ -5049,7 +5052,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C68" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D68" s="0" t="n">
         <x:v>0</x:v>
@@ -5067,7 +5070,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I68" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J68" s="0" t="n">
         <x:v>0</x:v>
@@ -5079,13 +5082,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M68" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N68" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P68" s="0" t="n">
         <x:v>0</x:v>
@@ -5100,10 +5103,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U68" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:21">
@@ -5111,64 +5114,64 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="B69" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C69" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D69" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E69" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G69" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H69" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I69" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K69" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L69" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M69" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N69" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O69" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P69" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q69" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R69" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S69" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T69" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U69" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:21">
@@ -5176,64 +5179,64 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="M70" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="P70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="S70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="T70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U70" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:21">
@@ -5244,7 +5247,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C71" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D71" s="0" t="n">
         <x:v>0</x:v>
@@ -5274,7 +5277,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M71" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N71" s="0" t="n">
         <x:v>0</x:v>
@@ -5298,7 +5301,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U71" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:21">
@@ -5309,7 +5312,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C72" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D72" s="0" t="n">
         <x:v>0</x:v>
@@ -5327,7 +5330,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I72" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J72" s="0" t="n">
         <x:v>0</x:v>
@@ -5339,13 +5342,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M72" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O72" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P72" s="0" t="n">
         <x:v>0</x:v>
@@ -5354,16 +5357,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R72" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S72" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U72" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:21">
@@ -5374,61 +5377,61 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C73" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D73" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H73" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I73" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J73" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K73" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L73" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M73" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N73" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O73" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P73" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q73" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S73" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T73" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U73" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:21">
@@ -5436,49 +5439,49 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D74" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G74" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I74" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K74" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M74" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q74" s="0" t="n">
         <x:v>0</x:v>
@@ -5487,13 +5490,78 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="T74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U74" s="1" t="n">
+        <x:v>133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:21">
+      <x:c r="A75" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I75" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M75" s="0" t="n">
         <x:v>8</x:v>
+      </x:c>
+      <x:c r="N75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U75" s="1" t="n">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -1708,7 +1708,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="O16" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="P16" s="0" t="n">
         <x:v>1</x:v>
@@ -1726,7 +1726,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="U16" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:21">
@@ -1832,7 +1832,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M18" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="N18" s="0" t="n">
         <x:v>2</x:v>
@@ -1856,7 +1856,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U18" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
@@ -3132,7 +3132,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="M38" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="N38" s="0" t="n">
         <x:v>0</x:v>
@@ -3156,7 +3156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U38" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:21">
@@ -3241,7 +3241,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>0</x:v>
@@ -3286,7 +3286,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U40" s="1" t="n">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:21">
@@ -4432,7 +4432,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M58" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N58" s="0" t="n">
         <x:v>0</x:v>
@@ -4456,7 +4456,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U58" s="1" t="n">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">
@@ -4633,7 +4633,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O61" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="P61" s="0" t="n">
         <x:v>2</x:v>
@@ -4651,7 +4651,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U61" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">
@@ -5200,7 +5200,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I70" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="J70" s="0" t="n">
         <x:v>1</x:v>
@@ -5236,7 +5236,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U70" s="1" t="n">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -1832,7 +1832,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M18" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="N18" s="0" t="n">
         <x:v>2</x:v>
@@ -1856,7 +1856,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U18" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
@@ -2145,7 +2145,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="I23" s="0" t="n">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="J23" s="0" t="n">
         <x:v>2</x:v>
@@ -2157,7 +2157,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="M23" s="0" t="n">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="N23" s="0" t="n">
         <x:v>10</x:v>
@@ -2166,7 +2166,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="P23" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q23" s="0" t="n">
         <x:v>0</x:v>
@@ -2181,7 +2181,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="U23" s="1" t="n">
-        <x:v>1389</x:v>
+        <x:v>1392</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <x:si>
     <x:t>County</x:t>
   </x:si>
@@ -140,6 +140,9 @@
   </x:si>
   <x:si>
     <x:t>Goodhue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grant</x:t>
   </x:si>
   <x:si>
     <x:t>Hennepin</x:t>
@@ -679,7 +682,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:U75"/>
+  <x:dimension ref="A1:U76"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2124,64 +2127,64 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B23" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E23" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>134</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G23" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H23" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I23" s="0" t="n">
-        <x:v>158</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J23" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K23" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L23" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M23" s="0" t="n">
-        <x:v>218</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N23" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O23" s="0" t="n">
-        <x:v>186</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P23" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q23" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R23" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S23" s="0" t="n">
-        <x:v>239</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T23" s="0" t="n">
-        <x:v>122</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U23" s="1" t="n">
-        <x:v>1392</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:21">
@@ -2189,64 +2192,64 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B24" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="I24" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="J24" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K24" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L24" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="M24" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="N24" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O24" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="P24" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q24" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R24" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="S24" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="T24" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>1393</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
@@ -2257,61 +2260,61 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C25" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D25" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J25" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K25" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L25" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M25" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N25" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O25" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="P25" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q25" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R25" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S25" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T25" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U25" s="1" t="n">
         <x:v>6</x:v>
-      </x:c>
-      <x:c r="G25" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H25" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I25" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="J25" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K25" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L25" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M25" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="N25" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O25" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="P25" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q25" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R25" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S25" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="T25" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U25" s="1" t="n">
-        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:21">
@@ -2319,10 +2322,10 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B26" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
         <x:v>0</x:v>
@@ -2331,7 +2334,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>0</x:v>
@@ -2340,7 +2343,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
         <x:v>0</x:v>
@@ -2349,16 +2352,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L26" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M26" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="N26" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O26" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P26" s="0" t="n">
         <x:v>0</x:v>
@@ -2373,10 +2376,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -2384,7 +2387,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B27" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
         <x:v>0</x:v>
@@ -2396,35 +2399,35 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I27" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="J27" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K27" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L27" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M27" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="N27" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O27" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="G27" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H27" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I27" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J27" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K27" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L27" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M27" s="0" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="N27" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O27" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -2435,13 +2438,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S27" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T27" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
@@ -2461,7 +2464,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
         <x:v>0</x:v>
@@ -2470,7 +2473,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I28" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J28" s="0" t="n">
         <x:v>0</x:v>
@@ -2482,10 +2485,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M28" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="N28" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O28" s="0" t="n">
         <x:v>0</x:v>
@@ -2500,13 +2503,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S28" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="T28" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U28" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:21">
@@ -2523,7 +2526,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E29" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
         <x:v>0</x:v>
@@ -2535,7 +2538,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I29" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J29" s="0" t="n">
         <x:v>0</x:v>
@@ -2544,16 +2547,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L29" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M29" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N29" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O29" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P29" s="0" t="n">
         <x:v>0</x:v>
@@ -2565,13 +2568,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S29" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T29" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U29" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:21">
@@ -2582,25 +2585,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C30" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D30" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E30" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G30" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H30" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I30" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J30" s="0" t="n">
         <x:v>0</x:v>
@@ -2609,16 +2612,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L30" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M30" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N30" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O30" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P30" s="0" t="n">
         <x:v>0</x:v>
@@ -2630,13 +2633,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S30" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T30" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U30" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:21">
@@ -2647,7 +2650,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C31" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
         <x:v>0</x:v>
@@ -2656,16 +2659,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F31" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G31" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H31" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I31" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="J31" s="0" t="n">
         <x:v>0</x:v>
@@ -2674,16 +2677,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L31" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M31" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N31" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O31" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="P31" s="0" t="n">
         <x:v>0</x:v>
@@ -2698,10 +2701,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T31" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U31" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:21">
@@ -2721,7 +2724,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G32" s="0" t="n">
         <x:v>0</x:v>
@@ -2730,7 +2733,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I32" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J32" s="0" t="n">
         <x:v>0</x:v>
@@ -2748,7 +2751,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O32" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P32" s="0" t="n">
         <x:v>0</x:v>
@@ -2766,7 +2769,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U32" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:21">
@@ -2774,10 +2777,10 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="B33" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C33" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D33" s="0" t="n">
         <x:v>0</x:v>
@@ -2786,16 +2789,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G33" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H33" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I33" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J33" s="0" t="n">
         <x:v>0</x:v>
@@ -2804,34 +2807,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L33" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M33" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N33" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O33" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P33" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q33" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R33" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S33" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T33" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U33" s="1" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="P33" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q33" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R33" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S33" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T33" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U33" s="1" t="n">
-        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:21">
@@ -2839,10 +2842,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="B34" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C34" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D34" s="0" t="n">
         <x:v>0</x:v>
@@ -2851,13 +2854,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G34" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H34" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I34" s="0" t="n">
         <x:v>0</x:v>
@@ -2869,7 +2872,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L34" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M34" s="0" t="n">
         <x:v>1</x:v>
@@ -2878,25 +2881,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O34" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P34" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q34" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R34" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S34" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T34" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U34" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:21">
@@ -2907,16 +2910,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C35" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D35" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E35" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G35" s="0" t="n">
         <x:v>0</x:v>
@@ -2925,7 +2928,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I35" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J35" s="0" t="n">
         <x:v>0</x:v>
@@ -2934,16 +2937,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L35" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M35" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N35" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O35" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P35" s="0" t="n">
         <x:v>0</x:v>
@@ -2955,13 +2958,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S35" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T35" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U35" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:21">
@@ -2972,44 +2975,44 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C36" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I36" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J36" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K36" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L36" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M36" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="N36" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O36" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F36" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G36" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H36" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I36" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J36" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K36" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L36" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M36" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="N36" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O36" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="P36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -3020,13 +3023,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S36" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="T36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U36" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:21">
@@ -3037,43 +3040,43 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C37" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H37" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J37" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L37" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M37" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O37" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P37" s="0" t="n">
         <x:v>0</x:v>
@@ -3085,13 +3088,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S37" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T37" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U37" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:21">
@@ -3099,10 +3102,10 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="B38" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C38" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D38" s="0" t="n">
         <x:v>0</x:v>
@@ -3111,40 +3114,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H38" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I38" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J38" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K38" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L38" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="M38" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="J38" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K38" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L38" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="M38" s="0" t="n">
-        <x:v>15</x:v>
-      </x:c>
       <x:c r="N38" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O38" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P38" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q38" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R38" s="0" t="n">
         <x:v>0</x:v>
@@ -3153,10 +3156,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T38" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U38" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:21">
@@ -3164,28 +3167,28 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="B39" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C39" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D39" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G39" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H39" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I39" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J39" s="0" t="n">
         <x:v>0</x:v>
@@ -3194,22 +3197,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L39" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M39" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="N39" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O39" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P39" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q39" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R39" s="0" t="n">
         <x:v>0</x:v>
@@ -3221,7 +3224,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U39" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:21">
@@ -3232,25 +3235,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C40" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D40" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I40" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J40" s="0" t="n">
         <x:v>0</x:v>
@@ -3259,34 +3262,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L40" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M40" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N40" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O40" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P40" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q40" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R40" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S40" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T40" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U40" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:21">
@@ -3303,19 +3306,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I41" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J41" s="0" t="n">
         <x:v>0</x:v>
@@ -3324,34 +3327,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L41" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M41" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="N41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O41" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="P41" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R41" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S41" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="T41" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U41" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
@@ -3359,28 +3362,28 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="B42" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C42" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I42" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J42" s="0" t="n">
         <x:v>0</x:v>
@@ -3389,10 +3392,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L42" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M42" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N42" s="0" t="n">
         <x:v>0</x:v>
@@ -3410,13 +3413,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S42" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T42" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U42" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:21">
@@ -3424,28 +3427,28 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="B43" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C43" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D43" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G43" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H43" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I43" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J43" s="0" t="n">
         <x:v>0</x:v>
@@ -3454,22 +3457,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L43" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M43" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="N43" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O43" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="P43" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q43" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R43" s="0" t="n">
         <x:v>0</x:v>
@@ -3478,10 +3481,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T43" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U43" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:21">
@@ -3489,19 +3492,19 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="B44" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C44" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D44" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>0</x:v>
@@ -3510,10 +3513,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I44" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J44" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K44" s="0" t="n">
         <x:v>0</x:v>
@@ -3522,31 +3525,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M44" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N44" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O44" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P44" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q44" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R44" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S44" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T44" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U44" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:21">
@@ -3554,7 +3557,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="B45" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C45" s="0" t="n">
         <x:v>0</x:v>
@@ -3566,7 +3569,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
         <x:v>0</x:v>
@@ -3575,10 +3578,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I45" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J45" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K45" s="0" t="n">
         <x:v>0</x:v>
@@ -3587,10 +3590,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M45" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="N45" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O45" s="0" t="n">
         <x:v>0</x:v>
@@ -3605,13 +3608,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S45" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T45" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U45" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:21">
@@ -3619,28 +3622,28 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="B46" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C46" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D46" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H46" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I46" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J46" s="0" t="n">
         <x:v>0</x:v>
@@ -3649,34 +3652,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L46" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M46" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N46" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O46" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P46" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q46" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R46" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S46" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T46" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U46" s="1" t="n">
-        <x:v>265</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:21">
@@ -3684,64 +3687,64 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="B47" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C47" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F47" s="0" t="n">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I47" s="0" t="n">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="J47" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K47" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L47" s="0" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M47" s="0" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="N47" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="O47" s="0" t="n">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="P47" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="Q47" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R47" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F47" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G47" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H47" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I47" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="J47" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K47" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L47" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="M47" s="0" t="n">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="N47" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O47" s="0" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="P47" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="Q47" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R47" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="S47" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="T47" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="U47" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:21">
@@ -3752,16 +3755,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C48" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D48" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>0</x:v>
@@ -3770,7 +3773,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="I48" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J48" s="0" t="n">
         <x:v>0</x:v>
@@ -3779,19 +3782,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L48" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M48" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="N48" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O48" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="P48" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q48" s="0" t="n">
         <x:v>0</x:v>
@@ -3800,13 +3803,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S48" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T48" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U48" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:21">
@@ -3817,61 +3820,61 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C49" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F49" s="0" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J49" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K49" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L49" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M49" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="N49" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O49" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="P49" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q49" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R49" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S49" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D49" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E49" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F49" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G49" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H49" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I49" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J49" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K49" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L49" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M49" s="0" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="N49" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O49" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="P49" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q49" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R49" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S49" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="T49" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U49" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
@@ -3891,7 +3894,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
         <x:v>0</x:v>
@@ -3900,7 +3903,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I50" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J50" s="0" t="n">
         <x:v>0</x:v>
@@ -3912,16 +3915,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M50" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="N50" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O50" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="P50" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q50" s="0" t="n">
         <x:v>0</x:v>
@@ -3930,13 +3933,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S50" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T50" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U50" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:21">
@@ -3947,7 +3950,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C51" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D51" s="0" t="n">
         <x:v>0</x:v>
@@ -3956,16 +3959,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G51" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H51" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I51" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J51" s="0" t="n">
         <x:v>0</x:v>
@@ -3974,34 +3977,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L51" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M51" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="N51" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O51" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P51" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q51" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R51" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S51" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T51" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U51" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:21">
@@ -4021,16 +4024,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G52" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H52" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I52" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J52" s="0" t="n">
         <x:v>0</x:v>
@@ -4039,22 +4042,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L52" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M52" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="N52" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O52" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P52" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q52" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R52" s="0" t="n">
         <x:v>0</x:v>
@@ -4066,7 +4069,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U52" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:21">
@@ -4074,28 +4077,28 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="B53" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C53" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D53" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E53" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F53" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G53" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H53" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I53" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J53" s="0" t="n">
         <x:v>0</x:v>
@@ -4104,34 +4107,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L53" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M53" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N53" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O53" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P53" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q53" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R53" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S53" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T53" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U53" s="1" t="n">
-        <x:v>365</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:21">
@@ -4139,28 +4142,28 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="B54" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C54" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D54" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E54" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F54" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G54" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H54" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I54" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="J54" s="0" t="n">
         <x:v>0</x:v>
@@ -4169,34 +4172,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L54" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="M54" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="N54" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O54" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="P54" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="Q54" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="R54" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="S54" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="T54" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="U54" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>362</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:21">
@@ -4204,10 +4207,10 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="B55" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C55" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D55" s="0" t="n">
         <x:v>0</x:v>
@@ -4216,52 +4219,52 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G55" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H55" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I55" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J55" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K55" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L55" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M55" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="N55" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O55" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P55" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q55" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R55" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S55" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="G55" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H55" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I55" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J55" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K55" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L55" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M55" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="N55" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O55" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="P55" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q55" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R55" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="S55" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="T55" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U55" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:21">
@@ -4269,10 +4272,10 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="B56" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C56" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D56" s="0" t="n">
         <x:v>0</x:v>
@@ -4281,7 +4284,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F56" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G56" s="0" t="n">
         <x:v>0</x:v>
@@ -4299,16 +4302,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L56" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M56" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="M56" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="N56" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O56" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P56" s="0" t="n">
         <x:v>0</x:v>
@@ -4317,16 +4320,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R56" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S56" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T56" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U56" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
@@ -4346,7 +4349,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G57" s="0" t="n">
         <x:v>0</x:v>
@@ -4364,16 +4367,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M57" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N57" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="P57" s="0" t="n">
         <x:v>0</x:v>
@@ -4391,7 +4394,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U57" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:21">
@@ -4399,64 +4402,64 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="B58" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C58" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D58" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E58" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F58" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G58" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H58" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I58" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J58" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K58" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L58" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M58" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N58" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O58" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P58" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q58" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R58" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S58" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T58" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U58" s="1" t="n">
-        <x:v>151</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">
@@ -4467,7 +4470,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C59" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D59" s="0" t="n">
         <x:v>0</x:v>
@@ -4476,52 +4479,52 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F59" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G59" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H59" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="I59" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="J59" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K59" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L59" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M59" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="N59" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O59" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="P59" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q59" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R59" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="S59" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="T59" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U59" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:21">
@@ -4529,19 +4532,19 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="B60" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C60" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D60" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G60" s="0" t="n">
         <x:v>0</x:v>
@@ -4550,7 +4553,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I60" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J60" s="0" t="n">
         <x:v>0</x:v>
@@ -4559,16 +4562,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L60" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M60" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N60" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O60" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="P60" s="0" t="n">
         <x:v>0</x:v>
@@ -4580,13 +4583,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S60" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T60" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U60" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">
@@ -4597,16 +4600,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C61" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
         <x:v>0</x:v>
@@ -4615,7 +4618,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I61" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J61" s="0" t="n">
         <x:v>0</x:v>
@@ -4624,19 +4627,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L61" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M61" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O61" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P61" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q61" s="0" t="n">
         <x:v>0</x:v>
@@ -4645,13 +4648,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S61" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U61" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">
@@ -4659,64 +4662,64 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="B62" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C62" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H62" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I62" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J62" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L62" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M62" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N62" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O62" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="P62" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R62" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S62" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="T62" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U62" s="1" t="n">
-        <x:v>221</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">
@@ -4724,64 +4727,64 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B63" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C63" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D63" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H63" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I63" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J63" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K63" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L63" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="M63" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="N63" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="O63" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="P63" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q63" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R63" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S63" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="T63" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="U63" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:21">
@@ -4792,7 +4795,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C64" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D64" s="0" t="n">
         <x:v>0</x:v>
@@ -4801,7 +4804,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G64" s="0" t="n">
         <x:v>0</x:v>
@@ -4819,16 +4822,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L64" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M64" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N64" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O64" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P64" s="0" t="n">
         <x:v>0</x:v>
@@ -4840,13 +4843,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S64" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T64" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U64" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
@@ -4857,7 +4860,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C65" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D65" s="0" t="n">
         <x:v>0</x:v>
@@ -4887,13 +4890,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M65" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N65" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O65" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P65" s="0" t="n">
         <x:v>0</x:v>
@@ -4940,7 +4943,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I66" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J66" s="0" t="n">
         <x:v>0</x:v>
@@ -4952,13 +4955,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M66" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O66" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P66" s="0" t="n">
         <x:v>0</x:v>
@@ -4976,7 +4979,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U66" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:21">
@@ -4987,7 +4990,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C67" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D67" s="0" t="n">
         <x:v>0</x:v>
@@ -5005,7 +5008,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I67" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J67" s="0" t="n">
         <x:v>0</x:v>
@@ -5017,7 +5020,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M67" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N67" s="0" t="n">
         <x:v>0</x:v>
@@ -5026,7 +5029,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P67" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q67" s="0" t="n">
         <x:v>0</x:v>
@@ -5035,13 +5038,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S67" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T67" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U67" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:21">
@@ -5052,7 +5055,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D68" s="0" t="n">
         <x:v>0</x:v>
@@ -5061,7 +5064,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G68" s="0" t="n">
         <x:v>0</x:v>
@@ -5082,16 +5085,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M68" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N68" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O68" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q68" s="0" t="n">
         <x:v>0</x:v>
@@ -5100,13 +5103,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T68" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U68" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:21">
@@ -5117,7 +5120,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C69" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D69" s="0" t="n">
         <x:v>0</x:v>
@@ -5135,10 +5138,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I69" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J69" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K69" s="0" t="n">
         <x:v>0</x:v>
@@ -5147,13 +5150,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M69" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N69" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P69" s="0" t="n">
         <x:v>0</x:v>
@@ -5168,10 +5171,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U69" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:21">
@@ -5179,28 +5182,28 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="B70" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C70" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E70" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H70" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I70" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J70" s="0" t="n">
         <x:v>1</x:v>
@@ -5209,34 +5212,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L70" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M70" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="N70" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O70" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P70" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q70" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R70" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S70" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T70" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U70" s="1" t="n">
         <x:v>6</x:v>
-      </x:c>
-      <x:c r="M70" s="0" t="n">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="N70" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="O70" s="0" t="n">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="P70" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q70" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R70" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="S70" s="0" t="n">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="T70" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="U70" s="1" t="n">
-        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:21">
@@ -5244,64 +5247,64 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B71" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C71" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H71" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I71" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="J71" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L71" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="M71" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N71" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O71" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="P71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q71" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R71" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="S71" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="T71" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U71" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:21">
@@ -5312,7 +5315,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C72" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D72" s="0" t="n">
         <x:v>0</x:v>
@@ -5342,7 +5345,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M72" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N72" s="0" t="n">
         <x:v>0</x:v>
@@ -5366,7 +5369,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U72" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:21">
@@ -5377,7 +5380,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C73" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D73" s="0" t="n">
         <x:v>0</x:v>
@@ -5395,7 +5398,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I73" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J73" s="0" t="n">
         <x:v>0</x:v>
@@ -5404,16 +5407,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L73" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M73" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N73" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O73" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P73" s="0" t="n">
         <x:v>0</x:v>
@@ -5422,16 +5425,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R73" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S73" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T73" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U73" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:21">
@@ -5439,64 +5442,64 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B74" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C74" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D74" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E74" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G74" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H74" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I74" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J74" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K74" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L74" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M74" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N74" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O74" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="P74" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q74" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S74" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="T74" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U74" s="1" t="n">
         <x:v>21</x:v>
-      </x:c>
-      <x:c r="T74" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="U74" s="1" t="n">
-        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:21">
@@ -5504,49 +5507,49 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B75" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C75" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D75" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E75" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G75" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H75" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I75" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J75" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K75" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L75" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M75" s="0" t="n">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="N75" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="O75" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="N75" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O75" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="P75" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q75" s="0" t="n">
         <x:v>0</x:v>
@@ -5555,12 +5558,77 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S75" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="T75" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U75" s="1" t="n">
+        <x:v>133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:21">
+      <x:c r="A76" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B76" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C76" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D76" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E76" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F76" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G76" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H76" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I76" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J76" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K76" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L76" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M76" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="N76" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O76" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P76" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q76" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R76" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S76" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T76" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U76" s="1" t="n">
         <x:v>9</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -1256,7 +1256,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O9" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P9" s="0" t="n">
         <x:v>0</x:v>
@@ -1274,7 +1274,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="U9" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:21">
@@ -2192,7 +2192,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B24" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
         <x:v>95</x:v>
@@ -2213,7 +2213,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="I24" s="0" t="n">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="J24" s="0" t="n">
         <x:v>2</x:v>
@@ -2231,7 +2231,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="O24" s="0" t="n">
-        <x:v>186</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="P24" s="0" t="n">
         <x:v>6</x:v>
@@ -2249,7 +2249,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>1393</x:v>
+        <x:v>1394</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -2204,7 +2204,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>0</x:v>
@@ -2243,13 +2243,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="S24" s="0" t="n">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="T24" s="0" t="n">
         <x:v>122</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>1394</x:v>
+        <x:v>1396</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
@@ -4355,7 +4355,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I57" s="0" t="n">
         <x:v>0</x:v>
@@ -4394,7 +4394,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U57" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:21">
@@ -4739,7 +4739,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
         <x:v>0</x:v>
@@ -4784,7 +4784,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="U63" s="1" t="n">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:21">
@@ -4822,7 +4822,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L64" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M64" s="0" t="n">
         <x:v>3</x:v>
@@ -4840,7 +4840,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R64" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S64" s="0" t="n">
         <x:v>2</x:v>
@@ -4849,7 +4849,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U64" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
@@ -5283,7 +5283,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="N71" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O71" s="0" t="n">
         <x:v>25</x:v>
@@ -5304,7 +5304,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U71" s="1" t="n">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -3200,7 +3200,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="M39" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N39" s="0" t="n">
         <x:v>0</x:v>
@@ -3224,7 +3224,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U39" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -1723,13 +1723,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S16" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="T16" s="0" t="n">
         <x:v>26</x:v>
       </x:c>
       <x:c r="U16" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:21">
@@ -2225,7 +2225,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="M24" s="0" t="n">
-        <x:v>218</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="N24" s="0" t="n">
         <x:v>10</x:v>
@@ -2249,7 +2249,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>1396</x:v>
+        <x:v>1399</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
@@ -3785,7 +3785,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M48" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N48" s="0" t="n">
         <x:v>0</x:v>
@@ -3809,7 +3809,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U48" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:21">
@@ -4175,7 +4175,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="M54" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="N54" s="0" t="n">
         <x:v>0</x:v>
@@ -4193,13 +4193,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="S54" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="T54" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="U54" s="1" t="n">
-        <x:v>362</x:v>
+        <x:v>365</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:21">
@@ -4500,7 +4500,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M59" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="N59" s="0" t="n">
         <x:v>0</x:v>
@@ -4524,7 +4524,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U59" s="1" t="n">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:21">
@@ -4769,7 +4769,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="P63" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q63" s="0" t="n">
         <x:v>0</x:v>
@@ -4784,7 +4784,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="U63" s="1" t="n">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -2204,7 +2204,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>0</x:v>
@@ -2243,13 +2243,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="S24" s="0" t="n">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="T24" s="0" t="n">
         <x:v>122</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>1399</x:v>
+        <x:v>1401</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
@@ -2420,7 +2420,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M27" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N27" s="0" t="n">
         <x:v>0</x:v>
@@ -2444,7 +2444,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -1835,7 +1835,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M18" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="N18" s="0" t="n">
         <x:v>2</x:v>
@@ -1859,7 +1859,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U18" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
@@ -4163,7 +4163,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I54" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J54" s="0" t="n">
         <x:v>0</x:v>
@@ -4199,7 +4199,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U54" s="1" t="n">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -1120,7 +1120,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="M7" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N7" s="0" t="n">
         <x:v>0</x:v>
@@ -1144,7 +1144,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U7" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:21">
@@ -1726,10 +1726,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="T16" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="U16" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:21">
@@ -1841,7 +1841,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="O18" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="P18" s="0" t="n">
         <x:v>0</x:v>
@@ -1859,7 +1859,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U18" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
@@ -2204,7 +2204,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>0</x:v>
@@ -2249,7 +2249,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>1401</x:v>
+        <x:v>1402</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
@@ -4748,7 +4748,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="I63" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="J63" s="0" t="n">
         <x:v>2</x:v>
@@ -4784,7 +4784,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="U63" s="1" t="n">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:21">
@@ -5280,7 +5280,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="M71" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N71" s="0" t="n">
         <x:v>3</x:v>
@@ -5304,7 +5304,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U71" s="1" t="n">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -2213,7 +2213,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="I24" s="0" t="n">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="J24" s="0" t="n">
         <x:v>2</x:v>
@@ -2243,13 +2243,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="S24" s="0" t="n">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="T24" s="0" t="n">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>1402</x:v>
+        <x:v>1405</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -2192,10 +2192,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B24" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
         <x:v>1</x:v>
@@ -2213,7 +2213,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="I24" s="0" t="n">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="J24" s="0" t="n">
         <x:v>2</x:v>
@@ -2231,7 +2231,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="O24" s="0" t="n">
-        <x:v>185</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="P24" s="0" t="n">
         <x:v>6</x:v>
@@ -2249,7 +2249,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>1405</x:v>
+        <x:v>1408</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
@@ -3265,7 +3265,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M40" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N40" s="0" t="n">
         <x:v>0</x:v>
@@ -3289,7 +3289,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U40" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:21">
@@ -4544,7 +4544,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G60" s="0" t="n">
         <x:v>0</x:v>
@@ -4589,7 +4589,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U60" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -957,7 +957,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
         <x:v>1</x:v>
@@ -996,7 +996,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="O5" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="P5" s="0" t="n">
         <x:v>0</x:v>
@@ -1014,7 +1014,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="U5" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:21">
@@ -4565,7 +4565,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M60" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="N60" s="0" t="n">
         <x:v>6</x:v>
@@ -4589,7 +4589,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U60" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">
@@ -4701,7 +4701,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O62" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P62" s="0" t="n">
         <x:v>2</x:v>
@@ -4713,13 +4713,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S62" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="T62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U62" s="1" t="n">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -3262,10 +3262,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L40" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M40" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="N40" s="0" t="n">
         <x:v>0</x:v>
@@ -3289,7 +3289,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U40" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:21">
@@ -4674,7 +4674,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>0</x:v>
@@ -4695,7 +4695,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M62" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N62" s="0" t="n">
         <x:v>0</x:v>
@@ -4719,7 +4719,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U62" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -795,7 +795,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M2" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="N2" s="0" t="n">
         <x:v>0</x:v>
@@ -819,7 +819,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="U2" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:21">
@@ -827,19 +827,19 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
@@ -848,7 +848,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
         <x:v>2</x:v>
@@ -860,7 +860,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>133</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -869,22 +869,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P3" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q3" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="R3" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="S3" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="T3" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>255</x:v>
+        <x:v>291</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -895,16 +895,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>0</x:v>
@@ -925,7 +925,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M4" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="N4" s="0" t="n">
         <x:v>0</x:v>
@@ -943,13 +943,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="S4" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="T4" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="U4" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:21">
@@ -960,7 +960,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
         <x:v>0</x:v>
@@ -978,7 +978,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I5" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J5" s="0" t="n">
         <x:v>0</x:v>
@@ -996,7 +996,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="O5" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="P5" s="0" t="n">
         <x:v>0</x:v>
@@ -1005,16 +1005,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R5" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S5" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="T5" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="U5" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:21">
@@ -1055,7 +1055,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M6" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N6" s="0" t="n">
         <x:v>0</x:v>
@@ -1079,7 +1079,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U6" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:21">
@@ -1090,7 +1090,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
         <x:v>0</x:v>
@@ -1099,7 +1099,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>0</x:v>
@@ -1108,7 +1108,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I7" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="J7" s="0" t="n">
         <x:v>0</x:v>
@@ -1120,7 +1120,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="M7" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N7" s="0" t="n">
         <x:v>0</x:v>
@@ -1138,13 +1138,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S7" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T7" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="U7" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:21">
@@ -1164,7 +1164,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>0</x:v>
@@ -1209,7 +1209,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U8" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:21">
@@ -1220,7 +1220,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D9" s="0" t="n">
         <x:v>1</x:v>
@@ -1229,7 +1229,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>1</x:v>
@@ -1238,43 +1238,43 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I9" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L9" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M9" s="0" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="N9" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O9" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="P9" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q9" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R9" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S9" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="T9" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="J9" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K9" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L9" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M9" s="0" t="n">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="N9" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O9" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="P9" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q9" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R9" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S9" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T9" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="U9" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:21">
@@ -1282,7 +1282,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B10" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
         <x:v>0</x:v>
@@ -1291,10 +1291,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>0</x:v>
@@ -1303,7 +1303,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I10" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J10" s="0" t="n">
         <x:v>0</x:v>
@@ -1315,7 +1315,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="M10" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N10" s="0" t="n">
         <x:v>2</x:v>
@@ -1330,7 +1330,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S10" s="0" t="n">
         <x:v>4</x:v>
@@ -1339,7 +1339,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U10" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:21">
@@ -1398,13 +1398,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="S11" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="T11" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U11" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:21">
@@ -1421,7 +1421,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
         <x:v>0</x:v>
@@ -1445,13 +1445,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M12" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="N12" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O12" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="P12" s="0" t="n">
         <x:v>0</x:v>
@@ -1469,7 +1469,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U12" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:21">
@@ -1477,10 +1477,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B13" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
         <x:v>4</x:v>
@@ -1489,7 +1489,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
         <x:v>3</x:v>
@@ -1510,22 +1510,22 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M13" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N13" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="O13" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P13" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q13" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="R13" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="S13" s="0" t="n">
         <x:v>4</x:v>
@@ -1534,7 +1534,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="U13" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:21">
@@ -1610,7 +1610,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C15" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
         <x:v>3</x:v>
@@ -1619,16 +1619,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H15" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I15" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="J15" s="0" t="n">
         <x:v>0</x:v>
@@ -1637,16 +1637,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L15" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="M15" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="N15" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="O15" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="P15" s="0" t="n">
         <x:v>1</x:v>
@@ -1661,10 +1661,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="T15" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U15" s="1" t="n">
-        <x:v>113</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:21">
@@ -1675,7 +1675,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C16" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D16" s="0" t="n">
         <x:v>0</x:v>
@@ -1684,7 +1684,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
@@ -1705,31 +1705,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M16" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="N16" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="O16" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="P16" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q16" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R16" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S16" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="N16" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="O16" s="0" t="n">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="P16" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q16" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R16" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S16" s="0" t="n">
-        <x:v>8</x:v>
-      </x:c>
       <x:c r="T16" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="U16" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:21">
@@ -1805,7 +1805,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C18" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D18" s="0" t="n">
         <x:v>0</x:v>
@@ -1835,13 +1835,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M18" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="N18" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="O18" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="P18" s="0" t="n">
         <x:v>0</x:v>
@@ -1853,13 +1853,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="S18" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="T18" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="U18" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
@@ -2000,7 +2000,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C21" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D21" s="0" t="n">
         <x:v>0</x:v>
@@ -2009,7 +2009,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G21" s="0" t="n">
         <x:v>0</x:v>
@@ -2030,7 +2030,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M21" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="N21" s="0" t="n">
         <x:v>0</x:v>
@@ -2054,7 +2054,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U21" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:21">
@@ -2065,7 +2065,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C22" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D22" s="0" t="n">
         <x:v>0</x:v>
@@ -2074,7 +2074,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G22" s="0" t="n">
         <x:v>0</x:v>
@@ -2095,13 +2095,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M22" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N22" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O22" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P22" s="0" t="n">
         <x:v>0</x:v>
@@ -2113,13 +2113,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S22" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T22" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="U22" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:21">
@@ -2139,7 +2139,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G23" s="0" t="n">
         <x:v>0</x:v>
@@ -2160,7 +2160,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M23" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N23" s="0" t="n">
         <x:v>0</x:v>
@@ -2184,7 +2184,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U23" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:21">
@@ -2192,10 +2192,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B24" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
-        <x:v>96</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
         <x:v>1</x:v>
@@ -2204,16 +2204,16 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>138</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="I24" s="0" t="n">
-        <x:v>159</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="J24" s="0" t="n">
         <x:v>2</x:v>
@@ -2222,34 +2222,34 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="L24" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="M24" s="0" t="n">
-        <x:v>221</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="N24" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="O24" s="0" t="n">
-        <x:v>187</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="P24" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="Q24" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R24" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="S24" s="0" t="n">
-        <x:v>242</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="T24" s="0" t="n">
-        <x:v>123</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>1408</x:v>
+        <x:v>1621</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
@@ -2331,10 +2331,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E26" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>0</x:v>
@@ -2352,7 +2352,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L26" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M26" s="0" t="n">
         <x:v>7</x:v>
@@ -2361,7 +2361,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O26" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P26" s="0" t="n">
         <x:v>0</x:v>
@@ -2373,13 +2373,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S26" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -2426,7 +2426,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>0</x:v>
@@ -2444,7 +2444,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
@@ -2650,7 +2650,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C31" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
         <x:v>0</x:v>
@@ -2659,7 +2659,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F31" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G31" s="0" t="n">
         <x:v>0</x:v>
@@ -2668,7 +2668,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I31" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="J31" s="0" t="n">
         <x:v>0</x:v>
@@ -2680,7 +2680,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M31" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N31" s="0" t="n">
         <x:v>0</x:v>
@@ -2698,13 +2698,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S31" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="T31" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="U31" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:21">
@@ -2745,7 +2745,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M32" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N32" s="0" t="n">
         <x:v>0</x:v>
@@ -2769,7 +2769,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U32" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:21">
@@ -2940,7 +2940,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M35" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N35" s="0" t="n">
         <x:v>0</x:v>
@@ -2964,7 +2964,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U35" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:21">
@@ -2984,7 +2984,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>0</x:v>
@@ -3002,10 +3002,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L36" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M36" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N36" s="0" t="n">
         <x:v>0</x:v>
@@ -3029,7 +3029,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U36" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:21">
@@ -3135,7 +3135,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M38" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N38" s="0" t="n">
         <x:v>0</x:v>
@@ -3159,7 +3159,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U38" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:21">
@@ -3170,7 +3170,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C39" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D39" s="0" t="n">
         <x:v>0</x:v>
@@ -3179,7 +3179,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G39" s="0" t="n">
         <x:v>0</x:v>
@@ -3188,7 +3188,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I39" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J39" s="0" t="n">
         <x:v>0</x:v>
@@ -3200,13 +3200,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="M39" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="N39" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O39" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="P39" s="0" t="n">
         <x:v>0</x:v>
@@ -3224,7 +3224,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U39" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:21">
@@ -3265,7 +3265,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M40" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N40" s="0" t="n">
         <x:v>0</x:v>
@@ -3289,7 +3289,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U40" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:21">
@@ -3300,7 +3300,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C41" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D41" s="0" t="n">
         <x:v>0</x:v>
@@ -3309,7 +3309,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>0</x:v>
@@ -3318,7 +3318,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="I41" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="J41" s="0" t="n">
         <x:v>0</x:v>
@@ -3330,16 +3330,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M41" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O41" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="P41" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q41" s="0" t="n">
         <x:v>0</x:v>
@@ -3348,13 +3348,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="S41" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="T41" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="U41" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
@@ -3371,7 +3371,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
         <x:v>7</x:v>
@@ -3395,13 +3395,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M42" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O42" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="P42" s="0" t="n">
         <x:v>0</x:v>
@@ -3419,7 +3419,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U42" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:21">
@@ -3445,10 +3445,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H43" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="I43" s="0" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="I43" s="0" t="n">
-        <x:v>3</x:v>
       </x:c>
       <x:c r="J43" s="0" t="n">
         <x:v>0</x:v>
@@ -3466,7 +3466,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O43" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P43" s="0" t="n">
         <x:v>0</x:v>
@@ -3484,7 +3484,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U43" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:21">
@@ -3495,7 +3495,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C44" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D44" s="0" t="n">
         <x:v>0</x:v>
@@ -3525,7 +3525,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M44" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="N44" s="0" t="n">
         <x:v>0</x:v>
@@ -3546,10 +3546,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T44" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U44" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:21">
@@ -3560,7 +3560,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C45" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D45" s="0" t="n">
         <x:v>0</x:v>
@@ -3569,7 +3569,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
         <x:v>0</x:v>
@@ -3590,7 +3590,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M45" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="N45" s="0" t="n">
         <x:v>1</x:v>
@@ -3608,13 +3608,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S45" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T45" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U45" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:21">
@@ -3690,7 +3690,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C47" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D47" s="0" t="n">
         <x:v>0</x:v>
@@ -3699,7 +3699,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>2</x:v>
@@ -3708,7 +3708,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I47" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="J47" s="0" t="n">
         <x:v>0</x:v>
@@ -3717,25 +3717,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L47" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M47" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N47" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="O47" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="P47" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="Q47" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R47" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="S47" s="0" t="n">
         <x:v>12</x:v>
@@ -3744,7 +3744,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="U47" s="1" t="n">
-        <x:v>265</x:v>
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:21">
@@ -3785,13 +3785,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M48" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="N48" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O48" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="P48" s="0" t="n">
         <x:v>2</x:v>
@@ -3809,7 +3809,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U48" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:21">
@@ -3820,7 +3820,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C49" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D49" s="0" t="n">
         <x:v>0</x:v>
@@ -3868,13 +3868,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S49" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="T49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U49" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
@@ -3903,7 +3903,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I50" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J50" s="0" t="n">
         <x:v>0</x:v>
@@ -3915,7 +3915,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M50" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N50" s="0" t="n">
         <x:v>1</x:v>
@@ -3939,7 +3939,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U50" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:21">
@@ -4015,7 +4015,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C52" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D52" s="0" t="n">
         <x:v>0</x:v>
@@ -4024,7 +4024,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G52" s="0" t="n">
         <x:v>0</x:v>
@@ -4033,7 +4033,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I52" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J52" s="0" t="n">
         <x:v>0</x:v>
@@ -4045,13 +4045,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M52" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N52" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O52" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="P52" s="0" t="n">
         <x:v>0</x:v>
@@ -4063,13 +4063,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S52" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T52" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U52" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:21">
@@ -4142,28 +4142,28 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="B54" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C54" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D54" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E54" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F54" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G54" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H54" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I54" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J54" s="0" t="n">
         <x:v>0</x:v>
@@ -4172,16 +4172,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L54" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="M54" s="0" t="n">
-        <x:v>74</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N54" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O54" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P54" s="0" t="n">
         <x:v>7</x:v>
@@ -4193,13 +4193,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="S54" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="T54" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="U54" s="1" t="n">
-        <x:v>366</x:v>
+        <x:v>412</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:21">
@@ -4219,7 +4219,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G55" s="0" t="n">
         <x:v>0</x:v>
@@ -4240,7 +4240,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M55" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N55" s="0" t="n">
         <x:v>0</x:v>
@@ -4258,13 +4258,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S55" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="T55" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U55" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:21">
@@ -4281,7 +4281,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E56" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F56" s="0" t="n">
         <x:v>3</x:v>
@@ -4305,13 +4305,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M56" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="N56" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O56" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="P56" s="0" t="n">
         <x:v>0</x:v>
@@ -4329,7 +4329,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U56" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
@@ -4349,7 +4349,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G57" s="0" t="n">
         <x:v>0</x:v>
@@ -4394,7 +4394,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U57" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:21">
@@ -4470,7 +4470,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C59" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D59" s="0" t="n">
         <x:v>0</x:v>
@@ -4479,7 +4479,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F59" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G59" s="0" t="n">
         <x:v>0</x:v>
@@ -4488,7 +4488,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="I59" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J59" s="0" t="n">
         <x:v>0</x:v>
@@ -4500,13 +4500,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M59" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="N59" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O59" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="P59" s="0" t="n">
         <x:v>1</x:v>
@@ -4518,13 +4518,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="S59" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="T59" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U59" s="1" t="n">
-        <x:v>153</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:21">
@@ -4553,7 +4553,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I60" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J60" s="0" t="n">
         <x:v>0</x:v>
@@ -4571,7 +4571,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="O60" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="P60" s="0" t="n">
         <x:v>0</x:v>
@@ -4589,7 +4589,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U60" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">
@@ -4665,61 +4665,61 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C62" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G62" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H62" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I62" s="0" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J62" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K62" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L62" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M62" s="0" t="n">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="N62" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O62" s="0" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P62" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="Q62" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R62" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S62" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="G62" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H62" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I62" s="0" t="n">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="J62" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K62" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L62" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M62" s="0" t="n">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="N62" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O62" s="0" t="n">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="P62" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="Q62" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R62" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S62" s="0" t="n">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="T62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U62" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">
@@ -4727,10 +4727,10 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B63" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C63" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D63" s="0" t="n">
         <x:v>0</x:v>
@@ -4739,16 +4739,16 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H63" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I63" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J63" s="0" t="n">
         <x:v>2</x:v>
@@ -4757,16 +4757,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L63" s="0" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M63" s="0" t="n">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="N63" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="M63" s="0" t="n">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="N63" s="0" t="n">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="O63" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="P63" s="0" t="n">
         <x:v>2</x:v>
@@ -4775,16 +4775,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R63" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S63" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T63" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
       <x:c r="U63" s="1" t="n">
-        <x:v>224</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:21">
@@ -4822,7 +4822,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L64" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M64" s="0" t="n">
         <x:v>3</x:v>
@@ -4849,7 +4849,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U64" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
@@ -4890,7 +4890,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M65" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N65" s="0" t="n">
         <x:v>0</x:v>
@@ -4914,7 +4914,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U65" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">
@@ -4999,7 +4999,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G67" s="0" t="n">
         <x:v>0</x:v>
@@ -5020,7 +5020,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M67" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N67" s="0" t="n">
         <x:v>0</x:v>
@@ -5044,7 +5044,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U67" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:21">
@@ -5215,7 +5215,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M70" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N70" s="0" t="n">
         <x:v>0</x:v>
@@ -5239,7 +5239,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U70" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:21">
@@ -5247,10 +5247,10 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B71" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C71" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D71" s="0" t="n">
         <x:v>0</x:v>
@@ -5268,7 +5268,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I71" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J71" s="0" t="n">
         <x:v>1</x:v>
@@ -5277,16 +5277,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L71" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="M71" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N71" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="O71" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="P71" s="0" t="n">
         <x:v>0</x:v>
@@ -5298,13 +5298,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="S71" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="T71" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="U71" s="1" t="n">
-        <x:v>168</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:21">
@@ -5410,7 +5410,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M73" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N73" s="0" t="n">
         <x:v>0</x:v>
@@ -5434,7 +5434,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U73" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:21">
@@ -5481,7 +5481,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O74" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="P74" s="0" t="n">
         <x:v>0</x:v>
@@ -5499,7 +5499,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U74" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:21">
@@ -5516,10 +5516,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E75" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G75" s="0" t="n">
         <x:v>0</x:v>
@@ -5528,7 +5528,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I75" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J75" s="0" t="n">
         <x:v>2</x:v>
@@ -5537,10 +5537,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L75" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="M75" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N75" s="0" t="n">
         <x:v>2</x:v>
@@ -5564,7 +5564,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U75" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:21">
@@ -5605,7 +5605,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M76" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N76" s="0" t="n">
         <x:v>0</x:v>
@@ -5629,7 +5629,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U76" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -1835,7 +1835,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M18" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="N18" s="0" t="n">
         <x:v>2</x:v>
@@ -1859,7 +1859,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U18" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
@@ -4544,7 +4544,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G60" s="0" t="n">
         <x:v>0</x:v>
@@ -4565,13 +4565,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M60" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="N60" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="O60" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="P60" s="0" t="n">
         <x:v>0</x:v>
@@ -4589,7 +4589,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U60" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">
@@ -5475,7 +5475,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M74" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N74" s="0" t="n">
         <x:v>0</x:v>
@@ -5499,7 +5499,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U74" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -1008,13 +1008,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="S5" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="T5" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="U5" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:21">
@@ -3495,7 +3495,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C44" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D44" s="0" t="n">
         <x:v>0</x:v>
@@ -3549,7 +3549,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U44" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:21">
@@ -4172,7 +4172,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L54" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="M54" s="0" t="n">
         <x:v>87</x:v>
@@ -4199,7 +4199,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="U54" s="1" t="n">
-        <x:v>412</x:v>
+        <x:v>414</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:21">
@@ -4766,7 +4766,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="O63" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="P63" s="0" t="n">
         <x:v>2</x:v>
@@ -4784,7 +4784,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="U63" s="1" t="n">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:21">
@@ -5519,7 +5519,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G75" s="0" t="n">
         <x:v>0</x:v>
@@ -5564,7 +5564,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U75" s="1" t="n">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <x:si>
     <x:t>County</x:t>
   </x:si>
@@ -170,6 +170,9 @@
   </x:si>
   <x:si>
     <x:t>Koochiching</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lac qui Parle</x:t>
   </x:si>
   <x:si>
     <x:t>Lake</x:t>
@@ -682,7 +685,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:U76"/>
+  <x:dimension ref="A1:U77"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -878,13 +881,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="S3" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="T3" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>291</x:v>
+        <x:v>293</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -2243,13 +2246,13 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="S24" s="0" t="n">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="T24" s="0" t="n">
         <x:v>139</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>1621</x:v>
+        <x:v>1622</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
@@ -2789,7 +2792,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G33" s="0" t="n">
         <x:v>0</x:v>
@@ -2798,7 +2801,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I33" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J33" s="0" t="n">
         <x:v>0</x:v>
@@ -2834,7 +2837,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U33" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:21">
@@ -2842,10 +2845,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="B34" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C34" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D34" s="0" t="n">
         <x:v>0</x:v>
@@ -2854,16 +2857,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G34" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H34" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I34" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J34" s="0" t="n">
         <x:v>0</x:v>
@@ -2872,34 +2875,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L34" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M34" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N34" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O34" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P34" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q34" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R34" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S34" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T34" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U34" s="1" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="P34" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q34" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R34" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S34" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T34" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U34" s="1" t="n">
-        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:21">
@@ -2907,10 +2910,10 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B35" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C35" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D35" s="0" t="n">
         <x:v>0</x:v>
@@ -2919,13 +2922,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G35" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H35" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I35" s="0" t="n">
         <x:v>0</x:v>
@@ -2937,34 +2940,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L35" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M35" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N35" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O35" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P35" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q35" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R35" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S35" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T35" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U35" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:21">
@@ -2975,16 +2978,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C36" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E36" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>0</x:v>
@@ -2993,7 +2996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I36" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J36" s="0" t="n">
         <x:v>0</x:v>
@@ -3002,16 +3005,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L36" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M36" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O36" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P36" s="0" t="n">
         <x:v>0</x:v>
@@ -3023,13 +3026,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S36" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T36" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U36" s="1" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="T36" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U36" s="1" t="n">
-        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:21">
@@ -3040,44 +3043,44 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C37" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I37" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J37" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K37" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L37" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="M37" s="0" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="N37" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O37" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F37" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G37" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H37" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I37" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J37" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K37" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L37" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M37" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="N37" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O37" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="P37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -3088,13 +3091,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S37" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="T37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U37" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:21">
@@ -3105,43 +3108,43 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C38" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D38" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F38" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G38" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H38" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I38" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J38" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K38" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L38" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M38" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N38" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O38" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P38" s="0" t="n">
         <x:v>0</x:v>
@@ -3153,13 +3156,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S38" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T38" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U38" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:21">
@@ -3167,10 +3170,10 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="B39" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C39" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D39" s="0" t="n">
         <x:v>0</x:v>
@@ -3179,40 +3182,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G39" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H39" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I39" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J39" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K39" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L39" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="M39" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="J39" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K39" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L39" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="M39" s="0" t="n">
-        <x:v>20</x:v>
-      </x:c>
       <x:c r="N39" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O39" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P39" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q39" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R39" s="0" t="n">
         <x:v>0</x:v>
@@ -3221,10 +3224,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T39" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U39" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:21">
@@ -3232,29 +3235,29 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="B40" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C40" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D40" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E40" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G40" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I40" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G40" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H40" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I40" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="J40" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -3262,22 +3265,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L40" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M40" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="N40" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O40" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="P40" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q40" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R40" s="0" t="n">
         <x:v>0</x:v>
@@ -3289,7 +3292,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U40" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:21">
@@ -3300,25 +3303,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C41" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H41" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I41" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J41" s="0" t="n">
         <x:v>0</x:v>
@@ -3330,31 +3333,31 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M41" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O41" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P41" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R41" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S41" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T41" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U41" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
@@ -3365,25 +3368,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C42" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I42" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="J42" s="0" t="n">
         <x:v>0</x:v>
@@ -3392,34 +3395,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L42" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M42" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O42" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="P42" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R42" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S42" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="T42" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="U42" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:21">
@@ -3427,28 +3430,28 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="B43" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C43" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D43" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G43" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H43" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I43" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J43" s="0" t="n">
         <x:v>0</x:v>
@@ -3457,16 +3460,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L43" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M43" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N43" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O43" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="P43" s="0" t="n">
         <x:v>0</x:v>
@@ -3478,13 +3481,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S43" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T43" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U43" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:21">
@@ -3492,29 +3495,29 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="B44" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C44" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G44" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="I44" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D44" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E44" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F44" s="0" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G44" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H44" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I44" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
       <x:c r="J44" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -3522,22 +3525,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L44" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M44" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="N44" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O44" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P44" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q44" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R44" s="0" t="n">
         <x:v>0</x:v>
@@ -3549,7 +3552,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U44" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:21">
@@ -3557,31 +3560,31 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="B45" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C45" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D45" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G45" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I45" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="G45" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H45" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I45" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="J45" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K45" s="0" t="n">
         <x:v>0</x:v>
@@ -3590,31 +3593,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M45" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="N45" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O45" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P45" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q45" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R45" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S45" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T45" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U45" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:21">
@@ -3622,10 +3625,10 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="B46" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C46" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D46" s="0" t="n">
         <x:v>0</x:v>
@@ -3634,7 +3637,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
         <x:v>0</x:v>
@@ -3643,10 +3646,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I46" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J46" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K46" s="0" t="n">
         <x:v>0</x:v>
@@ -3655,10 +3658,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M46" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="N46" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O46" s="0" t="n">
         <x:v>0</x:v>
@@ -3673,13 +3676,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S46" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T46" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U46" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:21">
@@ -3687,28 +3690,28 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="B47" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C47" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H47" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I47" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J47" s="0" t="n">
         <x:v>0</x:v>
@@ -3717,34 +3720,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L47" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M47" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N47" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O47" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P47" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q47" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R47" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S47" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T47" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U47" s="1" t="n">
-        <x:v>295</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:21">
@@ -3752,64 +3755,64 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="B48" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C48" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D48" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G48" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I48" s="0" t="n">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="J48" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K48" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L48" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="M48" s="0" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="N48" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="O48" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="P48" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="Q48" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R48" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G48" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H48" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I48" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="J48" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K48" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L48" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="M48" s="0" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="N48" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O48" s="0" t="n">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="P48" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="Q48" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R48" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="S48" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="T48" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="U48" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:21">
@@ -3820,16 +3823,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C49" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D49" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E49" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D49" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E49" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
         <x:v>0</x:v>
@@ -3838,7 +3841,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="I49" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J49" s="0" t="n">
         <x:v>0</x:v>
@@ -3847,19 +3850,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L49" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M49" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="N49" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O49" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="P49" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q49" s="0" t="n">
         <x:v>0</x:v>
@@ -3868,13 +3871,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S49" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U49" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
@@ -3885,7 +3888,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C50" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D50" s="0" t="n">
         <x:v>0</x:v>
@@ -3894,16 +3897,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H50" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I50" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J50" s="0" t="n">
         <x:v>0</x:v>
@@ -3915,13 +3918,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M50" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N50" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="O50" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="P50" s="0" t="n">
         <x:v>0</x:v>
@@ -3933,13 +3936,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S50" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="T50" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U50" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:21">
@@ -3959,7 +3962,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G51" s="0" t="n">
         <x:v>0</x:v>
@@ -3968,7 +3971,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I51" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J51" s="0" t="n">
         <x:v>0</x:v>
@@ -3980,16 +3983,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M51" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N51" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O51" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="P51" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q51" s="0" t="n">
         <x:v>0</x:v>
@@ -3998,13 +4001,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S51" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T51" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U51" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:21">
@@ -4015,7 +4018,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C52" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D52" s="0" t="n">
         <x:v>0</x:v>
@@ -4024,52 +4027,52 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G52" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H52" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I52" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J52" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K52" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L52" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M52" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="N52" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O52" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P52" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q52" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R52" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S52" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="J52" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K52" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L52" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M52" s="0" t="n">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="N52" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O52" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="P52" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q52" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R52" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S52" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="T52" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U52" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:21">
@@ -4080,7 +4083,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C53" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D53" s="0" t="n">
         <x:v>0</x:v>
@@ -4089,16 +4092,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F53" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G53" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H53" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I53" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J53" s="0" t="n">
         <x:v>0</x:v>
@@ -4107,34 +4110,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L53" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M53" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N53" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O53" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="P53" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q53" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R53" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S53" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T53" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U53" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:21">
@@ -4142,28 +4145,28 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="B54" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C54" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D54" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E54" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F54" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G54" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H54" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I54" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J54" s="0" t="n">
         <x:v>0</x:v>
@@ -4172,34 +4175,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L54" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M54" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N54" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O54" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P54" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q54" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R54" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S54" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T54" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U54" s="1" t="n">
-        <x:v>414</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:21">
@@ -4207,28 +4210,28 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="B55" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C55" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D55" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E55" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G55" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H55" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I55" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J55" s="0" t="n">
         <x:v>0</x:v>
@@ -4237,34 +4240,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L55" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="M55" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N55" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O55" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P55" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="Q55" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="R55" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="S55" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="T55" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="U55" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>414</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:21">
@@ -4272,19 +4275,19 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="B56" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C56" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D56" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E56" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F56" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G56" s="0" t="n">
         <x:v>0</x:v>
@@ -4293,7 +4296,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I56" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J56" s="0" t="n">
         <x:v>0</x:v>
@@ -4302,34 +4305,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L56" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M56" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N56" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O56" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P56" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q56" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R56" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S56" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="P56" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q56" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R56" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="S56" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="T56" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U56" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
@@ -4337,25 +4340,25 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="B57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C57" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D57" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G57" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H57" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I57" s="0" t="n">
         <x:v>0</x:v>
@@ -4367,16 +4370,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L57" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M57" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="N57" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O57" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="P57" s="0" t="n">
         <x:v>0</x:v>
@@ -4385,16 +4388,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T57" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U57" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:21">
@@ -4420,7 +4423,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H58" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I58" s="0" t="n">
         <x:v>0</x:v>
@@ -4432,16 +4435,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L58" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M58" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N58" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O58" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="P58" s="0" t="n">
         <x:v>0</x:v>
@@ -4459,7 +4462,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U58" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">
@@ -4467,64 +4470,64 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="B59" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C59" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D59" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E59" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F59" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G59" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H59" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I59" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J59" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K59" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L59" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M59" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N59" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O59" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P59" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q59" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R59" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S59" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T59" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U59" s="1" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="U59" s="1" t="n">
-        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:21">
@@ -4535,7 +4538,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C60" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D60" s="0" t="n">
         <x:v>0</x:v>
@@ -4544,52 +4547,52 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G60" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H60" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="I60" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J60" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K60" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L60" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M60" s="0" t="n">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="N60" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O60" s="0" t="n">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="P60" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q60" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R60" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="G60" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H60" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I60" s="0" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="J60" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K60" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L60" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="M60" s="0" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="N60" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="O60" s="0" t="n">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="P60" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q60" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R60" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="S60" s="0" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="T60" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="T60" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="U60" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">
@@ -4597,19 +4600,19 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="B61" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C61" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
         <x:v>0</x:v>
@@ -4618,7 +4621,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I61" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J61" s="0" t="n">
         <x:v>0</x:v>
@@ -4627,16 +4630,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L61" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M61" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="N61" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O61" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="P61" s="0" t="n">
         <x:v>0</x:v>
@@ -4648,13 +4651,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S61" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U61" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">
@@ -4665,16 +4668,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C62" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>0</x:v>
@@ -4683,7 +4686,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I62" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J62" s="0" t="n">
         <x:v>0</x:v>
@@ -4692,19 +4695,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L62" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M62" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O62" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P62" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q62" s="0" t="n">
         <x:v>0</x:v>
@@ -4713,13 +4716,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S62" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U62" s="1" t="n">
-        <x:v>161</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">
@@ -4727,64 +4730,64 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B63" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C63" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D63" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H63" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I63" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J63" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K63" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L63" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M63" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="N63" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O63" s="0" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="P63" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="Q63" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R63" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S63" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="O63" s="0" t="n">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="P63" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="Q63" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R63" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="S63" s="0" t="n">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="T63" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U63" s="1" t="n">
-        <x:v>273</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:21">
@@ -4792,64 +4795,64 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="B64" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C64" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D64" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G64" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H64" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I64" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J64" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K64" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L64" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M64" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N64" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="O64" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="P64" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q64" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R64" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S64" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T64" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="U64" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>273</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
@@ -4860,7 +4863,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C65" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D65" s="0" t="n">
         <x:v>0</x:v>
@@ -4869,7 +4872,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G65" s="0" t="n">
         <x:v>0</x:v>
@@ -4887,16 +4890,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L65" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M65" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="N65" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O65" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P65" s="0" t="n">
         <x:v>0</x:v>
@@ -4905,16 +4908,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R65" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S65" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T65" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U65" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">
@@ -4925,7 +4928,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C66" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D66" s="0" t="n">
         <x:v>0</x:v>
@@ -4955,13 +4958,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M66" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O66" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P66" s="0" t="n">
         <x:v>0</x:v>
@@ -4979,7 +4982,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U66" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:21">
@@ -4999,7 +5002,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G67" s="0" t="n">
         <x:v>0</x:v>
@@ -5008,7 +5011,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I67" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J67" s="0" t="n">
         <x:v>0</x:v>
@@ -5020,13 +5023,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M67" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N67" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O67" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P67" s="0" t="n">
         <x:v>0</x:v>
@@ -5044,7 +5047,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U67" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:21">
@@ -5055,7 +5058,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C68" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D68" s="0" t="n">
         <x:v>0</x:v>
@@ -5064,7 +5067,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G68" s="0" t="n">
         <x:v>0</x:v>
@@ -5073,7 +5076,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J68" s="0" t="n">
         <x:v>0</x:v>
@@ -5085,7 +5088,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M68" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N68" s="0" t="n">
         <x:v>0</x:v>
@@ -5094,7 +5097,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P68" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q68" s="0" t="n">
         <x:v>0</x:v>
@@ -5103,13 +5106,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S68" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T68" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U68" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:21">
@@ -5120,7 +5123,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D69" s="0" t="n">
         <x:v>0</x:v>
@@ -5129,7 +5132,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G69" s="0" t="n">
         <x:v>0</x:v>
@@ -5150,16 +5153,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M69" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N69" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O69" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q69" s="0" t="n">
         <x:v>0</x:v>
@@ -5168,13 +5171,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T69" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U69" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:21">
@@ -5185,7 +5188,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C70" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D70" s="0" t="n">
         <x:v>0</x:v>
@@ -5203,10 +5206,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I70" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J70" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K70" s="0" t="n">
         <x:v>0</x:v>
@@ -5215,13 +5218,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M70" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P70" s="0" t="n">
         <x:v>0</x:v>
@@ -5236,7 +5239,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U70" s="1" t="n">
         <x:v>7</x:v>
@@ -5247,64 +5250,64 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B71" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C71" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E71" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H71" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I71" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J71" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K71" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L71" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M71" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="I71" s="0" t="n">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="J71" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K71" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L71" s="0" t="n">
+      <x:c r="N71" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O71" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P71" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q71" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R71" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S71" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T71" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U71" s="1" t="n">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="M71" s="0" t="n">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="N71" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="O71" s="0" t="n">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="P71" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q71" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R71" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="S71" s="0" t="n">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="T71" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="U71" s="1" t="n">
-        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:21">
@@ -5312,64 +5315,64 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B72" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C72" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I72" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J72" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L72" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="M72" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N72" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O72" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="P72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q72" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R72" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="S72" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="T72" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U72" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:21">
@@ -5380,7 +5383,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C73" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D73" s="0" t="n">
         <x:v>0</x:v>
@@ -5410,7 +5413,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M73" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N73" s="0" t="n">
         <x:v>0</x:v>
@@ -5434,7 +5437,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U73" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:21">
@@ -5445,7 +5448,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C74" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D74" s="0" t="n">
         <x:v>0</x:v>
@@ -5463,7 +5466,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I74" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J74" s="0" t="n">
         <x:v>0</x:v>
@@ -5472,16 +5475,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L74" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M74" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N74" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O74" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P74" s="0" t="n">
         <x:v>0</x:v>
@@ -5490,16 +5493,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R74" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S74" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T74" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U74" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:21">
@@ -5507,64 +5510,64 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B75" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C75" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D75" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I75" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F75" s="0" t="n">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G75" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H75" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I75" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="J75" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K75" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L75" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M75" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N75" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O75" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="P75" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q75" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R75" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S75" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T75" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U75" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:21">
@@ -5572,63 +5575,128 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="B76" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C76" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D76" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F76" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G76" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H76" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I76" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J76" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K76" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L76" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="M76" s="0" t="n">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="N76" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="O76" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="P76" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="Q76" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R76" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S76" s="0" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="T76" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="U76" s="1" t="n">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:21">
+      <x:c r="A77" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C77" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D77" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E77" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F77" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G77" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H77" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I77" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J77" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K77" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L77" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M77" s="0" t="n">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="N76" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O76" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P76" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q76" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R76" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S76" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T76" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U76" s="1" t="n">
+      <x:c r="N77" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O77" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P77" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q77" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R77" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S77" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T77" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U77" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -2077,7 +2077,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G22" s="0" t="n">
         <x:v>0</x:v>
@@ -2122,7 +2122,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U22" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:21">
@@ -2207,7 +2207,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>0</x:v>
@@ -2216,7 +2216,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="I24" s="0" t="n">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="J24" s="0" t="n">
         <x:v>2</x:v>
@@ -2252,7 +2252,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>1622</x:v>
+        <x:v>1624</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
@@ -2346,7 +2346,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
         <x:v>0</x:v>
@@ -2364,7 +2364,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O26" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="P26" s="0" t="n">
         <x:v>0</x:v>
@@ -2382,7 +2382,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -4553,7 +4553,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H60" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I60" s="0" t="n">
         <x:v>20</x:v>
@@ -4571,7 +4571,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="N60" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O60" s="0" t="n">
         <x:v>36</x:v>
@@ -4592,7 +4592,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="U60" s="1" t="n">
-        <x:v>170</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">
@@ -4677,7 +4677,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>0</x:v>
@@ -4722,7 +4722,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U62" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -2098,7 +2098,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M22" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="N22" s="0" t="n">
         <x:v>0</x:v>
@@ -2119,10 +2119,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="T22" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U22" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:21">
@@ -5224,7 +5224,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O70" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="P70" s="0" t="n">
         <x:v>0</x:v>
@@ -5242,7 +5242,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U70" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -1687,7 +1687,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
@@ -1732,7 +1732,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="U16" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:21">
@@ -2207,7 +2207,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>0</x:v>
@@ -2252,7 +2252,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>1624</x:v>
+        <x:v>1625</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
@@ -4243,13 +4243,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="M55" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N55" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O55" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="P55" s="0" t="n">
         <x:v>7</x:v>
@@ -4261,13 +4261,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="S55" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="T55" s="0" t="n">
         <x:v>46</x:v>
       </x:c>
       <x:c r="U55" s="1" t="n">
-        <x:v>414</x:v>
+        <x:v>417</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:21">
@@ -4547,7 +4547,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G60" s="0" t="n">
         <x:v>0</x:v>
@@ -4592,7 +4592,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="U60" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">
@@ -4804,7 +4804,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
         <x:v>33</x:v>
@@ -4816,7 +4816,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="I64" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J64" s="0" t="n">
         <x:v>2</x:v>
@@ -4828,7 +4828,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="M64" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N64" s="0" t="n">
         <x:v>10</x:v>
@@ -4846,13 +4846,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="S64" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="T64" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="U64" s="1" t="n">
-        <x:v>273</x:v>
+        <x:v>281</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
@@ -5354,7 +5354,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="O72" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="P72" s="0" t="n">
         <x:v>0</x:v>
@@ -5372,7 +5372,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U72" s="1" t="n">
-        <x:v>198</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:21">
@@ -5673,7 +5673,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M77" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="N77" s="0" t="n">
         <x:v>0</x:v>
@@ -5697,7 +5697,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U77" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -5318,7 +5318,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C72" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D72" s="0" t="n">
         <x:v>0</x:v>
@@ -5327,13 +5327,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I72" s="0" t="n">
         <x:v>16</x:v>
@@ -5345,7 +5345,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L72" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="M72" s="0" t="n">
         <x:v>53</x:v>
@@ -5372,7 +5372,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U72" s="1" t="n">
-        <x:v>200</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -2216,7 +2216,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="I24" s="0" t="n">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="J24" s="0" t="n">
         <x:v>2</x:v>
@@ -2252,7 +2252,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>1625</x:v>
+        <x:v>1626</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
@@ -3138,13 +3138,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M38" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N38" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O38" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P38" s="0" t="n">
         <x:v>0</x:v>
@@ -3162,7 +3162,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U38" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -2216,7 +2216,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="I24" s="0" t="n">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="J24" s="0" t="n">
         <x:v>2</x:v>
@@ -2252,7 +2252,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>1626</x:v>
+        <x:v>1627</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
@@ -4535,10 +4535,10 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="B60" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C60" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D60" s="0" t="n">
         <x:v>0</x:v>
@@ -4547,7 +4547,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G60" s="0" t="n">
         <x:v>0</x:v>
@@ -4574,7 +4574,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="O60" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="P60" s="0" t="n">
         <x:v>1</x:v>
@@ -4592,7 +4592,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="U60" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">
@@ -5253,7 +5253,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C71" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D71" s="0" t="n">
         <x:v>0</x:v>
@@ -5280,7 +5280,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L71" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M71" s="0" t="n">
         <x:v>3</x:v>
@@ -5307,7 +5307,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U71" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -904,7 +904,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
         <x:v>11</x:v>
@@ -946,13 +946,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="S4" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="T4" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="U4" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:21">
@@ -1480,32 +1480,32 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B13" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J13" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G13" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="H13" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I13" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J13" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
       <x:c r="K13" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -1513,10 +1513,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M13" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N13" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="O13" s="0" t="n">
         <x:v>31</x:v>
@@ -1525,7 +1525,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q13" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="R13" s="0" t="n">
         <x:v>5</x:v>
@@ -1537,7 +1537,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="U13" s="1" t="n">
-        <x:v>175</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:21">
@@ -5354,7 +5354,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="O72" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="P72" s="0" t="n">
         <x:v>0</x:v>
@@ -5372,7 +5372,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U72" s="1" t="n">
-        <x:v>204</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <x:si>
     <x:t>County</x:t>
   </x:si>
@@ -239,6 +239,9 @@
   </x:si>
   <x:si>
     <x:t>Ramsey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red Lake</x:t>
   </x:si>
   <x:si>
     <x:t>Redwood</x:t>
@@ -685,7 +688,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:U77"/>
+  <x:dimension ref="A1:U78"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -798,7 +801,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M2" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N2" s="0" t="n">
         <x:v>0</x:v>
@@ -822,7 +825,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="U2" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:21">
@@ -833,7 +836,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
         <x:v>0</x:v>
@@ -842,7 +845,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
@@ -851,7 +854,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
         <x:v>2</x:v>
@@ -863,7 +866,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>151</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -872,22 +875,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P3" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q3" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="R3" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="S3" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="T3" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>293</x:v>
+        <x:v>333</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -898,16 +901,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>0</x:v>
@@ -928,13 +931,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M4" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="N4" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O4" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="P4" s="0" t="n">
         <x:v>0</x:v>
@@ -949,10 +952,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="T4" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U4" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:21">
@@ -963,7 +966,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
         <x:v>0</x:v>
@@ -999,13 +1002,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="O5" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="P5" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R5" s="0" t="n">
         <x:v>2</x:v>
@@ -1014,10 +1017,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="T5" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="U5" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:21">
@@ -1093,7 +1096,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
         <x:v>0</x:v>
@@ -1102,19 +1105,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I7" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K7" s="0" t="n">
         <x:v>0</x:v>
@@ -1123,7 +1126,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="M7" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N7" s="0" t="n">
         <x:v>0</x:v>
@@ -1147,7 +1150,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U7" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:21">
@@ -1167,7 +1170,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>0</x:v>
@@ -1188,7 +1191,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M8" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="N8" s="0" t="n">
         <x:v>0</x:v>
@@ -1212,7 +1215,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U8" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:21">
@@ -1253,31 +1256,31 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M9" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N9" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O9" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="P9" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q9" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R9" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S9" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="P9" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q9" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R9" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S9" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="T9" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="U9" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:21">
@@ -1294,7 +1297,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
         <x:v>10</x:v>
@@ -1306,7 +1309,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I10" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J10" s="0" t="n">
         <x:v>0</x:v>
@@ -1318,13 +1321,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="M10" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="N10" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="O10" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P10" s="0" t="n">
         <x:v>0</x:v>
@@ -1342,7 +1345,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U10" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:21">
@@ -1383,10 +1386,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M11" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N11" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O11" s="0" t="n">
         <x:v>0</x:v>
@@ -1407,7 +1410,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U11" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:21">
@@ -1418,7 +1421,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C12" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D12" s="0" t="n">
         <x:v>0</x:v>
@@ -1472,7 +1475,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U12" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:21">
@@ -1483,7 +1486,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D13" s="0" t="n">
         <x:v>4</x:v>
@@ -1516,10 +1519,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="N13" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O13" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="P13" s="0" t="n">
         <x:v>0</x:v>
@@ -1531,13 +1534,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="S13" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="T13" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="U13" s="1" t="n">
-        <x:v>186</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:21">
@@ -1578,7 +1581,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M14" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N14" s="0" t="n">
         <x:v>1</x:v>
@@ -1602,7 +1605,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U14" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:21">
@@ -1613,7 +1616,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C15" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
         <x:v>3</x:v>
@@ -1622,7 +1625,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
@@ -1631,7 +1634,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I15" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="J15" s="0" t="n">
         <x:v>0</x:v>
@@ -1643,16 +1646,16 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="M15" s="0" t="n">
-        <x:v>61</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N15" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="O15" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P15" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q15" s="0" t="n">
         <x:v>0</x:v>
@@ -1661,13 +1664,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S15" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="T15" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="U15" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:21">
@@ -1687,7 +1690,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
@@ -1714,7 +1717,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="O16" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="P16" s="0" t="n">
         <x:v>1</x:v>
@@ -1729,10 +1732,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="T16" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="U16" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:21">
@@ -1808,7 +1811,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C18" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D18" s="0" t="n">
         <x:v>0</x:v>
@@ -1817,7 +1820,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
@@ -1838,7 +1841,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M18" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N18" s="0" t="n">
         <x:v>2</x:v>
@@ -1862,7 +1865,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U18" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
@@ -1909,7 +1912,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O19" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="P19" s="0" t="n">
         <x:v>0</x:v>
@@ -1927,7 +1930,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U19" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:21">
@@ -2068,43 +2071,43 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C22" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J22" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K22" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L22" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M22" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="N22" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O22" s="0" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="D22" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E22" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F22" s="0" t="n">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G22" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H22" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I22" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J22" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K22" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L22" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M22" s="0" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="N22" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O22" s="0" t="n">
-        <x:v>1</x:v>
       </x:c>
       <x:c r="P22" s="0" t="n">
         <x:v>0</x:v>
@@ -2122,7 +2125,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U22" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:21">
@@ -2172,7 +2175,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P23" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q23" s="0" t="n">
         <x:v>0</x:v>
@@ -2187,7 +2190,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U23" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:21">
@@ -2195,64 +2198,64 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B24" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
-        <x:v>124</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>160</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="I24" s="0" t="n">
-        <x:v>197</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="J24" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K24" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="L24" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="M24" s="0" t="n">
-        <x:v>255</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="N24" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="O24" s="0" t="n">
-        <x:v>212</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="P24" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="Q24" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R24" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="S24" s="0" t="n">
-        <x:v>262</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="T24" s="0" t="n">
-        <x:v>139</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>1627</x:v>
+        <x:v>1868</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
@@ -2364,7 +2367,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O26" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="P26" s="0" t="n">
         <x:v>0</x:v>
@@ -2379,10 +2382,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="T26" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -2423,31 +2426,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M27" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="N27" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O27" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="N27" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O27" s="0" t="n">
+      <x:c r="P27" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q27" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R27" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S27" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="P27" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q27" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R27" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S27" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="T27" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
@@ -2491,7 +2494,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="N28" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O28" s="0" t="n">
         <x:v>0</x:v>
@@ -2512,7 +2515,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="U28" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:21">
@@ -2588,7 +2591,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C30" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D30" s="0" t="n">
         <x:v>0</x:v>
@@ -2624,7 +2627,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O30" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="P30" s="0" t="n">
         <x:v>0</x:v>
@@ -2642,7 +2645,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U30" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:21">
@@ -2653,7 +2656,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C31" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
         <x:v>0</x:v>
@@ -2668,10 +2671,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H31" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I31" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J31" s="0" t="n">
         <x:v>0</x:v>
@@ -2683,13 +2686,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M31" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="N31" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O31" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="P31" s="0" t="n">
         <x:v>0</x:v>
@@ -2701,13 +2704,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S31" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="T31" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="U31" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:21">
@@ -2754,7 +2757,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O32" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="P32" s="0" t="n">
         <x:v>0</x:v>
@@ -2772,7 +2775,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U32" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:21">
@@ -2866,7 +2869,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I34" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J34" s="0" t="n">
         <x:v>0</x:v>
@@ -2902,7 +2905,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U34" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:21">
@@ -3061,7 +3064,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I37" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J37" s="0" t="n">
         <x:v>0</x:v>
@@ -3073,7 +3076,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M37" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="N37" s="0" t="n">
         <x:v>0</x:v>
@@ -3097,7 +3100,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U37" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:21">
@@ -3203,7 +3206,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M39" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N39" s="0" t="n">
         <x:v>0</x:v>
@@ -3227,7 +3230,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U39" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:21">
@@ -3238,7 +3241,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C40" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D40" s="0" t="n">
         <x:v>0</x:v>
@@ -3247,13 +3250,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I40" s="0" t="n">
         <x:v>5</x:v>
@@ -3268,7 +3271,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="M40" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="N40" s="0" t="n">
         <x:v>0</x:v>
@@ -3292,7 +3295,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U40" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:21">
@@ -3333,7 +3336,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M41" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="N41" s="0" t="n">
         <x:v>0</x:v>
@@ -3357,7 +3360,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U41" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
@@ -3368,43 +3371,43 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C42" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E42" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F42" s="0" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G42" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I42" s="0" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J42" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K42" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L42" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D42" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E42" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F42" s="0" t="n">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="G42" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H42" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I42" s="0" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="J42" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K42" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L42" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="M42" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O42" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="P42" s="0" t="n">
         <x:v>2</x:v>
@@ -3422,7 +3425,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="U42" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:21">
@@ -3439,7 +3442,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
         <x:v>7</x:v>
@@ -3451,7 +3454,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I43" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J43" s="0" t="n">
         <x:v>0</x:v>
@@ -3469,7 +3472,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O43" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="P43" s="0" t="n">
         <x:v>0</x:v>
@@ -3487,7 +3490,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U43" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:21">
@@ -3495,7 +3498,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="B44" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C44" s="0" t="n">
         <x:v>5</x:v>
@@ -3513,7 +3516,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H44" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I44" s="0" t="n">
         <x:v>4</x:v>
@@ -3528,13 +3531,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M44" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N44" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O44" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="P44" s="0" t="n">
         <x:v>0</x:v>
@@ -3543,7 +3546,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R44" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S44" s="0" t="n">
         <x:v>0</x:v>
@@ -3552,7 +3555,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U44" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:21">
@@ -3563,7 +3566,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C45" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D45" s="0" t="n">
         <x:v>0</x:v>
@@ -3572,7 +3575,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
         <x:v>0</x:v>
@@ -3617,7 +3620,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U45" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:21">
@@ -3637,7 +3640,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
         <x:v>0</x:v>
@@ -3658,7 +3661,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M46" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="N46" s="0" t="n">
         <x:v>1</x:v>
@@ -3676,13 +3679,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S46" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="T46" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="U46" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:21">
@@ -3702,7 +3705,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>0</x:v>
@@ -3747,7 +3750,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U47" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:21">
@@ -3755,10 +3758,10 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="B48" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C48" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D48" s="0" t="n">
         <x:v>0</x:v>
@@ -3767,7 +3770,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>2</x:v>
@@ -3776,7 +3779,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I48" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="J48" s="0" t="n">
         <x:v>0</x:v>
@@ -3788,31 +3791,31 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="M48" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="N48" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="O48" s="0" t="n">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="P48" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="Q48" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R48" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="O48" s="0" t="n">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="P48" s="0" t="n">
+      <x:c r="S48" s="0" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="T48" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="Q48" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R48" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="S48" s="0" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="T48" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
       <x:c r="U48" s="1" t="n">
-        <x:v>295</x:v>
+        <x:v>335</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:21">
@@ -3823,7 +3826,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C49" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D49" s="0" t="n">
         <x:v>0</x:v>
@@ -3832,28 +3835,28 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G49" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H49" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I49" s="0" t="n">
+      <x:c r="J49" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K49" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L49" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="J49" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K49" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L49" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="M49" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="N49" s="0" t="n">
         <x:v>0</x:v>
@@ -3877,7 +3880,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U49" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
@@ -3897,7 +3900,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
         <x:v>0</x:v>
@@ -3924,7 +3927,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="O50" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="P50" s="0" t="n">
         <x:v>0</x:v>
@@ -3942,7 +3945,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U50" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:21">
@@ -3983,13 +3986,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M51" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N51" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="O51" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P51" s="0" t="n">
         <x:v>0</x:v>
@@ -4048,7 +4051,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M52" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N52" s="0" t="n">
         <x:v>0</x:v>
@@ -4072,7 +4075,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U52" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:21">
@@ -4083,7 +4086,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C53" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D53" s="0" t="n">
         <x:v>0</x:v>
@@ -4137,7 +4140,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U53" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:21">
@@ -4210,19 +4213,19 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="B55" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C55" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D55" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E55" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G55" s="0" t="n">
         <x:v>0</x:v>
@@ -4231,7 +4234,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="I55" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J55" s="0" t="n">
         <x:v>0</x:v>
@@ -4240,16 +4243,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L55" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M55" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="N55" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O55" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="P55" s="0" t="n">
         <x:v>7</x:v>
@@ -4258,16 +4261,16 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="R55" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="S55" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="T55" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="U55" s="1" t="n">
-        <x:v>417</x:v>
+        <x:v>472</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:21">
@@ -4278,7 +4281,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C56" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D56" s="0" t="n">
         <x:v>0</x:v>
@@ -4287,7 +4290,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F56" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G56" s="0" t="n">
         <x:v>0</x:v>
@@ -4296,7 +4299,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I56" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J56" s="0" t="n">
         <x:v>0</x:v>
@@ -4305,10 +4308,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L56" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M56" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N56" s="0" t="n">
         <x:v>0</x:v>
@@ -4326,13 +4329,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S56" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T56" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U56" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
@@ -4340,19 +4343,19 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="B57" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C57" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D57" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G57" s="0" t="n">
         <x:v>0</x:v>
@@ -4361,7 +4364,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J57" s="0" t="n">
         <x:v>0</x:v>
@@ -4370,34 +4373,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M57" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N57" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O57" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P57" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q57" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R57" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S57" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="P57" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q57" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R57" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="S57" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="T57" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U57" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:21">
@@ -4405,25 +4408,25 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="B58" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C58" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D58" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E58" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F58" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G58" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H58" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I58" s="0" t="n">
         <x:v>0</x:v>
@@ -4435,34 +4438,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L58" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M58" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="N58" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O58" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="P58" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q58" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R58" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="S58" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="M58" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="N58" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O58" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="P58" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q58" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R58" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S58" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="T58" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U58" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">
@@ -4488,7 +4491,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H59" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I59" s="0" t="n">
         <x:v>0</x:v>
@@ -4500,16 +4503,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L59" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M59" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N59" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O59" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="P59" s="0" t="n">
         <x:v>0</x:v>
@@ -4527,7 +4530,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U59" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:21">
@@ -4535,64 +4538,64 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="B60" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C60" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D60" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G60" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H60" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I60" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J60" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K60" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L60" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="M60" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N60" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O60" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P60" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q60" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="R60" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S60" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T60" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U60" s="1" t="n">
-        <x:v>177</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">
@@ -4600,10 +4603,10 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="B61" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C61" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D61" s="0" t="n">
         <x:v>0</x:v>
@@ -4612,52 +4615,52 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H61" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I61" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K61" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L61" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M61" s="0" t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="N61" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O61" s="0" t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="P61" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="Q61" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R61" s="0" t="n">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="N61" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="O61" s="0" t="n">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="P61" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q61" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R61" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="S61" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="T61" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U61" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">
@@ -4665,64 +4668,64 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="B62" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C62" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G62" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H62" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I62" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="J62" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K62" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L62" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="M62" s="0" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="N62" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="O62" s="0" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="P62" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q62" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R62" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S62" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="G62" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H62" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I62" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J62" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K62" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L62" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M62" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="N62" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O62" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P62" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q62" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R62" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S62" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="T62" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U62" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">
@@ -4733,61 +4736,61 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C63" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D63" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G63" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H63" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I63" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="J63" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K63" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L63" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M63" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="N63" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O63" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P63" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q63" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R63" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S63" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T63" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U63" s="1" t="n">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="G63" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H63" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I63" s="0" t="n">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="J63" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K63" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L63" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M63" s="0" t="n">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="N63" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O63" s="0" t="n">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="P63" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="Q63" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R63" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S63" s="0" t="n">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="T63" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U63" s="1" t="n">
-        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:21">
@@ -4795,64 +4798,64 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="B64" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C64" s="0" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D64" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E64" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C64" s="0" t="n">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D64" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E64" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
       <x:c r="F64" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G64" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H64" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I64" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J64" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K64" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L64" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M64" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="N64" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O64" s="0" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P64" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="Q64" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R64" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S64" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="O64" s="0" t="n">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="P64" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="Q64" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R64" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="S64" s="0" t="n">
-        <x:v>32</x:v>
-      </x:c>
       <x:c r="T64" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U64" s="1" t="n">
-        <x:v>281</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
@@ -4860,64 +4863,64 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="B65" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C65" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D65" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G65" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H65" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I65" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J65" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K65" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L65" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M65" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="N65" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O65" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="P65" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q65" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R65" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S65" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="T65" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="U65" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>317</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">
@@ -4928,7 +4931,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C66" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D66" s="0" t="n">
         <x:v>0</x:v>
@@ -4937,7 +4940,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>0</x:v>
@@ -4955,16 +4958,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L66" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M66" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="N66" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O66" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P66" s="0" t="n">
         <x:v>0</x:v>
@@ -4973,16 +4976,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R66" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S66" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U66" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:21">
@@ -4993,7 +4996,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C67" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D67" s="0" t="n">
         <x:v>0</x:v>
@@ -5023,13 +5026,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M67" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N67" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O67" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P67" s="0" t="n">
         <x:v>0</x:v>
@@ -5047,7 +5050,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U67" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:21">
@@ -5079,7 +5082,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K68" s="0" t="n">
         <x:v>0</x:v>
@@ -5088,13 +5091,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M68" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N68" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P68" s="0" t="n">
         <x:v>0</x:v>
@@ -5112,7 +5115,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U68" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:21">
@@ -5132,7 +5135,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G69" s="0" t="n">
         <x:v>0</x:v>
@@ -5141,7 +5144,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J69" s="0" t="n">
         <x:v>0</x:v>
@@ -5153,7 +5156,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M69" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="N69" s="0" t="n">
         <x:v>0</x:v>
@@ -5162,7 +5165,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P69" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q69" s="0" t="n">
         <x:v>0</x:v>
@@ -5171,13 +5174,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S69" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T69" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U69" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:21">
@@ -5188,7 +5191,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D70" s="0" t="n">
         <x:v>0</x:v>
@@ -5197,7 +5200,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
         <x:v>0</x:v>
@@ -5218,16 +5221,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M70" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O70" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q70" s="0" t="n">
         <x:v>0</x:v>
@@ -5236,13 +5239,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T70" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U70" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:21">
@@ -5253,7 +5256,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C71" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D71" s="0" t="n">
         <x:v>0</x:v>
@@ -5271,25 +5274,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I71" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J71" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L71" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M71" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O71" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="P71" s="0" t="n">
         <x:v>0</x:v>
@@ -5304,10 +5307,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T71" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U71" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:21">
@@ -5315,28 +5318,28 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="B72" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C72" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E72" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H72" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I72" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J72" s="0" t="n">
         <x:v>1</x:v>
@@ -5345,34 +5348,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L72" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M72" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N72" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O72" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q72" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R72" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S72" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T72" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U72" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:21">
@@ -5380,64 +5383,64 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D73" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K73" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="M73" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="P73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="S73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="T73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="U73" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:21">
@@ -5448,7 +5451,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C74" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D74" s="0" t="n">
         <x:v>0</x:v>
@@ -5478,7 +5481,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M74" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N74" s="0" t="n">
         <x:v>0</x:v>
@@ -5502,7 +5505,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U74" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:21">
@@ -5513,7 +5516,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C75" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D75" s="0" t="n">
         <x:v>0</x:v>
@@ -5531,7 +5534,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I75" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J75" s="0" t="n">
         <x:v>0</x:v>
@@ -5540,34 +5543,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L75" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M75" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N75" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T75" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U75" s="1" t="n">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="P75" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q75" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R75" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="S75" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="T75" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U75" s="1" t="n">
-        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:21">
@@ -5575,64 +5578,64 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="B76" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C76" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D76" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E76" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F76" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G76" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H76" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I76" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="J76" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K76" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L76" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="M76" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F76" s="0" t="n">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G76" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H76" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I76" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="J76" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K76" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L76" s="0" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="M76" s="0" t="n">
-        <x:v>56</x:v>
-      </x:c>
       <x:c r="N76" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O76" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="P76" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q76" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R76" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S76" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T76" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U76" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:21">
@@ -5640,63 +5643,128 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B77" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C77" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D77" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I77" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J77" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K77" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L77" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="M77" s="0" t="n">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="N77" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="O77" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="P77" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="Q77" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R77" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S77" s="0" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="T77" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="U77" s="1" t="n">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:21">
+      <x:c r="A78" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B78" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C78" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D78" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E78" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F78" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G78" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H78" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I78" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J78" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K78" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L78" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M78" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="N77" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O77" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P77" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q77" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R77" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S77" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T77" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U77" s="1" t="n">
+      <x:c r="N78" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O78" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P78" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q78" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R78" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S78" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T78" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U78" s="1" t="n">
         <x:v>11</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -801,7 +801,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M2" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="N2" s="0" t="n">
         <x:v>0</x:v>
@@ -825,7 +825,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="U2" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:21">
@@ -1451,7 +1451,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M12" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N12" s="0" t="n">
         <x:v>0</x:v>
@@ -1475,7 +1475,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U12" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:21">
@@ -1634,7 +1634,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I15" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="J15" s="0" t="n">
         <x:v>0</x:v>
@@ -1667,7 +1667,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="T15" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U15" s="1" t="n">
         <x:v>156</x:v>
@@ -2491,7 +2491,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M28" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="N28" s="0" t="n">
         <x:v>2</x:v>
@@ -2509,13 +2509,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S28" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="T28" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="U28" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:21">
@@ -4095,7 +4095,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F53" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G53" s="0" t="n">
         <x:v>0</x:v>
@@ -4140,7 +4140,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U53" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -1560,7 +1560,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>0</x:v>
@@ -1605,7 +1605,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U14" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:21">
@@ -1646,7 +1646,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="M15" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="N15" s="0" t="n">
         <x:v>1</x:v>
@@ -1670,7 +1670,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U15" s="1" t="n">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:21">
@@ -2101,7 +2101,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M22" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="N22" s="0" t="n">
         <x:v>0</x:v>
@@ -2125,7 +2125,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U22" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:21">
@@ -2201,13 +2201,13 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
         <x:v>175</x:v>
@@ -2219,7 +2219,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="I24" s="0" t="n">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="J24" s="0" t="n">
         <x:v>3</x:v>
@@ -2237,7 +2237,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="O24" s="0" t="n">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="P24" s="0" t="n">
         <x:v>7</x:v>
@@ -2249,13 +2249,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="S24" s="0" t="n">
-        <x:v>298</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="T24" s="0" t="n">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>1868</x:v>
+        <x:v>1873</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
@@ -2470,7 +2470,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
         <x:v>0</x:v>
@@ -2491,7 +2491,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M28" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="N28" s="0" t="n">
         <x:v>2</x:v>
@@ -2509,13 +2509,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S28" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="T28" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="U28" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:21">
@@ -3250,7 +3250,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>0</x:v>
@@ -3271,7 +3271,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="M40" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N40" s="0" t="n">
         <x:v>0</x:v>
@@ -3295,7 +3295,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U40" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:21">
@@ -4606,13 +4606,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C61" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
         <x:v>18</x:v>
@@ -4633,10 +4633,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="L61" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M61" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="N61" s="0" t="n">
         <x:v>1</x:v>
@@ -4651,7 +4651,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="R61" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="S61" s="0" t="n">
         <x:v>19</x:v>
@@ -4660,7 +4660,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U61" s="1" t="n">
-        <x:v>196</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">
@@ -4875,7 +4875,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G65" s="0" t="n">
         <x:v>0</x:v>
@@ -4920,7 +4920,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="U65" s="1" t="n">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">
@@ -5646,25 +5646,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C77" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D77" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F77" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G77" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H77" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I77" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J77" s="0" t="n">
         <x:v>2</x:v>
@@ -5676,13 +5676,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="M77" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="N77" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O77" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="P77" s="0" t="n">
         <x:v>2</x:v>
@@ -5691,16 +5691,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R77" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S77" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="T77" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="U77" s="1" t="n">
-        <x:v>149</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -2252,10 +2252,10 @@
         <x:v>300</x:v>
       </x:c>
       <x:c r="T24" s="0" t="n">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>1873</x:v>
+        <x:v>1872</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
@@ -3250,7 +3250,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>0</x:v>
@@ -3295,7 +3295,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U40" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:21">
@@ -5413,10 +5413,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L73" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="M73" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="N73" s="0" t="n">
         <x:v>4</x:v>
@@ -5440,7 +5440,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="U73" s="1" t="n">
-        <x:v>243</x:v>
+        <x:v>245</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -2201,7 +2201,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
         <x:v>1</x:v>
@@ -2237,7 +2237,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="O24" s="0" t="n">
-        <x:v>238</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="P24" s="0" t="n">
         <x:v>7</x:v>
@@ -2255,7 +2255,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>1872</x:v>
+        <x:v>1875</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
@@ -4831,7 +4831,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M64" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="N64" s="0" t="n">
         <x:v>0</x:v>
@@ -4855,7 +4855,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U64" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
@@ -5416,7 +5416,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="M73" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="N73" s="0" t="n">
         <x:v>4</x:v>
@@ -5440,7 +5440,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="U73" s="1" t="n">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -836,7 +836,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
         <x:v>0</x:v>
@@ -866,7 +866,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>175</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -890,7 +890,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>333</x:v>
+        <x:v>336</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -1847,7 +1847,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="O18" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="P18" s="0" t="n">
         <x:v>0</x:v>
@@ -1865,7 +1865,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U18" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
@@ -2219,7 +2219,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="I24" s="0" t="n">
-        <x:v>243</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="J24" s="0" t="n">
         <x:v>3</x:v>
@@ -2231,7 +2231,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="M24" s="0" t="n">
-        <x:v>297</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="N24" s="0" t="n">
         <x:v>16</x:v>
@@ -2255,7 +2255,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>1875</x:v>
+        <x:v>1881</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
@@ -2656,7 +2656,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C31" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
         <x:v>0</x:v>
@@ -2710,7 +2710,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U31" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:21">
@@ -3336,7 +3336,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M41" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="N41" s="0" t="n">
         <x:v>0</x:v>
@@ -3354,13 +3354,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S41" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U41" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
@@ -4246,7 +4246,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="M55" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="N55" s="0" t="n">
         <x:v>0</x:v>
@@ -4270,7 +4270,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="U55" s="1" t="n">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -2237,7 +2237,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="O24" s="0" t="n">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="P24" s="0" t="n">
         <x:v>7</x:v>
@@ -2255,7 +2255,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>1881</x:v>
+        <x:v>1882</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
@@ -2340,7 +2340,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>0</x:v>
@@ -2385,7 +2385,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -3856,7 +3856,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="M49" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="N49" s="0" t="n">
         <x:v>0</x:v>
@@ -3880,7 +3880,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U49" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
@@ -4680,7 +4680,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>0</x:v>
@@ -4725,7 +4725,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U62" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">
@@ -5416,7 +5416,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="M73" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="N73" s="0" t="n">
         <x:v>4</x:v>
@@ -5440,7 +5440,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="U73" s="1" t="n">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -2231,7 +2231,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="M24" s="0" t="n">
-        <x:v>301</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="N24" s="0" t="n">
         <x:v>16</x:v>
@@ -2240,7 +2240,7 @@
         <x:v>241</x:v>
       </x:c>
       <x:c r="P24" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q24" s="0" t="n">
         <x:v>1</x:v>
@@ -2249,13 +2249,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="S24" s="0" t="n">
-        <x:v>300</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="T24" s="0" t="n">
         <x:v>161</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>1882</x:v>
+        <x:v>1886</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -2198,7 +2198,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B24" s="0" t="n">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
         <x:v>145</x:v>
@@ -2219,7 +2219,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="I24" s="0" t="n">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="J24" s="0" t="n">
         <x:v>3</x:v>
@@ -2231,13 +2231,13 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="M24" s="0" t="n">
-        <x:v>304</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="N24" s="0" t="n">
         <x:v>16</x:v>
       </x:c>
       <x:c r="O24" s="0" t="n">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="P24" s="0" t="n">
         <x:v>6</x:v>
@@ -2252,10 +2252,10 @@
         <x:v>302</x:v>
       </x:c>
       <x:c r="T24" s="0" t="n">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>1886</x:v>
+        <x:v>1889</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
@@ -2340,7 +2340,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>0</x:v>
@@ -2385,7 +2385,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -3510,7 +3510,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>0</x:v>
@@ -3555,7 +3555,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U44" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:21">
@@ -4606,7 +4606,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C61" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D61" s="0" t="n">
         <x:v>0</x:v>
@@ -4636,13 +4636,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="M61" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N61" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="O61" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="P61" s="0" t="n">
         <x:v>2</x:v>
@@ -4660,7 +4660,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U61" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -2201,7 +2201,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
         <x:v>1</x:v>
@@ -2255,7 +2255,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>1889</x:v>
+        <x:v>1890</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
@@ -3761,7 +3761,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C48" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D48" s="0" t="n">
         <x:v>0</x:v>
@@ -3770,7 +3770,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>2</x:v>
@@ -3779,7 +3779,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I48" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="J48" s="0" t="n">
         <x:v>0</x:v>
@@ -3797,7 +3797,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="O48" s="0" t="n">
-        <x:v>93</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="P48" s="0" t="n">
         <x:v>8</x:v>
@@ -3809,13 +3809,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="S48" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="T48" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="U48" s="1" t="n">
-        <x:v>335</x:v>
+        <x:v>349</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:21">
@@ -4606,7 +4606,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C61" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D61" s="0" t="n">
         <x:v>0</x:v>
@@ -4642,7 +4642,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="O61" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="P61" s="0" t="n">
         <x:v>2</x:v>
@@ -4660,7 +4660,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U61" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">
@@ -4689,7 +4689,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I62" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="J62" s="0" t="n">
         <x:v>0</x:v>
@@ -4725,7 +4725,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U62" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -2340,7 +2340,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>0</x:v>
@@ -2385,7 +2385,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -3856,7 +3856,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="M49" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="N49" s="0" t="n">
         <x:v>0</x:v>
@@ -3880,7 +3880,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U49" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <x:si>
     <x:t>County</x:t>
   </x:si>
@@ -206,6 +206,9 @@
   </x:si>
   <x:si>
     <x:t>Mower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Murray</x:t>
   </x:si>
   <x:si>
     <x:t>Nicollet</x:t>
@@ -688,7 +691,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:U78"/>
+  <x:dimension ref="A1:U79"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -780,7 +783,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
@@ -801,7 +804,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M2" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N2" s="0" t="n">
         <x:v>0</x:v>
@@ -825,7 +828,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="U2" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:21">
@@ -836,13 +839,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
         <x:v>21</x:v>
@@ -854,7 +857,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
         <x:v>2</x:v>
@@ -866,7 +869,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>177</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -875,7 +878,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P3" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="Q3" s="0" t="n">
         <x:v>2</x:v>
@@ -884,13 +887,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="S3" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="T3" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>336</x:v>
+        <x:v>369</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -907,10 +910,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>0</x:v>
@@ -931,7 +934,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M4" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N4" s="0" t="n">
         <x:v>0</x:v>
@@ -949,13 +952,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="S4" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="T4" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="U4" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:21">
@@ -1002,7 +1005,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="O5" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="P5" s="0" t="n">
         <x:v>0</x:v>
@@ -1020,7 +1023,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="U5" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:21">
@@ -1031,7 +1034,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D6" s="0" t="n">
         <x:v>0</x:v>
@@ -1049,7 +1052,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I6" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J6" s="0" t="n">
         <x:v>0</x:v>
@@ -1061,7 +1064,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M6" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="N6" s="0" t="n">
         <x:v>0</x:v>
@@ -1079,13 +1082,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S6" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T6" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U6" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:21">
@@ -1096,7 +1099,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
         <x:v>0</x:v>
@@ -1114,7 +1117,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I7" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J7" s="0" t="n">
         <x:v>1</x:v>
@@ -1126,7 +1129,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="M7" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="N7" s="0" t="n">
         <x:v>0</x:v>
@@ -1150,7 +1153,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U7" s="1" t="n">
-        <x:v>123</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:21">
@@ -1170,7 +1173,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>0</x:v>
@@ -1215,7 +1218,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U8" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:21">
@@ -1235,7 +1238,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>1</x:v>
@@ -1244,7 +1247,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I9" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="J9" s="0" t="n">
         <x:v>0</x:v>
@@ -1256,7 +1259,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M9" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N9" s="0" t="n">
         <x:v>0</x:v>
@@ -1280,7 +1283,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="U9" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:21">
@@ -1309,7 +1312,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I10" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J10" s="0" t="n">
         <x:v>0</x:v>
@@ -1321,7 +1324,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="M10" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N10" s="0" t="n">
         <x:v>2</x:v>
@@ -1345,7 +1348,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U10" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:21">
@@ -1389,7 +1392,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="N11" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="O11" s="0" t="n">
         <x:v>0</x:v>
@@ -1410,7 +1413,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U11" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:21">
@@ -1430,7 +1433,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
         <x:v>0</x:v>
@@ -1448,16 +1451,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L12" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M12" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N12" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O12" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P12" s="0" t="n">
         <x:v>0</x:v>
@@ -1475,7 +1478,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U12" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:21">
@@ -1495,7 +1498,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
         <x:v>3</x:v>
@@ -1516,10 +1519,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M13" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="N13" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="O13" s="0" t="n">
         <x:v>34</x:v>
@@ -1528,19 +1531,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q13" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="R13" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="S13" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="T13" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U13" s="1" t="n">
-        <x:v>194</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:21">
@@ -1613,10 +1616,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="B15" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C15" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
         <x:v>3</x:v>
@@ -1625,7 +1628,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
@@ -1634,7 +1637,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I15" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="J15" s="0" t="n">
         <x:v>0</x:v>
@@ -1646,13 +1649,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="M15" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="N15" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="O15" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P15" s="0" t="n">
         <x:v>3</x:v>
@@ -1664,13 +1667,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S15" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="T15" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U15" s="1" t="n">
-        <x:v>157</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:21">
@@ -1690,7 +1693,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
@@ -1708,16 +1711,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L16" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M16" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="N16" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="O16" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="P16" s="0" t="n">
         <x:v>1</x:v>
@@ -1729,13 +1732,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S16" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="T16" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="U16" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:21">
@@ -1776,13 +1779,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M17" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O17" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="P17" s="0" t="n">
         <x:v>0</x:v>
@@ -1800,7 +1803,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U17" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:21">
@@ -1841,13 +1844,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M18" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N18" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="O18" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="P18" s="0" t="n">
         <x:v>0</x:v>
@@ -1865,7 +1868,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U18" s="1" t="n">
-        <x:v>69</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
@@ -2006,7 +2009,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C21" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D21" s="0" t="n">
         <x:v>0</x:v>
@@ -2015,7 +2018,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G21" s="0" t="n">
         <x:v>0</x:v>
@@ -2036,7 +2039,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M21" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="N21" s="0" t="n">
         <x:v>0</x:v>
@@ -2060,7 +2063,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U21" s="1" t="n">
-        <x:v>50</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:21">
@@ -2080,7 +2083,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G22" s="0" t="n">
         <x:v>0</x:v>
@@ -2101,13 +2104,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M22" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="N22" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O22" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P22" s="0" t="n">
         <x:v>0</x:v>
@@ -2125,7 +2128,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U22" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:21">
@@ -2198,64 +2201,64 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B24" s="0" t="n">
-        <x:v>114</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
-        <x:v>146</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>175</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="I24" s="0" t="n">
-        <x:v>246</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="J24" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K24" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="L24" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="M24" s="0" t="n">
-        <x:v>303</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="N24" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="O24" s="0" t="n">
-        <x:v>242</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="P24" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="Q24" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="R24" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="S24" s="0" t="n">
-        <x:v>302</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="T24" s="0" t="n">
-        <x:v>162</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>1890</x:v>
+        <x:v>2127</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
@@ -2470,7 +2473,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
         <x:v>0</x:v>
@@ -2491,7 +2494,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M28" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="N28" s="0" t="n">
         <x:v>2</x:v>
@@ -2515,7 +2518,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="U28" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:21">
@@ -2556,7 +2559,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M29" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N29" s="0" t="n">
         <x:v>0</x:v>
@@ -2580,7 +2583,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U29" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:21">
@@ -2627,7 +2630,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O30" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P30" s="0" t="n">
         <x:v>0</x:v>
@@ -2645,7 +2648,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U30" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:21">
@@ -2656,7 +2659,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C31" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
         <x:v>0</x:v>
@@ -2674,7 +2677,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I31" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="J31" s="0" t="n">
         <x:v>0</x:v>
@@ -2686,13 +2689,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M31" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N31" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O31" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="P31" s="0" t="n">
         <x:v>0</x:v>
@@ -2701,7 +2704,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R31" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S31" s="0" t="n">
         <x:v>11</x:v>
@@ -2710,7 +2713,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U31" s="1" t="n">
-        <x:v>121</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:21">
@@ -2772,10 +2775,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T32" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U32" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:21">
@@ -2952,7 +2955,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O35" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P35" s="0" t="n">
         <x:v>0</x:v>
@@ -2970,7 +2973,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U35" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:21">
@@ -3011,7 +3014,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M36" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N36" s="0" t="n">
         <x:v>0</x:v>
@@ -3035,7 +3038,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U36" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:21">
@@ -3046,7 +3049,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C37" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D37" s="0" t="n">
         <x:v>0</x:v>
@@ -3055,7 +3058,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G37" s="0" t="n">
         <x:v>0</x:v>
@@ -3073,16 +3076,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L37" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M37" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N37" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O37" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P37" s="0" t="n">
         <x:v>0</x:v>
@@ -3094,13 +3097,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S37" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="T37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U37" s="1" t="n">
-        <x:v>43</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:21">
@@ -3176,7 +3179,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C39" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D39" s="0" t="n">
         <x:v>0</x:v>
@@ -3224,13 +3227,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S39" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T39" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="U39" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:21">
@@ -3241,7 +3244,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C40" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D40" s="0" t="n">
         <x:v>0</x:v>
@@ -3250,13 +3253,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I40" s="0" t="n">
         <x:v>5</x:v>
@@ -3268,10 +3271,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L40" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M40" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="N40" s="0" t="n">
         <x:v>0</x:v>
@@ -3289,13 +3292,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S40" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T40" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U40" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:21">
@@ -3336,7 +3339,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M41" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="N41" s="0" t="n">
         <x:v>0</x:v>
@@ -3354,13 +3357,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S41" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U41" s="1" t="n">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
@@ -3377,10 +3380,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>0</x:v>
@@ -3398,16 +3401,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L42" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="M42" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O42" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="P42" s="0" t="n">
         <x:v>2</x:v>
@@ -3422,10 +3425,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="T42" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="U42" s="1" t="n">
-        <x:v>124</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:21">
@@ -3472,7 +3475,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O43" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="P43" s="0" t="n">
         <x:v>0</x:v>
@@ -3490,7 +3493,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U43" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:21">
@@ -3516,10 +3519,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H44" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I44" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J44" s="0" t="n">
         <x:v>0</x:v>
@@ -3537,7 +3540,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O44" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="P44" s="0" t="n">
         <x:v>0</x:v>
@@ -3555,7 +3558,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U44" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:21">
@@ -3566,16 +3569,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C45" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D45" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E45" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
         <x:v>0</x:v>
@@ -3584,7 +3587,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I45" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J45" s="0" t="n">
         <x:v>0</x:v>
@@ -3596,7 +3599,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M45" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N45" s="0" t="n">
         <x:v>0</x:v>
@@ -3605,10 +3608,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P45" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q45" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R45" s="0" t="n">
         <x:v>0</x:v>
@@ -3617,10 +3620,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T45" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U45" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:21">
@@ -3628,31 +3631,31 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="B46" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C46" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D46" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G46" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I46" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="G46" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H46" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I46" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="J46" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K46" s="0" t="n">
         <x:v>0</x:v>
@@ -3661,28 +3664,28 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M46" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="N46" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O46" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P46" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q46" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R46" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S46" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T46" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U46" s="1" t="n">
         <x:v>51</x:v>
@@ -3693,10 +3696,10 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="B47" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C47" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D47" s="0" t="n">
         <x:v>0</x:v>
@@ -3705,7 +3708,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>0</x:v>
@@ -3714,22 +3717,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I47" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J47" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L47" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M47" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N47" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O47" s="0" t="n">
         <x:v>0</x:v>
@@ -3744,13 +3747,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S47" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="T47" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U47" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:21">
@@ -3758,28 +3761,28 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="B48" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C48" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D48" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E48" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H48" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I48" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J48" s="0" t="n">
         <x:v>0</x:v>
@@ -3788,34 +3791,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L48" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M48" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N48" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O48" s="0" t="n">
-        <x:v>96</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P48" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q48" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R48" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S48" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T48" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U48" s="1" t="n">
-        <x:v>349</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:21">
@@ -3823,64 +3826,64 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="B49" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C49" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G49" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I49" s="0" t="n">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="J49" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K49" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L49" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="M49" s="0" t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="N49" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="O49" s="0" t="n">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="P49" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="Q49" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R49" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G49" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H49" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I49" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="J49" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K49" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L49" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="M49" s="0" t="n">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="N49" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O49" s="0" t="n">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="P49" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="Q49" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R49" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="S49" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="T49" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="U49" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
@@ -3891,25 +3894,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C50" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D50" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E50" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D50" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E50" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H50" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I50" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J50" s="0" t="n">
         <x:v>0</x:v>
@@ -3918,19 +3921,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L50" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M50" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="N50" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O50" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="P50" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q50" s="0" t="n">
         <x:v>0</x:v>
@@ -3939,13 +3942,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S50" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T50" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U50" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:21">
@@ -3956,7 +3959,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C51" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D51" s="0" t="n">
         <x:v>0</x:v>
@@ -3965,16 +3968,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G51" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H51" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I51" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J51" s="0" t="n">
         <x:v>0</x:v>
@@ -3986,13 +3989,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M51" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="N51" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="O51" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="P51" s="0" t="n">
         <x:v>0</x:v>
@@ -4004,13 +4007,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S51" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="T51" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U51" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:21">
@@ -4030,7 +4033,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F52" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G52" s="0" t="n">
         <x:v>0</x:v>
@@ -4039,7 +4042,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I52" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J52" s="0" t="n">
         <x:v>0</x:v>
@@ -4051,16 +4054,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M52" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N52" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O52" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P52" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q52" s="0" t="n">
         <x:v>0</x:v>
@@ -4069,13 +4072,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S52" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T52" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U52" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:21">
@@ -4095,52 +4098,52 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F53" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G53" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H53" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I53" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J53" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K53" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L53" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M53" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="N53" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O53" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P53" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q53" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R53" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S53" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="J53" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K53" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L53" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M53" s="0" t="n">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="N53" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O53" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="P53" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q53" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R53" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S53" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="T53" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U53" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:21">
@@ -4151,7 +4154,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C54" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D54" s="0" t="n">
         <x:v>0</x:v>
@@ -4160,16 +4163,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F54" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G54" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H54" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I54" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J54" s="0" t="n">
         <x:v>0</x:v>
@@ -4178,34 +4181,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L54" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M54" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N54" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O54" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="P54" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q54" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R54" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S54" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T54" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U54" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:21">
@@ -4213,28 +4216,28 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="B55" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C55" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D55" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E55" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G55" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H55" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I55" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J55" s="0" t="n">
         <x:v>0</x:v>
@@ -4243,34 +4246,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L55" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M55" s="0" t="n">
-        <x:v>96</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N55" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O55" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P55" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q55" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R55" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S55" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T55" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U55" s="1" t="n">
-        <x:v>473</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:21">
@@ -4278,28 +4281,28 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="B56" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C56" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D56" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E56" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F56" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G56" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H56" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I56" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J56" s="0" t="n">
         <x:v>0</x:v>
@@ -4308,34 +4311,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L56" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M56" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="N56" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O56" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="P56" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="Q56" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="R56" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="S56" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="T56" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="U56" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>580</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
@@ -4346,7 +4349,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C57" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D57" s="0" t="n">
         <x:v>0</x:v>
@@ -4355,7 +4358,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G57" s="0" t="n">
         <x:v>0</x:v>
@@ -4364,7 +4367,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I57" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J57" s="0" t="n">
         <x:v>0</x:v>
@@ -4373,10 +4376,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L57" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M57" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N57" s="0" t="n">
         <x:v>0</x:v>
@@ -4394,13 +4397,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S57" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T57" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U57" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:21">
@@ -4408,19 +4411,19 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="B58" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C58" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D58" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E58" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F58" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G58" s="0" t="n">
         <x:v>0</x:v>
@@ -4429,7 +4432,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I58" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J58" s="0" t="n">
         <x:v>0</x:v>
@@ -4438,16 +4441,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L58" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M58" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="N58" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O58" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P58" s="0" t="n">
         <x:v>0</x:v>
@@ -4456,16 +4459,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R58" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S58" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="T58" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U58" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">
@@ -4473,25 +4476,25 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="B59" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C59" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D59" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E59" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F59" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G59" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H59" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I59" s="0" t="n">
         <x:v>0</x:v>
@@ -4503,34 +4506,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L59" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M59" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="N59" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O59" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="P59" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q59" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R59" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="S59" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="M59" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="N59" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O59" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="P59" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q59" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R59" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S59" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="T59" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U59" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:21">
@@ -4541,7 +4544,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C60" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D60" s="0" t="n">
         <x:v>0</x:v>
@@ -4550,16 +4553,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G60" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H60" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I60" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J60" s="0" t="n">
         <x:v>0</x:v>
@@ -4568,34 +4571,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L60" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M60" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N60" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O60" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="P60" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q60" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R60" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S60" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T60" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U60" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">
@@ -4603,64 +4606,64 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="B61" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C61" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E61" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H61" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I61" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K61" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L61" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M61" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N61" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O61" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P61" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q61" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="R61" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S61" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T61" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U61" s="1" t="n">
-        <x:v>201</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">
@@ -4668,64 +4671,64 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="B62" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C62" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H62" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I62" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K62" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L62" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M62" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N62" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O62" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="P62" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q62" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R62" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="S62" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="T62" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U62" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">
@@ -4733,19 +4736,19 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B63" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C63" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D63" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
         <x:v>0</x:v>
@@ -4754,7 +4757,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I63" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="J63" s="0" t="n">
         <x:v>0</x:v>
@@ -4763,16 +4766,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L63" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M63" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="N63" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="O63" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="P63" s="0" t="n">
         <x:v>0</x:v>
@@ -4781,16 +4784,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R63" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S63" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T63" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U63" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:21">
@@ -4801,61 +4804,61 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C64" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D64" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F64" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G64" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H64" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I64" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="J64" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K64" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L64" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M64" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="F64" s="0" t="n">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G64" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H64" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I64" s="0" t="n">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="J64" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K64" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L64" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M64" s="0" t="n">
-        <x:v>73</x:v>
-      </x:c>
       <x:c r="N64" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O64" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P64" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q64" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R64" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S64" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T64" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U64" s="1" t="n">
-        <x:v>181</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
@@ -4863,46 +4866,46 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="B65" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C65" s="0" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D65" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E65" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C65" s="0" t="n">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D65" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E65" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G65" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H65" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I65" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J65" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K65" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L65" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M65" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="N65" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O65" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P65" s="0" t="n">
         <x:v>2</x:v>
@@ -4914,13 +4917,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="S65" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="T65" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U65" s="1" t="n">
-        <x:v>318</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">
@@ -4928,64 +4931,64 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="B66" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C66" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I66" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J66" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L66" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M66" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="N66" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O66" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="P66" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q66" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R66" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S66" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="T66" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="U66" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>342</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:21">
@@ -4996,7 +4999,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C67" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D67" s="0" t="n">
         <x:v>0</x:v>
@@ -5005,7 +5008,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G67" s="0" t="n">
         <x:v>0</x:v>
@@ -5023,16 +5026,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L67" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M67" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="N67" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O67" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P67" s="0" t="n">
         <x:v>0</x:v>
@@ -5041,16 +5044,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R67" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S67" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T67" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U67" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:21">
@@ -5061,7 +5064,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D68" s="0" t="n">
         <x:v>0</x:v>
@@ -5070,7 +5073,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G68" s="0" t="n">
         <x:v>0</x:v>
@@ -5079,10 +5082,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I68" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J68" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K68" s="0" t="n">
         <x:v>0</x:v>
@@ -5091,13 +5094,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="N68" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O68" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P68" s="0" t="n">
         <x:v>0</x:v>
@@ -5115,7 +5118,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U68" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:21">
@@ -5126,7 +5129,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C69" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D69" s="0" t="n">
         <x:v>0</x:v>
@@ -5144,10 +5147,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I69" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K69" s="0" t="n">
         <x:v>0</x:v>
@@ -5156,13 +5159,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M69" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N69" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P69" s="0" t="n">
         <x:v>0</x:v>
@@ -5180,7 +5183,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U69" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:21">
@@ -5200,7 +5203,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G70" s="0" t="n">
         <x:v>0</x:v>
@@ -5209,7 +5212,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J70" s="0" t="n">
         <x:v>0</x:v>
@@ -5218,10 +5221,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M70" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="N70" s="0" t="n">
         <x:v>0</x:v>
@@ -5230,7 +5233,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P70" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q70" s="0" t="n">
         <x:v>0</x:v>
@@ -5239,13 +5242,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S70" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U70" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:21">
@@ -5256,7 +5259,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C71" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D71" s="0" t="n">
         <x:v>0</x:v>
@@ -5265,7 +5268,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G71" s="0" t="n">
         <x:v>0</x:v>
@@ -5286,16 +5289,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M71" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O71" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P71" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q71" s="0" t="n">
         <x:v>0</x:v>
@@ -5304,13 +5307,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S71" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T71" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U71" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:21">
@@ -5321,7 +5324,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C72" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D72" s="0" t="n">
         <x:v>0</x:v>
@@ -5339,25 +5342,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I72" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J72" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L72" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M72" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O72" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="P72" s="0" t="n">
         <x:v>0</x:v>
@@ -5372,10 +5375,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T72" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U72" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:21">
@@ -5383,64 +5386,64 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B73" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C73" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D73" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E73" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F73" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G73" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H73" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I73" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J73" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K73" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L73" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="M73" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C73" s="0" t="n">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D73" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E73" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F73" s="0" t="n">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G73" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H73" s="0" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="I73" s="0" t="n">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="J73" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K73" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L73" s="0" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="M73" s="0" t="n">
-        <x:v>72</x:v>
-      </x:c>
       <x:c r="N73" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O73" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P73" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q73" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R73" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S73" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T73" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U73" s="1" t="n">
-        <x:v>247</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:21">
@@ -5448,64 +5451,64 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D74" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G74" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="J74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K74" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M74" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="N74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="O74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="P74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="S74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="T74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="U74" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:21">
@@ -5516,7 +5519,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C75" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D75" s="0" t="n">
         <x:v>0</x:v>
@@ -5534,7 +5537,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I75" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J75" s="0" t="n">
         <x:v>0</x:v>
@@ -5546,10 +5549,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M75" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N75" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O75" s="0" t="n">
         <x:v>0</x:v>
@@ -5561,7 +5564,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R75" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S75" s="0" t="n">
         <x:v>0</x:v>
@@ -5570,7 +5573,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U75" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:21">
@@ -5581,7 +5584,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C76" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D76" s="0" t="n">
         <x:v>0</x:v>
@@ -5599,7 +5602,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I76" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J76" s="0" t="n">
         <x:v>0</x:v>
@@ -5608,34 +5611,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L76" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M76" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N76" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O76" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P76" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q76" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R76" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S76" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T76" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U76" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:21">
@@ -5643,49 +5646,49 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B77" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C77" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D77" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E77" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F77" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G77" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H77" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I77" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F77" s="0" t="n">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G77" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H77" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="I77" s="0" t="n">
-        <x:v>8</x:v>
-      </x:c>
       <x:c r="J77" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K77" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L77" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M77" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N77" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O77" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="P77" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q77" s="0" t="n">
         <x:v>0</x:v>
@@ -5694,13 +5697,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="S77" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T77" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U77" s="1" t="n">
-        <x:v>186</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:21">
@@ -5708,64 +5711,129 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B78" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C78" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D78" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G78" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H78" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I78" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J78" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K78" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L78" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="M78" s="0" t="n">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="N78" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="O78" s="0" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="P78" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="Q78" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R78" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="S78" s="0" t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="T78" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="U78" s="1" t="n">
+        <x:v>203</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:21">
+      <x:c r="A79" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B79" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C79" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D79" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E79" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F79" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G79" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H79" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I79" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J79" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K79" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L79" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M79" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="N78" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O78" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P78" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q78" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R78" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S78" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T78" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U78" s="1" t="n">
-        <x:v>11</x:v>
+      <x:c r="N79" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O79" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P79" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q79" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R79" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S79" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T79" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U79" s="1" t="n">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -848,7 +848,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
@@ -869,7 +869,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -893,7 +893,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>369</x:v>
+        <x:v>371</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -955,10 +955,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="T4" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="U4" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:21">
@@ -987,7 +987,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I5" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="J5" s="0" t="n">
         <x:v>0</x:v>
@@ -1020,10 +1020,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="T5" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="U5" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:21">
@@ -1735,10 +1735,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="T16" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="U16" s="1" t="n">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:21">
@@ -2039,7 +2039,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M21" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="N21" s="0" t="n">
         <x:v>0</x:v>
@@ -2063,7 +2063,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U21" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:21">
@@ -2201,19 +2201,19 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B24" s="0" t="n">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>191</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>0</x:v>
@@ -2222,7 +2222,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="I24" s="0" t="n">
-        <x:v>275</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="J24" s="0" t="n">
         <x:v>6</x:v>
@@ -2231,19 +2231,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="L24" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M24" s="0" t="n">
-        <x:v>353</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="N24" s="0" t="n">
         <x:v>20</x:v>
       </x:c>
       <x:c r="O24" s="0" t="n">
-        <x:v>261</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="P24" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="Q24" s="0" t="n">
         <x:v>1</x:v>
@@ -2252,13 +2252,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="S24" s="0" t="n">
-        <x:v>337</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="T24" s="0" t="n">
-        <x:v>189</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>2127</x:v>
+        <x:v>2157</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
@@ -3729,7 +3729,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M47" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="N47" s="0" t="n">
         <x:v>1</x:v>
@@ -3753,7 +3753,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="U47" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:21">
@@ -4284,7 +4284,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="C56" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D56" s="0" t="n">
         <x:v>0</x:v>
@@ -4314,7 +4314,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="M56" s="0" t="n">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="N56" s="0" t="n">
         <x:v>0</x:v>
@@ -4338,7 +4338,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="U56" s="1" t="n">
-        <x:v>580</x:v>
+        <x:v>582</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
@@ -4574,7 +4574,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="M60" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N60" s="0" t="n">
         <x:v>0</x:v>
@@ -4598,7 +4598,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U60" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">
@@ -4710,7 +4710,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="O62" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="P62" s="0" t="n">
         <x:v>2</x:v>
@@ -4728,7 +4728,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U62" s="1" t="n">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">
@@ -4943,7 +4943,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>0</x:v>
@@ -4988,7 +4988,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="U66" s="1" t="n">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:21">
@@ -5472,7 +5472,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I74" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J74" s="0" t="n">
         <x:v>1</x:v>
@@ -5508,7 +5508,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="U74" s="1" t="n">
-        <x:v>270</x:v>
+        <x:v>269</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -1628,7 +1628,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F15" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G15" s="0" t="n">
         <x:v>0</x:v>
@@ -1649,7 +1649,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="M15" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="N15" s="0" t="n">
         <x:v>1</x:v>
@@ -1673,7 +1673,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U15" s="1" t="n">
-        <x:v>171</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:21">
@@ -1823,7 +1823,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
@@ -1868,7 +1868,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U18" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
@@ -2201,10 +2201,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B24" s="0" t="n">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
-        <x:v>164</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
         <x:v>1</x:v>
@@ -2252,13 +2252,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="S24" s="0" t="n">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="T24" s="0" t="n">
         <x:v>192</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>2157</x:v>
+        <x:v>2159</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
@@ -4284,7 +4284,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="C56" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D56" s="0" t="n">
         <x:v>0</x:v>
@@ -4338,7 +4338,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="U56" s="1" t="n">
-        <x:v>582</x:v>
+        <x:v>583</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
@@ -4943,7 +4943,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>0</x:v>
@@ -4988,7 +4988,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="U66" s="1" t="n">
-        <x:v>343</x:v>
+        <x:v>345</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:21">
@@ -5484,7 +5484,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="M74" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N74" s="0" t="n">
         <x:v>4</x:v>
@@ -5508,7 +5508,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="U74" s="1" t="n">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -2213,16 +2213,16 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="I24" s="0" t="n">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="J24" s="0" t="n">
         <x:v>6</x:v>
@@ -2231,7 +2231,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="L24" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="M24" s="0" t="n">
         <x:v>357</x:v>
@@ -2258,7 +2258,7 @@
         <x:v>192</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>2159</x:v>
+        <x:v>2161</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
@@ -4184,13 +4184,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M54" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N54" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O54" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P54" s="0" t="n">
         <x:v>0</x:v>
@@ -4202,13 +4202,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S54" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="T54" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U54" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -1684,7 +1684,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C16" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D16" s="0" t="n">
         <x:v>0</x:v>
@@ -1738,7 +1738,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="U16" s="1" t="n">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:21">
@@ -4775,7 +4775,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="O63" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="P63" s="0" t="n">
         <x:v>0</x:v>
@@ -4793,7 +4793,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U63" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -783,7 +783,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
@@ -828,7 +828,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="U2" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:21">
@@ -848,7 +848,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
@@ -869,7 +869,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -893,7 +893,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>371</x:v>
+        <x:v>369</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -1584,7 +1584,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M14" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N14" s="0" t="n">
         <x:v>1</x:v>
@@ -1608,7 +1608,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U14" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:21">
@@ -1732,13 +1732,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S16" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="T16" s="0" t="n">
         <x:v>39</x:v>
       </x:c>
       <x:c r="U16" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:21">
@@ -2201,10 +2201,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B24" s="0" t="n">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
-        <x:v>166</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
         <x:v>1</x:v>
@@ -2225,7 +2225,7 @@
         <x:v>280</x:v>
       </x:c>
       <x:c r="J24" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="K24" s="0" t="n">
         <x:v>2</x:v>
@@ -2240,7 +2240,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="O24" s="0" t="n">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="P24" s="0" t="n">
         <x:v>10</x:v>
@@ -2252,13 +2252,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="S24" s="0" t="n">
-        <x:v>342</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="T24" s="0" t="n">
         <x:v>192</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>2161</x:v>
+        <x:v>2166</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
@@ -4163,7 +4163,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F54" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G54" s="0" t="n">
         <x:v>0</x:v>
@@ -4184,7 +4184,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M54" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="N54" s="0" t="n">
         <x:v>0</x:v>
@@ -4202,13 +4202,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S54" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="T54" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U54" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:21">
@@ -4281,7 +4281,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="B56" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C56" s="0" t="n">
         <x:v>47</x:v>
@@ -4293,7 +4293,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F56" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G56" s="0" t="n">
         <x:v>0</x:v>
@@ -4302,7 +4302,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="I56" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="J56" s="0" t="n">
         <x:v>0</x:v>
@@ -4338,7 +4338,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="U56" s="1" t="n">
-        <x:v>583</x:v>
+        <x:v>587</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
@@ -4704,7 +4704,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="M62" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="N62" s="0" t="n">
         <x:v>2</x:v>
@@ -4728,7 +4728,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U62" s="1" t="n">
-        <x:v>207</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">
@@ -4899,7 +4899,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M65" s="0" t="n">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="N65" s="0" t="n">
         <x:v>0</x:v>
@@ -4923,7 +4923,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U65" s="1" t="n">
-        <x:v>198</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">
@@ -4952,7 +4952,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="I66" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="J66" s="0" t="n">
         <x:v>2</x:v>
@@ -4970,7 +4970,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="O66" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="P66" s="0" t="n">
         <x:v>2</x:v>
@@ -4988,7 +4988,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="U66" s="1" t="n">
-        <x:v>345</x:v>
+        <x:v>347</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:21">
@@ -5333,7 +5333,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>0</x:v>
@@ -5378,7 +5378,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U72" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:21">
@@ -5419,7 +5419,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M73" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N73" s="0" t="n">
         <x:v>0</x:v>
@@ -5443,7 +5443,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U73" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:21">
@@ -5463,10 +5463,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H74" s="0" t="n">
         <x:v>8</x:v>
@@ -5478,7 +5478,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="K74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L74" s="0" t="n">
         <x:v>11</x:v>
@@ -5490,7 +5490,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="O74" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="P74" s="0" t="n">
         <x:v>1</x:v>
@@ -5508,7 +5508,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="U74" s="1" t="n">
-        <x:v>270</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:21">
@@ -5720,7 +5720,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
         <x:v>31</x:v>
@@ -5741,7 +5741,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L78" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="M78" s="0" t="n">
         <x:v>79</x:v>
@@ -5759,16 +5759,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R78" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="S78" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="T78" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
       <x:c r="U78" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -1005,13 +1005,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="O5" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="P5" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q5" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R5" s="0" t="n">
         <x:v>2</x:v>
@@ -1020,10 +1020,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="T5" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="U5" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:21">
@@ -2039,7 +2039,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M21" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N21" s="0" t="n">
         <x:v>0</x:v>
@@ -2063,7 +2063,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U21" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:21">
@@ -2234,7 +2234,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="M24" s="0" t="n">
-        <x:v>357</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="N24" s="0" t="n">
         <x:v>20</x:v>
@@ -2258,7 +2258,7 @@
         <x:v>192</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>2166</x:v>
+        <x:v>2165</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -1005,13 +1005,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="O5" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="P5" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R5" s="0" t="n">
         <x:v>2</x:v>
@@ -1020,10 +1020,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="T5" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="U5" s="1" t="n">
-        <x:v>78</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:21">
@@ -2213,7 +2213,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>0</x:v>
@@ -2258,7 +2258,7 @@
         <x:v>192</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>2165</x:v>
+        <x:v>2166</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
@@ -4314,7 +4314,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="M56" s="0" t="n">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="N56" s="0" t="n">
         <x:v>0</x:v>
@@ -4338,7 +4338,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="U56" s="1" t="n">
-        <x:v>587</x:v>
+        <x:v>586</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
@@ -4982,13 +4982,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="S66" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="T66" s="0" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="U66" s="1" t="n">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <x:si>
     <x:t>County</x:t>
   </x:si>
@@ -116,6 +116,9 @@
   </x:si>
   <x:si>
     <x:t>Clearwater</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cottonwood</x:t>
   </x:si>
   <x:si>
     <x:t>Crow Wing</x:t>
@@ -691,7 +694,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:U79"/>
+  <x:dimension ref="A1:U80"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -783,7 +786,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
@@ -792,7 +795,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I2" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J2" s="0" t="n">
         <x:v>0</x:v>
@@ -828,7 +831,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="U2" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:21">
@@ -839,7 +842,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
         <x:v>0</x:v>
@@ -857,7 +860,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
         <x:v>2</x:v>
@@ -866,10 +869,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L3" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>199</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -884,16 +887,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="R3" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="S3" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T3" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>369</x:v>
+        <x:v>390</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -904,7 +907,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
         <x:v>0</x:v>
@@ -913,7 +916,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>0</x:v>
@@ -934,7 +937,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M4" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="N4" s="0" t="n">
         <x:v>0</x:v>
@@ -952,13 +955,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="S4" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="T4" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
       <x:c r="U4" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:21">
@@ -978,13 +981,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I5" s="0" t="n">
         <x:v>15</x:v>
@@ -999,13 +1002,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M5" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N5" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="O5" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="P5" s="0" t="n">
         <x:v>0</x:v>
@@ -1023,7 +1026,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="U5" s="1" t="n">
-        <x:v>81</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:21">
@@ -1099,7 +1102,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
         <x:v>0</x:v>
@@ -1108,7 +1111,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>1</x:v>
@@ -1117,7 +1120,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I7" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J7" s="0" t="n">
         <x:v>1</x:v>
@@ -1129,13 +1132,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="M7" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N7" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O7" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P7" s="0" t="n">
         <x:v>0</x:v>
@@ -1153,7 +1156,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U7" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:21">
@@ -1173,7 +1176,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>0</x:v>
@@ -1218,7 +1221,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U8" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:21">
@@ -1238,34 +1241,34 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L9" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M9" s="0" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="N9" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O9" s="0" t="n">
         <x:v>6</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I9" s="0" t="n">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="J9" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K9" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L9" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M9" s="0" t="n">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="N9" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O9" s="0" t="n">
-        <x:v>4</x:v>
       </x:c>
       <x:c r="P9" s="0" t="n">
         <x:v>0</x:v>
@@ -1283,7 +1286,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="U9" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:21">
@@ -1303,7 +1306,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>0</x:v>
@@ -1324,7 +1327,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="M10" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N10" s="0" t="n">
         <x:v>2</x:v>
@@ -1345,10 +1348,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="T10" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U10" s="1" t="n">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:21">
@@ -1389,10 +1392,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M11" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="N11" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O11" s="0" t="n">
         <x:v>0</x:v>
@@ -1413,7 +1416,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U11" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:21">
@@ -1430,7 +1433,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
         <x:v>2</x:v>
@@ -1460,7 +1463,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O12" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="P12" s="0" t="n">
         <x:v>0</x:v>
@@ -1475,10 +1478,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="T12" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U12" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:21">
@@ -1498,7 +1501,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
         <x:v>3</x:v>
@@ -1516,16 +1519,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L13" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M13" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="N13" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="O13" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="P13" s="0" t="n">
         <x:v>0</x:v>
@@ -1534,7 +1537,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="R13" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="S13" s="0" t="n">
         <x:v>8</x:v>
@@ -1543,7 +1546,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U13" s="1" t="n">
-        <x:v>205</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:21">
@@ -1616,64 +1619,64 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="B15" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C15" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D15" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K15" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L15" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M15" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N15" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O15" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P15" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q15" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R15" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S15" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T15" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U15" s="1" t="n">
         <x:v>3</x:v>
-      </x:c>
-      <x:c r="E15" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F15" s="0" t="n">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="I15" s="0" t="n">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="J15" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K15" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L15" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="M15" s="0" t="n">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="N15" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O15" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="P15" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="Q15" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R15" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S15" s="0" t="n">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="T15" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U15" s="1" t="n">
-        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:21">
@@ -1681,50 +1684,50 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B16" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C16" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D16" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H16" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I16" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="J16" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K16" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L16" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="M16" s="0" t="n">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="N16" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O16" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="J16" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K16" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L16" s="0" t="n">
+      <x:c r="P16" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="M16" s="0" t="n">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="N16" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="O16" s="0" t="n">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="P16" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="Q16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -1732,13 +1735,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S16" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="T16" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U16" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:21">
@@ -1746,10 +1749,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B17" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C17" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D17" s="0" t="n">
         <x:v>0</x:v>
@@ -1758,16 +1761,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H17" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I17" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="J17" s="0" t="n">
         <x:v>0</x:v>
@@ -1776,19 +1779,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L17" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="M17" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="N17" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="O17" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P17" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q17" s="0" t="n">
         <x:v>0</x:v>
@@ -1797,13 +1800,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S17" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="T17" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="U17" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:21">
@@ -1814,16 +1817,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C18" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D18" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E18" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F18" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G18" s="0" t="n">
         <x:v>0</x:v>
@@ -1841,16 +1844,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L18" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M18" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N18" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O18" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="P18" s="0" t="n">
         <x:v>0</x:v>
@@ -1859,16 +1862,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R18" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S18" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T18" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U18" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
@@ -1879,16 +1882,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C19" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D19" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>0</x:v>
@@ -1897,7 +1900,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I19" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J19" s="0" t="n">
         <x:v>0</x:v>
@@ -1906,16 +1909,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L19" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M19" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N19" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O19" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="P19" s="0" t="n">
         <x:v>0</x:v>
@@ -1924,16 +1927,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R19" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S19" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="T19" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U19" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:21">
@@ -1953,7 +1956,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F20" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G20" s="0" t="n">
         <x:v>0</x:v>
@@ -1962,7 +1965,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I20" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J20" s="0" t="n">
         <x:v>0</x:v>
@@ -1974,13 +1977,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M20" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N20" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O20" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P20" s="0" t="n">
         <x:v>0</x:v>
@@ -1998,7 +2001,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U20" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:21">
@@ -2009,7 +2012,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C21" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D21" s="0" t="n">
         <x:v>0</x:v>
@@ -2018,7 +2021,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F21" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G21" s="0" t="n">
         <x:v>0</x:v>
@@ -2027,7 +2030,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I21" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J21" s="0" t="n">
         <x:v>0</x:v>
@@ -2039,7 +2042,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M21" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N21" s="0" t="n">
         <x:v>0</x:v>
@@ -2048,22 +2051,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P21" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q21" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R21" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S21" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T21" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U21" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:21">
@@ -2074,7 +2077,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C22" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D22" s="0" t="n">
         <x:v>0</x:v>
@@ -2083,7 +2086,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G22" s="0" t="n">
         <x:v>0</x:v>
@@ -2101,34 +2104,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L22" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M22" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="N22" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O22" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P22" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q22" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R22" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S22" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="P22" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q22" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R22" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S22" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
       <x:c r="T22" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U22" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:21">
@@ -2139,7 +2142,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C23" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D23" s="0" t="n">
         <x:v>0</x:v>
@@ -2148,7 +2151,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G23" s="0" t="n">
         <x:v>0</x:v>
@@ -2157,7 +2160,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I23" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J23" s="0" t="n">
         <x:v>0</x:v>
@@ -2166,34 +2169,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L23" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M23" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="N23" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O23" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P23" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q23" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R23" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S23" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="T23" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U23" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:21">
@@ -2201,64 +2204,64 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B24" s="0" t="n">
-        <x:v>131</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C24" s="0" t="n">
-        <x:v>168</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D24" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E24" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F24" s="0" t="n">
-        <x:v>198</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G24" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H24" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I24" s="0" t="n">
-        <x:v>280</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J24" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K24" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L24" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M24" s="0" t="n">
-        <x:v>356</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N24" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O24" s="0" t="n">
-        <x:v>264</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P24" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q24" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R24" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S24" s="0" t="n">
-        <x:v>344</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T24" s="0" t="n">
-        <x:v>192</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U24" s="1" t="n">
-        <x:v>2166</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
@@ -2266,64 +2269,64 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="B25" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C25" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D25" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H25" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="I25" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="J25" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="K25" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L25" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M25" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="N25" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="O25" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="P25" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="Q25" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R25" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="S25" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="T25" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="U25" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>2395</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:21">
@@ -2334,7 +2337,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C26" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D26" s="0" t="n">
         <x:v>0</x:v>
@@ -2343,7 +2346,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F26" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G26" s="0" t="n">
         <x:v>0</x:v>
@@ -2352,7 +2355,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I26" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J26" s="0" t="n">
         <x:v>0</x:v>
@@ -2361,34 +2364,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L26" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M26" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="N26" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O26" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="P26" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q26" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R26" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S26" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T26" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U26" s="1" t="n">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="N26" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O26" s="0" t="n">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="P26" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q26" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R26" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S26" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="T26" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U26" s="1" t="n">
-        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -2396,19 +2399,19 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B27" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C27" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D27" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E27" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>0</x:v>
@@ -2417,7 +2420,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I27" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J27" s="0" t="n">
         <x:v>0</x:v>
@@ -2426,7 +2429,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L27" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M27" s="0" t="n">
         <x:v>7</x:v>
@@ -2435,7 +2438,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>0</x:v>
@@ -2447,13 +2450,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S27" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T27" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
@@ -2461,7 +2464,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="B28" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C28" s="0" t="n">
         <x:v>0</x:v>
@@ -2473,7 +2476,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G28" s="0" t="n">
         <x:v>0</x:v>
@@ -2482,7 +2485,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I28" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J28" s="0" t="n">
         <x:v>0</x:v>
@@ -2491,16 +2494,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L28" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M28" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N28" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O28" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="P28" s="0" t="n">
         <x:v>0</x:v>
@@ -2512,13 +2515,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S28" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="T28" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U28" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:21">
@@ -2538,7 +2541,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F29" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
         <x:v>0</x:v>
@@ -2547,7 +2550,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I29" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J29" s="0" t="n">
         <x:v>0</x:v>
@@ -2559,31 +2562,31 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M29" s="0" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="N29" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="O29" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P29" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q29" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R29" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S29" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="T29" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="N29" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O29" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="P29" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q29" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R29" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S29" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T29" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="U29" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:21">
@@ -2600,7 +2603,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E30" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F30" s="0" t="n">
         <x:v>0</x:v>
@@ -2612,7 +2615,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I30" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J30" s="0" t="n">
         <x:v>0</x:v>
@@ -2621,16 +2624,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L30" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M30" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N30" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O30" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P30" s="0" t="n">
         <x:v>0</x:v>
@@ -2642,13 +2645,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S30" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T30" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U30" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:21">
@@ -2659,25 +2662,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C31" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D31" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E31" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F31" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G31" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H31" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I31" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J31" s="0" t="n">
         <x:v>0</x:v>
@@ -2686,16 +2689,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L31" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M31" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N31" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O31" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="P31" s="0" t="n">
         <x:v>0</x:v>
@@ -2704,16 +2707,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R31" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S31" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T31" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="U31" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:21">
@@ -2724,7 +2727,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C32" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D32" s="0" t="n">
         <x:v>0</x:v>
@@ -2733,16 +2736,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G32" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H32" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I32" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="J32" s="0" t="n">
         <x:v>0</x:v>
@@ -2751,16 +2754,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L32" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M32" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N32" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O32" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="P32" s="0" t="n">
         <x:v>0</x:v>
@@ -2769,16 +2772,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R32" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S32" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="T32" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="U32" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:21">
@@ -2819,13 +2822,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M33" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N33" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O33" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="P33" s="0" t="n">
         <x:v>0</x:v>
@@ -2840,10 +2843,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T33" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U33" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:21">
@@ -2863,7 +2866,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F34" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G34" s="0" t="n">
         <x:v>0</x:v>
@@ -2872,7 +2875,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I34" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J34" s="0" t="n">
         <x:v>0</x:v>
@@ -2908,7 +2911,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U34" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:21">
@@ -2916,10 +2919,10 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B35" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C35" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D35" s="0" t="n">
         <x:v>0</x:v>
@@ -2928,16 +2931,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F35" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G35" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H35" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I35" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J35" s="0" t="n">
         <x:v>0</x:v>
@@ -2946,22 +2949,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L35" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M35" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N35" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O35" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P35" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q35" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R35" s="0" t="n">
         <x:v>0</x:v>
@@ -2973,7 +2976,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U35" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:21">
@@ -2981,10 +2984,10 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="B36" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C36" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D36" s="0" t="n">
         <x:v>0</x:v>
@@ -2993,13 +2996,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F36" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H36" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I36" s="0" t="n">
         <x:v>0</x:v>
@@ -3011,34 +3014,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L36" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M36" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O36" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="P36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q36" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S36" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T36" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U36" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:21">
@@ -3049,61 +3052,61 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C37" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E37" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F37" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I37" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J37" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K37" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L37" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M37" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="N37" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O37" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P37" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q37" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R37" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S37" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T37" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U37" s="1" t="n">
         <x:v>6</x:v>
-      </x:c>
-      <x:c r="G37" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H37" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I37" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="J37" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K37" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L37" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="M37" s="0" t="n">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="N37" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O37" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="P37" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q37" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R37" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S37" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="T37" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U37" s="1" t="n">
-        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:21">
@@ -3114,43 +3117,43 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C38" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D38" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E38" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I38" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="J38" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K38" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L38" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F38" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G38" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H38" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I38" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J38" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K38" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L38" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="M38" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="N38" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O38" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P38" s="0" t="n">
         <x:v>0</x:v>
@@ -3162,13 +3165,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S38" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="T38" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U38" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:21">
@@ -3179,37 +3182,37 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C39" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D39" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E39" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F39" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G39" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H39" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I39" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J39" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K39" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L39" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M39" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N39" s="0" t="n">
         <x:v>0</x:v>
@@ -3227,13 +3230,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S39" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T39" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U39" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:21">
@@ -3241,10 +3244,10 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="B40" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C40" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D40" s="0" t="n">
         <x:v>0</x:v>
@@ -3253,40 +3256,40 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F40" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G40" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H40" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I40" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J40" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K40" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L40" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M40" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N40" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O40" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P40" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q40" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R40" s="0" t="n">
         <x:v>0</x:v>
@@ -3295,10 +3298,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="T40" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U40" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:21">
@@ -3306,29 +3309,29 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="B41" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C41" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E41" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G41" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="I41" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G41" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H41" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I41" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="J41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -3336,34 +3339,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L41" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="M41" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O41" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="P41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q41" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S41" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T41" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U41" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
@@ -3374,25 +3377,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C42" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E42" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F42" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H42" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I42" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J42" s="0" t="n">
         <x:v>0</x:v>
@@ -3401,34 +3404,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L42" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M42" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O42" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P42" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q42" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R42" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S42" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T42" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U42" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:21">
@@ -3439,25 +3442,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C43" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D43" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G43" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H43" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I43" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J43" s="0" t="n">
         <x:v>0</x:v>
@@ -3466,34 +3469,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L43" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="M43" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="N43" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O43" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="P43" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q43" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R43" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S43" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="T43" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="U43" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:21">
@@ -3501,28 +3504,28 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="B44" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C44" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D44" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E44" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F44" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G44" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H44" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I44" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J44" s="0" t="n">
         <x:v>0</x:v>
@@ -3534,13 +3537,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M44" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N44" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O44" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P44" s="0" t="n">
         <x:v>0</x:v>
@@ -3549,16 +3552,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R44" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S44" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T44" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U44" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:21">
@@ -3566,10 +3569,10 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="B45" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C45" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D45" s="0" t="n">
         <x:v>0</x:v>
@@ -3578,16 +3581,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H45" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I45" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J45" s="0" t="n">
         <x:v>0</x:v>
@@ -3596,16 +3599,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L45" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M45" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N45" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O45" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="P45" s="0" t="n">
         <x:v>0</x:v>
@@ -3614,16 +3617,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R45" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S45" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="T45" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U45" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:21">
@@ -3634,16 +3637,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C46" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D46" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E46" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F46" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
         <x:v>0</x:v>
@@ -3652,7 +3655,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I46" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J46" s="0" t="n">
         <x:v>0</x:v>
@@ -3664,7 +3667,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M46" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N46" s="0" t="n">
         <x:v>0</x:v>
@@ -3673,10 +3676,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P46" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q46" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R46" s="0" t="n">
         <x:v>0</x:v>
@@ -3688,7 +3691,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U46" s="1" t="n">
-        <x:v>51</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:21">
@@ -3696,64 +3699,64 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="B47" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C47" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E47" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G47" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I47" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="G47" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H47" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I47" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="J47" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L47" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M47" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="N47" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O47" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P47" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q47" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R47" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S47" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T47" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U47" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:21">
@@ -3761,10 +3764,10 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="B48" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C48" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D48" s="0" t="n">
         <x:v>0</x:v>
@@ -3773,7 +3776,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F48" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G48" s="0" t="n">
         <x:v>0</x:v>
@@ -3782,22 +3785,22 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I48" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J48" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K48" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L48" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M48" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="N48" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O48" s="0" t="n">
         <x:v>0</x:v>
@@ -3812,13 +3815,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S48" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="T48" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="U48" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:21">
@@ -3826,28 +3829,28 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="B49" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C49" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E49" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F49" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G49" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H49" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I49" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J49" s="0" t="n">
         <x:v>0</x:v>
@@ -3856,34 +3859,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L49" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M49" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N49" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O49" s="0" t="n">
-        <x:v>106</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P49" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q49" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R49" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S49" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T49" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U49" s="1" t="n">
-        <x:v>366</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
@@ -3891,64 +3894,64 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="B50" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C50" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D50" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E50" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G50" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I50" s="0" t="n">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="J50" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K50" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L50" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="M50" s="0" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="N50" s="0" t="n">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="G50" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H50" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="I50" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="J50" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K50" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L50" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="M50" s="0" t="n">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="N50" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="O50" s="0" t="n">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="P50" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="Q50" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R50" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="S50" s="0" t="n">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="P50" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="Q50" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R50" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S50" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="T50" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="U50" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>401</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:21">
@@ -3959,25 +3962,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C51" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D51" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E51" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="F51" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G51" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H51" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I51" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J51" s="0" t="n">
         <x:v>0</x:v>
@@ -3986,19 +3989,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L51" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M51" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="N51" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O51" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="P51" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="Q51" s="0" t="n">
         <x:v>0</x:v>
@@ -4007,13 +4010,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S51" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T51" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U51" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:21">
@@ -4024,25 +4027,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C52" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D52" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E52" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F52" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H52" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D52" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E52" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F52" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G52" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="H52" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="I52" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J52" s="0" t="n">
         <x:v>0</x:v>
@@ -4054,13 +4057,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M52" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="N52" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="O52" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="P52" s="0" t="n">
         <x:v>0</x:v>
@@ -4072,13 +4075,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S52" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="T52" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U52" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:21">
@@ -4098,7 +4101,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F53" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G53" s="0" t="n">
         <x:v>0</x:v>
@@ -4107,7 +4110,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I53" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J53" s="0" t="n">
         <x:v>0</x:v>
@@ -4119,16 +4122,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M53" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N53" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O53" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P53" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q53" s="0" t="n">
         <x:v>0</x:v>
@@ -4137,13 +4140,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S53" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T53" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U53" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:21">
@@ -4163,52 +4166,52 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F54" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G54" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H54" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I54" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J54" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K54" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L54" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M54" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="N54" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O54" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="P54" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q54" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R54" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S54" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="J54" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K54" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L54" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M54" s="0" t="n">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="N54" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O54" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="P54" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q54" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R54" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S54" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
       <x:c r="T54" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U54" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:21">
@@ -4219,25 +4222,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C55" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D55" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E55" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G55" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H55" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I55" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J55" s="0" t="n">
         <x:v>0</x:v>
@@ -4246,34 +4249,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L55" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M55" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N55" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O55" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="P55" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q55" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R55" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="S55" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="T55" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U55" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:21">
@@ -4281,28 +4284,28 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="B56" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C56" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D56" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E56" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F56" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G56" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H56" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I56" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J56" s="0" t="n">
         <x:v>0</x:v>
@@ -4311,34 +4314,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L56" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M56" s="0" t="n">
-        <x:v>115</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N56" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O56" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P56" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q56" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R56" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S56" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T56" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U56" s="1" t="n">
-        <x:v>586</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
@@ -4346,28 +4349,28 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="B57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D57" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="J57" s="0" t="n">
         <x:v>0</x:v>
@@ -4376,34 +4379,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="N57" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="Q57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="R57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="S57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="T57" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="U57" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>632</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:21">
@@ -4414,7 +4417,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C58" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D58" s="0" t="n">
         <x:v>0</x:v>
@@ -4423,7 +4426,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F58" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G58" s="0" t="n">
         <x:v>0</x:v>
@@ -4432,7 +4435,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I58" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J58" s="0" t="n">
         <x:v>0</x:v>
@@ -4441,16 +4444,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L58" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M58" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N58" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O58" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P58" s="0" t="n">
         <x:v>0</x:v>
@@ -4462,13 +4465,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S58" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T58" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U58" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">
@@ -4476,19 +4479,19 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="B59" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C59" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D59" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E59" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F59" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G59" s="0" t="n">
         <x:v>0</x:v>
@@ -4497,7 +4500,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I59" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J59" s="0" t="n">
         <x:v>0</x:v>
@@ -4506,34 +4509,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L59" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M59" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="N59" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O59" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P59" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q59" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R59" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S59" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="P59" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q59" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R59" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="S59" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
       <x:c r="T59" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U59" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:21">
@@ -4541,25 +4544,25 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="B60" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C60" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D60" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E60" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F60" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G60" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H60" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I60" s="0" t="n">
         <x:v>0</x:v>
@@ -4571,34 +4574,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L60" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M60" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="N60" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O60" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="P60" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q60" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R60" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="S60" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="M60" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="N60" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O60" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="P60" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q60" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R60" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="S60" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="T60" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U60" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">
@@ -4609,7 +4612,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C61" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D61" s="0" t="n">
         <x:v>0</x:v>
@@ -4618,16 +4621,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F61" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G61" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H61" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I61" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J61" s="0" t="n">
         <x:v>0</x:v>
@@ -4636,34 +4639,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L61" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M61" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O61" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="P61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="Q61" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R61" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S61" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T61" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U61" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">
@@ -4671,64 +4674,64 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="B62" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C62" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E62" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F62" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H62" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I62" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J62" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K62" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L62" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M62" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N62" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O62" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P62" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q62" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="R62" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S62" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T62" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U62" s="1" t="n">
-        <x:v>209</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">
@@ -4736,64 +4739,64 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B63" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C63" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D63" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H63" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I63" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="J63" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="K63" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="L63" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M63" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N63" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O63" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="P63" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q63" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R63" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="S63" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="T63" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U63" s="1" t="n">
-        <x:v>79</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:21">
@@ -4801,19 +4804,19 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="B64" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C64" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D64" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E64" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G64" s="0" t="n">
         <x:v>0</x:v>
@@ -4822,7 +4825,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I64" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="J64" s="0" t="n">
         <x:v>0</x:v>
@@ -4831,16 +4834,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L64" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M64" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N64" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="O64" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="P64" s="0" t="n">
         <x:v>0</x:v>
@@ -4849,16 +4852,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R64" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S64" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T64" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U64" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
@@ -4869,16 +4872,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C65" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D65" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E65" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F65" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G65" s="0" t="n">
         <x:v>0</x:v>
@@ -4887,7 +4890,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I65" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J65" s="0" t="n">
         <x:v>0</x:v>
@@ -4896,34 +4899,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L65" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M65" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N65" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O65" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P65" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q65" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R65" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S65" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T65" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U65" s="1" t="n">
-        <x:v>200</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">
@@ -4931,64 +4934,64 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="B66" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C66" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E66" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H66" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I66" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="J66" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L66" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M66" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="N66" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O66" s="0" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="P66" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="Q66" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R66" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="S66" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="O66" s="0" t="n">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="P66" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="Q66" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="R66" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="S66" s="0" t="n">
-        <x:v>40</x:v>
-      </x:c>
       <x:c r="T66" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U66" s="1" t="n">
-        <x:v>348</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:21">
@@ -4996,64 +4999,64 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B67" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C67" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D67" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E67" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G67" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H67" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I67" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J67" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K67" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L67" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="M67" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="N67" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O67" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="P67" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q67" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="R67" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S67" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="T67" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="U67" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>377</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:21">
@@ -5064,7 +5067,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C68" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D68" s="0" t="n">
         <x:v>0</x:v>
@@ -5073,7 +5076,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G68" s="0" t="n">
         <x:v>0</x:v>
@@ -5091,17 +5094,17 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M68" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N68" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O68" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="N68" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O68" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="P68" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -5109,16 +5112,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S68" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T68" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U68" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:21">
@@ -5129,7 +5132,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D69" s="0" t="n">
         <x:v>0</x:v>
@@ -5138,7 +5141,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F69" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G69" s="0" t="n">
         <x:v>0</x:v>
@@ -5147,10 +5150,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I69" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J69" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K69" s="0" t="n">
         <x:v>0</x:v>
@@ -5159,13 +5162,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="N69" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O69" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P69" s="0" t="n">
         <x:v>0</x:v>
@@ -5183,7 +5186,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U69" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:21">
@@ -5194,7 +5197,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C70" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D70" s="0" t="n">
         <x:v>0</x:v>
@@ -5212,25 +5215,25 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I70" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L70" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M70" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="N70" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O70" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P70" s="0" t="n">
         <x:v>0</x:v>
@@ -5248,7 +5251,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U70" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:21">
@@ -5268,7 +5271,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F71" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G71" s="0" t="n">
         <x:v>0</x:v>
@@ -5277,7 +5280,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I71" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="J71" s="0" t="n">
         <x:v>0</x:v>
@@ -5286,10 +5289,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L71" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M71" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="N71" s="0" t="n">
         <x:v>0</x:v>
@@ -5298,7 +5301,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P71" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q71" s="0" t="n">
         <x:v>0</x:v>
@@ -5307,13 +5310,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S71" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T71" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U71" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:21">
@@ -5324,7 +5327,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C72" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D72" s="0" t="n">
         <x:v>0</x:v>
@@ -5333,7 +5336,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F72" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G72" s="0" t="n">
         <x:v>0</x:v>
@@ -5354,16 +5357,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M72" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N72" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O72" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P72" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q72" s="0" t="n">
         <x:v>0</x:v>
@@ -5372,13 +5375,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S72" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="T72" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U72" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:21">
@@ -5389,7 +5392,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C73" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D73" s="0" t="n">
         <x:v>0</x:v>
@@ -5398,7 +5401,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F73" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G73" s="0" t="n">
         <x:v>0</x:v>
@@ -5407,26 +5410,26 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I73" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J73" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="K73" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L73" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M73" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N73" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O73" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="N73" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O73" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
       <x:c r="P73" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -5440,10 +5443,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T73" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U73" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:21">
@@ -5451,64 +5454,64 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="B74" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C74" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D74" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E74" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F74" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G74" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H74" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I74" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J74" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="K74" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L74" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="M74" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N74" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O74" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P74" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q74" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="R74" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S74" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T74" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U74" s="1" t="n">
-        <x:v>274</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:21">
@@ -5516,64 +5519,64 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B75" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C75" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D75" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E75" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G75" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H75" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I75" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J75" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K75" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L75" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M75" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N75" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O75" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P75" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q75" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R75" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="S75" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="T75" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="U75" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:21">
@@ -5584,7 +5587,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C76" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D76" s="0" t="n">
         <x:v>0</x:v>
@@ -5602,7 +5605,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I76" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J76" s="0" t="n">
         <x:v>0</x:v>
@@ -5614,10 +5617,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M76" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="N76" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="O76" s="0" t="n">
         <x:v>0</x:v>
@@ -5629,7 +5632,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R76" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S76" s="0" t="n">
         <x:v>0</x:v>
@@ -5638,7 +5641,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U76" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:21">
@@ -5649,7 +5652,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C77" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D77" s="0" t="n">
         <x:v>0</x:v>
@@ -5667,7 +5670,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I77" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="J77" s="0" t="n">
         <x:v>0</x:v>
@@ -5676,34 +5679,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L77" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M77" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="N77" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O77" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="P77" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q77" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="R77" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S77" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="T77" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U77" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:21">
@@ -5711,64 +5714,64 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B78" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C78" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D78" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E78" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F78" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G78" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H78" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I78" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J78" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K78" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L78" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="M78" s="0" t="n">
-        <x:v>79</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="N78" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O78" s="0" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="P78" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q78" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R78" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="S78" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="O78" s="0" t="n">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="P78" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="Q78" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R78" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="S78" s="0" t="n">
-        <x:v>26</x:v>
-      </x:c>
       <x:c r="T78" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="U78" s="1" t="n">
-        <x:v>207</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:21">
@@ -5776,63 +5779,128 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B79" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C79" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D79" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H79" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="I79" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J79" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K79" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L79" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="M79" s="0" t="n">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="N79" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="O79" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="P79" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="Q79" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R79" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="S79" s="0" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="T79" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="U79" s="1" t="n">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:21">
+      <x:c r="A80" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B80" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C80" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D80" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E80" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F80" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G80" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H80" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I80" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J80" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="K80" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L80" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M80" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="N79" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="O79" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P79" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q79" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="R79" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="S79" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="T79" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="U79" s="1" t="n">
+      <x:c r="N80" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O80" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P80" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q80" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="R80" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S80" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="T80" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="U80" s="1" t="n">
         <x:v>12</x:v>
       </x:c>
     </x:row>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -887,7 +887,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="R3" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="S3" s="0" t="n">
         <x:v>31</x:v>
@@ -896,7 +896,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>390</x:v>
+        <x:v>391</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -1111,7 +1111,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>1</x:v>
@@ -1120,7 +1120,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I7" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J7" s="0" t="n">
         <x:v>1</x:v>
@@ -1132,7 +1132,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="M7" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="N7" s="0" t="n">
         <x:v>0</x:v>
@@ -1156,7 +1156,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U7" s="1" t="n">
-        <x:v>153</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:21">
@@ -2272,7 +2272,7 @@
         <x:v>157</x:v>
       </x:c>
       <x:c r="C25" s="0" t="n">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D25" s="0" t="n">
         <x:v>1</x:v>
@@ -2290,7 +2290,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I25" s="0" t="n">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="J25" s="0" t="n">
         <x:v>5</x:v>
@@ -4769,10 +4769,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="L63" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="M63" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N63" s="0" t="n">
         <x:v>2</x:v>
@@ -4796,7 +4796,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U63" s="1" t="n">
-        <x:v>228</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:21">
@@ -5097,7 +5097,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="M68" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="N68" s="0" t="n">
         <x:v>1</x:v>
@@ -5121,7 +5121,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U68" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -872,7 +872,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -896,7 +896,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>391</x:v>
+        <x:v>390</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -1111,7 +1111,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>1</x:v>
@@ -1156,7 +1156,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U7" s="1" t="n">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:21">
@@ -2269,10 +2269,10 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="B25" s="0" t="n">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="C25" s="0" t="n">
-        <x:v>188</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D25" s="0" t="n">
         <x:v>1</x:v>
@@ -2290,7 +2290,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="I25" s="0" t="n">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="J25" s="0" t="n">
         <x:v>5</x:v>
@@ -2308,7 +2308,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="O25" s="0" t="n">
-        <x:v>289</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="P25" s="0" t="n">
         <x:v>11</x:v>
@@ -2317,16 +2317,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="R25" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="S25" s="0" t="n">
-        <x:v>357</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="T25" s="0" t="n">
         <x:v>213</x:v>
       </x:c>
       <x:c r="U25" s="1" t="n">
-        <x:v>2395</x:v>
+        <x:v>2409</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:21">
@@ -2822,13 +2822,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M33" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="N33" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O33" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="P33" s="0" t="n">
         <x:v>0</x:v>
@@ -2843,10 +2843,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T33" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U33" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:21">
@@ -3321,7 +3321,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>0</x:v>
@@ -3342,7 +3342,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="M41" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="N41" s="0" t="n">
         <x:v>0</x:v>
@@ -3366,7 +3366,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U41" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
@@ -4660,13 +4660,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="S61" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T61" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U61" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">
@@ -5531,7 +5531,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F75" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G75" s="0" t="n">
         <x:v>1</x:v>
@@ -5549,13 +5549,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="L75" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="M75" s="0" t="n">
         <x:v>87</x:v>
       </x:c>
       <x:c r="N75" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="O75" s="0" t="n">
         <x:v>46</x:v>
@@ -5576,7 +5576,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="U75" s="1" t="n">
-        <x:v>309</x:v>
+        <x:v>312</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -1803,10 +1803,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="T17" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="U17" s="1" t="n">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:21">
@@ -2107,7 +2107,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M22" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="N22" s="0" t="n">
         <x:v>0</x:v>
@@ -2131,7 +2131,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U22" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:21">
@@ -2281,7 +2281,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
         <x:v>0</x:v>
@@ -2308,7 +2308,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="O25" s="0" t="n">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="P25" s="0" t="n">
         <x:v>11</x:v>
@@ -4816,7 +4816,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F64" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G64" s="0" t="n">
         <x:v>0</x:v>
@@ -4834,7 +4834,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L64" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="M64" s="0" t="n">
         <x:v>14</x:v>
@@ -4855,13 +4855,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="S64" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="T64" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="U64" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -2269,7 +2269,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="B25" s="0" t="n">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C25" s="0" t="n">
         <x:v>193</x:v>
@@ -2281,7 +2281,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
         <x:v>0</x:v>
@@ -2323,10 +2323,10 @@
         <x:v>361</x:v>
       </x:c>
       <x:c r="T25" s="0" t="n">
-        <x:v>213</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="U25" s="1" t="n">
-        <x:v>2409</x:v>
+        <x:v>2406</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:21">
@@ -2763,7 +2763,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O32" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="P32" s="0" t="n">
         <x:v>0</x:v>
@@ -2781,7 +2781,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U32" s="1" t="n">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:21">
@@ -4772,7 +4772,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="M63" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N63" s="0" t="n">
         <x:v>2</x:v>
@@ -4796,7 +4796,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U63" s="1" t="n">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -807,7 +807,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M2" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="N2" s="0" t="n">
         <x:v>0</x:v>
@@ -831,7 +831,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="U2" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:21">
@@ -937,7 +937,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M4" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N4" s="0" t="n">
         <x:v>0</x:v>
@@ -961,7 +961,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="U4" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:21">
@@ -1507,7 +1507,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="H13" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="I13" s="0" t="n">
         <x:v>1</x:v>
@@ -1528,7 +1528,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="O13" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="P13" s="0" t="n">
         <x:v>0</x:v>
@@ -1546,7 +1546,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U13" s="1" t="n">
-        <x:v>212</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:21">
@@ -1761,7 +1761,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F17" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G17" s="0" t="n">
         <x:v>0</x:v>
@@ -1806,7 +1806,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="U17" s="1" t="n">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:21">
@@ -1885,7 +1885,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D19" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E19" s="0" t="n">
         <x:v>1</x:v>
@@ -1918,7 +1918,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="O19" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="P19" s="0" t="n">
         <x:v>0</x:v>
@@ -1936,7 +1936,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U19" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:21">
@@ -2308,7 +2308,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="O25" s="0" t="n">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="P25" s="0" t="n">
         <x:v>11</x:v>
@@ -2326,7 +2326,7 @@
         <x:v>212</x:v>
       </x:c>
       <x:c r="U25" s="1" t="n">
-        <x:v>2406</x:v>
+        <x:v>2407</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:21">
@@ -3460,7 +3460,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="I43" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J43" s="0" t="n">
         <x:v>0</x:v>
@@ -3496,7 +3496,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="U43" s="1" t="n">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:21">
@@ -3971,7 +3971,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G51" s="0" t="n">
         <x:v>0</x:v>
@@ -3980,7 +3980,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I51" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J51" s="0" t="n">
         <x:v>0</x:v>
@@ -3998,7 +3998,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O51" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="P51" s="0" t="n">
         <x:v>3</x:v>
@@ -4016,7 +4016,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U51" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:21">
@@ -5262,7 +5262,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C71" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D71" s="0" t="n">
         <x:v>0</x:v>
@@ -5280,7 +5280,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I71" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J71" s="0" t="n">
         <x:v>0</x:v>
@@ -5292,7 +5292,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M71" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="N71" s="0" t="n">
         <x:v>0</x:v>
@@ -5316,7 +5316,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U71" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:21">
@@ -5549,7 +5549,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="L75" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M75" s="0" t="n">
         <x:v>87</x:v>
@@ -5576,7 +5576,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="U75" s="1" t="n">
-        <x:v>312</x:v>
+        <x:v>311</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -786,7 +786,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
@@ -807,7 +807,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M2" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="N2" s="0" t="n">
         <x:v>0</x:v>
@@ -828,10 +828,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="T2" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U2" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:21">
@@ -839,10 +839,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
         <x:v>0</x:v>
@@ -851,7 +851,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
         <x:v>0</x:v>
@@ -860,19 +860,19 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="K3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L3" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="M3" s="0" t="n">
-        <x:v>208</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="N3" s="0" t="n">
         <x:v>0</x:v>
@@ -890,13 +890,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="S3" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="T3" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="U3" s="1" t="n">
-        <x:v>390</x:v>
+        <x:v>416</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
@@ -907,16 +907,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C4" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
         <x:v>0</x:v>
@@ -937,7 +937,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M4" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N4" s="0" t="n">
         <x:v>0</x:v>
@@ -946,7 +946,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="P4" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q4" s="0" t="n">
         <x:v>0</x:v>
@@ -958,10 +958,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="T4" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="U4" s="1" t="n">
-        <x:v>111</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:21">
@@ -981,7 +981,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
         <x:v>1</x:v>
@@ -1008,7 +1008,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="O5" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P5" s="0" t="n">
         <x:v>0</x:v>
@@ -1020,13 +1020,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="S5" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="T5" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="U5" s="1" t="n">
-        <x:v>86</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:21">
@@ -1102,7 +1102,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D7" s="0" t="n">
         <x:v>0</x:v>
@@ -1111,7 +1111,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
         <x:v>1</x:v>
@@ -1132,7 +1132,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="M7" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N7" s="0" t="n">
         <x:v>0</x:v>
@@ -1156,7 +1156,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U7" s="1" t="n">
-        <x:v>158</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:21">
@@ -1176,7 +1176,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
         <x:v>0</x:v>
@@ -1221,7 +1221,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U8" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:21">
@@ -1303,10 +1303,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
         <x:v>0</x:v>
@@ -1327,7 +1327,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="M10" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="N10" s="0" t="n">
         <x:v>2</x:v>
@@ -1351,7 +1351,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U10" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:21">
@@ -1380,7 +1380,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I11" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J11" s="0" t="n">
         <x:v>0</x:v>
@@ -1410,13 +1410,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="S11" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="T11" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U11" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:21">
@@ -1457,7 +1457,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M12" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="N12" s="0" t="n">
         <x:v>0</x:v>
@@ -1481,7 +1481,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U12" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:21">
@@ -1501,7 +1501,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
         <x:v>3</x:v>
@@ -1537,7 +1537,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="R13" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="S13" s="0" t="n">
         <x:v>8</x:v>
@@ -1546,7 +1546,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U13" s="1" t="n">
-        <x:v>218</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:21">
@@ -1566,7 +1566,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G14" s="0" t="n">
         <x:v>0</x:v>
@@ -1611,7 +1611,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U14" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:21">
@@ -1693,10 +1693,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E16" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F16" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G16" s="0" t="n">
         <x:v>0</x:v>
@@ -1705,7 +1705,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I16" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J16" s="0" t="n">
         <x:v>0</x:v>
@@ -1714,16 +1714,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L16" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="M16" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N16" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="O16" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P16" s="0" t="n">
         <x:v>3</x:v>
@@ -1735,13 +1735,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S16" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="T16" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U16" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:21">
@@ -1782,13 +1782,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="M17" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N17" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="O17" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P17" s="0" t="n">
         <x:v>1</x:v>
@@ -1800,13 +1800,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S17" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="T17" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="U17" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:21">
@@ -1891,7 +1891,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F19" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G19" s="0" t="n">
         <x:v>0</x:v>
@@ -1900,7 +1900,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I19" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J19" s="0" t="n">
         <x:v>0</x:v>
@@ -1912,13 +1912,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M19" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="N19" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="O19" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="P19" s="0" t="n">
         <x:v>0</x:v>
@@ -1927,7 +1927,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="R19" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="S19" s="0" t="n">
         <x:v>6</x:v>
@@ -1936,7 +1936,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U19" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:21">
@@ -2077,7 +2077,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C22" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D22" s="0" t="n">
         <x:v>0</x:v>
@@ -2086,7 +2086,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F22" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G22" s="0" t="n">
         <x:v>0</x:v>
@@ -2107,7 +2107,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M22" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N22" s="0" t="n">
         <x:v>0</x:v>
@@ -2131,7 +2131,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U22" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:21">
@@ -2151,7 +2151,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F23" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G23" s="0" t="n">
         <x:v>0</x:v>
@@ -2172,13 +2172,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M23" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N23" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O23" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="P23" s="0" t="n">
         <x:v>0</x:v>
@@ -2196,7 +2196,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U23" s="1" t="n">
-        <x:v>63</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:21">
@@ -2269,28 +2269,28 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="B25" s="0" t="n">
-        <x:v>157</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C25" s="0" t="n">
-        <x:v>193</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="D25" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E25" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F25" s="0" t="n">
-        <x:v>224</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="G25" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H25" s="0" t="n">
-        <x:v>91</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="I25" s="0" t="n">
-        <x:v>314</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="J25" s="0" t="n">
         <x:v>5</x:v>
@@ -2299,19 +2299,19 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="L25" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="M25" s="0" t="n">
-        <x:v>405</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="N25" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="O25" s="0" t="n">
-        <x:v>293</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="P25" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="Q25" s="0" t="n">
         <x:v>2</x:v>
@@ -2320,13 +2320,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="S25" s="0" t="n">
-        <x:v>361</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="T25" s="0" t="n">
-        <x:v>212</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="U25" s="1" t="n">
-        <x:v>2407</x:v>
+        <x:v>2654</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:21">
@@ -2370,7 +2370,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N26" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O26" s="0" t="n">
         <x:v>3</x:v>
@@ -2391,7 +2391,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U26" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
@@ -2411,7 +2411,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F27" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G27" s="0" t="n">
         <x:v>0</x:v>
@@ -2438,7 +2438,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O27" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="P27" s="0" t="n">
         <x:v>0</x:v>
@@ -2450,13 +2450,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S27" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="T27" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="U27" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
@@ -2473,7 +2473,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E28" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F28" s="0" t="n">
         <x:v>0</x:v>
@@ -2521,7 +2521,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U28" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:21">
@@ -2727,7 +2727,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C32" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D32" s="0" t="n">
         <x:v>0</x:v>
@@ -2736,7 +2736,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F32" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G32" s="0" t="n">
         <x:v>0</x:v>
@@ -2757,13 +2757,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M32" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="N32" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O32" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="P32" s="0" t="n">
         <x:v>0</x:v>
@@ -2781,7 +2781,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U32" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:21">
@@ -2801,7 +2801,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F33" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G33" s="0" t="n">
         <x:v>0</x:v>
@@ -2846,7 +2846,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U33" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:21">
@@ -3023,7 +3023,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O36" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="P36" s="0" t="n">
         <x:v>0</x:v>
@@ -3041,7 +3041,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U36" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:21">
@@ -3147,7 +3147,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="M38" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="N38" s="0" t="n">
         <x:v>1</x:v>
@@ -3156,7 +3156,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="P38" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Q38" s="0" t="n">
         <x:v>0</x:v>
@@ -3171,7 +3171,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U38" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:21">
@@ -3247,7 +3247,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C40" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D40" s="0" t="n">
         <x:v>0</x:v>
@@ -3265,7 +3265,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I40" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J40" s="0" t="n">
         <x:v>1</x:v>
@@ -3277,7 +3277,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M40" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="N40" s="0" t="n">
         <x:v>0</x:v>
@@ -3295,13 +3295,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S40" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="T40" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="U40" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:21">
@@ -3312,7 +3312,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C41" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D41" s="0" t="n">
         <x:v>0</x:v>
@@ -3321,7 +3321,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F41" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G41" s="0" t="n">
         <x:v>0</x:v>
@@ -3342,7 +3342,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="M41" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N41" s="0" t="n">
         <x:v>0</x:v>
@@ -3366,7 +3366,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U41" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
@@ -3448,10 +3448,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E43" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F43" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G43" s="0" t="n">
         <x:v>0</x:v>
@@ -3472,7 +3472,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="M43" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="N43" s="0" t="n">
         <x:v>0</x:v>
@@ -3496,7 +3496,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="U43" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:21">
@@ -3507,7 +3507,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C44" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D44" s="0" t="n">
         <x:v>0</x:v>
@@ -3525,7 +3525,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I44" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="J44" s="0" t="n">
         <x:v>0</x:v>
@@ -3543,7 +3543,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O44" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="P44" s="0" t="n">
         <x:v>0</x:v>
@@ -3561,7 +3561,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U44" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:21">
@@ -3572,7 +3572,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C45" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D45" s="0" t="n">
         <x:v>0</x:v>
@@ -3581,7 +3581,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F45" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
         <x:v>0</x:v>
@@ -3590,7 +3590,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I45" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="J45" s="0" t="n">
         <x:v>0</x:v>
@@ -3602,13 +3602,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M45" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N45" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O45" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="P45" s="0" t="n">
         <x:v>0</x:v>
@@ -3623,10 +3623,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T45" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="U45" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:21">
@@ -3711,7 +3711,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F47" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G47" s="0" t="n">
         <x:v>0</x:v>
@@ -3720,7 +3720,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I47" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="J47" s="0" t="n">
         <x:v>0</x:v>
@@ -3732,7 +3732,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M47" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N47" s="0" t="n">
         <x:v>0</x:v>
@@ -3756,7 +3756,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="U47" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:21">
@@ -3764,7 +3764,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="B48" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C48" s="0" t="n">
         <x:v>2</x:v>
@@ -3785,7 +3785,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I48" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="J48" s="0" t="n">
         <x:v>2</x:v>
@@ -3797,7 +3797,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M48" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="N48" s="0" t="n">
         <x:v>1</x:v>
@@ -3821,7 +3821,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="U48" s="1" t="n">
-        <x:v>70</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:21">
@@ -3894,10 +3894,10 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="B50" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C50" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D50" s="0" t="n">
         <x:v>0</x:v>
@@ -3906,7 +3906,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F50" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G50" s="0" t="n">
         <x:v>2</x:v>
@@ -3915,7 +3915,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="I50" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="J50" s="0" t="n">
         <x:v>0</x:v>
@@ -3927,13 +3927,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="M50" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N50" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="O50" s="0" t="n">
-        <x:v>118</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="P50" s="0" t="n">
         <x:v>8</x:v>
@@ -3942,16 +3942,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="R50" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="S50" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="T50" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="U50" s="1" t="n">
-        <x:v>401</x:v>
+        <x:v>442</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:21">
@@ -3971,7 +3971,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F51" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G51" s="0" t="n">
         <x:v>0</x:v>
@@ -3980,7 +3980,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="I51" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="J51" s="0" t="n">
         <x:v>0</x:v>
@@ -3992,13 +3992,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="M51" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="N51" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O51" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="P51" s="0" t="n">
         <x:v>3</x:v>
@@ -4016,7 +4016,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U51" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:21">
@@ -4057,13 +4057,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M52" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N52" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="O52" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="P52" s="0" t="n">
         <x:v>0</x:v>
@@ -4081,7 +4081,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U52" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:21">
@@ -4231,7 +4231,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F55" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G55" s="0" t="n">
         <x:v>0</x:v>
@@ -4276,7 +4276,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U55" s="1" t="n">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:21">
@@ -4317,7 +4317,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M56" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N56" s="0" t="n">
         <x:v>0</x:v>
@@ -4341,7 +4341,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U56" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
@@ -4349,19 +4349,19 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="B57" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C57" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D57" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E57" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F57" s="0" t="n">
-        <x:v>62</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G57" s="0" t="n">
         <x:v>1</x:v>
@@ -4370,7 +4370,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="I57" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J57" s="0" t="n">
         <x:v>0</x:v>
@@ -4379,16 +4379,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="L57" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="M57" s="0" t="n">
-        <x:v>126</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="N57" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O57" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="P57" s="0" t="n">
         <x:v>8</x:v>
@@ -4400,13 +4400,13 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="S57" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="T57" s="0" t="n">
-        <x:v>71</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="U57" s="1" t="n">
-        <x:v>632</x:v>
+        <x:v>684</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:21">
@@ -4491,7 +4491,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F59" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G59" s="0" t="n">
         <x:v>0</x:v>
@@ -4536,7 +4536,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U59" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:21">
@@ -4577,7 +4577,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M60" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N60" s="0" t="n">
         <x:v>0</x:v>
@@ -4601,7 +4601,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U60" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">
@@ -4739,22 +4739,22 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B63" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C63" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D63" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E63" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F63" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G63" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H63" s="0" t="n">
         <x:v>7</x:v>
@@ -4772,13 +4772,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="M63" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N63" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="O63" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P63" s="0" t="n">
         <x:v>2</x:v>
@@ -4787,7 +4787,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="R63" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="S63" s="0" t="n">
         <x:v>21</x:v>
@@ -4796,7 +4796,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="U63" s="1" t="n">
-        <x:v>231</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:21">
@@ -4825,7 +4825,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I64" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J64" s="0" t="n">
         <x:v>0</x:v>
@@ -4843,7 +4843,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="O64" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="P64" s="0" t="n">
         <x:v>0</x:v>
@@ -4855,13 +4855,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="S64" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="T64" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="U64" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
@@ -4937,7 +4937,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C66" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D66" s="0" t="n">
         <x:v>0</x:v>
@@ -4946,7 +4946,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F66" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G66" s="0" t="n">
         <x:v>0</x:v>
@@ -4955,7 +4955,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I66" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="J66" s="0" t="n">
         <x:v>0</x:v>
@@ -4967,13 +4967,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="M66" s="0" t="n">
-        <x:v>94</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="N66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="O66" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="P66" s="0" t="n">
         <x:v>3</x:v>
@@ -4985,13 +4985,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="S66" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="T66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U66" s="1" t="n">
-        <x:v>225</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:21">
@@ -5002,7 +5002,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C67" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D67" s="0" t="n">
         <x:v>0</x:v>
@@ -5011,7 +5011,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F67" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G67" s="0" t="n">
         <x:v>0</x:v>
@@ -5032,13 +5032,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="M67" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="N67" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
       <x:c r="O67" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="P67" s="0" t="n">
         <x:v>2</x:v>
@@ -5050,13 +5050,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="S67" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="T67" s="0" t="n">
         <x:v>14</x:v>
       </x:c>
       <x:c r="U67" s="1" t="n">
-        <x:v>377</x:v>
+        <x:v>386</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:21">
@@ -5132,7 +5132,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C69" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D69" s="0" t="n">
         <x:v>0</x:v>
@@ -5150,19 +5150,19 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K69" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="L69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M69" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="N69" s="0" t="n">
         <x:v>0</x:v>
@@ -5180,13 +5180,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="S69" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="T69" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="U69" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:21">
@@ -5233,7 +5233,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="O70" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="P70" s="0" t="n">
         <x:v>0</x:v>
@@ -5251,7 +5251,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U70" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:21">
@@ -5292,7 +5292,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="M71" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N71" s="0" t="n">
         <x:v>0</x:v>
@@ -5313,10 +5313,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T71" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U71" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:21">
@@ -5522,7 +5522,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C75" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D75" s="0" t="n">
         <x:v>0</x:v>
@@ -5540,7 +5540,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="I75" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J75" s="0" t="n">
         <x:v>1</x:v>
@@ -5552,13 +5552,13 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="M75" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="N75" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
       <x:c r="O75" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="P75" s="0" t="n">
         <x:v>1</x:v>
@@ -5567,16 +5567,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="R75" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="S75" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="T75" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="U75" s="1" t="n">
-        <x:v>311</x:v>
+        <x:v>332</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:21">
@@ -5617,7 +5617,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M76" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N76" s="0" t="n">
         <x:v>0</x:v>
@@ -5641,7 +5641,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U76" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:21">
@@ -5717,7 +5717,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C78" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D78" s="0" t="n">
         <x:v>0</x:v>
@@ -5753,7 +5753,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="O78" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="P78" s="0" t="n">
         <x:v>1</x:v>
@@ -5771,7 +5771,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="U78" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:21">
@@ -5782,16 +5782,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C79" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D79" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="E79" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F79" s="0" t="n">
-        <x:v>38</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G79" s="0" t="n">
         <x:v>0</x:v>
@@ -5812,7 +5812,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="M79" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="N79" s="0" t="n">
         <x:v>3</x:v>
@@ -5830,13 +5830,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="S79" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="T79" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="U79" s="1" t="n">
-        <x:v>234</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:21">

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -127,42 +127,42 @@
     <x:t>33</x:t>
   </x:si>
   <x:si>
+    <x:t>413</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Becker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beltrami</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>414</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Becker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beltrami</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
     <x:t>99</x:t>
   </x:si>
   <x:si>
@@ -262,301 +262,301 @@
     <x:t>32</x:t>
   </x:si>
   <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dodge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Douglas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faribault</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fillmore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Freeborn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goodhue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hennepin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>258</x:t>
+  </x:si>
+  <x:si>
+    <x:t>345</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>455</x:t>
+  </x:si>
+  <x:si>
+    <x:t>320</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>392</x:t>
+  </x:si>
+  <x:si>
+    <x:t>235</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2664</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Houston</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hubbard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Itasca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jackson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kanabec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kandiyohi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kittson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koochiching</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lac qui Parle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lyon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahnomen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Martin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>McLeod</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meeker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mille Lacs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>148</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Morrison</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Murray</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nicollet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nobles</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Norman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olmsted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>442</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Otter Tail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pennington</x:t>
+  </x:si>
+  <x:si>
     <x:t>51</x:t>
   </x:si>
   <x:si>
-    <x:t>161</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dodge</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Douglas</x:t>
+    <x:t>Pine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pipestone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Polk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pope</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramsey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>686</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red Lake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Redwood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Renville</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roseau</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scott</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sherburne</x:t>
+  </x:si>
+  <x:si>
+    <x:t>107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sibley</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St. Louis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stearns</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54</x:t>
   </x:si>
   <x:si>
     <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faribault</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fillmore</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Freeborn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goodhue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hennepin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>171</x:t>
-  </x:si>
-  <x:si>
-    <x:t>219</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>258</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96</x:t>
-  </x:si>
-  <x:si>
-    <x:t>345</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>454</x:t>
-  </x:si>
-  <x:si>
-    <x:t>320</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>392</x:t>
-  </x:si>
-  <x:si>
-    <x:t>235</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2662</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Houston</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hubbard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Itasca</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jackson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kanabec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kandiyohi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kittson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Koochiching</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lac qui Parle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lincoln</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lyon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahnomen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Martin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>McLeod</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Meeker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mille Lacs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>148</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Morrison</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mower</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Murray</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nicollet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nobles</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Norman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olmsted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>125</x:t>
-  </x:si>
-  <x:si>
-    <x:t>442</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Otter Tail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pennington</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pipestone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Polk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pope</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ramsey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>137</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74</x:t>
-  </x:si>
-  <x:si>
-    <x:t>685</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Red Lake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Redwood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Renville</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roseau</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scott</x:t>
-  </x:si>
-  <x:si>
-    <x:t>253</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sherburne</x:t>
-  </x:si>
-  <x:si>
-    <x:t>107</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sibley</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St. Louis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>243</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stearns</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
   </x:si>
   <x:si>
     <x:t>45</x:t>
@@ -1187,15 +1187,15 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="T3" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="U3" s="1" t="s">
         <x:v>37</x:v>
-      </x:c>
-      <x:c r="U3" s="1" t="s">
-        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
       <x:c r="A4" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>22</x:v>
@@ -1207,66 +1207,66 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="s">
+      <x:c r="G4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="K4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="M4" s="0" t="s">
+      <x:c r="N4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="O4" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="N4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="O4" s="0" t="s">
+      <x:c r="P4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="Q4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="R4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="S4" s="0" t="s">
         <x:v>43</x:v>
-      </x:c>
-      <x:c r="P4" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="Q4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="R4" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="S4" s="0" t="s">
-        <x:v>44</x:v>
       </x:c>
       <x:c r="T4" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="U4" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:21">
       <x:c r="A5" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>23</x:v>
@@ -1284,7 +1284,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="J5" s="0" t="s">
         <x:v>23</x:v>
@@ -1296,7 +1296,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="M5" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N5" s="0" t="s">
         <x:v>33</x:v>
@@ -1314,10 +1314,10 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S5" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="T5" s="0" t="s">
         <x:v>48</x:v>
-      </x:c>
-      <x:c r="T5" s="0" t="s">
-        <x:v>37</x:v>
       </x:c>
       <x:c r="U5" s="1" t="s">
         <x:v>49</x:v>
@@ -1396,7 +1396,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>23</x:v>
@@ -1426,7 +1426,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="M7" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="N7" s="0" t="s">
         <x:v>23</x:v>
@@ -1577,7 +1577,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="T9" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="U9" s="1" t="s">
         <x:v>61</x:v>
@@ -1689,7 +1689,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="N11" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O11" s="0" t="s">
         <x:v>23</x:v>
@@ -1783,7 +1783,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
         <x:v>69</x:v>
@@ -1792,7 +1792,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
         <x:v>25</x:v>
@@ -1801,13 +1801,13 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J13" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="K13" s="0" t="s">
         <x:v>23</x:v>
@@ -1834,7 +1834,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="S13" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="T13" s="0" t="s">
         <x:v>26</x:v>
@@ -1905,7 +1905,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U14" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:21">
@@ -1999,7 +1999,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="J16" s="0" t="s">
         <x:v>23</x:v>
@@ -2017,7 +2017,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="O16" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P16" s="0" t="s">
         <x:v>33</x:v>
@@ -2046,7 +2046,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
         <x:v>23</x:v>
@@ -2064,7 +2064,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J17" s="0" t="s">
         <x:v>23</x:v>
@@ -2073,10 +2073,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L17" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="M17" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="N17" s="0" t="s">
         <x:v>33</x:v>
@@ -2165,7 +2165,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U18" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
@@ -2206,14 +2206,14 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M19" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="N19" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="O19" s="0" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="N19" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="O19" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
       <x:c r="P19" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
@@ -2221,7 +2221,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="R19" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="S19" s="0" t="s">
         <x:v>60</x:v>
@@ -2230,12 +2230,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U19" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:21">
       <x:c r="A20" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>23</x:v>
@@ -2300,7 +2300,7 @@
     </x:row>
     <x:row r="21" spans="1:21">
       <x:c r="A21" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>23</x:v>
@@ -2365,7 +2365,7 @@
     </x:row>
     <x:row r="22" spans="1:21">
       <x:c r="A22" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>23</x:v>
@@ -2401,7 +2401,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M22" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="N22" s="0" t="s">
         <x:v>23</x:v>
@@ -2425,12 +2425,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U22" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:21">
       <x:c r="A23" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>23</x:v>
@@ -2472,7 +2472,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O23" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="P23" s="0" t="s">
         <x:v>23</x:v>
@@ -2495,7 +2495,7 @@
     </x:row>
     <x:row r="24" spans="1:21">
       <x:c r="A24" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>23</x:v>
@@ -2560,49 +2560,49 @@
     </x:row>
     <x:row r="25" spans="1:21">
       <x:c r="A25" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="B25" s="0" t="s">
+      <x:c r="C25" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="C25" s="0" t="s">
+      <x:c r="G25" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="D25" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E25" s="0" t="s">
+      <x:c r="J25" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="K25" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="L25" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="F25" s="0" t="s">
+      <x:c r="M25" s="0" t="s">
         <x:v>99</x:v>
-      </x:c>
-      <x:c r="G25" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H25" s="0" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="I25" s="0" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="J25" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="K25" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="L25" s="0" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="M25" s="0" t="s">
-        <x:v>103</x:v>
       </x:c>
       <x:c r="N25" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="O25" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="P25" s="0" t="s">
         <x:v>30</x:v>
@@ -2611,21 +2611,21 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="R25" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="S25" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="T25" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="U25" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:21">
       <x:c r="A26" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>23</x:v>
@@ -2685,12 +2685,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U26" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
       <x:c r="A27" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>23</x:v>
@@ -2714,7 +2714,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I27" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="J27" s="0" t="s">
         <x:v>23</x:v>
@@ -2744,18 +2744,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S27" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="T27" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="U27" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
       <x:c r="A28" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>22</x:v>
@@ -2791,13 +2791,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M28" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N28" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O28" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="P28" s="0" t="s">
         <x:v>23</x:v>
@@ -2820,7 +2820,7 @@
     </x:row>
     <x:row r="29" spans="1:21">
       <x:c r="A29" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>23</x:v>
@@ -2874,7 +2874,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S29" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="T29" s="0" t="s">
         <x:v>33</x:v>
@@ -2885,7 +2885,7 @@
     </x:row>
     <x:row r="30" spans="1:21">
       <x:c r="A30" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>23</x:v>
@@ -2945,12 +2945,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U30" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:21">
       <x:c r="A31" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>23</x:v>
@@ -3010,12 +3010,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U31" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:21">
       <x:c r="A32" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>23</x:v>
@@ -3039,7 +3039,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I32" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J32" s="0" t="s">
         <x:v>23</x:v>
@@ -3051,13 +3051,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="M32" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="N32" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O32" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="P32" s="0" t="s">
         <x:v>23</x:v>
@@ -3075,12 +3075,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U32" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:21">
       <x:c r="A33" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>23</x:v>
@@ -3145,7 +3145,7 @@
     </x:row>
     <x:row r="34" spans="1:21">
       <x:c r="A34" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>23</x:v>
@@ -3210,7 +3210,7 @@
     </x:row>
     <x:row r="35" spans="1:21">
       <x:c r="A35" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>23</x:v>
@@ -3275,7 +3275,7 @@
     </x:row>
     <x:row r="36" spans="1:21">
       <x:c r="A36" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>23</x:v>
@@ -3335,12 +3335,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U36" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:21">
       <x:c r="A37" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>22</x:v>
@@ -3382,7 +3382,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O37" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P37" s="0" t="s">
         <x:v>23</x:v>
@@ -3405,7 +3405,7 @@
     </x:row>
     <x:row r="38" spans="1:21">
       <x:c r="A38" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>23</x:v>
@@ -3470,7 +3470,7 @@
     </x:row>
     <x:row r="39" spans="1:21">
       <x:c r="A39" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>23</x:v>
@@ -3485,7 +3485,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G39" s="0" t="s">
         <x:v>23</x:v>
@@ -3506,13 +3506,13 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="M39" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N39" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="O39" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P39" s="0" t="s">
         <x:v>22</x:v>
@@ -3524,18 +3524,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S39" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="T39" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U39" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:21">
       <x:c r="A40" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>23</x:v>
@@ -3600,7 +3600,7 @@
     </x:row>
     <x:row r="41" spans="1:21">
       <x:c r="A41" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>23</x:v>
@@ -3660,12 +3660,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U41" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
       <x:c r="A42" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>35</x:v>
@@ -3698,16 +3698,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L42" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="M42" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="N42" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O42" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="P42" s="0" t="s">
         <x:v>23</x:v>
@@ -3725,12 +3725,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U42" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:21">
       <x:c r="A43" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>23</x:v>
@@ -3790,12 +3790,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U43" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:21">
       <x:c r="A44" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>23</x:v>
@@ -3810,7 +3810,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
         <x:v>23</x:v>
@@ -3819,7 +3819,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I44" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="J44" s="0" t="s">
         <x:v>23</x:v>
@@ -3828,16 +3828,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L44" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="M44" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="N44" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O44" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="P44" s="0" t="s">
         <x:v>35</x:v>
@@ -3855,12 +3855,12 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="U44" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:21">
       <x:c r="A45" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>23</x:v>
@@ -3884,7 +3884,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I45" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="J45" s="0" t="s">
         <x:v>23</x:v>
@@ -3920,18 +3920,18 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="U45" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:21">
       <x:c r="A46" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
         <x:v>23</x:v>
@@ -3940,13 +3940,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H46" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I46" s="0" t="s">
         <x:v>29</x:v>
@@ -3961,7 +3961,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="M46" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N46" s="0" t="s">
         <x:v>23</x:v>
@@ -3990,7 +3990,7 @@
     </x:row>
     <x:row r="47" spans="1:21">
       <x:c r="A47" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>23</x:v>
@@ -4055,7 +4055,7 @@
     </x:row>
     <x:row r="48" spans="1:21">
       <x:c r="A48" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>22</x:v>
@@ -4070,7 +4070,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F48" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G48" s="0" t="s">
         <x:v>23</x:v>
@@ -4091,7 +4091,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M48" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="N48" s="0" t="s">
         <x:v>23</x:v>
@@ -4115,15 +4115,15 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U48" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:21">
       <x:c r="A49" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
         <x:v>35</x:v>
@@ -4156,7 +4156,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M49" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="N49" s="0" t="s">
         <x:v>22</x:v>
@@ -4174,18 +4174,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S49" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="T49" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="U49" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
       <x:c r="A50" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>23</x:v>
@@ -4250,13 +4250,13 @@
     </x:row>
     <x:row r="51" spans="1:21">
       <x:c r="A51" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
         <x:v>23</x:v>
@@ -4265,7 +4265,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
         <x:v>35</x:v>
@@ -4274,7 +4274,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I51" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="J51" s="0" t="s">
         <x:v>23</x:v>
@@ -4286,16 +4286,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="M51" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="N51" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="O51" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="P51" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q51" s="0" t="s">
         <x:v>22</x:v>
@@ -4304,18 +4304,18 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="S51" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="T51" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="U51" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:21">
       <x:c r="A52" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>23</x:v>
@@ -4339,7 +4339,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="I52" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J52" s="0" t="s">
         <x:v>23</x:v>
@@ -4351,13 +4351,13 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="M52" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N52" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O52" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="P52" s="0" t="s">
         <x:v>33</x:v>
@@ -4375,12 +4375,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U52" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:21">
       <x:c r="A53" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>23</x:v>
@@ -4416,7 +4416,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M53" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="N53" s="0" t="s">
         <x:v>22</x:v>
@@ -4434,18 +4434,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S53" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="T53" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U53" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:21">
       <x:c r="A54" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>23</x:v>
@@ -4481,13 +4481,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M54" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="N54" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="O54" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="P54" s="0" t="s">
         <x:v>23</x:v>
@@ -4510,7 +4510,7 @@
     </x:row>
     <x:row r="55" spans="1:21">
       <x:c r="A55" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>23</x:v>
@@ -4570,12 +4570,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U55" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:21">
       <x:c r="A56" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>23</x:v>
@@ -4590,7 +4590,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
         <x:v>23</x:v>
@@ -4611,7 +4611,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M56" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="N56" s="0" t="s">
         <x:v>23</x:v>
@@ -4629,18 +4629,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S56" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="T56" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U56" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
       <x:c r="A57" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>23</x:v>
@@ -4705,22 +4705,22 @@
     </x:row>
     <x:row r="58" spans="1:21">
       <x:c r="A58" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G58" s="0" t="s">
         <x:v>22</x:v>
@@ -4729,7 +4729,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I58" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="J58" s="0" t="s">
         <x:v>23</x:v>
@@ -4741,16 +4741,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="M58" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="N58" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O58" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="P58" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="Q58" s="0" t="s">
         <x:v>33</x:v>
@@ -4759,18 +4759,18 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="S58" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="T58" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="U58" s="1" t="s">
         <x:v>163</x:v>
-      </x:c>
-      <x:c r="T58" s="0" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="U58" s="1" t="s">
-        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">
       <x:c r="A59" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>23</x:v>
@@ -4835,7 +4835,7 @@
     </x:row>
     <x:row r="60" spans="1:21">
       <x:c r="A60" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>23</x:v>
@@ -4850,7 +4850,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F60" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G60" s="0" t="s">
         <x:v>23</x:v>
@@ -4900,7 +4900,7 @@
     </x:row>
     <x:row r="61" spans="1:21">
       <x:c r="A61" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>35</x:v>
@@ -4936,7 +4936,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M61" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N61" s="0" t="s">
         <x:v>23</x:v>
@@ -4960,12 +4960,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U61" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">
       <x:c r="A62" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>23</x:v>
@@ -5030,7 +5030,7 @@
     </x:row>
     <x:row r="63" spans="1:21">
       <x:c r="A63" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>23</x:v>
@@ -5095,7 +5095,7 @@
     </x:row>
     <x:row r="64" spans="1:21">
       <x:c r="A64" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>26</x:v>
@@ -5110,7 +5110,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F64" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G64" s="0" t="s">
         <x:v>22</x:v>
@@ -5128,16 +5128,16 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="L64" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="M64" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="N64" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="O64" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="P64" s="0" t="s">
         <x:v>35</x:v>
@@ -5146,21 +5146,21 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R64" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="S64" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="T64" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="U64" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
       <x:c r="A65" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>22</x:v>
@@ -5184,7 +5184,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I65" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J65" s="0" t="s">
         <x:v>23</x:v>
@@ -5196,7 +5196,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="M65" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="N65" s="0" t="s">
         <x:v>29</x:v>
@@ -5214,18 +5214,18 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="S65" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="T65" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="U65" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">
       <x:c r="A66" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>23</x:v>
@@ -5261,7 +5261,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M66" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N66" s="0" t="s">
         <x:v>23</x:v>
@@ -5290,7 +5290,7 @@
     </x:row>
     <x:row r="67" spans="1:21">
       <x:c r="A67" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>23</x:v>
@@ -5305,7 +5305,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="F67" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G67" s="0" t="s">
         <x:v>23</x:v>
@@ -5314,7 +5314,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I67" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="J67" s="0" t="s">
         <x:v>23</x:v>
@@ -5326,13 +5326,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="M67" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="N67" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O67" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="P67" s="0" t="s">
         <x:v>33</x:v>
@@ -5344,18 +5344,18 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S67" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="T67" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U67" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:21">
       <x:c r="A68" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>29</x:v>
@@ -5370,7 +5370,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F68" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="G68" s="0" t="s">
         <x:v>23</x:v>
@@ -5379,7 +5379,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I68" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="J68" s="0" t="s">
         <x:v>35</x:v>
@@ -5388,10 +5388,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L68" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="M68" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="N68" s="0" t="s">
         <x:v>24</x:v>
@@ -5412,7 +5412,7 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="T68" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="U68" s="1" t="s">
         <x:v>182</x:v>
@@ -5521,7 +5521,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M70" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="N70" s="0" t="s">
         <x:v>23</x:v>
@@ -5610,7 +5610,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U71" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:21">
@@ -5651,7 +5651,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M72" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="N72" s="0" t="s">
         <x:v>23</x:v>
@@ -5787,7 +5787,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O74" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="P74" s="0" t="s">
         <x:v>23</x:v>
@@ -5846,7 +5846,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="M75" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="N75" s="0" t="s">
         <x:v>23</x:v>
@@ -5870,7 +5870,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U75" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:21">
@@ -5890,13 +5890,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="H76" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I76" s="0" t="s">
         <x:v>27</x:v>
@@ -5911,13 +5911,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="M76" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N76" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="O76" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="P76" s="0" t="s">
         <x:v>22</x:v>
@@ -6000,7 +6000,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U77" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:21">
@@ -6130,7 +6130,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U79" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:21">
@@ -6141,16 +6141,16 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="E80" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F80" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G80" s="0" t="s">
         <x:v>23</x:v>
@@ -6159,7 +6159,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I80" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J80" s="0" t="s">
         <x:v>35</x:v>
@@ -6168,10 +6168,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L80" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="M80" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N80" s="0" t="s">
         <x:v>33</x:v>
@@ -6189,7 +6189,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="S80" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="T80" s="0" t="s">
         <x:v>24</x:v>
@@ -6236,7 +6236,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M81" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N81" s="0" t="s">
         <x:v>23</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -154,16 +154,16 @@
     <x:t>Beltrami</x:t>
   </x:si>
   <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
     <x:t>8</x:t>
   </x:si>
   <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>99</x:t>
+    <x:t>98</x:t>
   </x:si>
   <x:si>
     <x:t>Benton</x:t>
@@ -232,189 +232,201 @@
     <x:t>49</x:t>
   </x:si>
   <x:si>
-    <x:t>38</x:t>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>221</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clearwater</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cottonwood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crow Wing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dakota</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dodge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Douglas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faribault</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fillmore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Freeborn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goodhue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hennepin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>171</x:t>
   </x:si>
   <x:si>
     <x:t>220</x:t>
   </x:si>
   <x:si>
-    <x:t>Clearwater</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cottonwood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crow Wing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dakota</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dodge</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Douglas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
+    <x:t>258</x:t>
   </x:si>
   <x:si>
     <x:t>96</x:t>
   </x:si>
   <x:si>
-    <x:t>Faribault</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fillmore</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Freeborn</x:t>
+    <x:t>345</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>455</x:t>
+  </x:si>
+  <x:si>
+    <x:t>320</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>392</x:t>
+  </x:si>
+  <x:si>
+    <x:t>235</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2664</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Houston</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hubbard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Itasca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jackson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kanabec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kandiyohi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kittson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koochiching</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lac qui Parle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lyon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahnomen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Martin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>McLeod</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meeker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mille Lacs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
   </x:si>
   <x:si>
     <x:t>64</x:t>
   </x:si>
   <x:si>
-    <x:t>Goodhue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hennepin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>171</x:t>
-  </x:si>
-  <x:si>
-    <x:t>258</x:t>
-  </x:si>
-  <x:si>
-    <x:t>345</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>455</x:t>
-  </x:si>
-  <x:si>
-    <x:t>320</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>392</x:t>
-  </x:si>
-  <x:si>
-    <x:t>235</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2664</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Houston</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hubbard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Itasca</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jackson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kanabec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kandiyohi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>154</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kittson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Koochiching</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lac qui Parle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lincoln</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lyon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahnomen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Martin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>McLeod</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Meeker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mille Lacs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
     <x:t>148</x:t>
   </x:si>
   <x:si>
@@ -451,9 +463,6 @@
     <x:t>Olmsted</x:t>
   </x:si>
   <x:si>
-    <x:t>69</x:t>
-  </x:si>
-  <x:si>
     <x:t>89</x:t>
   </x:si>
   <x:si>
@@ -544,10 +553,13 @@
     <x:t>St. Louis</x:t>
   </x:si>
   <x:si>
-    <x:t>100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>243</x:t>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>247</x:t>
   </x:si>
   <x:si>
     <x:t>Stearns</x:t>
@@ -559,9 +571,6 @@
     <x:t>35</x:t>
   </x:si>
   <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
     <x:t>386</x:t>
   </x:si>
   <x:si>
@@ -589,7 +598,7 @@
     <x:t>Washington</x:t>
   </x:si>
   <x:si>
-    <x:t>333</x:t>
+    <x:t>336</x:t>
   </x:si>
   <x:si>
     <x:t>Watonwan</x:t>
@@ -1284,7 +1293,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J5" s="0" t="s">
         <x:v>23</x:v>
@@ -1296,7 +1305,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="M5" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="N5" s="0" t="s">
         <x:v>33</x:v>
@@ -1314,7 +1323,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S5" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="T5" s="0" t="s">
         <x:v>48</x:v>
@@ -1577,7 +1586,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="T9" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="U9" s="1" t="s">
         <x:v>61</x:v>
@@ -1689,7 +1698,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="N11" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="O11" s="0" t="s">
         <x:v>23</x:v>
@@ -1834,7 +1843,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="S13" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="T13" s="0" t="s">
         <x:v>26</x:v>
@@ -1905,7 +1914,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U14" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:21">
@@ -2017,7 +2026,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="O16" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="P16" s="0" t="s">
         <x:v>33</x:v>
@@ -2076,7 +2085,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="M17" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N17" s="0" t="s">
         <x:v>33</x:v>
@@ -2094,7 +2103,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S17" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="T17" s="0" t="s">
         <x:v>82</x:v>
@@ -2165,7 +2174,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U18" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
@@ -2194,7 +2203,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J19" s="0" t="s">
         <x:v>23</x:v>
@@ -2419,7 +2428,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="S22" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="T22" s="0" t="s">
         <x:v>23</x:v>
@@ -2454,7 +2463,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I23" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J23" s="0" t="s">
         <x:v>23</x:v>
@@ -2466,7 +2475,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M23" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N23" s="0" t="s">
         <x:v>23</x:v>
@@ -2490,12 +2499,12 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="U23" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:21">
       <x:c r="A24" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>23</x:v>
@@ -2560,13 +2569,13 @@
     </x:row>
     <x:row r="25" spans="1:21">
       <x:c r="A25" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
         <x:v>22</x:v>
@@ -2575,16 +2584,16 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="H25" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="J25" s="0" t="s">
         <x:v>42</x:v>
@@ -2593,16 +2602,16 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="L25" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M25" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N25" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="O25" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="P25" s="0" t="s">
         <x:v>30</x:v>
@@ -2611,21 +2620,21 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="R25" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="S25" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="T25" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="U25" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:21">
       <x:c r="A26" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>23</x:v>
@@ -2685,12 +2694,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U26" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
       <x:c r="A27" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>23</x:v>
@@ -2750,12 +2759,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U27" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
       <x:c r="A28" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>22</x:v>
@@ -2820,7 +2829,7 @@
     </x:row>
     <x:row r="29" spans="1:21">
       <x:c r="A29" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>23</x:v>
@@ -2885,7 +2894,7 @@
     </x:row>
     <x:row r="30" spans="1:21">
       <x:c r="A30" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>23</x:v>
@@ -2950,7 +2959,7 @@
     </x:row>
     <x:row r="31" spans="1:21">
       <x:c r="A31" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>23</x:v>
@@ -3015,7 +3024,7 @@
     </x:row>
     <x:row r="32" spans="1:21">
       <x:c r="A32" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>23</x:v>
@@ -3051,13 +3060,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="M32" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="N32" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O32" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="P32" s="0" t="s">
         <x:v>23</x:v>
@@ -3075,12 +3084,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U32" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:21">
       <x:c r="A33" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>23</x:v>
@@ -3145,7 +3154,7 @@
     </x:row>
     <x:row r="34" spans="1:21">
       <x:c r="A34" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>23</x:v>
@@ -3210,7 +3219,7 @@
     </x:row>
     <x:row r="35" spans="1:21">
       <x:c r="A35" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>23</x:v>
@@ -3275,7 +3284,7 @@
     </x:row>
     <x:row r="36" spans="1:21">
       <x:c r="A36" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>23</x:v>
@@ -3340,7 +3349,7 @@
     </x:row>
     <x:row r="37" spans="1:21">
       <x:c r="A37" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>22</x:v>
@@ -3382,7 +3391,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O37" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="P37" s="0" t="s">
         <x:v>23</x:v>
@@ -3405,7 +3414,7 @@
     </x:row>
     <x:row r="38" spans="1:21">
       <x:c r="A38" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>23</x:v>
@@ -3470,7 +3479,7 @@
     </x:row>
     <x:row r="39" spans="1:21">
       <x:c r="A39" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>23</x:v>
@@ -3506,13 +3515,13 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="M39" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="N39" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="O39" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="P39" s="0" t="s">
         <x:v>22</x:v>
@@ -3530,12 +3539,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U39" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:21">
       <x:c r="A40" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>23</x:v>
@@ -3600,7 +3609,7 @@
     </x:row>
     <x:row r="41" spans="1:21">
       <x:c r="A41" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>23</x:v>
@@ -3660,12 +3669,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U41" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
       <x:c r="A42" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>35</x:v>
@@ -3701,7 +3710,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="M42" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="N42" s="0" t="s">
         <x:v>23</x:v>
@@ -3725,12 +3734,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U42" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:21">
       <x:c r="A43" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>23</x:v>
@@ -3790,12 +3799,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U43" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:21">
       <x:c r="A44" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>23</x:v>
@@ -3810,7 +3819,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
         <x:v>23</x:v>
@@ -3819,7 +3828,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I44" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="J44" s="0" t="s">
         <x:v>23</x:v>
@@ -3831,7 +3840,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="M44" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="N44" s="0" t="s">
         <x:v>23</x:v>
@@ -3855,12 +3864,12 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="U44" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:21">
       <x:c r="A45" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>23</x:v>
@@ -3920,18 +3929,18 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="U45" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:21">
       <x:c r="A46" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
         <x:v>23</x:v>
@@ -3961,7 +3970,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="M46" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="N46" s="0" t="s">
         <x:v>23</x:v>
@@ -3990,7 +3999,7 @@
     </x:row>
     <x:row r="47" spans="1:21">
       <x:c r="A47" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>23</x:v>
@@ -4055,7 +4064,7 @@
     </x:row>
     <x:row r="48" spans="1:21">
       <x:c r="A48" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>22</x:v>
@@ -4091,7 +4100,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M48" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N48" s="0" t="s">
         <x:v>23</x:v>
@@ -4115,12 +4124,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U48" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:21">
       <x:c r="A49" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>42</x:v>
@@ -4156,7 +4165,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M49" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="N49" s="0" t="s">
         <x:v>22</x:v>
@@ -4174,18 +4183,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S49" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="T49" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="U49" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
       <x:c r="A50" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>23</x:v>
@@ -4250,13 +4259,13 @@
     </x:row>
     <x:row r="51" spans="1:21">
       <x:c r="A51" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
         <x:v>23</x:v>
@@ -4265,7 +4274,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
         <x:v>35</x:v>
@@ -4274,7 +4283,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I51" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="J51" s="0" t="s">
         <x:v>23</x:v>
@@ -4286,16 +4295,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="M51" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N51" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="O51" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="P51" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="Q51" s="0" t="s">
         <x:v>22</x:v>
@@ -4310,12 +4319,12 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="U51" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:21">
       <x:c r="A52" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>23</x:v>
@@ -4357,7 +4366,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O52" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="P52" s="0" t="s">
         <x:v>33</x:v>
@@ -4375,12 +4384,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U52" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:21">
       <x:c r="A53" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>23</x:v>
@@ -4434,18 +4443,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S53" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="T53" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U53" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:21">
       <x:c r="A54" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>23</x:v>
@@ -4481,7 +4490,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M54" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="N54" s="0" t="s">
         <x:v>22</x:v>
@@ -4510,7 +4519,7 @@
     </x:row>
     <x:row r="55" spans="1:21">
       <x:c r="A55" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>23</x:v>
@@ -4575,7 +4584,7 @@
     </x:row>
     <x:row r="56" spans="1:21">
       <x:c r="A56" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>23</x:v>
@@ -4590,7 +4599,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
         <x:v>23</x:v>
@@ -4611,7 +4620,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M56" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N56" s="0" t="s">
         <x:v>23</x:v>
@@ -4635,12 +4644,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U56" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
       <x:c r="A57" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>23</x:v>
@@ -4705,22 +4714,22 @@
     </x:row>
     <x:row r="58" spans="1:21">
       <x:c r="A58" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="F58" s="0" t="s">
         <x:v>126</x:v>
-      </x:c>
-      <x:c r="F58" s="0" t="s">
-        <x:v>123</x:v>
       </x:c>
       <x:c r="G58" s="0" t="s">
         <x:v>22</x:v>
@@ -4729,7 +4738,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I58" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="J58" s="0" t="s">
         <x:v>23</x:v>
@@ -4741,13 +4750,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="M58" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="N58" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="O58" s="0" t="s">
         <x:v>160</x:v>
-      </x:c>
-      <x:c r="N58" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="O58" s="0" t="s">
-        <x:v>157</x:v>
       </x:c>
       <x:c r="P58" s="0" t="s">
         <x:v>25</x:v>
@@ -4759,18 +4768,18 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="S58" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="T58" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="U58" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">
       <x:c r="A59" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>23</x:v>
@@ -4835,7 +4844,7 @@
     </x:row>
     <x:row r="60" spans="1:21">
       <x:c r="A60" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>23</x:v>
@@ -4850,7 +4859,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F60" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G60" s="0" t="s">
         <x:v>23</x:v>
@@ -4900,7 +4909,7 @@
     </x:row>
     <x:row r="61" spans="1:21">
       <x:c r="A61" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>35</x:v>
@@ -4936,7 +4945,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M61" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="N61" s="0" t="s">
         <x:v>23</x:v>
@@ -4960,12 +4969,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U61" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">
       <x:c r="A62" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>23</x:v>
@@ -5030,7 +5039,7 @@
     </x:row>
     <x:row r="63" spans="1:21">
       <x:c r="A63" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>23</x:v>
@@ -5095,7 +5104,7 @@
     </x:row>
     <x:row r="64" spans="1:21">
       <x:c r="A64" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>26</x:v>
@@ -5131,13 +5140,13 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="M64" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="N64" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="O64" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="P64" s="0" t="s">
         <x:v>35</x:v>
@@ -5149,18 +5158,18 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="S64" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="T64" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="U64" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
       <x:c r="A65" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>22</x:v>
@@ -5184,7 +5193,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I65" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J65" s="0" t="s">
         <x:v>23</x:v>
@@ -5196,7 +5205,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="M65" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N65" s="0" t="s">
         <x:v>29</x:v>
@@ -5214,18 +5223,18 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="S65" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="T65" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
       <x:c r="U65" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">
       <x:c r="A66" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>23</x:v>
@@ -5261,7 +5270,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M66" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="N66" s="0" t="s">
         <x:v>23</x:v>
@@ -5290,7 +5299,7 @@
     </x:row>
     <x:row r="67" spans="1:21">
       <x:c r="A67" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>23</x:v>
@@ -5314,7 +5323,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I67" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="J67" s="0" t="s">
         <x:v>23</x:v>
@@ -5326,13 +5335,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="M67" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="N67" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O67" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="P67" s="0" t="s">
         <x:v>33</x:v>
@@ -5344,18 +5353,18 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S67" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="T67" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U67" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:21">
       <x:c r="A68" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>29</x:v>
@@ -5370,7 +5379,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F68" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="G68" s="0" t="s">
         <x:v>23</x:v>
@@ -5379,7 +5388,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I68" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="J68" s="0" t="s">
         <x:v>35</x:v>
@@ -5388,10 +5397,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L68" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="M68" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="N68" s="0" t="s">
         <x:v>24</x:v>
@@ -5409,18 +5418,18 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S68" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="T68" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="U68" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:21">
       <x:c r="A69" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>23</x:v>
@@ -5485,7 +5494,7 @@
     </x:row>
     <x:row r="70" spans="1:21">
       <x:c r="A70" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>23</x:v>
@@ -5550,7 +5559,7 @@
     </x:row>
     <x:row r="71" spans="1:21">
       <x:c r="A71" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>23</x:v>
@@ -5615,7 +5624,7 @@
     </x:row>
     <x:row r="72" spans="1:21">
       <x:c r="A72" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>23</x:v>
@@ -5680,7 +5689,7 @@
     </x:row>
     <x:row r="73" spans="1:21">
       <x:c r="A73" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>23</x:v>
@@ -5745,7 +5754,7 @@
     </x:row>
     <x:row r="74" spans="1:21">
       <x:c r="A74" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>23</x:v>
@@ -5810,7 +5819,7 @@
     </x:row>
     <x:row r="75" spans="1:21">
       <x:c r="A75" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>23</x:v>
@@ -5870,12 +5879,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U75" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:21">
       <x:c r="A76" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>29</x:v>
@@ -5896,7 +5905,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H76" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I76" s="0" t="s">
         <x:v>27</x:v>
@@ -5914,10 +5923,10 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="N76" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="O76" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="P76" s="0" t="s">
         <x:v>22</x:v>
@@ -5935,12 +5944,12 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="U76" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:21">
       <x:c r="A77" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>23</x:v>
@@ -6005,7 +6014,7 @@
     </x:row>
     <x:row r="78" spans="1:21">
       <x:c r="A78" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>23</x:v>
@@ -6070,7 +6079,7 @@
     </x:row>
     <x:row r="79" spans="1:21">
       <x:c r="A79" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>23</x:v>
@@ -6130,27 +6139,27 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U79" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:21">
       <x:c r="A80" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="E80" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F80" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G80" s="0" t="s">
         <x:v>23</x:v>
@@ -6159,7 +6168,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I80" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J80" s="0" t="s">
         <x:v>35</x:v>
@@ -6171,7 +6180,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="M80" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N80" s="0" t="s">
         <x:v>33</x:v>
@@ -6189,18 +6198,18 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="S80" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="T80" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="U80" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:21">
       <x:c r="A81" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>23</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -133,183 +133,189 @@
     <x:t>Becker</x:t>
   </x:si>
   <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beltrami</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Benton</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue Earth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brown</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carlton</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carver</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cass</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chisago</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>221</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clearwater</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cottonwood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crow Wing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dakota</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
     <x:t>17</x:t>
   </x:si>
   <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beltrami</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>98</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Benton</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue Earth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brown</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carlton</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carver</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cass</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chisago</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>221</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clearwater</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cottonwood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crow Wing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dakota</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dodge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Douglas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faribault</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fillmore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Freeborn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goodhue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hennepin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>220</x:t>
   </x:si>
   <x:si>
     <x:t>52</x:t>
   </x:si>
   <x:si>
-    <x:t>164</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dodge</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Douglas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>97</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faribault</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fillmore</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Freeborn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goodhue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hennepin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>171</x:t>
-  </x:si>
-  <x:si>
-    <x:t>220</x:t>
-  </x:si>
-  <x:si>
     <x:t>258</x:t>
   </x:si>
   <x:si>
@@ -479,9 +485,6 @@
   </x:si>
   <x:si>
     <x:t>Pennington</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
   </x:si>
   <x:si>
     <x:t>Pine</x:t>
@@ -1261,7 +1264,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="T4" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="U4" s="1" t="s">
         <x:v>44</x:v>
@@ -1275,7 +1278,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>23</x:v>
@@ -1293,7 +1296,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J5" s="0" t="s">
         <x:v>23</x:v>
@@ -1305,7 +1308,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="M5" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N5" s="0" t="s">
         <x:v>33</x:v>
@@ -1323,18 +1326,18 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S5" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="T5" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="U5" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:21">
       <x:c r="A6" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>23</x:v>
@@ -1399,13 +1402,13 @@
     </x:row>
     <x:row r="7" spans="1:21">
       <x:c r="A7" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>23</x:v>
@@ -1414,7 +1417,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
         <x:v>22</x:v>
@@ -1423,7 +1426,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="J7" s="0" t="s">
         <x:v>22</x:v>
@@ -1435,7 +1438,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="M7" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N7" s="0" t="s">
         <x:v>23</x:v>
@@ -1459,12 +1462,12 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="U7" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:21">
       <x:c r="A8" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>23</x:v>
@@ -1479,7 +1482,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
         <x:v>23</x:v>
@@ -1524,12 +1527,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U8" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:21">
       <x:c r="A9" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>23</x:v>
@@ -1565,13 +1568,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M9" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="N9" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O9" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="P9" s="0" t="s">
         <x:v>23</x:v>
@@ -1586,15 +1589,15 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="T9" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="U9" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:21">
       <x:c r="A10" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>35</x:v>
@@ -1627,10 +1630,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L10" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="M10" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="N10" s="0" t="s">
         <x:v>35</x:v>
@@ -1654,12 +1657,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U10" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:21">
       <x:c r="A11" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>23</x:v>
@@ -1698,7 +1701,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="N11" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="O11" s="0" t="s">
         <x:v>23</x:v>
@@ -1719,12 +1722,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U11" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:21">
       <x:c r="A12" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>23</x:v>
@@ -1784,24 +1787,24 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="U12" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:21">
       <x:c r="A13" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
         <x:v>25</x:v>
@@ -1810,13 +1813,13 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="J13" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K13" s="0" t="s">
         <x:v>23</x:v>
@@ -1825,36 +1828,36 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="M13" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="N13" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O13" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="P13" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="Q13" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="R13" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="S13" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="T13" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="U13" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:21">
       <x:c r="A14" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>23</x:v>
@@ -1914,12 +1917,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U14" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:21">
       <x:c r="A15" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>23</x:v>
@@ -1984,13 +1987,13 @@
     </x:row>
     <x:row r="16" spans="1:21">
       <x:c r="A16" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
         <x:v>33</x:v>
@@ -1999,7 +2002,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
         <x:v>23</x:v>
@@ -2008,7 +2011,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="J16" s="0" t="s">
         <x:v>23</x:v>
@@ -2017,16 +2020,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L16" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="M16" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N16" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="O16" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P16" s="0" t="s">
         <x:v>33</x:v>
@@ -2044,12 +2047,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U16" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:21">
       <x:c r="A17" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>35</x:v>
@@ -2064,7 +2067,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
         <x:v>23</x:v>
@@ -2073,7 +2076,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="J17" s="0" t="s">
         <x:v>23</x:v>
@@ -2082,16 +2085,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L17" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="M17" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N17" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="O17" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="P17" s="0" t="s">
         <x:v>22</x:v>
@@ -2103,18 +2106,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S17" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="T17" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="U17" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:21">
       <x:c r="A18" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>23</x:v>
@@ -2156,7 +2159,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O18" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="P18" s="0" t="s">
         <x:v>23</x:v>
@@ -2174,18 +2177,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U18" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
       <x:c r="A19" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
         <x:v>22</x:v>
@@ -2215,13 +2218,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M19" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="N19" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="O19" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="P19" s="0" t="s">
         <x:v>23</x:v>
@@ -2230,21 +2233,21 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="R19" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="S19" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="S19" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
       <x:c r="T19" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="U19" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:21">
       <x:c r="A20" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>23</x:v>
@@ -2309,7 +2312,7 @@
     </x:row>
     <x:row r="21" spans="1:21">
       <x:c r="A21" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>23</x:v>
@@ -2374,7 +2377,7 @@
     </x:row>
     <x:row r="22" spans="1:21">
       <x:c r="A22" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>23</x:v>
@@ -2389,7 +2392,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
         <x:v>23</x:v>
@@ -2410,7 +2413,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M22" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="N22" s="0" t="s">
         <x:v>23</x:v>
@@ -2428,60 +2431,60 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="S22" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="T22" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U22" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:21">
       <x:c r="A23" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="J23" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K23" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L23" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="M23" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E23" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F23" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="G23" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H23" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I23" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="J23" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="K23" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L23" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="M23" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
       <x:c r="N23" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O23" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P23" s="0" t="s">
         <x:v>23</x:v>
@@ -2499,12 +2502,12 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="U23" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:21">
       <x:c r="A24" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>23</x:v>
@@ -2569,49 +2572,49 @@
     </x:row>
     <x:row r="25" spans="1:21">
       <x:c r="A25" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="H25" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J25" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="K25" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="L25" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="M25" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="N25" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="O25" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="P25" s="0" t="s">
         <x:v>30</x:v>
@@ -2620,21 +2623,21 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="R25" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="S25" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="T25" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="U25" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:21">
       <x:c r="A26" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>23</x:v>
@@ -2694,12 +2697,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U26" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
       <x:c r="A27" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>23</x:v>
@@ -2714,7 +2717,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
         <x:v>23</x:v>
@@ -2723,7 +2726,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I27" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J27" s="0" t="s">
         <x:v>23</x:v>
@@ -2753,18 +2756,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S27" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="T27" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="U27" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
       <x:c r="A28" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>22</x:v>
@@ -2800,13 +2803,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M28" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N28" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O28" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P28" s="0" t="s">
         <x:v>23</x:v>
@@ -2829,7 +2832,7 @@
     </x:row>
     <x:row r="29" spans="1:21">
       <x:c r="A29" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>23</x:v>
@@ -2844,7 +2847,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
         <x:v>23</x:v>
@@ -2865,7 +2868,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M29" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="N29" s="0" t="s">
         <x:v>35</x:v>
@@ -2883,18 +2886,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S29" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="T29" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="U29" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:21">
       <x:c r="A30" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>23</x:v>
@@ -2954,12 +2957,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U30" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:21">
       <x:c r="A31" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>23</x:v>
@@ -3024,13 +3027,13 @@
     </x:row>
     <x:row r="32" spans="1:21">
       <x:c r="A32" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
         <x:v>23</x:v>
@@ -3039,7 +3042,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
         <x:v>23</x:v>
@@ -3048,7 +3051,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I32" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="J32" s="0" t="s">
         <x:v>23</x:v>
@@ -3060,13 +3063,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="M32" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="N32" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O32" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="P32" s="0" t="s">
         <x:v>23</x:v>
@@ -3084,12 +3087,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U32" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:21">
       <x:c r="A33" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>23</x:v>
@@ -3154,7 +3157,7 @@
     </x:row>
     <x:row r="34" spans="1:21">
       <x:c r="A34" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>23</x:v>
@@ -3219,7 +3222,7 @@
     </x:row>
     <x:row r="35" spans="1:21">
       <x:c r="A35" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>23</x:v>
@@ -3284,7 +3287,7 @@
     </x:row>
     <x:row r="36" spans="1:21">
       <x:c r="A36" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>23</x:v>
@@ -3344,12 +3347,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U36" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:21">
       <x:c r="A37" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>22</x:v>
@@ -3391,7 +3394,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O37" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P37" s="0" t="s">
         <x:v>23</x:v>
@@ -3409,12 +3412,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U37" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:21">
       <x:c r="A38" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>23</x:v>
@@ -3450,7 +3453,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M38" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="N38" s="0" t="s">
         <x:v>23</x:v>
@@ -3479,7 +3482,7 @@
     </x:row>
     <x:row r="39" spans="1:21">
       <x:c r="A39" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>23</x:v>
@@ -3494,7 +3497,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G39" s="0" t="s">
         <x:v>23</x:v>
@@ -3515,13 +3518,13 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="M39" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="N39" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="O39" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P39" s="0" t="s">
         <x:v>22</x:v>
@@ -3533,18 +3536,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S39" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="T39" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U39" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:21">
       <x:c r="A40" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>23</x:v>
@@ -3609,7 +3612,7 @@
     </x:row>
     <x:row r="41" spans="1:21">
       <x:c r="A41" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>23</x:v>
@@ -3669,18 +3672,18 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U41" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
       <x:c r="A42" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
         <x:v>23</x:v>
@@ -3689,7 +3692,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
         <x:v>23</x:v>
@@ -3698,7 +3701,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I42" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="J42" s="0" t="s">
         <x:v>23</x:v>
@@ -3707,16 +3710,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L42" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="M42" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="N42" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O42" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P42" s="0" t="s">
         <x:v>23</x:v>
@@ -3734,12 +3737,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U42" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:21">
       <x:c r="A43" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>23</x:v>
@@ -3754,7 +3757,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F43" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G43" s="0" t="s">
         <x:v>23</x:v>
@@ -3775,7 +3778,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="M43" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="N43" s="0" t="s">
         <x:v>23</x:v>
@@ -3799,12 +3802,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U43" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:21">
       <x:c r="A44" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>23</x:v>
@@ -3819,7 +3822,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
         <x:v>23</x:v>
@@ -3828,7 +3831,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I44" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="J44" s="0" t="s">
         <x:v>23</x:v>
@@ -3837,39 +3840,39 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L44" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="M44" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="N44" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="O44" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="P44" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="Q44" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="R44" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="S44" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="M44" s="0" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="N44" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="O44" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="P44" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="Q44" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="R44" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="S44" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
       <x:c r="T44" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="U44" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:21">
       <x:c r="A45" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>23</x:v>
@@ -3893,7 +3896,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I45" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J45" s="0" t="s">
         <x:v>23</x:v>
@@ -3911,7 +3914,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O45" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="P45" s="0" t="s">
         <x:v>23</x:v>
@@ -3929,18 +3932,18 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="U45" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:21">
       <x:c r="A46" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
         <x:v>23</x:v>
@@ -3949,13 +3952,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H46" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="I46" s="0" t="s">
         <x:v>29</x:v>
@@ -3970,13 +3973,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="M46" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N46" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O46" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="P46" s="0" t="s">
         <x:v>23</x:v>
@@ -3994,12 +3997,12 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="U46" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:21">
       <x:c r="A47" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>23</x:v>
@@ -4064,13 +4067,13 @@
     </x:row>
     <x:row r="48" spans="1:21">
       <x:c r="A48" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
         <x:v>23</x:v>
@@ -4079,7 +4082,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F48" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G48" s="0" t="s">
         <x:v>23</x:v>
@@ -4100,7 +4103,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M48" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="N48" s="0" t="s">
         <x:v>23</x:v>
@@ -4124,15 +4127,15 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U48" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:21">
       <x:c r="A49" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
         <x:v>35</x:v>
@@ -4165,7 +4168,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M49" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="N49" s="0" t="s">
         <x:v>22</x:v>
@@ -4183,18 +4186,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S49" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="T49" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="U49" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
       <x:c r="A50" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>23</x:v>
@@ -4259,13 +4262,13 @@
     </x:row>
     <x:row r="51" spans="1:21">
       <x:c r="A51" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
         <x:v>23</x:v>
@@ -4274,7 +4277,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
         <x:v>35</x:v>
@@ -4283,7 +4286,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I51" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="J51" s="0" t="s">
         <x:v>23</x:v>
@@ -4295,16 +4298,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="M51" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="N51" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="O51" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="P51" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="Q51" s="0" t="s">
         <x:v>22</x:v>
@@ -4313,18 +4316,18 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="S51" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="T51" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="U51" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:21">
       <x:c r="A52" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>23</x:v>
@@ -4348,7 +4351,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="I52" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="J52" s="0" t="s">
         <x:v>23</x:v>
@@ -4360,13 +4363,13 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="M52" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="N52" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O52" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="P52" s="0" t="s">
         <x:v>33</x:v>
@@ -4384,12 +4387,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U52" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:21">
       <x:c r="A53" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>23</x:v>
@@ -4425,13 +4428,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M53" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N53" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="O53" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="P53" s="0" t="s">
         <x:v>23</x:v>
@@ -4443,18 +4446,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S53" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="T53" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U53" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:21">
       <x:c r="A54" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>23</x:v>
@@ -4490,13 +4493,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M54" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="N54" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="O54" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P54" s="0" t="s">
         <x:v>23</x:v>
@@ -4514,12 +4517,12 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="U54" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:21">
       <x:c r="A55" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>23</x:v>
@@ -4579,12 +4582,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U55" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:21">
       <x:c r="A56" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>23</x:v>
@@ -4599,7 +4602,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
         <x:v>23</x:v>
@@ -4620,7 +4623,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M56" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="N56" s="0" t="s">
         <x:v>23</x:v>
@@ -4638,18 +4641,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S56" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="T56" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U56" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
       <x:c r="A57" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>23</x:v>
@@ -4714,22 +4717,22 @@
     </x:row>
     <x:row r="58" spans="1:21">
       <x:c r="A58" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G58" s="0" t="s">
         <x:v>22</x:v>
@@ -4738,7 +4741,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I58" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="J58" s="0" t="s">
         <x:v>23</x:v>
@@ -4750,13 +4753,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="M58" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="N58" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O58" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="P58" s="0" t="s">
         <x:v>25</x:v>
@@ -4768,18 +4771,18 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="S58" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="T58" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="U58" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">
       <x:c r="A59" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>23</x:v>
@@ -4844,7 +4847,7 @@
     </x:row>
     <x:row r="60" spans="1:21">
       <x:c r="A60" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>23</x:v>
@@ -4859,7 +4862,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F60" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="G60" s="0" t="s">
         <x:v>23</x:v>
@@ -4880,7 +4883,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M60" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="N60" s="0" t="s">
         <x:v>23</x:v>
@@ -4898,18 +4901,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S60" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="T60" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U60" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">
       <x:c r="A61" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>35</x:v>
@@ -4945,13 +4948,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M61" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N61" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O61" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="P61" s="0" t="s">
         <x:v>23</x:v>
@@ -4969,12 +4972,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U61" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">
       <x:c r="A62" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>23</x:v>
@@ -5039,7 +5042,7 @@
     </x:row>
     <x:row r="63" spans="1:21">
       <x:c r="A63" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>23</x:v>
@@ -5104,13 +5107,13 @@
     </x:row>
     <x:row r="64" spans="1:21">
       <x:c r="A64" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
         <x:v>23</x:v>
@@ -5119,7 +5122,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F64" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G64" s="0" t="s">
         <x:v>22</x:v>
@@ -5137,16 +5140,16 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="L64" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="M64" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="N64" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="O64" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="P64" s="0" t="s">
         <x:v>35</x:v>
@@ -5155,21 +5158,21 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R64" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="S64" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="T64" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="U64" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
       <x:c r="A65" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>22</x:v>
@@ -5184,7 +5187,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F65" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="G65" s="0" t="s">
         <x:v>23</x:v>
@@ -5193,7 +5196,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I65" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="J65" s="0" t="s">
         <x:v>23</x:v>
@@ -5205,13 +5208,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="M65" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="N65" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="O65" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="P65" s="0" t="s">
         <x:v>23</x:v>
@@ -5223,18 +5226,18 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="S65" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="T65" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="U65" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">
       <x:c r="A66" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>23</x:v>
@@ -5270,7 +5273,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M66" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N66" s="0" t="s">
         <x:v>23</x:v>
@@ -5294,27 +5297,27 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U66" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:21">
       <x:c r="A67" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D67" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="E67" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F67" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G67" s="0" t="s">
         <x:v>23</x:v>
@@ -5323,7 +5326,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I67" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="J67" s="0" t="s">
         <x:v>23</x:v>
@@ -5335,13 +5338,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="M67" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="N67" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O67" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="P67" s="0" t="s">
         <x:v>33</x:v>
@@ -5353,18 +5356,18 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S67" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="T67" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U67" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:21">
       <x:c r="A68" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>29</x:v>
@@ -5379,7 +5382,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F68" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G68" s="0" t="s">
         <x:v>23</x:v>
@@ -5388,7 +5391,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="I68" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="J68" s="0" t="s">
         <x:v>35</x:v>
@@ -5397,16 +5400,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L68" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="M68" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="N68" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="O68" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P68" s="0" t="s">
         <x:v>35</x:v>
@@ -5418,18 +5421,18 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="S68" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="T68" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="U68" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:21">
       <x:c r="A69" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>23</x:v>
@@ -5489,12 +5492,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U69" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:21">
       <x:c r="A70" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>23</x:v>
@@ -5530,7 +5533,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M70" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N70" s="0" t="s">
         <x:v>23</x:v>
@@ -5559,7 +5562,7 @@
     </x:row>
     <x:row r="71" spans="1:21">
       <x:c r="A71" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>23</x:v>
@@ -5619,12 +5622,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U71" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:21">
       <x:c r="A72" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>23</x:v>
@@ -5660,7 +5663,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M72" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="N72" s="0" t="s">
         <x:v>23</x:v>
@@ -5684,12 +5687,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U72" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:21">
       <x:c r="A73" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>23</x:v>
@@ -5754,13 +5757,13 @@
     </x:row>
     <x:row r="74" spans="1:21">
       <x:c r="A74" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D74" s="0" t="s">
         <x:v>23</x:v>
@@ -5796,7 +5799,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O74" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P74" s="0" t="s">
         <x:v>23</x:v>
@@ -5814,12 +5817,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U74" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:21">
       <x:c r="A75" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>23</x:v>
@@ -5855,7 +5858,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="M75" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N75" s="0" t="s">
         <x:v>23</x:v>
@@ -5879,18 +5882,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U75" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:21">
       <x:c r="A76" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D76" s="0" t="s">
         <x:v>23</x:v>
@@ -5899,13 +5902,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="H76" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I76" s="0" t="s">
         <x:v>27</x:v>
@@ -5920,13 +5923,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="M76" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N76" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="O76" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="P76" s="0" t="s">
         <x:v>22</x:v>
@@ -5941,15 +5944,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="T76" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="U76" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:21">
       <x:c r="A77" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>23</x:v>
@@ -6009,12 +6012,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U77" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:21">
       <x:c r="A78" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>23</x:v>
@@ -6050,7 +6053,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M78" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="N78" s="0" t="s">
         <x:v>22</x:v>
@@ -6079,7 +6082,7 @@
     </x:row>
     <x:row r="79" spans="1:21">
       <x:c r="A79" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>23</x:v>
@@ -6115,13 +6118,13 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="M79" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="N79" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="O79" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="P79" s="0" t="s">
         <x:v>22</x:v>
@@ -6139,27 +6142,27 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U79" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:21">
       <x:c r="A80" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="E80" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F80" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="G80" s="0" t="s">
         <x:v>23</x:v>
@@ -6168,7 +6171,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I80" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J80" s="0" t="s">
         <x:v>35</x:v>
@@ -6177,10 +6180,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L80" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="M80" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N80" s="0" t="s">
         <x:v>33</x:v>
@@ -6198,18 +6201,18 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="S80" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="T80" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="U80" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:21">
       <x:c r="A81" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>23</x:v>
@@ -6245,7 +6248,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M81" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N81" s="0" t="s">
         <x:v>23</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -268,225 +268,228 @@
     <x:t>17</x:t>
   </x:si>
   <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dodge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Douglas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faribault</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fillmore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Freeborn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goodhue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hennepin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>220</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>258</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>345</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>455</x:t>
+  </x:si>
+  <x:si>
+    <x:t>320</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>392</x:t>
+  </x:si>
+  <x:si>
+    <x:t>235</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2664</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Houston</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hubbard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Itasca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jackson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kanabec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kandiyohi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kittson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koochiching</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lac qui Parle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lyon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahnomen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Martin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>McLeod</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meeker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mille Lacs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>148</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Morrison</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Murray</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nicollet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nobles</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Norman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olmsted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>442</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Otter Tail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pennington</x:t>
+  </x:si>
+  <x:si>
     <x:t>51</x:t>
   </x:si>
   <x:si>
-    <x:t>165</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dodge</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Douglas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>97</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faribault</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fillmore</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Freeborn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goodhue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hennepin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>171</x:t>
-  </x:si>
-  <x:si>
-    <x:t>220</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>258</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96</x:t>
-  </x:si>
-  <x:si>
-    <x:t>345</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>455</x:t>
-  </x:si>
-  <x:si>
-    <x:t>320</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>392</x:t>
-  </x:si>
-  <x:si>
-    <x:t>235</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2664</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Houston</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hubbard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Itasca</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jackson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kanabec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kandiyohi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>154</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kittson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Koochiching</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lac qui Parle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lincoln</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lyon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahnomen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Martin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>McLeod</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Meeker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mille Lacs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>148</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Morrison</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mower</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Murray</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nicollet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nobles</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Norman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olmsted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>125</x:t>
-  </x:si>
-  <x:si>
-    <x:t>442</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Otter Tail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pennington</x:t>
-  </x:si>
-  <x:si>
     <x:t>Pine</x:t>
   </x:si>
   <x:si>
@@ -536,9 +539,6 @@
   </x:si>
   <x:si>
     <x:t>Scott</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50</x:t>
   </x:si>
   <x:si>
     <x:t>252</x:t>
@@ -2088,7 +2088,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="M17" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="N17" s="0" t="s">
         <x:v>33</x:v>
@@ -4452,12 +4452,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U53" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:21">
       <x:c r="A54" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>23</x:v>
@@ -4522,7 +4522,7 @@
     </x:row>
     <x:row r="55" spans="1:21">
       <x:c r="A55" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>23</x:v>
@@ -4587,7 +4587,7 @@
     </x:row>
     <x:row r="56" spans="1:21">
       <x:c r="A56" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>23</x:v>
@@ -4602,7 +4602,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
         <x:v>23</x:v>
@@ -4647,12 +4647,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U56" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
       <x:c r="A57" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>23</x:v>
@@ -4717,7 +4717,7 @@
     </x:row>
     <x:row r="58" spans="1:21">
       <x:c r="A58" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>54</x:v>
@@ -4753,13 +4753,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="M58" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="N58" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O58" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="P58" s="0" t="s">
         <x:v>25</x:v>
@@ -4771,18 +4771,18 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="S58" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="T58" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="U58" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">
       <x:c r="A59" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>23</x:v>
@@ -4847,7 +4847,7 @@
     </x:row>
     <x:row r="60" spans="1:21">
       <x:c r="A60" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>23</x:v>
@@ -4912,7 +4912,7 @@
     </x:row>
     <x:row r="61" spans="1:21">
       <x:c r="A61" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>35</x:v>
@@ -4977,7 +4977,7 @@
     </x:row>
     <x:row r="62" spans="1:21">
       <x:c r="A62" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>23</x:v>
@@ -5042,7 +5042,7 @@
     </x:row>
     <x:row r="63" spans="1:21">
       <x:c r="A63" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>23</x:v>
@@ -5107,7 +5107,7 @@
     </x:row>
     <x:row r="64" spans="1:21">
       <x:c r="A64" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>26</x:v>
@@ -5149,7 +5149,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="O64" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="P64" s="0" t="s">
         <x:v>35</x:v>
@@ -5403,7 +5403,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="M68" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="N68" s="0" t="s">
         <x:v>24</x:v>
@@ -5521,7 +5521,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I70" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J70" s="0" t="s">
         <x:v>22</x:v>
@@ -5533,13 +5533,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M70" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N70" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O70" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="P70" s="0" t="s">
         <x:v>23</x:v>
@@ -5557,7 +5557,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U70" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:21">
@@ -5929,7 +5929,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="O76" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="P76" s="0" t="s">
         <x:v>22</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -103,520 +103,526 @@
     <x:t>Anoka</x:t>
   </x:si>
   <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
     <x:t>7</x:t>
   </x:si>
   <x:si>
+    <x:t>243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>451</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Becker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beltrami</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Benton</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue Earth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brown</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carlton</x:t>
+  </x:si>
+  <x:si>
     <x:t>12</x:t>
   </x:si>
   <x:si>
+    <x:t>74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carver</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cass</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chisago</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clearwater</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cottonwood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crow Wing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dakota</x:t>
+  </x:si>
+  <x:si>
+    <x:t>174</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dodge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Douglas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faribault</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fillmore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Freeborn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goodhue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hennepin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>276</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>371</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>477</x:t>
+  </x:si>
+  <x:si>
+    <x:t>344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>411</x:t>
+  </x:si>
+  <x:si>
+    <x:t>252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2824</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Houston</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hubbard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Itasca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jackson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kanabec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kandiyohi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kittson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koochiching</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lac qui Parle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lyon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahnomen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Martin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>McLeod</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meeker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mille Lacs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Morrison</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Murray</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nicollet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nobles</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Norman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olmsted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>464</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Otter Tail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pennington</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pipestone</x:t>
+  </x:si>
+  <x:si>
     <x:t>24</x:t>
   </x:si>
   <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>222</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>413</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Becker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beltrami</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>98</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Benton</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue Earth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57</x:t>
-  </x:si>
-  <x:si>
-    <x:t>162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brown</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carlton</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
+    <x:t>Polk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pope</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramsey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>768</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red Lake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Redwood</x:t>
   </x:si>
   <x:si>
     <x:t>67</x:t>
   </x:si>
   <x:si>
-    <x:t>Carver</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cass</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chisago</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clay</x:t>
+    <x:t>Renville</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roseau</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scott</x:t>
+  </x:si>
+  <x:si>
+    <x:t>274</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sherburne</x:t>
+  </x:si>
+  <x:si>
+    <x:t>119</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sibley</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St. Louis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>267</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stearns</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>399</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Steele</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stevens</x:t>
   </x:si>
   <x:si>
     <x:t>16</x:t>
   </x:si>
   <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>221</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clearwater</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cottonwood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crow Wing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dakota</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
+    <x:t>Swift</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Todd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wabasha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wadena</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waseca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Washington</x:t>
+  </x:si>
+  <x:si>
+    <x:t>108</x:t>
+  </x:si>
+  <x:si>
+    <x:t>376</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Watonwan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wilkin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Winona</x:t>
   </x:si>
   <x:si>
     <x:t>50</x:t>
   </x:si>
   <x:si>
-    <x:t>165</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dodge</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Douglas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>97</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faribault</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fillmore</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Freeborn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goodhue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hennepin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>171</x:t>
-  </x:si>
-  <x:si>
-    <x:t>220</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>258</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96</x:t>
-  </x:si>
-  <x:si>
-    <x:t>345</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>455</x:t>
-  </x:si>
-  <x:si>
-    <x:t>320</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>392</x:t>
-  </x:si>
-  <x:si>
-    <x:t>235</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2664</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Houston</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hubbard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Itasca</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jackson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kanabec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kandiyohi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>154</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kittson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Koochiching</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lac qui Parle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lincoln</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lyon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahnomen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Martin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>McLeod</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Meeker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mille Lacs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>148</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Morrison</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mower</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Murray</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nicollet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nobles</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Norman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olmsted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>125</x:t>
-  </x:si>
-  <x:si>
-    <x:t>442</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Otter Tail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pennington</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pipestone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Polk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pope</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ramsey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>137</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74</x:t>
-  </x:si>
-  <x:si>
-    <x:t>686</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Red Lake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Redwood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Renville</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roseau</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scott</x:t>
-  </x:si>
-  <x:si>
-    <x:t>252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sherburne</x:t>
+    <x:t>Wright</x:t>
   </x:si>
   <x:si>
     <x:t>107</x:t>
   </x:si>
   <x:si>
-    <x:t>Sibley</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St. Louis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>247</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stearns</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>386</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Steele</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stevens</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Swift</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Todd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wabasha</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wadena</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waseca</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Washington</x:t>
-  </x:si>
-  <x:si>
-    <x:t>336</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Watonwan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wilkin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Winona</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wright</x:t>
-  </x:si>
-  <x:si>
-    <x:t>255</x:t>
+    <x:t>281</x:t>
   </x:si>
   <x:si>
     <x:t>Yellow Medicine</x:t>
@@ -1148,16 +1154,16 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
         <x:v>23</x:v>
@@ -1166,19 +1172,19 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="J3" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="K3" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L3" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="M3" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="N3" s="0" t="s">
         <x:v>23</x:v>
@@ -1187,30 +1193,30 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="P3" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="Q3" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="R3" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="S3" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="T3" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="U3" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
       <x:c r="A4" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
         <x:v>26</x:v>
@@ -1219,10 +1225,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
         <x:v>23</x:v>
@@ -1234,7 +1240,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="J4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K4" s="0" t="s">
         <x:v>23</x:v>
@@ -1243,13 +1249,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M4" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="N4" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O4" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="P4" s="0" t="s">
         <x:v>22</x:v>
@@ -1261,24 +1267,24 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="S4" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="T4" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="U4" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:21">
       <x:c r="A5" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>23</x:v>
@@ -1296,7 +1302,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J5" s="0" t="s">
         <x:v>23</x:v>
@@ -1305,16 +1311,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L5" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="M5" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N5" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="O5" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="P5" s="0" t="s">
         <x:v>23</x:v>
@@ -1323,21 +1329,21 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R5" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="S5" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="T5" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="U5" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:21">
       <x:c r="A6" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>23</x:v>
@@ -1352,7 +1358,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
         <x:v>23</x:v>
@@ -1373,7 +1379,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M6" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N6" s="0" t="s">
         <x:v>23</x:v>
@@ -1391,24 +1397,24 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S6" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="T6" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U6" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:21">
       <x:c r="A7" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>23</x:v>
@@ -1417,7 +1423,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
         <x:v>22</x:v>
@@ -1426,7 +1432,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="J7" s="0" t="s">
         <x:v>22</x:v>
@@ -1435,10 +1441,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L7" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="M7" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N7" s="0" t="s">
         <x:v>23</x:v>
@@ -1456,18 +1462,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S7" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="T7" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="U7" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:21">
       <x:c r="A8" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>23</x:v>
@@ -1482,7 +1488,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
         <x:v>23</x:v>
@@ -1503,7 +1509,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M8" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="N8" s="0" t="s">
         <x:v>23</x:v>
@@ -1527,18 +1533,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U8" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:21">
       <x:c r="A9" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>22</x:v>
@@ -1556,25 +1562,25 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L9" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="M9" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="J9" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="K9" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L9" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="M9" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
       <x:c r="N9" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O9" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="P9" s="0" t="s">
         <x:v>23</x:v>
@@ -1586,33 +1592,33 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S9" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="T9" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="U9" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:21">
       <x:c r="A10" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
         <x:v>23</x:v>
@@ -1630,16 +1636,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L10" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="M10" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="N10" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="O10" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P10" s="0" t="s">
         <x:v>23</x:v>
@@ -1657,12 +1663,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U10" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:21">
       <x:c r="A11" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>23</x:v>
@@ -1698,36 +1704,36 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M11" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="N11" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="O11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="P11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="R11" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="S11" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="O11" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="P11" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="Q11" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="R11" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="S11" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
       <x:c r="T11" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="U11" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:21">
       <x:c r="A12" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>23</x:v>
@@ -1739,31 +1745,31 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L12" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="M12" s="0" t="s">
         <x:v>35</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I12" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J12" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="K12" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L12" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="M12" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
       <x:c r="N12" s="0" t="s">
         <x:v>23</x:v>
@@ -1784,51 +1790,51 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="T12" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="U12" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:21">
       <x:c r="A13" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="J13" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="K13" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L13" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M13" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N13" s="0" t="s">
         <x:v>72</x:v>
@@ -1837,19 +1843,19 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="P13" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="Q13" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="R13" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="S13" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="S13" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
       <x:c r="T13" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="U13" s="1" t="s">
         <x:v>74</x:v>
@@ -1872,7 +1878,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F14" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
         <x:v>23</x:v>
@@ -1893,7 +1899,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M14" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="N14" s="0" t="s">
         <x:v>22</x:v>
@@ -1917,7 +1923,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U14" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:21">
@@ -1982,7 +1988,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U15" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:21">
@@ -1990,28 +1996,28 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="J16" s="0" t="s">
         <x:v>23</x:v>
@@ -2020,7 +2026,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L16" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="M16" s="0" t="s">
         <x:v>78</x:v>
@@ -2029,10 +2035,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="O16" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="P16" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="Q16" s="0" t="s">
         <x:v>23</x:v>
@@ -2041,7 +2047,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S16" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="T16" s="0" t="s">
         <x:v>23</x:v>
@@ -2055,69 +2061,69 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J17" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K17" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L17" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="M17" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="N17" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="O17" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="P17" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="Q17" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="R17" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="S17" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E17" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F17" s="0" t="s">
+      <x:c r="T17" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="U17" s="1" t="s">
         <x:v>81</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H17" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I17" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="J17" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="K17" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L17" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="M17" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="N17" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="O17" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="P17" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="Q17" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="R17" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="S17" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="T17" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="U17" s="1" t="s">
-        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:21">
       <x:c r="A18" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>23</x:v>
@@ -2153,13 +2159,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M18" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="N18" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O18" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="P18" s="0" t="s">
         <x:v>23</x:v>
@@ -2177,27 +2183,27 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U18" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:21">
       <x:c r="A19" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
         <x:v>23</x:v>
@@ -2206,7 +2212,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J19" s="0" t="s">
         <x:v>23</x:v>
@@ -2218,36 +2224,36 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M19" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="N19" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="O19" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="P19" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q19" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="R19" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="S19" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="O19" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="P19" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="Q19" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="R19" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="S19" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
       <x:c r="T19" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="U19" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:21">
       <x:c r="A20" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>23</x:v>
@@ -2271,7 +2277,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="J20" s="0" t="s">
         <x:v>23</x:v>
@@ -2283,13 +2289,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M20" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N20" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O20" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="P20" s="0" t="s">
         <x:v>23</x:v>
@@ -2307,12 +2313,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U20" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:21">
       <x:c r="A21" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>23</x:v>
@@ -2377,13 +2383,13 @@
     </x:row>
     <x:row r="22" spans="1:21">
       <x:c r="A22" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
         <x:v>23</x:v>
@@ -2392,7 +2398,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
         <x:v>23</x:v>
@@ -2401,7 +2407,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I22" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="J22" s="0" t="s">
         <x:v>23</x:v>
@@ -2413,7 +2419,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M22" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N22" s="0" t="s">
         <x:v>23</x:v>
@@ -2431,24 +2437,24 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="S22" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="T22" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U22" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:21">
       <x:c r="A23" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
         <x:v>23</x:v>
@@ -2457,7 +2463,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
         <x:v>23</x:v>
@@ -2466,7 +2472,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I23" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="J23" s="0" t="s">
         <x:v>23</x:v>
@@ -2478,13 +2484,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M23" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="N23" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O23" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P23" s="0" t="s">
         <x:v>23</x:v>
@@ -2499,15 +2505,15 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="T23" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="U23" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:21">
       <x:c r="A24" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>23</x:v>
@@ -2543,7 +2549,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M24" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="N24" s="0" t="s">
         <x:v>23</x:v>
@@ -2572,72 +2578,72 @@
     </x:row>
     <x:row r="25" spans="1:21">
       <x:c r="A25" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="B25" s="0" t="s">
+      <x:c r="C25" s="0" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="C25" s="0" t="s">
+      <x:c r="D25" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="D25" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E25" s="0" t="s">
+      <x:c r="G25" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="F25" s="0" t="s">
+      <x:c r="I25" s="0" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="G25" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H25" s="0" t="s">
+      <x:c r="J25" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="K25" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L25" s="0" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="I25" s="0" t="s">
+      <x:c r="M25" s="0" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="J25" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="K25" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="L25" s="0" t="s">
+      <x:c r="N25" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="O25" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="M25" s="0" t="s">
+      <x:c r="P25" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="Q25" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="R25" s="0" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="N25" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="O25" s="0" t="s">
+      <x:c r="S25" s="0" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="P25" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="Q25" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="R25" s="0" t="s">
+      <x:c r="T25" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="S25" s="0" t="s">
+      <x:c r="U25" s="1" t="s">
         <x:v>107</x:v>
-      </x:c>
-      <x:c r="T25" s="0" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="U25" s="1" t="s">
-        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:21">
       <x:c r="A26" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>23</x:v>
@@ -2649,7 +2655,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
         <x:v>22</x:v>
@@ -2679,7 +2685,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="O26" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="P26" s="0" t="s">
         <x:v>23</x:v>
@@ -2697,27 +2703,27 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U26" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:21">
       <x:c r="A27" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
         <x:v>23</x:v>
@@ -2726,7 +2732,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I27" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J27" s="0" t="s">
         <x:v>23</x:v>
@@ -2735,7 +2741,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L27" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M27" s="0" t="s">
         <x:v>29</x:v>
@@ -2744,7 +2750,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O27" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="P27" s="0" t="s">
         <x:v>23</x:v>
@@ -2756,18 +2762,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S27" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="T27" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="U27" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
       <x:c r="A28" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>22</x:v>
@@ -2791,7 +2797,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I28" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="J28" s="0" t="s">
         <x:v>23</x:v>
@@ -2803,13 +2809,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M28" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N28" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O28" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P28" s="0" t="s">
         <x:v>23</x:v>
@@ -2821,18 +2827,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S28" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="T28" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="U28" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:21">
       <x:c r="A29" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>23</x:v>
@@ -2847,7 +2853,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
         <x:v>23</x:v>
@@ -2868,10 +2874,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M29" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="N29" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="O29" s="0" t="s">
         <x:v>23</x:v>
@@ -2886,10 +2892,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S29" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="T29" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="U29" s="1" t="s">
         <x:v>72</x:v>
@@ -2897,7 +2903,7 @@
     </x:row>
     <x:row r="30" spans="1:21">
       <x:c r="A30" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>23</x:v>
@@ -2933,7 +2939,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M30" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="N30" s="0" t="s">
         <x:v>23</x:v>
@@ -2957,12 +2963,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U30" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:21">
       <x:c r="A31" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>23</x:v>
@@ -3016,24 +3022,24 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S31" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="T31" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="U31" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:21">
       <x:c r="A32" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
         <x:v>23</x:v>
@@ -3042,7 +3048,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
         <x:v>23</x:v>
@@ -3051,7 +3057,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I32" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J32" s="0" t="s">
         <x:v>23</x:v>
@@ -3060,16 +3066,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L32" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M32" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="N32" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O32" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="P32" s="0" t="s">
         <x:v>23</x:v>
@@ -3087,12 +3093,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U32" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:21">
       <x:c r="A33" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>23</x:v>
@@ -3157,7 +3163,7 @@
     </x:row>
     <x:row r="34" spans="1:21">
       <x:c r="A34" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>23</x:v>
@@ -3199,7 +3205,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O34" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="P34" s="0" t="s">
         <x:v>23</x:v>
@@ -3214,15 +3220,15 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="T34" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="U34" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:21">
       <x:c r="A35" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>23</x:v>
@@ -3258,7 +3264,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M35" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="N35" s="0" t="s">
         <x:v>23</x:v>
@@ -3282,12 +3288,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U35" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:21">
       <x:c r="A36" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>23</x:v>
@@ -3311,7 +3317,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I36" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="J36" s="0" t="s">
         <x:v>23</x:v>
@@ -3323,7 +3329,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M36" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="N36" s="0" t="s">
         <x:v>23</x:v>
@@ -3347,12 +3353,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U36" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:21">
       <x:c r="A37" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>22</x:v>
@@ -3367,7 +3373,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G37" s="0" t="s">
         <x:v>23</x:v>
@@ -3388,13 +3394,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M37" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="N37" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O37" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="P37" s="0" t="s">
         <x:v>23</x:v>
@@ -3412,12 +3418,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U37" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:21">
       <x:c r="A38" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>23</x:v>
@@ -3453,7 +3459,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M38" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N38" s="0" t="s">
         <x:v>23</x:v>
@@ -3477,18 +3483,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U38" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:21">
       <x:c r="A39" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
         <x:v>23</x:v>
@@ -3497,7 +3503,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G39" s="0" t="s">
         <x:v>23</x:v>
@@ -3515,16 +3521,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L39" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="M39" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N39" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="O39" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="P39" s="0" t="s">
         <x:v>22</x:v>
@@ -3536,18 +3542,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S39" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="T39" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U39" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:21">
       <x:c r="A40" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>23</x:v>
@@ -3559,7 +3565,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F40" s="0" t="s">
         <x:v>22</x:v>
@@ -3583,7 +3589,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M40" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="N40" s="0" t="s">
         <x:v>23</x:v>
@@ -3612,13 +3618,13 @@
     </x:row>
     <x:row r="41" spans="1:21">
       <x:c r="A41" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
         <x:v>23</x:v>
@@ -3645,11 +3651,11 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L41" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="M41" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="M41" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
       <x:c r="N41" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
@@ -3666,24 +3672,24 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S41" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="T41" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="U41" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
       <x:c r="A42" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
         <x:v>23</x:v>
@@ -3692,16 +3698,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H42" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I42" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J42" s="0" t="s">
         <x:v>23</x:v>
@@ -3710,16 +3716,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L42" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M42" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="N42" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O42" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P42" s="0" t="s">
         <x:v>23</x:v>
@@ -3731,18 +3737,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S42" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="T42" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U42" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:21">
       <x:c r="A43" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>23</x:v>
@@ -3757,16 +3763,16 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F43" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G43" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H43" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I43" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="J43" s="0" t="s">
         <x:v>23</x:v>
@@ -3775,13 +3781,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L43" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M43" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N43" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O43" s="0" t="s">
         <x:v>23</x:v>
@@ -3793,21 +3799,21 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="R43" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="S43" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="T43" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U43" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:21">
       <x:c r="A44" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>23</x:v>
@@ -3822,16 +3828,16 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H44" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I44" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="J44" s="0" t="s">
         <x:v>23</x:v>
@@ -3840,19 +3846,19 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L44" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="M44" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="N44" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O44" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="P44" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="Q44" s="0" t="s">
         <x:v>23</x:v>
@@ -3861,24 +3867,24 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="S44" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="T44" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="U44" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:21">
       <x:c r="A45" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
         <x:v>23</x:v>
@@ -3887,7 +3893,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F45" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G45" s="0" t="s">
         <x:v>23</x:v>
@@ -3896,7 +3902,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I45" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J45" s="0" t="s">
         <x:v>23</x:v>
@@ -3905,7 +3911,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L45" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M45" s="0" t="s">
         <x:v>22</x:v>
@@ -3914,7 +3920,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O45" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P45" s="0" t="s">
         <x:v>23</x:v>
@@ -3926,24 +3932,24 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S45" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="T45" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="U45" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:21">
       <x:c r="A46" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D46" s="0" t="s">
         <x:v>23</x:v>
@@ -3952,13 +3958,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H46" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I46" s="0" t="s">
         <x:v>29</x:v>
@@ -3970,16 +3976,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L46" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M46" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N46" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O46" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="P46" s="0" t="s">
         <x:v>23</x:v>
@@ -3994,15 +4000,15 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="T46" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="U46" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:21">
       <x:c r="A47" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>23</x:v>
@@ -4062,27 +4068,27 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U47" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:21">
       <x:c r="A48" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="F48" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G48" s="0" t="s">
         <x:v>23</x:v>
@@ -4103,19 +4109,19 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M48" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N48" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O48" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="P48" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="Q48" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="R48" s="0" t="s">
         <x:v>22</x:v>
@@ -4127,18 +4133,18 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U48" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:21">
       <x:c r="A49" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
         <x:v>23</x:v>
@@ -4147,7 +4153,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F49" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G49" s="0" t="s">
         <x:v>23</x:v>
@@ -4159,7 +4165,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="J49" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="K49" s="0" t="s">
         <x:v>23</x:v>
@@ -4168,7 +4174,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M49" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="N49" s="0" t="s">
         <x:v>22</x:v>
@@ -4186,18 +4192,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S49" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="T49" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="U49" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
       <x:c r="A50" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>23</x:v>
@@ -4257,77 +4263,77 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U50" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:21">
       <x:c r="A51" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D51" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E51" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F51" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I51" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="J51" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K51" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L51" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="M51" s="0" t="s">
         <x:v>147</x:v>
-      </x:c>
-      <x:c r="D51" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E51" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="F51" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="G51" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H51" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I51" s="0" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="J51" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="K51" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L51" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="M51" s="0" t="s">
-        <x:v>103</x:v>
       </x:c>
       <x:c r="N51" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="O51" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="P51" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="Q51" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="R51" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="S51" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="T51" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="U51" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:21">
       <x:c r="A52" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>23</x:v>
@@ -4342,17 +4348,17 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F52" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="G52" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H52" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="I52" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="G52" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H52" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="I52" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
       <x:c r="J52" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
@@ -4360,19 +4366,19 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L52" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="M52" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="N52" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O52" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="P52" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="Q52" s="0" t="s">
         <x:v>23</x:v>
@@ -4387,12 +4393,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U52" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:21">
       <x:c r="A53" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>23</x:v>
@@ -4407,13 +4413,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F53" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G53" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H53" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I53" s="0" t="s">
         <x:v>23</x:v>
@@ -4428,13 +4434,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M53" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N53" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="O53" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="P53" s="0" t="s">
         <x:v>23</x:v>
@@ -4446,18 +4452,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S53" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="T53" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U53" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:21">
       <x:c r="A54" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>23</x:v>
@@ -4472,7 +4478,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F54" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G54" s="0" t="s">
         <x:v>23</x:v>
@@ -4481,7 +4487,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I54" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J54" s="0" t="s">
         <x:v>23</x:v>
@@ -4493,13 +4499,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M54" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="N54" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="O54" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P54" s="0" t="s">
         <x:v>23</x:v>
@@ -4514,21 +4520,21 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="T54" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="U54" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:21">
       <x:c r="A55" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D55" s="0" t="s">
         <x:v>23</x:v>
@@ -4558,7 +4564,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M55" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N55" s="0" t="s">
         <x:v>23</x:v>
@@ -4576,83 +4582,83 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S55" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="T55" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U55" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:21">
       <x:c r="A56" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D56" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E56" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F56" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="G56" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H56" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I56" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="J56" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K56" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L56" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="M56" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="N56" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="O56" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="P56" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q56" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="R56" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="S56" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="T56" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="U56" s="1" t="s">
         <x:v>160</x:v>
-      </x:c>
-      <x:c r="B56" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C56" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D56" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E56" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F56" s="0" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="G56" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H56" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I56" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="J56" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="K56" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L56" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="M56" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="N56" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="O56" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="P56" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="Q56" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="R56" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="S56" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="T56" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="U56" s="1" t="s">
-        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
       <x:c r="A57" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>23</x:v>
@@ -4688,7 +4694,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M57" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="N57" s="0" t="s">
         <x:v>23</x:v>
@@ -4717,32 +4723,32 @@
     </x:row>
     <x:row r="58" spans="1:21">
       <x:c r="A58" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="C58" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D58" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E58" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="F58" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="G58" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H58" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="I58" s="0" t="s">
         <x:v>164</x:v>
       </x:c>
-      <x:c r="B58" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C58" s="0" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="D58" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E58" s="0" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="F58" s="0" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="G58" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H58" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I58" s="0" t="s">
-        <x:v>151</x:v>
-      </x:c>
       <x:c r="J58" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
@@ -4750,7 +4756,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L58" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="M58" s="0" t="s">
         <x:v>165</x:v>
@@ -4759,30 +4765,30 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O58" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="P58" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="Q58" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="R58" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="S58" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="T58" s="0" t="s">
         <x:v>166</x:v>
       </x:c>
-      <x:c r="T58" s="0" t="s">
+      <x:c r="U58" s="1" t="s">
         <x:v>167</x:v>
-      </x:c>
-      <x:c r="U58" s="1" t="s">
-        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">
       <x:c r="A59" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>23</x:v>
@@ -4797,7 +4803,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F59" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G59" s="0" t="s">
         <x:v>23</x:v>
@@ -4842,72 +4848,72 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U59" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:21">
       <x:c r="A60" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E60" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F60" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="G60" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H60" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I60" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="J60" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K60" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L60" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="M60" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="N60" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="O60" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="P60" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q60" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="R60" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="S60" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="T60" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="U60" s="1" t="s">
         <x:v>170</x:v>
-      </x:c>
-      <x:c r="B60" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C60" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D60" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E60" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F60" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="G60" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H60" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I60" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="J60" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="K60" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L60" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="M60" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="N60" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="O60" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="P60" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="Q60" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="R60" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="S60" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="T60" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="U60" s="1" t="s">
-        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">
@@ -4915,10 +4921,10 @@
         <x:v>171</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D61" s="0" t="s">
         <x:v>23</x:v>
@@ -4945,16 +4951,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L61" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="M61" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N61" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O61" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="P61" s="0" t="s">
         <x:v>23</x:v>
@@ -4963,16 +4969,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="R61" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="S61" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="T61" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U61" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">
@@ -4992,35 +4998,35 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F62" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G62" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H62" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I62" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="J62" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K62" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L62" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="M62" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="N62" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="O62" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="G62" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H62" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I62" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="J62" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="K62" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L62" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="M62" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="N62" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="O62" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
       <x:c r="P62" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
@@ -5028,16 +5034,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="R62" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="S62" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="T62" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U62" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">
@@ -5048,7 +5054,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D63" s="0" t="s">
         <x:v>23</x:v>
@@ -5113,7 +5119,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
         <x:v>23</x:v>
@@ -5122,46 +5128,46 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F64" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="G64" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H64" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="I64" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="J64" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K64" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L64" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="G64" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H64" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I64" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="J64" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="K64" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="L64" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
       <x:c r="M64" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="N64" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="O64" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="P64" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="Q64" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="R64" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="S64" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="T64" s="0" t="s">
         <x:v>26</x:v>
@@ -5178,16 +5184,16 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D65" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="E65" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F65" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G65" s="0" t="s">
         <x:v>23</x:v>
@@ -5196,7 +5202,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I65" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="J65" s="0" t="s">
         <x:v>23</x:v>
@@ -5205,16 +5211,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L65" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="M65" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="N65" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="O65" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="P65" s="0" t="s">
         <x:v>23</x:v>
@@ -5226,10 +5232,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="S65" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="T65" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="U65" s="1" t="s">
         <x:v>177</x:v>
@@ -5261,7 +5267,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I66" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="J66" s="0" t="s">
         <x:v>23</x:v>
@@ -5273,7 +5279,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M66" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="N66" s="0" t="s">
         <x:v>23</x:v>
@@ -5288,7 +5294,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="R66" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="S66" s="0" t="s">
         <x:v>22</x:v>
@@ -5297,7 +5303,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U66" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:21">
@@ -5308,16 +5314,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D67" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="E67" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F67" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G67" s="0" t="s">
         <x:v>23</x:v>
@@ -5326,119 +5332,119 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I67" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="J67" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K67" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L67" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="M67" s="0" t="s">
         <x:v>180</x:v>
       </x:c>
-      <x:c r="J67" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="K67" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L67" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="M67" s="0" t="s">
+      <x:c r="N67" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="O67" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="P67" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q67" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="R67" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="S67" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="T67" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="U67" s="1" t="s">
         <x:v>181</x:v>
-      </x:c>
-      <x:c r="N67" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="O67" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="P67" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="Q67" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="R67" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="S67" s="0" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="T67" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="U67" s="1" t="s">
-        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:21">
       <x:c r="A68" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D68" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="E68" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F68" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G68" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H68" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I68" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="J68" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="K68" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="L68" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="M68" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="N68" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="O68" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="P68" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="Q68" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="R68" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="S68" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="T68" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="U68" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:21">
       <x:c r="A69" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D69" s="0" t="s">
         <x:v>23</x:v>
@@ -5447,7 +5453,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F69" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G69" s="0" t="s">
         <x:v>23</x:v>
@@ -5456,7 +5462,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I69" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="J69" s="0" t="s">
         <x:v>23</x:v>
@@ -5465,7 +5471,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L69" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="M69" s="0" t="s">
         <x:v>26</x:v>
@@ -5474,7 +5480,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="O69" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P69" s="0" t="s">
         <x:v>23</x:v>
@@ -5486,60 +5492,60 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="S69" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="T69" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U69" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:21">
       <x:c r="A70" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D70" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E70" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F70" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G70" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H70" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I70" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="J70" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K70" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L70" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="M70" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="D70" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E70" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F70" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G70" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H70" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I70" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="J70" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="K70" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L70" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="M70" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
       <x:c r="N70" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O70" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="P70" s="0" t="s">
         <x:v>23</x:v>
@@ -5557,12 +5563,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U70" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:21">
       <x:c r="A71" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>23</x:v>
@@ -5604,7 +5610,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O71" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="P71" s="0" t="s">
         <x:v>23</x:v>
@@ -5622,18 +5628,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U71" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:21">
       <x:c r="A72" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D72" s="0" t="s">
         <x:v>23</x:v>
@@ -5651,7 +5657,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I72" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="J72" s="0" t="s">
         <x:v>23</x:v>
@@ -5663,7 +5669,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M72" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="N72" s="0" t="s">
         <x:v>23</x:v>
@@ -5687,12 +5693,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U72" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:21">
       <x:c r="A73" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>23</x:v>
@@ -5728,7 +5734,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M73" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="N73" s="0" t="s">
         <x:v>23</x:v>
@@ -5746,18 +5752,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S73" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="T73" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="U73" s="1" t="s">
         <x:v>35</x:v>
-      </x:c>
-      <x:c r="T73" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="U73" s="1" t="s">
-        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:21">
       <x:c r="A74" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>23</x:v>
@@ -5772,7 +5778,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F74" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G74" s="0" t="s">
         <x:v>23</x:v>
@@ -5799,7 +5805,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O74" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="P74" s="0" t="s">
         <x:v>23</x:v>
@@ -5817,18 +5823,18 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U74" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:21">
       <x:c r="A75" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D75" s="0" t="s">
         <x:v>23</x:v>
@@ -5855,10 +5861,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L75" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="M75" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N75" s="0" t="s">
         <x:v>23</x:v>
@@ -5882,33 +5888,33 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U75" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:21">
       <x:c r="A76" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D76" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="E76" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="H76" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I76" s="0" t="s">
         <x:v>27</x:v>
@@ -5920,31 +5926,31 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="L76" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="M76" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="N76" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="O76" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="P76" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="Q76" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="R76" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="S76" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="T76" s="0" t="s">
         <x:v>25</x:v>
-      </x:c>
-      <x:c r="O76" s="0" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="P76" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="Q76" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="R76" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="S76" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="T76" s="0" t="s">
-        <x:v>42</x:v>
       </x:c>
       <x:c r="U76" s="1" t="s">
         <x:v>195</x:v>
@@ -5988,7 +5994,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M77" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="N77" s="0" t="s">
         <x:v>23</x:v>
@@ -6012,7 +6018,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U77" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:21">
@@ -6023,7 +6029,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D78" s="0" t="s">
         <x:v>23</x:v>
@@ -6032,7 +6038,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F78" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G78" s="0" t="s">
         <x:v>23</x:v>
@@ -6053,7 +6059,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M78" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="N78" s="0" t="s">
         <x:v>22</x:v>
@@ -6077,7 +6083,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U78" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:21">
@@ -6088,7 +6094,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D79" s="0" t="s">
         <x:v>23</x:v>
@@ -6115,16 +6121,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L79" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="M79" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="N79" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="O79" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="P79" s="0" t="s">
         <x:v>22</x:v>
@@ -6133,86 +6139,86 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="R79" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="S79" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="T79" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U79" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:21">
       <x:c r="A80" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="E80" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F80" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="G80" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H80" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="I80" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J80" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K80" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L80" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M80" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="N80" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="O80" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="F80" s="0" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="G80" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H80" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="I80" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="J80" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="K80" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L80" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="M80" s="0" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="N80" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="O80" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
       <x:c r="P80" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="Q80" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="R80" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="S80" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="T80" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="U80" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:21">
       <x:c r="A81" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>23</x:v>
@@ -6248,7 +6254,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M81" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="N81" s="0" t="s">
         <x:v>23</x:v>
@@ -6272,7 +6278,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U81" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -259,7 +259,10 @@
     <x:t>Dakota</x:t>
   </x:si>
   <x:si>
-    <x:t>174</x:t>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>175</x:t>
   </x:si>
   <x:si>
     <x:t>Dodge</x:t>
@@ -283,9 +286,6 @@
     <x:t>Freeborn</x:t>
   </x:si>
   <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
     <x:t>20</x:t>
   </x:si>
   <x:si>
@@ -478,130 +478,130 @@
     <x:t>Pennington</x:t>
   </x:si>
   <x:si>
+    <x:t>Pine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pipestone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Polk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pope</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramsey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>768</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red Lake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Redwood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Renville</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roseau</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scott</x:t>
+  </x:si>
+  <x:si>
+    <x:t>274</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sherburne</x:t>
+  </x:si>
+  <x:si>
+    <x:t>119</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sibley</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St. Louis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>267</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stearns</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>399</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Steele</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stevens</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Swift</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Todd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wabasha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wadena</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waseca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Washington</x:t>
+  </x:si>
+  <x:si>
+    <x:t>108</x:t>
+  </x:si>
+  <x:si>
     <x:t>51</x:t>
   </x:si>
   <x:si>
-    <x:t>Pine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pipestone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Polk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pope</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ramsey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>768</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Red Lake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Redwood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Renville</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roseau</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scott</x:t>
-  </x:si>
-  <x:si>
-    <x:t>274</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sherburne</x:t>
-  </x:si>
-  <x:si>
-    <x:t>119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sibley</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St. Louis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>267</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stearns</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>399</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Steele</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stevens</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Swift</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Todd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wabasha</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wadena</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waseca</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Washington</x:t>
-  </x:si>
-  <x:si>
-    <x:t>108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>376</x:t>
+    <x:t>375</x:t>
   </x:si>
   <x:si>
     <x:t>Watonwan</x:t>
@@ -2100,7 +2100,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="O17" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="P17" s="0" t="s">
         <x:v>22</x:v>
@@ -2118,12 +2118,12 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="U17" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:21">
       <x:c r="A18" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>23</x:v>
@@ -2188,7 +2188,7 @@
     </x:row>
     <x:row r="19" spans="1:21">
       <x:c r="A19" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>23</x:v>
@@ -2224,7 +2224,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M19" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="N19" s="0" t="s">
         <x:v>38</x:v>
@@ -2248,12 +2248,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U19" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:21">
       <x:c r="A20" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>23</x:v>
@@ -2318,7 +2318,7 @@
     </x:row>
     <x:row r="21" spans="1:21">
       <x:c r="A21" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>23</x:v>
@@ -2383,7 +2383,7 @@
     </x:row>
     <x:row r="22" spans="1:21">
       <x:c r="A22" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>23</x:v>
@@ -2398,7 +2398,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
         <x:v>23</x:v>
@@ -4274,7 +4274,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
         <x:v>23</x:v>
@@ -4452,18 +4452,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S53" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="T53" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U53" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:21">
       <x:c r="A54" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>23</x:v>
@@ -4528,7 +4528,7 @@
     </x:row>
     <x:row r="55" spans="1:21">
       <x:c r="A55" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>23</x:v>
@@ -4588,12 +4588,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U55" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:21">
       <x:c r="A56" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>23</x:v>
@@ -4608,7 +4608,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
         <x:v>23</x:v>
@@ -4653,12 +4653,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U56" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
       <x:c r="A57" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>23</x:v>
@@ -4723,7 +4723,7 @@
     </x:row>
     <x:row r="58" spans="1:21">
       <x:c r="A58" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>137</x:v>
@@ -4738,7 +4738,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G58" s="0" t="s">
         <x:v>22</x:v>
@@ -4747,7 +4747,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I58" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="J58" s="0" t="s">
         <x:v>23</x:v>
@@ -4759,13 +4759,13 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="M58" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="N58" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O58" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="P58" s="0" t="s">
         <x:v>50</x:v>
@@ -4777,18 +4777,18 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="S58" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="T58" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="U58" s="1" t="s">
         <x:v>166</x:v>
-      </x:c>
-      <x:c r="U58" s="1" t="s">
-        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">
       <x:c r="A59" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>23</x:v>
@@ -4853,7 +4853,7 @@
     </x:row>
     <x:row r="60" spans="1:21">
       <x:c r="A60" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>23</x:v>
@@ -4913,12 +4913,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U60" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">
       <x:c r="A61" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>38</x:v>
@@ -4983,7 +4983,7 @@
     </x:row>
     <x:row r="62" spans="1:21">
       <x:c r="A62" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>23</x:v>
@@ -5048,7 +5048,7 @@
     </x:row>
     <x:row r="63" spans="1:21">
       <x:c r="A63" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>23</x:v>
@@ -5113,7 +5113,7 @@
     </x:row>
     <x:row r="64" spans="1:21">
       <x:c r="A64" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>26</x:v>
@@ -5128,7 +5128,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F64" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="G64" s="0" t="s">
         <x:v>22</x:v>
@@ -5173,12 +5173,12 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="U64" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
       <x:c r="A65" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>22</x:v>
@@ -5220,7 +5220,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="O65" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="P65" s="0" t="s">
         <x:v>23</x:v>
@@ -5238,12 +5238,12 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="U65" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">
       <x:c r="A66" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>23</x:v>
@@ -5308,7 +5308,7 @@
     </x:row>
     <x:row r="67" spans="1:21">
       <x:c r="A67" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>23</x:v>
@@ -5344,7 +5344,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="M67" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="N67" s="0" t="s">
         <x:v>23</x:v>
@@ -5368,12 +5368,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U67" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:21">
       <x:c r="A68" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>35</x:v>
@@ -5409,7 +5409,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="M68" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="N68" s="0" t="s">
         <x:v>24</x:v>
@@ -5427,18 +5427,18 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="S68" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="T68" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="U68" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:21">
       <x:c r="A69" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>23</x:v>
@@ -5503,7 +5503,7 @@
     </x:row>
     <x:row r="70" spans="1:21">
       <x:c r="A70" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>23</x:v>
@@ -5563,12 +5563,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U70" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:21">
       <x:c r="A71" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>23</x:v>
@@ -5633,7 +5633,7 @@
     </x:row>
     <x:row r="72" spans="1:21">
       <x:c r="A72" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>23</x:v>
@@ -5698,7 +5698,7 @@
     </x:row>
     <x:row r="73" spans="1:21">
       <x:c r="A73" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>23</x:v>
@@ -5763,7 +5763,7 @@
     </x:row>
     <x:row r="74" spans="1:21">
       <x:c r="A74" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>23</x:v>
@@ -5828,7 +5828,7 @@
     </x:row>
     <x:row r="75" spans="1:21">
       <x:c r="A75" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>23</x:v>
@@ -5893,7 +5893,7 @@
     </x:row>
     <x:row r="76" spans="1:21">
       <x:c r="A76" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>29</x:v>
@@ -5929,7 +5929,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="M76" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="N76" s="0" t="s">
         <x:v>31</x:v>
@@ -5944,10 +5944,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R76" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="S76" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="T76" s="0" t="s">
         <x:v>25</x:v>
@@ -6159,7 +6159,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
         <x:v>23</x:v>
@@ -6168,7 +6168,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F80" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="G80" s="0" t="s">
         <x:v>23</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -331,13 +331,13 @@
     <x:t>30</x:t>
   </x:si>
   <x:si>
-    <x:t>411</x:t>
+    <x:t>412</x:t>
   </x:si>
   <x:si>
     <x:t>252</x:t>
   </x:si>
   <x:si>
-    <x:t>2824</x:t>
+    <x:t>2825</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -124,7 +124,7 @@
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>243</x:t>
+    <x:t>244</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
@@ -136,7 +136,7 @@
     <x:t>37</x:t>
   </x:si>
   <x:si>
-    <x:t>451</x:t>
+    <x:t>452</x:t>
   </x:si>
   <x:si>
     <x:t>Becker</x:t>
@@ -148,13 +148,13 @@
     <x:t>28</x:t>
   </x:si>
   <x:si>
-    <x:t>64</x:t>
+    <x:t>66</x:t>
   </x:si>
   <x:si>
     <x:t>17</x:t>
   </x:si>
   <x:si>
-    <x:t>154</x:t>
+    <x:t>156</x:t>
   </x:si>
   <x:si>
     <x:t>Beltrami</x:t>
@@ -259,33 +259,36 @@
     <x:t>Dakota</x:t>
   </x:si>
   <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dodge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Douglas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faribault</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fillmore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Freeborn</x:t>
+  </x:si>
+  <x:si>
     <x:t>34</x:t>
   </x:si>
   <x:si>
-    <x:t>175</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dodge</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Douglas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faribault</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fillmore</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Freeborn</x:t>
-  </x:si>
-  <x:si>
     <x:t>20</x:t>
   </x:si>
   <x:si>
@@ -322,7 +325,7 @@
     <x:t>45</x:t>
   </x:si>
   <x:si>
-    <x:t>477</x:t>
+    <x:t>478</x:t>
   </x:si>
   <x:si>
     <x:t>344</x:t>
@@ -337,7 +340,7 @@
     <x:t>252</x:t>
   </x:si>
   <x:si>
-    <x:t>2825</x:t>
+    <x:t>2826</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>
@@ -355,118 +358,115 @@
     <x:t>Itasca</x:t>
   </x:si>
   <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jackson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kanabec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kandiyohi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kittson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koochiching</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lac qui Parle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lyon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahnomen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Martin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>McLeod</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meeker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mille Lacs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Morrison</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Murray</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nicollet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nobles</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Norman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olmsted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>464</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Otter Tail</x:t>
+  </x:si>
+  <x:si>
     <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jackson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kanabec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kandiyohi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>158</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kittson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Koochiching</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lac qui Parle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lincoln</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lyon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahnomen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Martin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>McLeod</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Meeker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mille Lacs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>151</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Morrison</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mower</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Murray</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nicollet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nobles</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Norman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olmsted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>464</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Otter Tail</x:t>
   </x:si>
   <x:si>
     <x:t>22</x:t>
@@ -2061,10 +2061,10 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
         <x:v>23</x:v>
@@ -2112,7 +2112,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S17" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="T17" s="0" t="s">
         <x:v>33</x:v>
@@ -2398,7 +2398,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
         <x:v>23</x:v>
@@ -2419,7 +2419,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M22" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="N22" s="0" t="s">
         <x:v>23</x:v>
@@ -2448,7 +2448,7 @@
     </x:row>
     <x:row r="23" spans="1:21">
       <x:c r="A23" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>23</x:v>
@@ -2463,7 +2463,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
         <x:v>23</x:v>
@@ -2508,12 +2508,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U23" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:21">
       <x:c r="A24" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>23</x:v>
@@ -2578,13 +2578,13 @@
     </x:row>
     <x:row r="25" spans="1:21">
       <x:c r="A25" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
         <x:v>22</x:v>
@@ -2593,16 +2593,16 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="H25" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J25" s="0" t="s">
         <x:v>53</x:v>
@@ -2611,16 +2611,16 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="L25" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M25" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="N25" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
       <x:c r="O25" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="P25" s="0" t="s">
         <x:v>31</x:v>
@@ -2629,21 +2629,21 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="R25" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="S25" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="T25" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="U25" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:21">
       <x:c r="A26" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>23</x:v>
@@ -2708,7 +2708,7 @@
     </x:row>
     <x:row r="27" spans="1:21">
       <x:c r="A27" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>23</x:v>
@@ -2723,7 +2723,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
         <x:v>23</x:v>
@@ -2768,12 +2768,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U27" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
       <x:c r="A28" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>22</x:v>
@@ -2833,12 +2833,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U28" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:21">
       <x:c r="A29" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>23</x:v>
@@ -2853,7 +2853,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
         <x:v>23</x:v>
@@ -2862,7 +2862,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I29" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="J29" s="0" t="s">
         <x:v>23</x:v>
@@ -2874,13 +2874,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M29" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="N29" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="O29" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="P29" s="0" t="s">
         <x:v>23</x:v>
@@ -2892,18 +2892,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S29" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="T29" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="U29" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:21">
       <x:c r="A30" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>23</x:v>
@@ -2968,7 +2968,7 @@
     </x:row>
     <x:row r="31" spans="1:21">
       <x:c r="A31" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>23</x:v>
@@ -3033,13 +3033,13 @@
     </x:row>
     <x:row r="32" spans="1:21">
       <x:c r="A32" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
         <x:v>23</x:v>
@@ -3069,7 +3069,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="M32" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="N32" s="0" t="s">
         <x:v>23</x:v>
@@ -3438,7 +3438,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F38" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G38" s="0" t="s">
         <x:v>23</x:v>
@@ -3459,7 +3459,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M38" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="N38" s="0" t="s">
         <x:v>23</x:v>
@@ -3483,7 +3483,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U38" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:21">
@@ -3678,7 +3678,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U41" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
@@ -3698,7 +3698,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
         <x:v>23</x:v>
@@ -3743,7 +3743,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U42" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:21">
@@ -3849,7 +3849,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="M44" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="N44" s="0" t="s">
         <x:v>23</x:v>
@@ -3873,12 +3873,12 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="U44" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:21">
       <x:c r="A45" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>23</x:v>
@@ -3938,12 +3938,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U45" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:21">
       <x:c r="A46" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>38</x:v>
@@ -3985,30 +3985,30 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O46" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="P46" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q46" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="R46" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="S46" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="T46" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="U46" s="1" t="s">
         <x:v>137</x:v>
-      </x:c>
-      <x:c r="P46" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="Q46" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="R46" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="S46" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="T46" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="U46" s="1" t="s">
-        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:21">
       <x:c r="A47" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>23</x:v>
@@ -4073,7 +4073,7 @@
     </x:row>
     <x:row r="48" spans="1:21">
       <x:c r="A48" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>22</x:v>
@@ -4138,7 +4138,7 @@
     </x:row>
     <x:row r="49" spans="1:21">
       <x:c r="A49" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>29</x:v>
@@ -4198,12 +4198,12 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="U49" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
       <x:c r="A50" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>23</x:v>
@@ -4268,7 +4268,7 @@
     </x:row>
     <x:row r="51" spans="1:21">
       <x:c r="A51" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>25</x:v>
@@ -4283,16 +4283,16 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I51" s="0" t="s">
         <x:v>145</x:v>
-      </x:c>
-      <x:c r="G51" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="H51" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I51" s="0" t="s">
-        <x:v>146</x:v>
       </x:c>
       <x:c r="J51" s="0" t="s">
         <x:v>23</x:v>
@@ -4304,13 +4304,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="M51" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="N51" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="O51" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="P51" s="0" t="s">
         <x:v>29</x:v>
@@ -4328,12 +4328,12 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="U51" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:21">
       <x:c r="A52" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>23</x:v>
@@ -4369,7 +4369,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="M52" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="N52" s="0" t="s">
         <x:v>23</x:v>
@@ -4629,7 +4629,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M56" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N56" s="0" t="s">
         <x:v>23</x:v>
@@ -4726,7 +4726,7 @@
         <x:v>161</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
         <x:v>58</x:v>
@@ -4868,7 +4868,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F60" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="G60" s="0" t="s">
         <x:v>23</x:v>
@@ -4889,7 +4889,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M60" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="N60" s="0" t="s">
         <x:v>23</x:v>
@@ -4978,7 +4978,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U61" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">
@@ -5137,7 +5137,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I64" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="J64" s="0" t="s">
         <x:v>23</x:v>
@@ -5149,7 +5149,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="M64" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="N64" s="0" t="s">
         <x:v>38</x:v>
@@ -5220,7 +5220,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="O65" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="P65" s="0" t="s">
         <x:v>23</x:v>
@@ -5314,7 +5314,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D67" s="0" t="s">
         <x:v>23</x:v>
@@ -5323,7 +5323,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F67" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G67" s="0" t="s">
         <x:v>23</x:v>
@@ -5332,7 +5332,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I67" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="J67" s="0" t="s">
         <x:v>23</x:v>
@@ -5388,7 +5388,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F68" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G68" s="0" t="s">
         <x:v>23</x:v>
@@ -5415,7 +5415,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="O68" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="P68" s="0" t="s">
         <x:v>38</x:v>
@@ -5669,7 +5669,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M72" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="N72" s="0" t="s">
         <x:v>23</x:v>
@@ -5908,7 +5908,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
         <x:v>22</x:v>
@@ -5935,7 +5935,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="O76" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="P76" s="0" t="s">
         <x:v>38</x:v>
@@ -6130,7 +6130,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="O79" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="P79" s="0" t="s">
         <x:v>22</x:v>
@@ -6260,7 +6260,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O81" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="P81" s="0" t="s">
         <x:v>23</x:v>
@@ -6278,7 +6278,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U81" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -337,10 +337,10 @@
     <x:t>412</x:t>
   </x:si>
   <x:si>
-    <x:t>252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2826</x:t>
+    <x:t>253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2827</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>
@@ -502,19 +502,22 @@
     <x:t>Ramsey</x:t>
   </x:si>
   <x:si>
+    <x:t>78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>163</x:t>
+  </x:si>
+  <x:si>
     <x:t>77</x:t>
   </x:si>
   <x:si>
-    <x:t>99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>163</x:t>
-  </x:si>
-  <x:si>
     <x:t>81</x:t>
   </x:si>
   <x:si>
-    <x:t>768</x:t>
+    <x:t>769</x:t>
   </x:si>
   <x:si>
     <x:t>Red Lake</x:t>
@@ -538,7 +541,7 @@
     <x:t>Scott</x:t>
   </x:si>
   <x:si>
-    <x:t>274</x:t>
+    <x:t>275</x:t>
   </x:si>
   <x:si>
     <x:t>Sherburne</x:t>
@@ -4777,18 +4780,18 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="S58" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="T58" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="U58" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">
       <x:c r="A59" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>23</x:v>
@@ -4853,7 +4856,7 @@
     </x:row>
     <x:row r="60" spans="1:21">
       <x:c r="A60" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>23</x:v>
@@ -4913,12 +4916,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U60" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">
       <x:c r="A61" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>38</x:v>
@@ -4983,7 +4986,7 @@
     </x:row>
     <x:row r="62" spans="1:21">
       <x:c r="A62" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>23</x:v>
@@ -5048,7 +5051,7 @@
     </x:row>
     <x:row r="63" spans="1:21">
       <x:c r="A63" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>23</x:v>
@@ -5113,7 +5116,7 @@
     </x:row>
     <x:row r="64" spans="1:21">
       <x:c r="A64" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>26</x:v>
@@ -5128,7 +5131,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F64" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G64" s="0" t="s">
         <x:v>22</x:v>
@@ -5173,12 +5176,12 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="U64" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
       <x:c r="A65" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>22</x:v>
@@ -5238,12 +5241,12 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="U65" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">
       <x:c r="A66" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>23</x:v>
@@ -5308,7 +5311,7 @@
     </x:row>
     <x:row r="67" spans="1:21">
       <x:c r="A67" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>23</x:v>
@@ -5344,7 +5347,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="M67" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="N67" s="0" t="s">
         <x:v>23</x:v>
@@ -5368,12 +5371,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U67" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:21">
       <x:c r="A68" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>35</x:v>
@@ -5409,7 +5412,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="M68" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="N68" s="0" t="s">
         <x:v>24</x:v>
@@ -5427,18 +5430,18 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="S68" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="T68" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="U68" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:21">
       <x:c r="A69" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>23</x:v>
@@ -5503,7 +5506,7 @@
     </x:row>
     <x:row r="70" spans="1:21">
       <x:c r="A70" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>23</x:v>
@@ -5563,12 +5566,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U70" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:21">
       <x:c r="A71" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>23</x:v>
@@ -5633,7 +5636,7 @@
     </x:row>
     <x:row r="72" spans="1:21">
       <x:c r="A72" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>23</x:v>
@@ -5698,7 +5701,7 @@
     </x:row>
     <x:row r="73" spans="1:21">
       <x:c r="A73" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>23</x:v>
@@ -5763,7 +5766,7 @@
     </x:row>
     <x:row r="74" spans="1:21">
       <x:c r="A74" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>23</x:v>
@@ -5828,7 +5831,7 @@
     </x:row>
     <x:row r="75" spans="1:21">
       <x:c r="A75" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>23</x:v>
@@ -5893,7 +5896,7 @@
     </x:row>
     <x:row r="76" spans="1:21">
       <x:c r="A76" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>29</x:v>
@@ -5929,7 +5932,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="M76" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="N76" s="0" t="s">
         <x:v>31</x:v>
@@ -5947,18 +5950,18 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="S76" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="T76" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="U76" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:21">
       <x:c r="A77" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>23</x:v>
@@ -6023,7 +6026,7 @@
     </x:row>
     <x:row r="78" spans="1:21">
       <x:c r="A78" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>23</x:v>
@@ -6088,7 +6091,7 @@
     </x:row>
     <x:row r="79" spans="1:21">
       <x:c r="A79" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>23</x:v>
@@ -6148,18 +6151,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U79" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:21">
       <x:c r="A80" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
         <x:v>23</x:v>
@@ -6168,7 +6171,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F80" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="G80" s="0" t="s">
         <x:v>23</x:v>
@@ -6189,7 +6192,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="M80" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="N80" s="0" t="s">
         <x:v>34</x:v>
@@ -6213,12 +6216,12 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="U80" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:21">
       <x:c r="A81" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>23</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -262,7 +262,7 @@
     <x:t>35</x:t>
   </x:si>
   <x:si>
-    <x:t>177</x:t>
+    <x:t>178</x:t>
   </x:si>
   <x:si>
     <x:t>Dodge</x:t>
@@ -322,177 +322,180 @@
     <x:t>371</x:t>
   </x:si>
   <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>479</x:t>
+  </x:si>
+  <x:si>
+    <x:t>345</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>413</x:t>
+  </x:si>
+  <x:si>
+    <x:t>253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2831</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Houston</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hubbard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Itasca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jackson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kanabec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kandiyohi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kittson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koochiching</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lac qui Parle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lyon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahnomen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Martin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>McLeod</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meeker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mille Lacs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Morrison</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Murray</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nicollet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nobles</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Norman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olmsted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>464</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Otter Tail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pennington</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pipestone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Polk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
     <x:t>45</x:t>
   </x:si>
   <x:si>
-    <x:t>478</x:t>
-  </x:si>
-  <x:si>
-    <x:t>344</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>412</x:t>
-  </x:si>
-  <x:si>
-    <x:t>253</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2827</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Houston</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hubbard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Itasca</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jackson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kanabec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kandiyohi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>158</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kittson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Koochiching</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lac qui Parle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lincoln</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lyon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahnomen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Martin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>McLeod</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Meeker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mille Lacs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>151</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Morrison</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mower</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Murray</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nicollet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nobles</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Norman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olmsted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>464</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Otter Tail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pennington</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pipestone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Polk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
     <x:t>103</x:t>
   </x:si>
   <x:si>
@@ -526,9 +529,6 @@
     <x:t>Redwood</x:t>
   </x:si>
   <x:si>
-    <x:t>67</x:t>
-  </x:si>
-  <x:si>
     <x:t>Renville</x:t>
   </x:si>
   <x:si>
@@ -563,9 +563,6 @@
   </x:si>
   <x:si>
     <x:t>Stearns</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46</x:t>
   </x:si>
   <x:si>
     <x:t>399</x:t>
@@ -2097,7 +2094,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="M17" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="N17" s="0" t="s">
         <x:v>34</x:v>
@@ -4632,7 +4629,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M56" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="N56" s="0" t="s">
         <x:v>23</x:v>
@@ -4656,12 +4653,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U56" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
       <x:c r="A57" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>23</x:v>
@@ -4726,7 +4723,7 @@
     </x:row>
     <x:row r="58" spans="1:21">
       <x:c r="A58" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>136</x:v>
@@ -4741,7 +4738,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="G58" s="0" t="s">
         <x:v>22</x:v>
@@ -4750,7 +4747,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I58" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="J58" s="0" t="s">
         <x:v>23</x:v>
@@ -4762,13 +4759,13 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="M58" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="N58" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O58" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="P58" s="0" t="s">
         <x:v>50</x:v>
@@ -4780,18 +4777,18 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="S58" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="T58" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="U58" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">
       <x:c r="A59" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>23</x:v>
@@ -4856,13 +4853,13 @@
     </x:row>
     <x:row r="60" spans="1:21">
       <x:c r="A60" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D60" s="0" t="s">
         <x:v>23</x:v>
@@ -4880,7 +4877,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I60" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J60" s="0" t="s">
         <x:v>23</x:v>
@@ -4898,7 +4895,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O60" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="P60" s="0" t="s">
         <x:v>23</x:v>
@@ -4916,7 +4913,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U60" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">
@@ -5412,7 +5409,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="M68" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="N68" s="0" t="s">
         <x:v>24</x:v>
@@ -5430,18 +5427,18 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="S68" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="T68" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="U68" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:21">
       <x:c r="A69" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>23</x:v>
@@ -5506,7 +5503,7 @@
     </x:row>
     <x:row r="70" spans="1:21">
       <x:c r="A70" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>23</x:v>
@@ -5566,12 +5563,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U70" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:21">
       <x:c r="A71" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>23</x:v>
@@ -5636,7 +5633,7 @@
     </x:row>
     <x:row r="72" spans="1:21">
       <x:c r="A72" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>23</x:v>
@@ -5701,7 +5698,7 @@
     </x:row>
     <x:row r="73" spans="1:21">
       <x:c r="A73" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>23</x:v>
@@ -5737,7 +5734,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M73" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="N73" s="0" t="s">
         <x:v>23</x:v>
@@ -5761,12 +5758,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U73" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:21">
       <x:c r="A74" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>23</x:v>
@@ -5831,7 +5828,7 @@
     </x:row>
     <x:row r="75" spans="1:21">
       <x:c r="A75" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>23</x:v>
@@ -5896,7 +5893,7 @@
     </x:row>
     <x:row r="76" spans="1:21">
       <x:c r="A76" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>29</x:v>
@@ -5932,7 +5929,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="M76" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="N76" s="0" t="s">
         <x:v>31</x:v>
@@ -5950,18 +5947,18 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="S76" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="T76" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="U76" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:21">
       <x:c r="A77" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>23</x:v>
@@ -6026,7 +6023,7 @@
     </x:row>
     <x:row r="78" spans="1:21">
       <x:c r="A78" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>23</x:v>
@@ -6091,7 +6088,7 @@
     </x:row>
     <x:row r="79" spans="1:21">
       <x:c r="A79" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>23</x:v>
@@ -6151,18 +6148,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U79" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:21">
       <x:c r="A80" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
         <x:v>23</x:v>
@@ -6171,7 +6168,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F80" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G80" s="0" t="s">
         <x:v>23</x:v>
@@ -6192,7 +6189,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="M80" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="N80" s="0" t="s">
         <x:v>34</x:v>
@@ -6216,12 +6213,12 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="U80" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:21">
       <x:c r="A81" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>23</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -124,7 +124,7 @@
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>244</x:t>
+    <x:t>245</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
@@ -136,7 +136,7 @@
     <x:t>37</x:t>
   </x:si>
   <x:si>
-    <x:t>452</x:t>
+    <x:t>453</x:t>
   </x:si>
   <x:si>
     <x:t>Becker</x:t>
@@ -208,90 +208,96 @@
     <x:t>12</x:t>
   </x:si>
   <x:si>
+    <x:t>78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carver</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cass</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chisago</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clearwater</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cottonwood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crow Wing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dakota</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dodge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Douglas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faribault</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fillmore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Freeborn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
     <x:t>74</x:t>
   </x:si>
   <x:si>
-    <x:t>Carver</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cass</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chisago</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>228</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clearwater</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cottonwood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crow Wing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>210</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dakota</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>178</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dodge</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Douglas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faribault</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fillmore</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Freeborn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
     <x:t>Goodhue</x:t>
   </x:si>
   <x:si>
@@ -307,7 +313,7 @@
     <x:t>Hennepin</x:t>
   </x:si>
   <x:si>
-    <x:t>184</x:t>
+    <x:t>183</x:t>
   </x:si>
   <x:si>
     <x:t>230</x:t>
@@ -316,9 +322,6 @@
     <x:t>276</x:t>
   </x:si>
   <x:si>
-    <x:t>100</x:t>
-  </x:si>
-  <x:si>
     <x:t>371</x:t>
   </x:si>
   <x:si>
@@ -340,7 +343,7 @@
     <x:t>253</x:t>
   </x:si>
   <x:si>
-    <x:t>2831</x:t>
+    <x:t>2832</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>
@@ -412,7 +415,7 @@
     <x:t>Mille Lacs</x:t>
   </x:si>
   <x:si>
-    <x:t>151</x:t>
+    <x:t>152</x:t>
   </x:si>
   <x:si>
     <x:t>Morrison</x:t>
@@ -505,9 +508,6 @@
     <x:t>Ramsey</x:t>
   </x:si>
   <x:si>
-    <x:t>78</x:t>
-  </x:si>
-  <x:si>
     <x:t>99</x:t>
   </x:si>
   <x:si>
@@ -527,6 +527,12 @@
   </x:si>
   <x:si>
     <x:t>Redwood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70</x:t>
   </x:si>
   <x:si>
     <x:t>Renville</x:t>
@@ -1553,7 +1559,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
         <x:v>22</x:v>
@@ -1574,7 +1580,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M9" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N9" s="0" t="s">
         <x:v>23</x:v>
@@ -2094,7 +2100,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="M17" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="N17" s="0" t="s">
         <x:v>34</x:v>
@@ -2115,15 +2121,15 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="T17" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="U17" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:21">
       <x:c r="A18" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>23</x:v>
@@ -2188,7 +2194,7 @@
     </x:row>
     <x:row r="19" spans="1:21">
       <x:c r="A19" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>23</x:v>
@@ -2224,7 +2230,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M19" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N19" s="0" t="s">
         <x:v>38</x:v>
@@ -2248,12 +2254,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U19" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:21">
       <x:c r="A20" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>23</x:v>
@@ -2318,7 +2324,7 @@
     </x:row>
     <x:row r="21" spans="1:21">
       <x:c r="A21" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>23</x:v>
@@ -2383,7 +2389,7 @@
     </x:row>
     <x:row r="22" spans="1:21">
       <x:c r="A22" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>23</x:v>
@@ -2398,7 +2404,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
         <x:v>23</x:v>
@@ -2419,7 +2425,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M22" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="N22" s="0" t="s">
         <x:v>23</x:v>
@@ -2443,12 +2449,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U22" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:21">
       <x:c r="A23" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>23</x:v>
@@ -2463,7 +2469,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
         <x:v>23</x:v>
@@ -2508,12 +2514,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U23" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:21">
       <x:c r="A24" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>23</x:v>
@@ -2578,13 +2584,13 @@
     </x:row>
     <x:row r="25" spans="1:21">
       <x:c r="A25" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
         <x:v>22</x:v>
@@ -2593,16 +2599,16 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="H25" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="J25" s="0" t="s">
         <x:v>53</x:v>
@@ -2611,16 +2617,16 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="L25" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="M25" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="N25" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O25" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="P25" s="0" t="s">
         <x:v>31</x:v>
@@ -2629,21 +2635,21 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="R25" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="S25" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="T25" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="U25" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:21">
       <x:c r="A26" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>23</x:v>
@@ -2708,7 +2714,7 @@
     </x:row>
     <x:row r="27" spans="1:21">
       <x:c r="A27" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>23</x:v>
@@ -2723,7 +2729,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
         <x:v>23</x:v>
@@ -2768,12 +2774,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U27" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
       <x:c r="A28" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>22</x:v>
@@ -2833,12 +2839,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U28" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:21">
       <x:c r="A29" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>23</x:v>
@@ -2898,12 +2904,12 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="U29" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:21">
       <x:c r="A30" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>23</x:v>
@@ -2968,7 +2974,7 @@
     </x:row>
     <x:row r="31" spans="1:21">
       <x:c r="A31" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>23</x:v>
@@ -3033,13 +3039,13 @@
     </x:row>
     <x:row r="32" spans="1:21">
       <x:c r="A32" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
         <x:v>23</x:v>
@@ -3093,12 +3099,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U32" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:21">
       <x:c r="A33" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>23</x:v>
@@ -3163,7 +3169,7 @@
     </x:row>
     <x:row r="34" spans="1:21">
       <x:c r="A34" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>23</x:v>
@@ -3228,7 +3234,7 @@
     </x:row>
     <x:row r="35" spans="1:21">
       <x:c r="A35" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>23</x:v>
@@ -3293,7 +3299,7 @@
     </x:row>
     <x:row r="36" spans="1:21">
       <x:c r="A36" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>23</x:v>
@@ -3358,7 +3364,7 @@
     </x:row>
     <x:row r="37" spans="1:21">
       <x:c r="A37" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>22</x:v>
@@ -3373,7 +3379,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F37" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G37" s="0" t="s">
         <x:v>23</x:v>
@@ -3400,7 +3406,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O37" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="P37" s="0" t="s">
         <x:v>23</x:v>
@@ -3418,12 +3424,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U37" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:21">
       <x:c r="A38" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>23</x:v>
@@ -3488,7 +3494,7 @@
     </x:row>
     <x:row r="39" spans="1:21">
       <x:c r="A39" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>23</x:v>
@@ -3553,7 +3559,7 @@
     </x:row>
     <x:row r="40" spans="1:21">
       <x:c r="A40" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>23</x:v>
@@ -3618,7 +3624,7 @@
     </x:row>
     <x:row r="41" spans="1:21">
       <x:c r="A41" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>23</x:v>
@@ -3678,12 +3684,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U41" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
       <x:c r="A42" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>38</x:v>
@@ -3719,7 +3725,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="M42" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="N42" s="0" t="s">
         <x:v>23</x:v>
@@ -3748,7 +3754,7 @@
     </x:row>
     <x:row r="43" spans="1:21">
       <x:c r="A43" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>23</x:v>
@@ -3813,7 +3819,7 @@
     </x:row>
     <x:row r="44" spans="1:21">
       <x:c r="A44" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>23</x:v>
@@ -3837,7 +3843,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="I44" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="J44" s="0" t="s">
         <x:v>23</x:v>
@@ -3849,7 +3855,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="M44" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="N44" s="0" t="s">
         <x:v>23</x:v>
@@ -3873,12 +3879,12 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="U44" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:21">
       <x:c r="A45" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>23</x:v>
@@ -3938,12 +3944,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U45" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:21">
       <x:c r="A46" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>38</x:v>
@@ -3985,7 +3991,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O46" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="P46" s="0" t="s">
         <x:v>23</x:v>
@@ -4003,12 +4009,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U46" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:21">
       <x:c r="A47" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>23</x:v>
@@ -4073,7 +4079,7 @@
     </x:row>
     <x:row r="48" spans="1:21">
       <x:c r="A48" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>22</x:v>
@@ -4138,7 +4144,7 @@
     </x:row>
     <x:row r="49" spans="1:21">
       <x:c r="A49" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>29</x:v>
@@ -4174,7 +4180,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M49" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="N49" s="0" t="s">
         <x:v>22</x:v>
@@ -4198,12 +4204,12 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="U49" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
       <x:c r="A50" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>23</x:v>
@@ -4268,13 +4274,13 @@
     </x:row>
     <x:row r="51" spans="1:21">
       <x:c r="A51" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
         <x:v>23</x:v>
@@ -4283,7 +4289,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
         <x:v>38</x:v>
@@ -4292,7 +4298,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I51" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="J51" s="0" t="s">
         <x:v>23</x:v>
@@ -4304,13 +4310,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="M51" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="N51" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="O51" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="P51" s="0" t="s">
         <x:v>29</x:v>
@@ -4328,12 +4334,12 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="U51" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:21">
       <x:c r="A52" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>23</x:v>
@@ -4369,13 +4375,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="M52" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="N52" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O52" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="P52" s="0" t="s">
         <x:v>34</x:v>
@@ -4393,12 +4399,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U52" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:21">
       <x:c r="A53" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>23</x:v>
@@ -4463,7 +4469,7 @@
     </x:row>
     <x:row r="54" spans="1:21">
       <x:c r="A54" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>23</x:v>
@@ -4499,7 +4505,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M54" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="N54" s="0" t="s">
         <x:v>22</x:v>
@@ -4528,7 +4534,7 @@
     </x:row>
     <x:row r="55" spans="1:21">
       <x:c r="A55" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>23</x:v>
@@ -4588,12 +4594,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U55" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:21">
       <x:c r="A56" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>23</x:v>
@@ -4608,7 +4614,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
         <x:v>23</x:v>
@@ -4629,7 +4635,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M56" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="N56" s="0" t="s">
         <x:v>23</x:v>
@@ -4653,12 +4659,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U56" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
       <x:c r="A57" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>23</x:v>
@@ -4723,10 +4729,10 @@
     </x:row>
     <x:row r="58" spans="1:21">
       <x:c r="A58" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
         <x:v>58</x:v>
@@ -4735,10 +4741,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G58" s="0" t="s">
         <x:v>22</x:v>
@@ -4765,7 +4771,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O58" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="P58" s="0" t="s">
         <x:v>50</x:v>
@@ -4868,10 +4874,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F60" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="G60" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H60" s="0" t="s">
         <x:v>23</x:v>
@@ -4889,7 +4895,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M60" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="N60" s="0" t="s">
         <x:v>23</x:v>
@@ -4913,12 +4919,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U60" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">
       <x:c r="A61" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>38</x:v>
@@ -4978,12 +4984,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U61" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">
       <x:c r="A62" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>23</x:v>
@@ -5048,7 +5054,7 @@
     </x:row>
     <x:row r="63" spans="1:21">
       <x:c r="A63" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>23</x:v>
@@ -5113,7 +5119,7 @@
     </x:row>
     <x:row r="64" spans="1:21">
       <x:c r="A64" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>26</x:v>
@@ -5137,7 +5143,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I64" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="J64" s="0" t="s">
         <x:v>23</x:v>
@@ -5149,7 +5155,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="M64" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="N64" s="0" t="s">
         <x:v>38</x:v>
@@ -5173,12 +5179,12 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="U64" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
       <x:c r="A65" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>22</x:v>
@@ -5220,7 +5226,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="O65" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="P65" s="0" t="s">
         <x:v>23</x:v>
@@ -5238,12 +5244,12 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="U65" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">
       <x:c r="A66" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>23</x:v>
@@ -5308,13 +5314,13 @@
     </x:row>
     <x:row r="67" spans="1:21">
       <x:c r="A67" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D67" s="0" t="s">
         <x:v>23</x:v>
@@ -5323,7 +5329,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F67" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G67" s="0" t="s">
         <x:v>23</x:v>
@@ -5332,7 +5338,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I67" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="J67" s="0" t="s">
         <x:v>23</x:v>
@@ -5344,7 +5350,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="M67" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="N67" s="0" t="s">
         <x:v>23</x:v>
@@ -5368,12 +5374,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U67" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:21">
       <x:c r="A68" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>35</x:v>
@@ -5388,7 +5394,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F68" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G68" s="0" t="s">
         <x:v>23</x:v>
@@ -5415,7 +5421,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="O68" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="P68" s="0" t="s">
         <x:v>38</x:v>
@@ -5427,18 +5433,18 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="S68" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="T68" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="U68" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:21">
       <x:c r="A69" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>23</x:v>
@@ -5498,12 +5504,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U69" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:21">
       <x:c r="A70" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>23</x:v>
@@ -5563,12 +5569,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U70" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:21">
       <x:c r="A71" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>23</x:v>
@@ -5633,7 +5639,7 @@
     </x:row>
     <x:row r="72" spans="1:21">
       <x:c r="A72" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>23</x:v>
@@ -5669,7 +5675,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M72" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="N72" s="0" t="s">
         <x:v>23</x:v>
@@ -5698,7 +5704,7 @@
     </x:row>
     <x:row r="73" spans="1:21">
       <x:c r="A73" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>23</x:v>
@@ -5763,7 +5769,7 @@
     </x:row>
     <x:row r="74" spans="1:21">
       <x:c r="A74" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>23</x:v>
@@ -5828,7 +5834,7 @@
     </x:row>
     <x:row r="75" spans="1:21">
       <x:c r="A75" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>23</x:v>
@@ -5893,7 +5899,7 @@
     </x:row>
     <x:row r="76" spans="1:21">
       <x:c r="A76" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>29</x:v>
@@ -5908,7 +5914,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
         <x:v>22</x:v>
@@ -5929,13 +5935,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="M76" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="N76" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="O76" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="P76" s="0" t="s">
         <x:v>38</x:v>
@@ -5947,18 +5953,18 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="S76" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="T76" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="U76" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:21">
       <x:c r="A77" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>23</x:v>
@@ -6023,7 +6029,7 @@
     </x:row>
     <x:row r="78" spans="1:21">
       <x:c r="A78" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>23</x:v>
@@ -6088,7 +6094,7 @@
     </x:row>
     <x:row r="79" spans="1:21">
       <x:c r="A79" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>23</x:v>
@@ -6130,7 +6136,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="O79" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="P79" s="0" t="s">
         <x:v>22</x:v>
@@ -6148,18 +6154,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U79" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:21">
       <x:c r="A80" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
         <x:v>23</x:v>
@@ -6168,7 +6174,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F80" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="G80" s="0" t="s">
         <x:v>23</x:v>
@@ -6189,7 +6195,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="M80" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="N80" s="0" t="s">
         <x:v>34</x:v>
@@ -6213,12 +6219,12 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="U80" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:21">
       <x:c r="A81" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>23</x:v>
@@ -6260,7 +6266,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O81" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="P81" s="0" t="s">
         <x:v>23</x:v>
@@ -6278,7 +6284,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U81" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -319,256 +319,259 @@
     <x:t>230</x:t>
   </x:si>
   <x:si>
-    <x:t>276</x:t>
+    <x:t>277</x:t>
   </x:si>
   <x:si>
     <x:t>371</x:t>
   </x:si>
   <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>479</x:t>
+  </x:si>
+  <x:si>
+    <x:t>345</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>413</x:t>
+  </x:si>
+  <x:si>
+    <x:t>253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2834</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Houston</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hubbard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Itasca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jackson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kanabec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kandiyohi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kittson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koochiching</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lac qui Parle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lyon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahnomen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Martin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>McLeod</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meeker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mille Lacs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Morrison</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Murray</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nicollet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nobles</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Norman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olmsted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>465</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Otter Tail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pennington</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pipestone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Polk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pope</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramsey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>769</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red Lake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Redwood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Renville</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roseau</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scott</x:t>
+  </x:si>
+  <x:si>
+    <x:t>275</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sherburne</x:t>
+  </x:si>
+  <x:si>
+    <x:t>119</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sibley</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St. Louis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>267</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stearns</x:t>
+  </x:si>
+  <x:si>
     <x:t>46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>479</x:t>
-  </x:si>
-  <x:si>
-    <x:t>345</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>413</x:t>
-  </x:si>
-  <x:si>
-    <x:t>253</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2832</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Houston</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hubbard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Itasca</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jackson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kanabec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kandiyohi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>158</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kittson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Koochiching</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lac qui Parle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lincoln</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lyon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahnomen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Martin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>McLeod</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Meeker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mille Lacs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>152</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Morrison</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mower</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Murray</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nicollet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nobles</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Norman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olmsted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>464</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Otter Tail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pennington</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pipestone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Polk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pope</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ramsey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>769</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Red Lake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Redwood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Renville</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roseau</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scott</x:t>
-  </x:si>
-  <x:si>
-    <x:t>275</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sherburne</x:t>
-  </x:si>
-  <x:si>
-    <x:t>119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sibley</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St. Louis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>267</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stearns</x:t>
   </x:si>
   <x:si>
     <x:t>399</x:t>
@@ -4325,7 +4328,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R51" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="S51" s="0" t="s">
         <x:v>45</x:v>
@@ -5433,18 +5436,18 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="S68" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="T68" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="U68" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:21">
       <x:c r="A69" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>23</x:v>
@@ -5509,7 +5512,7 @@
     </x:row>
     <x:row r="70" spans="1:21">
       <x:c r="A70" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>23</x:v>
@@ -5569,12 +5572,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U70" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:21">
       <x:c r="A71" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>23</x:v>
@@ -5639,7 +5642,7 @@
     </x:row>
     <x:row r="72" spans="1:21">
       <x:c r="A72" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>23</x:v>
@@ -5704,7 +5707,7 @@
     </x:row>
     <x:row r="73" spans="1:21">
       <x:c r="A73" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>23</x:v>
@@ -5769,7 +5772,7 @@
     </x:row>
     <x:row r="74" spans="1:21">
       <x:c r="A74" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>23</x:v>
@@ -5834,7 +5837,7 @@
     </x:row>
     <x:row r="75" spans="1:21">
       <x:c r="A75" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>23</x:v>
@@ -5899,7 +5902,7 @@
     </x:row>
     <x:row r="76" spans="1:21">
       <x:c r="A76" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>29</x:v>
@@ -5935,7 +5938,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="M76" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="N76" s="0" t="s">
         <x:v>31</x:v>
@@ -5953,18 +5956,18 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="S76" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="T76" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="U76" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:21">
       <x:c r="A77" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>23</x:v>
@@ -6029,7 +6032,7 @@
     </x:row>
     <x:row r="78" spans="1:21">
       <x:c r="A78" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>23</x:v>
@@ -6094,7 +6097,7 @@
     </x:row>
     <x:row r="79" spans="1:21">
       <x:c r="A79" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>23</x:v>
@@ -6154,18 +6157,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U79" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:21">
       <x:c r="A80" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
         <x:v>23</x:v>
@@ -6174,7 +6177,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F80" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="G80" s="0" t="s">
         <x:v>23</x:v>
@@ -6195,7 +6198,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="M80" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="N80" s="0" t="s">
         <x:v>34</x:v>
@@ -6219,12 +6222,12 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="U80" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:21">
       <x:c r="A81" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>23</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -91,168 +91,168 @@
     <x:t>11</x:t>
   </x:si>
   <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Anoka</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>453</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Becker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
     <x:t>9</x:t>
   </x:si>
   <x:si>
-    <x:t>4</x:t>
+    <x:t>156</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beltrami</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Benton</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue Earth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brown</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carlton</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carver</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cass</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chisago</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clearwater</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cottonwood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crow Wing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
   </x:si>
   <x:si>
     <x:t>27</x:t>
   </x:si>
   <x:si>
-    <x:t>Anoka</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>245</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>453</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Becker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>156</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beltrami</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Benton</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue Earth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57</x:t>
-  </x:si>
-  <x:si>
-    <x:t>165</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brown</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carlton</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carver</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cass</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chisago</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>228</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clearwater</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cottonwood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crow Wing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93</x:t>
-  </x:si>
-  <x:si>
     <x:t>210</x:t>
   </x:si>
   <x:si>
@@ -316,13 +316,13 @@
     <x:t>183</x:t>
   </x:si>
   <x:si>
-    <x:t>230</x:t>
+    <x:t>231</x:t>
   </x:si>
   <x:si>
     <x:t>277</x:t>
   </x:si>
   <x:si>
-    <x:t>371</x:t>
+    <x:t>372</x:t>
   </x:si>
   <x:si>
     <x:t>47</x:t>
@@ -343,7 +343,7 @@
     <x:t>253</x:t>
   </x:si>
   <x:si>
-    <x:t>2834</x:t>
+    <x:t>2836</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>
@@ -406,42 +406,48 @@
     <x:t>McLeod</x:t>
   </x:si>
   <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meeker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mille Lacs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Morrison</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Murray</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nicollet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nobles</x:t>
+  </x:si>
+  <x:si>
     <x:t>43</x:t>
   </x:si>
   <x:si>
-    <x:t>Meeker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mille Lacs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>152</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Morrison</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mower</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Murray</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nicollet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nobles</x:t>
-  </x:si>
-  <x:si>
     <x:t>85</x:t>
   </x:si>
   <x:si>
@@ -496,9 +502,6 @@
     <x:t>39</x:t>
   </x:si>
   <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
     <x:t>103</x:t>
   </x:si>
   <x:si>
@@ -565,7 +568,7 @@
     <x:t>112</x:t>
   </x:si>
   <x:si>
-    <x:t>267</x:t>
+    <x:t>266</x:t>
   </x:si>
   <x:si>
     <x:t>Stearns</x:t>
@@ -1237,28 +1240,28 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
         <x:v>43</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="J4" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="K4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="M4" s="0" t="s">
-        <x:v>44</x:v>
       </x:c>
       <x:c r="N4" s="0" t="s">
         <x:v>23</x:v>
@@ -1276,10 +1279,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="S4" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="T4" s="0" t="s">
         <x:v>45</x:v>
-      </x:c>
-      <x:c r="T4" s="0" t="s">
-        <x:v>25</x:v>
       </x:c>
       <x:c r="U4" s="1" t="s">
         <x:v>46</x:v>
@@ -1302,7 +1305,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
         <x:v>22</x:v>
@@ -1344,15 +1347,15 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="T5" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="U5" s="1" t="s">
         <x:v>50</x:v>
-      </x:c>
-      <x:c r="U5" s="1" t="s">
-        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:21">
       <x:c r="A6" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>23</x:v>
@@ -1388,7 +1391,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M6" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N6" s="0" t="s">
         <x:v>23</x:v>
@@ -1417,31 +1420,31 @@
     </x:row>
     <x:row r="7" spans="1:21">
       <x:c r="A7" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="D7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
+      <x:c r="G7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
         <x:v>56</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I7" s="0" t="s">
-        <x:v>57</x:v>
       </x:c>
       <x:c r="J7" s="0" t="s">
         <x:v>22</x:v>
@@ -1453,7 +1456,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="M7" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="N7" s="0" t="s">
         <x:v>23</x:v>
@@ -1477,12 +1480,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U7" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:21">
       <x:c r="A8" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>23</x:v>
@@ -1497,7 +1500,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
         <x:v>23</x:v>
@@ -1542,37 +1545,37 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U8" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:21">
       <x:c r="A9" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I9" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
       <x:c r="J9" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
@@ -1583,7 +1586,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M9" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N9" s="0" t="s">
         <x:v>23</x:v>
@@ -1607,12 +1610,12 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="U9" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:21">
       <x:c r="A10" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>38</x:v>
@@ -1636,7 +1639,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J10" s="0" t="s">
         <x:v>23</x:v>
@@ -1648,13 +1651,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="M10" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="N10" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="O10" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="P10" s="0" t="s">
         <x:v>23</x:v>
@@ -1672,12 +1675,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U10" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:21">
       <x:c r="A11" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>23</x:v>
@@ -1713,10 +1716,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M11" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="N11" s="0" t="s">
         <x:v>25</x:v>
-      </x:c>
-      <x:c r="N11" s="0" t="s">
-        <x:v>50</x:v>
       </x:c>
       <x:c r="O11" s="0" t="s">
         <x:v>23</x:v>
@@ -1737,12 +1740,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U11" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:21">
       <x:c r="A12" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>23</x:v>
@@ -1784,7 +1787,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O12" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="P12" s="0" t="s">
         <x:v>23</x:v>
@@ -1807,34 +1810,34 @@
     </x:row>
     <x:row r="13" spans="1:21">
       <x:c r="A13" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="J13" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="K13" s="0" t="s">
         <x:v>23</x:v>
@@ -1843,19 +1846,19 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="M13" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="N13" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="O13" s="0" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="O13" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
       <x:c r="P13" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="Q13" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="R13" s="0" t="s">
         <x:v>35</x:v>
@@ -1864,15 +1867,15 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="T13" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="U13" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:21">
       <x:c r="A14" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>23</x:v>
@@ -1908,7 +1911,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M14" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="N14" s="0" t="s">
         <x:v>22</x:v>
@@ -1932,12 +1935,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U14" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:21">
       <x:c r="A15" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>23</x:v>
@@ -2002,7 +2005,7 @@
     </x:row>
     <x:row r="16" spans="1:21">
       <x:c r="A16" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>38</x:v>
@@ -2017,7 +2020,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
         <x:v>23</x:v>
@@ -2038,13 +2041,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="M16" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="N16" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="O16" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="P16" s="0" t="s">
         <x:v>34</x:v>
@@ -2056,7 +2059,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S16" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="T16" s="0" t="s">
         <x:v>23</x:v>
@@ -2082,7 +2085,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
         <x:v>23</x:v>
@@ -2100,7 +2103,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L17" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="M17" s="0" t="s">
         <x:v>42</x:v>
@@ -2121,7 +2124,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S17" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="T17" s="0" t="s">
         <x:v>82</x:v>
@@ -2239,7 +2242,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="O19" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="P19" s="0" t="s">
         <x:v>23</x:v>
@@ -2322,7 +2325,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U20" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:21">
@@ -2398,7 +2401,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
         <x:v>23</x:v>
@@ -2446,7 +2449,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="S22" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="T22" s="0" t="s">
         <x:v>23</x:v>
@@ -2493,13 +2496,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M23" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="N23" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O23" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="P23" s="0" t="s">
         <x:v>23</x:v>
@@ -2608,13 +2611,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="H25" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s">
         <x:v>102</x:v>
       </x:c>
       <x:c r="J25" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="K25" s="0" t="s">
         <x:v>38</x:v>
@@ -2824,7 +2827,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O28" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="P28" s="0" t="s">
         <x:v>23</x:v>
@@ -2836,7 +2839,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S28" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="T28" s="0" t="s">
         <x:v>22</x:v>
@@ -2972,7 +2975,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U30" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:21">
@@ -3019,7 +3022,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O31" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="P31" s="0" t="s">
         <x:v>23</x:v>
@@ -3057,7 +3060,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
         <x:v>23</x:v>
@@ -3066,7 +3069,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I32" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="J32" s="0" t="s">
         <x:v>23</x:v>
@@ -3078,7 +3081,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="M32" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N32" s="0" t="s">
         <x:v>23</x:v>
@@ -3409,7 +3412,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O37" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="P37" s="0" t="s">
         <x:v>23</x:v>
@@ -3468,7 +3471,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M38" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N38" s="0" t="s">
         <x:v>23</x:v>
@@ -3512,7 +3515,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F39" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G39" s="0" t="s">
         <x:v>23</x:v>
@@ -3521,7 +3524,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I39" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J39" s="0" t="s">
         <x:v>23</x:v>
@@ -3533,7 +3536,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="M39" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="N39" s="0" t="s">
         <x:v>22</x:v>
@@ -3551,13 +3554,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S39" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="T39" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U39" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:21">
@@ -3716,7 +3719,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="I42" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="J42" s="0" t="s">
         <x:v>23</x:v>
@@ -3725,7 +3728,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L42" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="M42" s="0" t="s">
         <x:v>130</x:v>
@@ -3734,7 +3737,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O42" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="P42" s="0" t="s">
         <x:v>23</x:v>
@@ -3752,12 +3755,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U42" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:21">
       <x:c r="A43" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>23</x:v>
@@ -3793,7 +3796,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="M43" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="N43" s="0" t="s">
         <x:v>22</x:v>
@@ -3817,12 +3820,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U43" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:21">
       <x:c r="A44" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>23</x:v>
@@ -3834,7 +3837,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
         <x:v>31</x:v>
@@ -3864,7 +3867,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O44" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="P44" s="0" t="s">
         <x:v>38</x:v>
@@ -3882,12 +3885,12 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="U44" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:21">
       <x:c r="A45" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>23</x:v>
@@ -3947,12 +3950,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U45" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:21">
       <x:c r="A46" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>38</x:v>
@@ -3967,13 +3970,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H46" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I46" s="0" t="s">
         <x:v>29</x:v>
@@ -3994,7 +3997,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O46" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="P46" s="0" t="s">
         <x:v>23</x:v>
@@ -4012,12 +4015,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U46" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:21">
       <x:c r="A47" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>23</x:v>
@@ -4082,7 +4085,7 @@
     </x:row>
     <x:row r="48" spans="1:21">
       <x:c r="A48" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>22</x:v>
@@ -4094,10 +4097,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="F48" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G48" s="0" t="s">
         <x:v>23</x:v>
@@ -4142,12 +4145,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U48" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:21">
       <x:c r="A49" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>29</x:v>
@@ -4183,7 +4186,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M49" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="N49" s="0" t="s">
         <x:v>22</x:v>
@@ -4207,12 +4210,12 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="U49" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
       <x:c r="A50" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>23</x:v>
@@ -4277,10 +4280,10 @@
     </x:row>
     <x:row r="51" spans="1:21">
       <x:c r="A51" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
         <x:v>86</x:v>
@@ -4292,7 +4295,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
         <x:v>38</x:v>
@@ -4301,7 +4304,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I51" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="J51" s="0" t="s">
         <x:v>23</x:v>
@@ -4313,13 +4316,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="M51" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="N51" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="O51" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="P51" s="0" t="s">
         <x:v>29</x:v>
@@ -4331,18 +4334,18 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="S51" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="T51" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="U51" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:21">
       <x:c r="A52" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>23</x:v>
@@ -4357,7 +4360,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F52" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G52" s="0" t="s">
         <x:v>23</x:v>
@@ -4378,13 +4381,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="M52" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="N52" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O52" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="P52" s="0" t="s">
         <x:v>34</x:v>
@@ -4402,12 +4405,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U52" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:21">
       <x:c r="A53" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>23</x:v>
@@ -4422,7 +4425,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F53" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G53" s="0" t="s">
         <x:v>23</x:v>
@@ -4443,13 +4446,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M53" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N53" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="O53" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="P53" s="0" t="s">
         <x:v>23</x:v>
@@ -4461,7 +4464,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S53" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="T53" s="0" t="s">
         <x:v>23</x:v>
@@ -4472,7 +4475,7 @@
     </x:row>
     <x:row r="54" spans="1:21">
       <x:c r="A54" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>23</x:v>
@@ -4508,13 +4511,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M54" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="N54" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="O54" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="P54" s="0" t="s">
         <x:v>23</x:v>
@@ -4532,12 +4535,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U54" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:21">
       <x:c r="A55" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>23</x:v>
@@ -4597,12 +4600,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U55" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:21">
       <x:c r="A56" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>23</x:v>
@@ -4617,7 +4620,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
         <x:v>23</x:v>
@@ -4638,7 +4641,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M56" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="N56" s="0" t="s">
         <x:v>23</x:v>
@@ -4662,12 +4665,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U56" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
       <x:c r="A57" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>23</x:v>
@@ -4732,22 +4735,22 @@
     </x:row>
     <x:row r="58" spans="1:21">
       <x:c r="A58" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="G58" s="0" t="s">
         <x:v>22</x:v>
@@ -4756,7 +4759,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I58" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="J58" s="0" t="s">
         <x:v>23</x:v>
@@ -4765,39 +4768,39 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L58" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="M58" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="N58" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O58" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="P58" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="Q58" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="R58" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="S58" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="T58" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="U58" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">
       <x:c r="A59" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>23</x:v>
@@ -4862,7 +4865,7 @@
     </x:row>
     <x:row r="60" spans="1:21">
       <x:c r="A60" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>23</x:v>
@@ -4877,7 +4880,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F60" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="G60" s="0" t="s">
         <x:v>22</x:v>
@@ -4898,7 +4901,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M60" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="N60" s="0" t="s">
         <x:v>23</x:v>
@@ -4922,12 +4925,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U60" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">
       <x:c r="A61" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>38</x:v>
@@ -4992,7 +4995,7 @@
     </x:row>
     <x:row r="62" spans="1:21">
       <x:c r="A62" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>23</x:v>
@@ -5052,12 +5055,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U62" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:21">
       <x:c r="A63" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>23</x:v>
@@ -5117,18 +5120,18 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U63" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:21">
       <x:c r="A64" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
         <x:v>23</x:v>
@@ -5146,7 +5149,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I64" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="J64" s="0" t="s">
         <x:v>23</x:v>
@@ -5155,7 +5158,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="L64" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="M64" s="0" t="s">
         <x:v>112</x:v>
@@ -5164,7 +5167,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="O64" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="P64" s="0" t="s">
         <x:v>38</x:v>
@@ -5173,21 +5176,21 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R64" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="S64" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="T64" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="U64" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
       <x:c r="A65" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>22</x:v>
@@ -5220,7 +5223,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L65" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="M65" s="0" t="s">
         <x:v>48</x:v>
@@ -5241,18 +5244,18 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="S65" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="T65" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="U65" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">
       <x:c r="A66" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>23</x:v>
@@ -5288,7 +5291,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M66" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="N66" s="0" t="s">
         <x:v>23</x:v>
@@ -5317,7 +5320,7 @@
     </x:row>
     <x:row r="67" spans="1:21">
       <x:c r="A67" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>23</x:v>
@@ -5332,7 +5335,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F67" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G67" s="0" t="s">
         <x:v>23</x:v>
@@ -5341,7 +5344,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I67" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="J67" s="0" t="s">
         <x:v>23</x:v>
@@ -5353,13 +5356,13 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="M67" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="N67" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O67" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="P67" s="0" t="s">
         <x:v>34</x:v>
@@ -5377,12 +5380,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U67" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:21">
       <x:c r="A68" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>35</x:v>
@@ -5397,7 +5400,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F68" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G68" s="0" t="s">
         <x:v>23</x:v>
@@ -5406,7 +5409,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I68" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="J68" s="0" t="s">
         <x:v>38</x:v>
@@ -5418,13 +5421,13 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="M68" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="N68" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="O68" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="P68" s="0" t="s">
         <x:v>38</x:v>
@@ -5436,18 +5439,18 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="S68" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="T68" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="U68" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:21">
       <x:c r="A69" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>23</x:v>
@@ -5483,13 +5486,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="M69" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="N69" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="O69" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="P69" s="0" t="s">
         <x:v>23</x:v>
@@ -5507,12 +5510,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U69" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:21">
       <x:c r="A70" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>23</x:v>
@@ -5572,12 +5575,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U70" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:21">
       <x:c r="A71" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>23</x:v>
@@ -5637,12 +5640,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U71" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:21">
       <x:c r="A72" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>23</x:v>
@@ -5707,7 +5710,7 @@
     </x:row>
     <x:row r="73" spans="1:21">
       <x:c r="A73" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>23</x:v>
@@ -5772,7 +5775,7 @@
     </x:row>
     <x:row r="74" spans="1:21">
       <x:c r="A74" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>23</x:v>
@@ -5814,7 +5817,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O74" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="P74" s="0" t="s">
         <x:v>23</x:v>
@@ -5832,12 +5835,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U74" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:21">
       <x:c r="A75" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>23</x:v>
@@ -5902,13 +5905,13 @@
     </x:row>
     <x:row r="76" spans="1:21">
       <x:c r="A76" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D76" s="0" t="s">
         <x:v>23</x:v>
@@ -5917,7 +5920,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
         <x:v>22</x:v>
@@ -5926,7 +5929,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="I76" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="J76" s="0" t="s">
         <x:v>22</x:v>
@@ -5938,13 +5941,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="M76" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="N76" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="O76" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="P76" s="0" t="s">
         <x:v>38</x:v>
@@ -5956,18 +5959,18 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="S76" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="T76" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="U76" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:21">
       <x:c r="A77" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>23</x:v>
@@ -6027,12 +6030,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U77" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:21">
       <x:c r="A78" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>23</x:v>
@@ -6092,12 +6095,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U78" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:21">
       <x:c r="A79" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>23</x:v>
@@ -6157,27 +6160,27 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U79" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:21">
       <x:c r="A80" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="E80" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F80" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="G80" s="0" t="s">
         <x:v>23</x:v>
@@ -6186,7 +6189,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="I80" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J80" s="0" t="s">
         <x:v>38</x:v>
@@ -6195,10 +6198,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L80" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="M80" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="N80" s="0" t="s">
         <x:v>34</x:v>
@@ -6222,12 +6225,12 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="U80" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:21">
       <x:c r="A81" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>23</x:v>
@@ -6263,7 +6266,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M81" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="N81" s="0" t="s">
         <x:v>23</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -262,10 +262,10 @@
     <x:t>35</x:t>
   </x:si>
   <x:si>
-    <x:t>53</x:t>
-  </x:si>
-  <x:si>
-    <x:t>180</x:t>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>183</x:t>
   </x:si>
   <x:si>
     <x:t>Dodge</x:t>
@@ -292,87 +292,84 @@
     <x:t>34</x:t>
   </x:si>
   <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goodhue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hennepin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>277</x:t>
+  </x:si>
+  <x:si>
+    <x:t>372</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>479</x:t>
+  </x:si>
+  <x:si>
+    <x:t>345</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>413</x:t>
+  </x:si>
+  <x:si>
+    <x:t>253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2837</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Houston</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hubbard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Itasca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jackson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kanabec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kandiyohi</x:t>
+  </x:si>
+  <x:si>
     <x:t>20</x:t>
   </x:si>
   <x:si>
-    <x:t>74</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goodhue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hennepin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>183</x:t>
-  </x:si>
-  <x:si>
-    <x:t>231</x:t>
-  </x:si>
-  <x:si>
-    <x:t>277</x:t>
-  </x:si>
-  <x:si>
-    <x:t>372</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>479</x:t>
-  </x:si>
-  <x:si>
-    <x:t>345</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>413</x:t>
-  </x:si>
-  <x:si>
-    <x:t>253</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2836</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Houston</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hubbard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Itasca</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jackson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kanabec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kandiyohi</x:t>
-  </x:si>
-  <x:si>
     <x:t>158</x:t>
   </x:si>
   <x:si>
@@ -409,7 +406,7 @@
     <x:t>45</x:t>
   </x:si>
   <x:si>
-    <x:t>105</x:t>
+    <x:t>107</x:t>
   </x:si>
   <x:si>
     <x:t>Meeker</x:t>
@@ -550,7 +547,13 @@
     <x:t>Scott</x:t>
   </x:si>
   <x:si>
-    <x:t>275</x:t>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>280</x:t>
   </x:si>
   <x:si>
     <x:t>Sherburne</x:t>
@@ -568,7 +571,7 @@
     <x:t>112</x:t>
   </x:si>
   <x:si>
-    <x:t>266</x:t>
+    <x:t>265</x:t>
   </x:si>
   <x:si>
     <x:t>Stearns</x:t>
@@ -613,7 +616,7 @@
     <x:t>51</x:t>
   </x:si>
   <x:si>
-    <x:t>375</x:t>
+    <x:t>384</x:t>
   </x:si>
   <x:si>
     <x:t>Watonwan</x:t>
@@ -629,9 +632,6 @@
   </x:si>
   <x:si>
     <x:t>Wright</x:t>
-  </x:si>
-  <x:si>
-    <x:t>107</x:t>
   </x:si>
   <x:si>
     <x:t>281</x:t>
@@ -2076,7 +2076,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
         <x:v>23</x:v>
@@ -2475,7 +2475,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
         <x:v>23</x:v>
@@ -2520,12 +2520,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U23" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:21">
       <x:c r="A24" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>23</x:v>
@@ -2590,13 +2590,13 @@
     </x:row>
     <x:row r="25" spans="1:21">
       <x:c r="A25" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
         <x:v>98</x:v>
-      </x:c>
-      <x:c r="B25" s="0" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="C25" s="0" t="s">
-        <x:v>100</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
         <x:v>22</x:v>
@@ -2605,7 +2605,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
         <x:v>22</x:v>
@@ -2614,7 +2614,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="J25" s="0" t="s">
         <x:v>52</x:v>
@@ -2623,16 +2623,16 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="L25" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M25" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N25" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="O25" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="P25" s="0" t="s">
         <x:v>31</x:v>
@@ -2641,21 +2641,21 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="R25" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="S25" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="T25" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="S25" s="0" t="s">
+      <x:c r="U25" s="1" t="s">
         <x:v>107</x:v>
-      </x:c>
-      <x:c r="T25" s="0" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="U25" s="1" t="s">
-        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:21">
       <x:c r="A26" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>23</x:v>
@@ -2720,7 +2720,7 @@
     </x:row>
     <x:row r="27" spans="1:21">
       <x:c r="A27" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>23</x:v>
@@ -2735,7 +2735,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
         <x:v>23</x:v>
@@ -2780,12 +2780,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U27" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
       <x:c r="A28" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>22</x:v>
@@ -2845,12 +2845,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U28" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:21">
       <x:c r="A29" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>23</x:v>
@@ -2910,12 +2910,12 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="U29" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:21">
       <x:c r="A30" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>23</x:v>
@@ -2980,7 +2980,7 @@
     </x:row>
     <x:row r="31" spans="1:21">
       <x:c r="A31" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>23</x:v>
@@ -3045,13 +3045,13 @@
     </x:row>
     <x:row r="32" spans="1:21">
       <x:c r="A32" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
         <x:v>23</x:v>
@@ -3105,12 +3105,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U32" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:21">
       <x:c r="A33" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>23</x:v>
@@ -3175,7 +3175,7 @@
     </x:row>
     <x:row r="34" spans="1:21">
       <x:c r="A34" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>23</x:v>
@@ -3240,7 +3240,7 @@
     </x:row>
     <x:row r="35" spans="1:21">
       <x:c r="A35" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>23</x:v>
@@ -3305,7 +3305,7 @@
     </x:row>
     <x:row r="36" spans="1:21">
       <x:c r="A36" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>23</x:v>
@@ -3370,7 +3370,7 @@
     </x:row>
     <x:row r="37" spans="1:21">
       <x:c r="A37" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>22</x:v>
@@ -3430,12 +3430,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U37" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:21">
       <x:c r="A38" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>23</x:v>
@@ -3500,7 +3500,7 @@
     </x:row>
     <x:row r="39" spans="1:21">
       <x:c r="A39" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>23</x:v>
@@ -3565,7 +3565,7 @@
     </x:row>
     <x:row r="40" spans="1:21">
       <x:c r="A40" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>23</x:v>
@@ -3630,7 +3630,7 @@
     </x:row>
     <x:row r="41" spans="1:21">
       <x:c r="A41" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>23</x:v>
@@ -3690,18 +3690,18 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U41" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
       <x:c r="A42" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
         <x:v>23</x:v>
@@ -3728,10 +3728,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L42" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="M42" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="N42" s="0" t="s">
         <x:v>23</x:v>
@@ -3755,12 +3755,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U42" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:21">
       <x:c r="A43" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>23</x:v>
@@ -3825,7 +3825,7 @@
     </x:row>
     <x:row r="44" spans="1:21">
       <x:c r="A44" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>23</x:v>
@@ -3849,7 +3849,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="I44" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="J44" s="0" t="s">
         <x:v>23</x:v>
@@ -3861,7 +3861,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="M44" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="N44" s="0" t="s">
         <x:v>23</x:v>
@@ -3885,12 +3885,12 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="U44" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:21">
       <x:c r="A45" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>23</x:v>
@@ -3950,12 +3950,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U45" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:21">
       <x:c r="A46" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>38</x:v>
@@ -3997,30 +3997,30 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O46" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="P46" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q46" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="R46" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="S46" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="T46" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="U46" s="1" t="s">
         <x:v>138</x:v>
-      </x:c>
-      <x:c r="P46" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="Q46" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="R46" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="S46" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="T46" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="U46" s="1" t="s">
-        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:21">
       <x:c r="A47" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>23</x:v>
@@ -4085,7 +4085,7 @@
     </x:row>
     <x:row r="48" spans="1:21">
       <x:c r="A48" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>22</x:v>
@@ -4150,7 +4150,7 @@
     </x:row>
     <x:row r="49" spans="1:21">
       <x:c r="A49" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>29</x:v>
@@ -4186,7 +4186,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M49" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="N49" s="0" t="s">
         <x:v>22</x:v>
@@ -4210,12 +4210,12 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="U49" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
       <x:c r="A50" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>23</x:v>
@@ -4280,7 +4280,7 @@
     </x:row>
     <x:row r="51" spans="1:21">
       <x:c r="A51" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>45</x:v>
@@ -4295,16 +4295,16 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I51" s="0" t="s">
         <x:v>147</x:v>
-      </x:c>
-      <x:c r="G51" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="H51" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I51" s="0" t="s">
-        <x:v>148</x:v>
       </x:c>
       <x:c r="J51" s="0" t="s">
         <x:v>23</x:v>
@@ -4316,13 +4316,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="M51" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="N51" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="O51" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="P51" s="0" t="s">
         <x:v>29</x:v>
@@ -4340,12 +4340,12 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="U51" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:21">
       <x:c r="A52" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>23</x:v>
@@ -4381,13 +4381,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="M52" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="N52" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="O52" s="0" t="s">
         <x:v>153</x:v>
-      </x:c>
-      <x:c r="N52" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="O52" s="0" t="s">
-        <x:v>154</x:v>
       </x:c>
       <x:c r="P52" s="0" t="s">
         <x:v>34</x:v>
@@ -4405,12 +4405,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U52" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:21">
       <x:c r="A53" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>23</x:v>
@@ -4475,7 +4475,7 @@
     </x:row>
     <x:row r="54" spans="1:21">
       <x:c r="A54" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>23</x:v>
@@ -4511,7 +4511,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M54" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="N54" s="0" t="s">
         <x:v>22</x:v>
@@ -4540,7 +4540,7 @@
     </x:row>
     <x:row r="55" spans="1:21">
       <x:c r="A55" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>23</x:v>
@@ -4600,12 +4600,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U55" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:21">
       <x:c r="A56" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>23</x:v>
@@ -4620,7 +4620,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
         <x:v>23</x:v>
@@ -4641,7 +4641,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M56" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="N56" s="0" t="s">
         <x:v>23</x:v>
@@ -4665,12 +4665,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U56" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
       <x:c r="A57" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>23</x:v>
@@ -4735,10 +4735,10 @@
     </x:row>
     <x:row r="58" spans="1:21">
       <x:c r="A58" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
         <x:v>57</x:v>
@@ -4747,7 +4747,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
         <x:v>63</x:v>
@@ -4759,7 +4759,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I58" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="J58" s="0" t="s">
         <x:v>23</x:v>
@@ -4771,13 +4771,13 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="M58" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="N58" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O58" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="P58" s="0" t="s">
         <x:v>25</x:v>
@@ -4789,18 +4789,18 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="S58" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="T58" s="0" t="s">
         <x:v>167</x:v>
       </x:c>
-      <x:c r="T58" s="0" t="s">
+      <x:c r="U58" s="1" t="s">
         <x:v>168</x:v>
-      </x:c>
-      <x:c r="U58" s="1" t="s">
-        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">
       <x:c r="A59" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>23</x:v>
@@ -4865,22 +4865,22 @@
     </x:row>
     <x:row r="60" spans="1:21">
       <x:c r="A60" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E60" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F60" s="0" t="s">
         <x:v>171</x:v>
-      </x:c>
-      <x:c r="B60" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C60" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D60" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E60" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F60" s="0" t="s">
-        <x:v>172</x:v>
       </x:c>
       <x:c r="G60" s="0" t="s">
         <x:v>22</x:v>
@@ -4901,7 +4901,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M60" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="N60" s="0" t="s">
         <x:v>23</x:v>
@@ -4925,12 +4925,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U60" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">
       <x:c r="A61" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>38</x:v>
@@ -4990,12 +4990,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U61" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">
       <x:c r="A62" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>23</x:v>
@@ -5060,7 +5060,7 @@
     </x:row>
     <x:row r="63" spans="1:21">
       <x:c r="A63" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>23</x:v>
@@ -5125,7 +5125,7 @@
     </x:row>
     <x:row r="64" spans="1:21">
       <x:c r="A64" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>26</x:v>
@@ -5149,7 +5149,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I64" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="J64" s="0" t="s">
         <x:v>23</x:v>
@@ -5158,16 +5158,16 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="L64" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="M64" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="N64" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="O64" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="P64" s="0" t="s">
         <x:v>38</x:v>
@@ -5185,12 +5185,12 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="U64" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
       <x:c r="A65" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>22</x:v>
@@ -5250,12 +5250,12 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="U65" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">
       <x:c r="A66" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>23</x:v>
@@ -5320,19 +5320,19 @@
     </x:row>
     <x:row r="67" spans="1:21">
       <x:c r="A67" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D67" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="E67" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F67" s="0" t="s">
         <x:v>42</x:v>
@@ -5344,7 +5344,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I67" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="J67" s="0" t="s">
         <x:v>23</x:v>
@@ -5356,7 +5356,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="M67" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="N67" s="0" t="s">
         <x:v>23</x:v>
@@ -5380,12 +5380,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U67" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:21">
       <x:c r="A68" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>35</x:v>
@@ -5400,7 +5400,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F68" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G68" s="0" t="s">
         <x:v>23</x:v>
@@ -5421,13 +5421,13 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="M68" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="N68" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="O68" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="P68" s="0" t="s">
         <x:v>38</x:v>
@@ -5439,18 +5439,18 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="S68" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="T68" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="U68" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:21">
       <x:c r="A69" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>23</x:v>
@@ -5515,7 +5515,7 @@
     </x:row>
     <x:row r="70" spans="1:21">
       <x:c r="A70" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>23</x:v>
@@ -5575,12 +5575,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U70" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:21">
       <x:c r="A71" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>23</x:v>
@@ -5645,7 +5645,7 @@
     </x:row>
     <x:row r="72" spans="1:21">
       <x:c r="A72" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>23</x:v>
@@ -5681,7 +5681,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M72" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="N72" s="0" t="s">
         <x:v>23</x:v>
@@ -5710,7 +5710,7 @@
     </x:row>
     <x:row r="73" spans="1:21">
       <x:c r="A73" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>23</x:v>
@@ -5775,7 +5775,7 @@
     </x:row>
     <x:row r="74" spans="1:21">
       <x:c r="A74" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>23</x:v>
@@ -5840,7 +5840,7 @@
     </x:row>
     <x:row r="75" spans="1:21">
       <x:c r="A75" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>23</x:v>
@@ -5905,10 +5905,10 @@
     </x:row>
     <x:row r="76" spans="1:21">
       <x:c r="A76" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
         <x:v>68</x:v>
@@ -5920,7 +5920,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
         <x:v>22</x:v>
@@ -5929,7 +5929,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="I76" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="J76" s="0" t="s">
         <x:v>22</x:v>
@@ -5941,13 +5941,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="M76" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="N76" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="O76" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="P76" s="0" t="s">
         <x:v>38</x:v>
@@ -5959,18 +5959,18 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="S76" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="T76" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="U76" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:21">
       <x:c r="A77" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>23</x:v>
@@ -6035,7 +6035,7 @@
     </x:row>
     <x:row r="78" spans="1:21">
       <x:c r="A78" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>23</x:v>
@@ -6100,7 +6100,7 @@
     </x:row>
     <x:row r="79" spans="1:21">
       <x:c r="A79" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>23</x:v>
@@ -6142,7 +6142,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="O79" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="P79" s="0" t="s">
         <x:v>22</x:v>
@@ -6160,18 +6160,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U79" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:21">
       <x:c r="A80" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
         <x:v>23</x:v>
@@ -6180,7 +6180,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F80" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G80" s="0" t="s">
         <x:v>23</x:v>
@@ -6201,7 +6201,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="M80" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="N80" s="0" t="s">
         <x:v>34</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -310,7 +310,7 @@
     <x:t>184</x:t>
   </x:si>
   <x:si>
-    <x:t>231</x:t>
+    <x:t>232</x:t>
   </x:si>
   <x:si>
     <x:t>277</x:t>
@@ -337,7 +337,7 @@
     <x:t>253</x:t>
   </x:si>
   <x:si>
-    <x:t>2837</x:t>
+    <x:t>2838</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>
@@ -403,235 +403,244 @@
     <x:t>McLeod</x:t>
   </x:si>
   <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>113</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meeker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mille Lacs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Morrison</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Murray</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nicollet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nobles</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Norman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olmsted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>465</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Otter Tail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pennington</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pipestone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Polk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
     <x:t>45</x:t>
   </x:si>
   <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pope</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramsey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>769</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red Lake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Redwood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Renville</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roseau</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scott</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>282</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sherburne</x:t>
+  </x:si>
+  <x:si>
+    <x:t>119</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sibley</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St. Louis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>265</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stearns</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Steele</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stevens</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Swift</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Todd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wabasha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wadena</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waseca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Washington</x:t>
+  </x:si>
+  <x:si>
+    <x:t>108</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>384</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Watonwan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wilkin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Winona</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wright</x:t>
+  </x:si>
+  <x:si>
     <x:t>107</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Meeker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mille Lacs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>152</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Morrison</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mower</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Murray</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nicollet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nobles</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Norman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olmsted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>465</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Otter Tail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pennington</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pipestone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Polk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pope</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ramsey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>769</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Red Lake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Redwood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Renville</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roseau</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scott</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>280</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sherburne</x:t>
-  </x:si>
-  <x:si>
-    <x:t>119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sibley</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St. Louis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>265</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stearns</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>399</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Steele</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stevens</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Swift</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Todd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wabasha</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wadena</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waseca</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Washington</x:t>
-  </x:si>
-  <x:si>
-    <x:t>108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>384</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Watonwan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wilkin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Winona</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wright</x:t>
   </x:si>
   <x:si>
     <x:t>281</x:t>
@@ -3701,7 +3710,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D42" s="0" t="s">
         <x:v>23</x:v>
@@ -3710,7 +3719,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
         <x:v>23</x:v>
@@ -3737,7 +3746,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O42" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="P42" s="0" t="s">
         <x:v>23</x:v>
@@ -4641,7 +4650,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M56" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="N56" s="0" t="s">
         <x:v>23</x:v>
@@ -4665,12 +4674,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U56" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
       <x:c r="A57" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>23</x:v>
@@ -4735,7 +4744,7 @@
     </x:row>
     <x:row r="58" spans="1:21">
       <x:c r="A58" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>137</x:v>
@@ -4750,7 +4759,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G58" s="0" t="s">
         <x:v>22</x:v>
@@ -4759,7 +4768,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I58" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="J58" s="0" t="s">
         <x:v>23</x:v>
@@ -4771,13 +4780,13 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="M58" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="N58" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O58" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="P58" s="0" t="s">
         <x:v>25</x:v>
@@ -4789,18 +4798,18 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="S58" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="T58" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="U58" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">
       <x:c r="A59" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>23</x:v>
@@ -4865,7 +4874,7 @@
     </x:row>
     <x:row r="60" spans="1:21">
       <x:c r="A60" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>23</x:v>
@@ -4880,7 +4889,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F60" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G60" s="0" t="s">
         <x:v>22</x:v>
@@ -4925,12 +4934,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U60" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">
       <x:c r="A61" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>38</x:v>
@@ -4995,7 +5004,7 @@
     </x:row>
     <x:row r="62" spans="1:21">
       <x:c r="A62" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>23</x:v>
@@ -5060,7 +5069,7 @@
     </x:row>
     <x:row r="63" spans="1:21">
       <x:c r="A63" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>23</x:v>
@@ -5125,7 +5134,7 @@
     </x:row>
     <x:row r="64" spans="1:21">
       <x:c r="A64" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>26</x:v>
@@ -5161,13 +5170,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="M64" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="N64" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="O64" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="P64" s="0" t="s">
         <x:v>38</x:v>
@@ -5185,12 +5194,12 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="U64" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
       <x:c r="A65" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>22</x:v>
@@ -5250,12 +5259,12 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="U65" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">
       <x:c r="A66" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>23</x:v>
@@ -5320,7 +5329,7 @@
     </x:row>
     <x:row r="67" spans="1:21">
       <x:c r="A67" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>23</x:v>
@@ -5356,7 +5365,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="M67" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="N67" s="0" t="s">
         <x:v>23</x:v>
@@ -5380,12 +5389,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U67" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:21">
       <x:c r="A68" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>35</x:v>
@@ -5421,13 +5430,13 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="M68" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="N68" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="O68" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="P68" s="0" t="s">
         <x:v>38</x:v>
@@ -5439,18 +5448,18 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="S68" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="T68" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="U68" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:21">
       <x:c r="A69" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>23</x:v>
@@ -5515,7 +5524,7 @@
     </x:row>
     <x:row r="70" spans="1:21">
       <x:c r="A70" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>23</x:v>
@@ -5575,12 +5584,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U70" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:21">
       <x:c r="A71" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>23</x:v>
@@ -5645,7 +5654,7 @@
     </x:row>
     <x:row r="72" spans="1:21">
       <x:c r="A72" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>23</x:v>
@@ -5710,7 +5719,7 @@
     </x:row>
     <x:row r="73" spans="1:21">
       <x:c r="A73" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>23</x:v>
@@ -5775,7 +5784,7 @@
     </x:row>
     <x:row r="74" spans="1:21">
       <x:c r="A74" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>23</x:v>
@@ -5840,7 +5849,7 @@
     </x:row>
     <x:row r="75" spans="1:21">
       <x:c r="A75" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>23</x:v>
@@ -5905,7 +5914,7 @@
     </x:row>
     <x:row r="76" spans="1:21">
       <x:c r="A76" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>62</x:v>
@@ -5941,7 +5950,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="M76" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="N76" s="0" t="s">
         <x:v>31</x:v>
@@ -5959,18 +5968,18 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="S76" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="T76" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="U76" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:21">
       <x:c r="A77" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>23</x:v>
@@ -6035,7 +6044,7 @@
     </x:row>
     <x:row r="78" spans="1:21">
       <x:c r="A78" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>23</x:v>
@@ -6100,7 +6109,7 @@
     </x:row>
     <x:row r="79" spans="1:21">
       <x:c r="A79" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>23</x:v>
@@ -6160,18 +6169,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U79" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:21">
       <x:c r="A80" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
         <x:v>23</x:v>
@@ -6180,7 +6189,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F80" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G80" s="0" t="s">
         <x:v>23</x:v>
@@ -6201,7 +6210,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="M80" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="N80" s="0" t="s">
         <x:v>34</x:v>
@@ -6225,12 +6234,12 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="U80" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:21">
       <x:c r="A81" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>23</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -325,7 +325,7 @@
     <x:t>479</x:t>
   </x:si>
   <x:si>
-    <x:t>345</x:t>
+    <x:t>346</x:t>
   </x:si>
   <x:si>
     <x:t>30</x:t>
@@ -337,7 +337,7 @@
     <x:t>253</x:t>
   </x:si>
   <x:si>
-    <x:t>2838</x:t>
+    <x:t>2839</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>
@@ -370,7 +370,7 @@
     <x:t>20</x:t>
   </x:si>
   <x:si>
-    <x:t>158</x:t>
+    <x:t>163</x:t>
   </x:si>
   <x:si>
     <x:t>Kittson</x:t>
@@ -403,187 +403,181 @@
     <x:t>McLeod</x:t>
   </x:si>
   <x:si>
+    <x:t>122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meeker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mille Lacs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Morrison</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Murray</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nicollet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nobles</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Norman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olmsted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>465</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Otter Tail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pennington</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pipestone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Polk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pope</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramsey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>769</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red Lake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Redwood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Renville</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roseau</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scott</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sherburne</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sibley</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St. Louis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>267</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stearns</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96</x:t>
+  </x:si>
+  <x:si>
     <x:t>46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>113</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Meeker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mille Lacs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>152</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Morrison</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mower</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Murray</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nicollet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nobles</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Norman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olmsted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>465</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Otter Tail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pennington</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pipestone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Polk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pope</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ramsey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>769</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Red Lake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Redwood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Renville</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roseau</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scott</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>282</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sherburne</x:t>
-  </x:si>
-  <x:si>
-    <x:t>119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sibley</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St. Louis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>265</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stearns</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96</x:t>
   </x:si>
   <x:si>
     <x:t>403</x:t>
@@ -2091,7 +2085,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
         <x:v>54</x:v>
@@ -2103,7 +2097,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="J17" s="0" t="s">
         <x:v>23</x:v>
@@ -3078,7 +3072,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I32" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="J32" s="0" t="s">
         <x:v>23</x:v>
@@ -3090,13 +3084,13 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="M32" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="N32" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O32" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="P32" s="0" t="s">
         <x:v>23</x:v>
@@ -3719,13 +3713,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H42" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I42" s="0" t="s">
         <x:v>29</x:v>
@@ -3740,7 +3734,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="M42" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="N42" s="0" t="s">
         <x:v>23</x:v>
@@ -3749,7 +3743,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="P42" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="Q42" s="0" t="s">
         <x:v>22</x:v>
@@ -3764,12 +3758,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U42" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:21">
       <x:c r="A43" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>23</x:v>
@@ -3834,7 +3828,7 @@
     </x:row>
     <x:row r="44" spans="1:21">
       <x:c r="A44" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>23</x:v>
@@ -3894,12 +3888,12 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="U44" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:21">
       <x:c r="A45" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>23</x:v>
@@ -3959,12 +3953,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U45" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:21">
       <x:c r="A46" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>38</x:v>
@@ -4006,30 +4000,30 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O46" s="0" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="P46" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q46" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="R46" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="S46" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="T46" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="U46" s="1" t="s">
         <x:v>137</x:v>
-      </x:c>
-      <x:c r="P46" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="Q46" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="R46" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="S46" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="T46" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="U46" s="1" t="s">
-        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:21">
       <x:c r="A47" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>23</x:v>
@@ -4094,7 +4088,7 @@
     </x:row>
     <x:row r="48" spans="1:21">
       <x:c r="A48" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>22</x:v>
@@ -4159,7 +4153,7 @@
     </x:row>
     <x:row r="49" spans="1:21">
       <x:c r="A49" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>29</x:v>
@@ -4195,7 +4189,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M49" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="N49" s="0" t="s">
         <x:v>22</x:v>
@@ -4219,12 +4213,12 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="U49" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
       <x:c r="A50" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>23</x:v>
@@ -4289,7 +4283,7 @@
     </x:row>
     <x:row r="51" spans="1:21">
       <x:c r="A51" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>45</x:v>
@@ -4304,16 +4298,16 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I51" s="0" t="s">
         <x:v>146</x:v>
-      </x:c>
-      <x:c r="G51" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="H51" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I51" s="0" t="s">
-        <x:v>147</x:v>
       </x:c>
       <x:c r="J51" s="0" t="s">
         <x:v>23</x:v>
@@ -4325,13 +4319,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="M51" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="N51" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="O51" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="P51" s="0" t="s">
         <x:v>29</x:v>
@@ -4349,12 +4343,12 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="U51" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:21">
       <x:c r="A52" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>23</x:v>
@@ -4390,13 +4384,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="M52" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="N52" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="O52" s="0" t="s">
         <x:v>152</x:v>
-      </x:c>
-      <x:c r="N52" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="O52" s="0" t="s">
-        <x:v>153</x:v>
       </x:c>
       <x:c r="P52" s="0" t="s">
         <x:v>34</x:v>
@@ -4414,12 +4408,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U52" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:21">
       <x:c r="A53" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>23</x:v>
@@ -4484,7 +4478,7 @@
     </x:row>
     <x:row r="54" spans="1:21">
       <x:c r="A54" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>23</x:v>
@@ -4520,7 +4514,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M54" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="N54" s="0" t="s">
         <x:v>22</x:v>
@@ -4549,7 +4543,7 @@
     </x:row>
     <x:row r="55" spans="1:21">
       <x:c r="A55" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>23</x:v>
@@ -4609,12 +4603,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U55" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:21">
       <x:c r="A56" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>23</x:v>
@@ -4629,7 +4623,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
         <x:v>23</x:v>
@@ -4650,7 +4644,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M56" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="N56" s="0" t="s">
         <x:v>23</x:v>
@@ -4674,12 +4668,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U56" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
       <x:c r="A57" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>23</x:v>
@@ -4744,10 +4738,10 @@
     </x:row>
     <x:row r="58" spans="1:21">
       <x:c r="A58" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
         <x:v>57</x:v>
@@ -4756,10 +4750,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="G58" s="0" t="s">
         <x:v>22</x:v>
@@ -4768,7 +4762,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I58" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="J58" s="0" t="s">
         <x:v>23</x:v>
@@ -4780,13 +4774,13 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="M58" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="N58" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O58" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="P58" s="0" t="s">
         <x:v>25</x:v>
@@ -4798,18 +4792,18 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="S58" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="T58" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="U58" s="1" t="s">
         <x:v>168</x:v>
-      </x:c>
-      <x:c r="T58" s="0" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="U58" s="1" t="s">
-        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">
       <x:c r="A59" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>23</x:v>
@@ -4874,7 +4868,7 @@
     </x:row>
     <x:row r="60" spans="1:21">
       <x:c r="A60" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>23</x:v>
@@ -4889,7 +4883,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F60" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="G60" s="0" t="s">
         <x:v>22</x:v>
@@ -4910,7 +4904,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M60" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="N60" s="0" t="s">
         <x:v>23</x:v>
@@ -4934,12 +4928,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U60" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">
       <x:c r="A61" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>38</x:v>
@@ -5004,7 +4998,7 @@
     </x:row>
     <x:row r="62" spans="1:21">
       <x:c r="A62" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>23</x:v>
@@ -5069,7 +5063,7 @@
     </x:row>
     <x:row r="63" spans="1:21">
       <x:c r="A63" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>23</x:v>
@@ -5134,7 +5128,7 @@
     </x:row>
     <x:row r="64" spans="1:21">
       <x:c r="A64" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>26</x:v>
@@ -5158,7 +5152,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I64" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="J64" s="0" t="s">
         <x:v>23</x:v>
@@ -5170,13 +5164,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="M64" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="N64" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="O64" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="P64" s="0" t="s">
         <x:v>38</x:v>
@@ -5185,7 +5179,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R64" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="S64" s="0" t="s">
         <x:v>54</x:v>
@@ -5194,12 +5188,12 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="U64" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
       <x:c r="A65" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>22</x:v>
@@ -5241,7 +5235,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="O65" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="P65" s="0" t="s">
         <x:v>23</x:v>
@@ -5253,18 +5247,18 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="S65" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="T65" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="U65" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">
       <x:c r="A66" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>23</x:v>
@@ -5329,13 +5323,13 @@
     </x:row>
     <x:row r="67" spans="1:21">
       <x:c r="A67" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D67" s="0" t="s">
         <x:v>23</x:v>
@@ -5353,7 +5347,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I67" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="J67" s="0" t="s">
         <x:v>23</x:v>
@@ -5365,7 +5359,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="M67" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="N67" s="0" t="s">
         <x:v>23</x:v>
@@ -5383,18 +5377,18 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="S67" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="T67" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U67" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:21">
       <x:c r="A68" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>35</x:v>
@@ -5409,7 +5403,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F68" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G68" s="0" t="s">
         <x:v>23</x:v>
@@ -5430,13 +5424,13 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="M68" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="N68" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="O68" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="P68" s="0" t="s">
         <x:v>38</x:v>
@@ -5448,18 +5442,18 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="S68" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="T68" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="U68" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:21">
       <x:c r="A69" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>23</x:v>
@@ -5524,7 +5518,7 @@
     </x:row>
     <x:row r="70" spans="1:21">
       <x:c r="A70" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>23</x:v>
@@ -5584,12 +5578,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U70" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:21">
       <x:c r="A71" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>23</x:v>
@@ -5654,7 +5648,7 @@
     </x:row>
     <x:row r="72" spans="1:21">
       <x:c r="A72" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>23</x:v>
@@ -5719,7 +5713,7 @@
     </x:row>
     <x:row r="73" spans="1:21">
       <x:c r="A73" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>23</x:v>
@@ -5784,7 +5778,7 @@
     </x:row>
     <x:row r="74" spans="1:21">
       <x:c r="A74" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>23</x:v>
@@ -5849,7 +5843,7 @@
     </x:row>
     <x:row r="75" spans="1:21">
       <x:c r="A75" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>23</x:v>
@@ -5914,7 +5908,7 @@
     </x:row>
     <x:row r="76" spans="1:21">
       <x:c r="A76" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>62</x:v>
@@ -5929,7 +5923,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
         <x:v>22</x:v>
@@ -5950,7 +5944,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="M76" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="N76" s="0" t="s">
         <x:v>31</x:v>
@@ -5968,18 +5962,18 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="S76" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="T76" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="U76" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:21">
       <x:c r="A77" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>23</x:v>
@@ -6044,7 +6038,7 @@
     </x:row>
     <x:row r="78" spans="1:21">
       <x:c r="A78" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>23</x:v>
@@ -6109,7 +6103,7 @@
     </x:row>
     <x:row r="79" spans="1:21">
       <x:c r="A79" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>23</x:v>
@@ -6169,18 +6163,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U79" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:21">
       <x:c r="A80" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
         <x:v>23</x:v>
@@ -6189,7 +6183,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F80" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G80" s="0" t="s">
         <x:v>23</x:v>
@@ -6210,7 +6204,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="M80" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="N80" s="0" t="s">
         <x:v>34</x:v>
@@ -6234,12 +6228,12 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="U80" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:21">
       <x:c r="A81" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>23</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -106,535 +106,538 @@
     <x:t>8</x:t>
   </x:si>
   <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>455</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Becker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>156</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beltrami</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Benton</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue Earth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brown</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carlton</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carver</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cass</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chisago</x:t>
+  </x:si>
+  <x:si>
     <x:t>29</x:t>
   </x:si>
   <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>245</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
+    <x:t>Clay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clearwater</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cottonwood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crow Wing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dakota</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dodge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Douglas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faribault</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fillmore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Freeborn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goodhue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hennepin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>232</x:t>
+  </x:si>
+  <x:si>
+    <x:t>278</x:t>
+  </x:si>
+  <x:si>
+    <x:t>372</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>479</x:t>
+  </x:si>
+  <x:si>
+    <x:t>346</x:t>
+  </x:si>
+  <x:si>
+    <x:t>414</x:t>
+  </x:si>
+  <x:si>
+    <x:t>253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2841</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Houston</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hubbard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Itasca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jackson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kanabec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kandiyohi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kittson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koochiching</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lac qui Parle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lyon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahnomen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Martin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>McLeod</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meeker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mille Lacs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Morrison</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Murray</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nicollet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nobles</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Norman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olmsted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>465</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Otter Tail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pennington</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pipestone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Polk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pope</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramsey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>770</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red Lake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Redwood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Renville</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roseau</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scott</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>287</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sherburne</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sibley</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St. Louis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>267</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stearns</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>403</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Steele</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stevens</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Swift</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Todd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wabasha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wadena</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waseca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Washington</x:t>
+  </x:si>
+  <x:si>
+    <x:t>108</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>384</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Watonwan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wilkin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Winona</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wright</x:t>
+  </x:si>
+  <x:si>
+    <x:t>107</x:t>
   </x:si>
   <x:si>
     <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>453</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Becker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>156</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beltrami</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Benton</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue Earth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57</x:t>
-  </x:si>
-  <x:si>
-    <x:t>165</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brown</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carlton</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carver</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cass</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chisago</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>228</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clearwater</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cottonwood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crow Wing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>210</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dakota</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>183</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dodge</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Douglas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faribault</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fillmore</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Freeborn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goodhue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hennepin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>232</x:t>
-  </x:si>
-  <x:si>
-    <x:t>277</x:t>
-  </x:si>
-  <x:si>
-    <x:t>372</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>479</x:t>
-  </x:si>
-  <x:si>
-    <x:t>346</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>413</x:t>
-  </x:si>
-  <x:si>
-    <x:t>253</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2839</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Houston</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hubbard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Itasca</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jackson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kanabec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kandiyohi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kittson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Koochiching</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lac qui Parle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lincoln</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lyon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahnomen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Martin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>McLeod</x:t>
-  </x:si>
-  <x:si>
-    <x:t>122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Meeker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mille Lacs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>152</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Morrison</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mower</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Murray</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nicollet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nobles</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Norman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olmsted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>465</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Otter Tail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pennington</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pipestone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Polk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pope</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ramsey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>769</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Red Lake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Redwood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Renville</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roseau</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scott</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>283</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sherburne</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sibley</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St. Louis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>267</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stearns</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>403</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Steele</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stevens</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Swift</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Todd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wabasha</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wadena</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waseca</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Washington</x:t>
-  </x:si>
-  <x:si>
-    <x:t>108</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>384</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Watonwan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wilkin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Winona</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wright</x:t>
-  </x:si>
-  <x:si>
-    <x:t>107</x:t>
   </x:si>
   <x:si>
     <x:t>281</x:t>
@@ -1808,12 +1811,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U12" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:21">
       <x:c r="A13" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>24</x:v>
@@ -1852,10 +1855,10 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="N13" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O13" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="P13" s="0" t="s">
         <x:v>22</x:v>
@@ -1873,12 +1876,12 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="U13" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:21">
       <x:c r="A14" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>23</x:v>
@@ -1943,7 +1946,7 @@
     </x:row>
     <x:row r="15" spans="1:21">
       <x:c r="A15" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>23</x:v>
@@ -2008,7 +2011,7 @@
     </x:row>
     <x:row r="16" spans="1:21">
       <x:c r="A16" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>38</x:v>
@@ -2044,7 +2047,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="M16" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N16" s="0" t="s">
         <x:v>22</x:v>
@@ -2062,18 +2065,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S16" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="T16" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U16" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:21">
       <x:c r="A17" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>34</x:v>
@@ -2115,7 +2118,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="O17" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="P17" s="0" t="s">
         <x:v>22</x:v>
@@ -2130,15 +2133,15 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="T17" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="U17" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:21">
       <x:c r="A18" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>23</x:v>
@@ -2203,7 +2206,7 @@
     </x:row>
     <x:row r="19" spans="1:21">
       <x:c r="A19" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>23</x:v>
@@ -2239,7 +2242,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M19" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N19" s="0" t="s">
         <x:v>38</x:v>
@@ -2263,12 +2266,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U19" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:21">
       <x:c r="A20" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>23</x:v>
@@ -2333,7 +2336,7 @@
     </x:row>
     <x:row r="21" spans="1:21">
       <x:c r="A21" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>23</x:v>
@@ -2398,7 +2401,7 @@
     </x:row>
     <x:row r="22" spans="1:21">
       <x:c r="A22" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>23</x:v>
@@ -2413,7 +2416,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
         <x:v>23</x:v>
@@ -2434,7 +2437,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M22" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="N22" s="0" t="s">
         <x:v>23</x:v>
@@ -2458,12 +2461,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U22" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:21">
       <x:c r="A23" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>23</x:v>
@@ -2478,7 +2481,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
         <x:v>23</x:v>
@@ -2523,12 +2526,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U23" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:21">
       <x:c r="A24" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>23</x:v>
@@ -2593,13 +2596,13 @@
     </x:row>
     <x:row r="25" spans="1:21">
       <x:c r="A25" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
         <x:v>22</x:v>
@@ -2608,7 +2611,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
         <x:v>22</x:v>
@@ -2617,7 +2620,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="J25" s="0" t="s">
         <x:v>52</x:v>
@@ -2626,16 +2629,16 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="L25" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="M25" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="N25" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="O25" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="P25" s="0" t="s">
         <x:v>31</x:v>
@@ -2644,7 +2647,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="R25" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="S25" s="0" t="s">
         <x:v>105</x:v>
@@ -2738,7 +2741,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
         <x:v>23</x:v>
@@ -2809,7 +2812,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="H28" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I28" s="0" t="s">
         <x:v>34</x:v>
@@ -2848,7 +2851,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U28" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:21">
@@ -2889,7 +2892,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M29" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="N29" s="0" t="s">
         <x:v>26</x:v>
@@ -3693,7 +3696,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U41" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
@@ -3713,7 +3716,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
         <x:v>23</x:v>
@@ -3734,7 +3737,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="M42" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="N42" s="0" t="s">
         <x:v>23</x:v>
@@ -3749,7 +3752,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R42" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="S42" s="0" t="s">
         <x:v>38</x:v>
@@ -3935,7 +3938,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O45" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="P45" s="0" t="s">
         <x:v>23</x:v>
@@ -3973,7 +3976,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F46" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
         <x:v>23</x:v>
@@ -3982,7 +3985,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I46" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="J46" s="0" t="s">
         <x:v>23</x:v>
@@ -4000,30 +4003,30 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O46" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="P46" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q46" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="R46" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="S46" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="T46" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="U46" s="1" t="s">
         <x:v>136</x:v>
-      </x:c>
-      <x:c r="P46" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="Q46" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="R46" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="S46" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="T46" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="U46" s="1" t="s">
-        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:21">
       <x:c r="A47" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>23</x:v>
@@ -4088,7 +4091,7 @@
     </x:row>
     <x:row r="48" spans="1:21">
       <x:c r="A48" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>22</x:v>
@@ -4153,7 +4156,7 @@
     </x:row>
     <x:row r="49" spans="1:21">
       <x:c r="A49" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>29</x:v>
@@ -4189,7 +4192,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M49" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="N49" s="0" t="s">
         <x:v>22</x:v>
@@ -4213,12 +4216,12 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="U49" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
       <x:c r="A50" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>23</x:v>
@@ -4283,13 +4286,13 @@
     </x:row>
     <x:row r="51" spans="1:21">
       <x:c r="A51" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
         <x:v>23</x:v>
@@ -4298,16 +4301,16 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I51" s="0" t="s">
         <x:v>145</x:v>
-      </x:c>
-      <x:c r="G51" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="H51" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I51" s="0" t="s">
-        <x:v>146</x:v>
       </x:c>
       <x:c r="J51" s="0" t="s">
         <x:v>23</x:v>
@@ -4319,13 +4322,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="M51" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="N51" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="O51" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="P51" s="0" t="s">
         <x:v>29</x:v>
@@ -4343,12 +4346,12 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="U51" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:21">
       <x:c r="A52" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>23</x:v>
@@ -4384,13 +4387,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="M52" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="N52" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="O52" s="0" t="s">
         <x:v>151</x:v>
-      </x:c>
-      <x:c r="N52" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="O52" s="0" t="s">
-        <x:v>152</x:v>
       </x:c>
       <x:c r="P52" s="0" t="s">
         <x:v>34</x:v>
@@ -4408,12 +4411,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U52" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:21">
       <x:c r="A53" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>23</x:v>
@@ -4478,7 +4481,7 @@
     </x:row>
     <x:row r="54" spans="1:21">
       <x:c r="A54" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>23</x:v>
@@ -4514,7 +4517,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M54" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="N54" s="0" t="s">
         <x:v>22</x:v>
@@ -4543,7 +4546,7 @@
     </x:row>
     <x:row r="55" spans="1:21">
       <x:c r="A55" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>23</x:v>
@@ -4603,12 +4606,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U55" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:21">
       <x:c r="A56" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>23</x:v>
@@ -4623,7 +4626,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
         <x:v>23</x:v>
@@ -4644,7 +4647,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M56" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="N56" s="0" t="s">
         <x:v>23</x:v>
@@ -4668,12 +4671,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U56" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
       <x:c r="A57" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>23</x:v>
@@ -4738,10 +4741,10 @@
     </x:row>
     <x:row r="58" spans="1:21">
       <x:c r="A58" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
         <x:v>57</x:v>
@@ -4750,10 +4753,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="G58" s="0" t="s">
         <x:v>22</x:v>
@@ -4762,7 +4765,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I58" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="J58" s="0" t="s">
         <x:v>23</x:v>
@@ -4774,13 +4777,13 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="M58" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="N58" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O58" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="P58" s="0" t="s">
         <x:v>25</x:v>
@@ -4904,7 +4907,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M60" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="N60" s="0" t="s">
         <x:v>23</x:v>
@@ -4993,7 +4996,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U61" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:21">
@@ -5152,13 +5155,13 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I64" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="J64" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="K64" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="L64" s="0" t="s">
         <x:v>37</x:v>
@@ -5235,7 +5238,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="O65" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="P65" s="0" t="s">
         <x:v>23</x:v>
@@ -5253,7 +5256,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="U65" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">
@@ -5347,7 +5350,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I67" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="J67" s="0" t="s">
         <x:v>23</x:v>
@@ -5708,7 +5711,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U72" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:21">
@@ -5923,7 +5926,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
         <x:v>22</x:v>
@@ -5932,7 +5935,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="I76" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J76" s="0" t="s">
         <x:v>22</x:v>
@@ -6222,18 +6225,18 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="S80" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="T80" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="U80" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:21">
       <x:c r="A81" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>23</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -310,10 +310,10 @@
     <x:t>Hennepin</x:t>
   </x:si>
   <x:si>
-    <x:t>184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>232</x:t>
+    <x:t>185</x:t>
+  </x:si>
+  <x:si>
+    <x:t>233</x:t>
   </x:si>
   <x:si>
     <x:t>278</x:t>
@@ -337,7 +337,7 @@
     <x:t>253</x:t>
   </x:si>
   <x:si>
-    <x:t>2841</x:t>
+    <x:t>2843</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>
@@ -355,63 +355,69 @@
     <x:t>Itasca</x:t>
   </x:si>
   <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jackson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kanabec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kandiyohi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kittson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koochiching</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lac qui Parle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lyon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahnomen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Martin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>McLeod</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meeker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mille Lacs</x:t>
+  </x:si>
+  <x:si>
     <x:t>65</x:t>
   </x:si>
   <x:si>
-    <x:t>Jackson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kanabec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kandiyohi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kittson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Koochiching</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lac qui Parle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lincoln</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lyon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahnomen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Martin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>McLeod</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Meeker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mille Lacs</x:t>
-  </x:si>
-  <x:si>
     <x:t>152</x:t>
   </x:si>
   <x:si>
@@ -490,9 +496,6 @@
     <x:t>Polk</x:t>
   </x:si>
   <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
     <x:t>45</x:t>
   </x:si>
   <x:si>
@@ -532,9 +535,6 @@
     <x:t>32</x:t>
   </x:si>
   <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
     <x:t>Renville</x:t>
   </x:si>
   <x:si>
@@ -613,10 +613,10 @@
     <x:t>108</x:t>
   </x:si>
   <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>384</x:t>
+    <x:t>53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>386</x:t>
   </x:si>
   <x:si>
     <x:t>Watonwan</x:t>
@@ -2892,7 +2892,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M29" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="N29" s="0" t="s">
         <x:v>26</x:v>
@@ -2910,18 +2910,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S29" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="T29" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="U29" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:21">
       <x:c r="A30" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>23</x:v>
@@ -2986,7 +2986,7 @@
     </x:row>
     <x:row r="31" spans="1:21">
       <x:c r="A31" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>23</x:v>
@@ -3051,13 +3051,13 @@
     </x:row>
     <x:row r="32" spans="1:21">
       <x:c r="A32" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
         <x:v>23</x:v>
@@ -3093,7 +3093,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O32" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="P32" s="0" t="s">
         <x:v>23</x:v>
@@ -3111,12 +3111,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U32" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:21">
       <x:c r="A33" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>23</x:v>
@@ -3181,7 +3181,7 @@
     </x:row>
     <x:row r="34" spans="1:21">
       <x:c r="A34" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>23</x:v>
@@ -3246,7 +3246,7 @@
     </x:row>
     <x:row r="35" spans="1:21">
       <x:c r="A35" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>23</x:v>
@@ -3311,7 +3311,7 @@
     </x:row>
     <x:row r="36" spans="1:21">
       <x:c r="A36" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>23</x:v>
@@ -3376,7 +3376,7 @@
     </x:row>
     <x:row r="37" spans="1:21">
       <x:c r="A37" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>22</x:v>
@@ -3436,12 +3436,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U37" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:21">
       <x:c r="A38" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>23</x:v>
@@ -3506,7 +3506,7 @@
     </x:row>
     <x:row r="39" spans="1:21">
       <x:c r="A39" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>23</x:v>
@@ -3571,7 +3571,7 @@
     </x:row>
     <x:row r="40" spans="1:21">
       <x:c r="A40" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>23</x:v>
@@ -3636,7 +3636,7 @@
     </x:row>
     <x:row r="41" spans="1:21">
       <x:c r="A41" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>23</x:v>
@@ -3701,7 +3701,7 @@
     </x:row>
     <x:row r="42" spans="1:21">
       <x:c r="A42" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>38</x:v>
@@ -3761,12 +3761,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U42" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:21">
       <x:c r="A43" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>23</x:v>
@@ -3831,7 +3831,7 @@
     </x:row>
     <x:row r="44" spans="1:21">
       <x:c r="A44" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>23</x:v>
@@ -3855,7 +3855,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="I44" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="J44" s="0" t="s">
         <x:v>23</x:v>
@@ -3867,7 +3867,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="M44" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="N44" s="0" t="s">
         <x:v>23</x:v>
@@ -3891,12 +3891,12 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="U44" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:21">
       <x:c r="A45" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>23</x:v>
@@ -3956,12 +3956,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U45" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:21">
       <x:c r="A46" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>38</x:v>
@@ -4021,12 +4021,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U46" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:21">
       <x:c r="A47" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>23</x:v>
@@ -4091,7 +4091,7 @@
     </x:row>
     <x:row r="48" spans="1:21">
       <x:c r="A48" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>22</x:v>
@@ -4156,7 +4156,7 @@
     </x:row>
     <x:row r="49" spans="1:21">
       <x:c r="A49" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>29</x:v>
@@ -4192,7 +4192,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M49" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="N49" s="0" t="s">
         <x:v>22</x:v>
@@ -4216,12 +4216,12 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="U49" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
       <x:c r="A50" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>23</x:v>
@@ -4286,7 +4286,7 @@
     </x:row>
     <x:row r="51" spans="1:21">
       <x:c r="A51" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>45</x:v>
@@ -4301,7 +4301,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
         <x:v>38</x:v>
@@ -4310,7 +4310,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I51" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="J51" s="0" t="s">
         <x:v>23</x:v>
@@ -4322,13 +4322,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="M51" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="N51" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="O51" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="P51" s="0" t="s">
         <x:v>29</x:v>
@@ -4346,12 +4346,12 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="U51" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:21">
       <x:c r="A52" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>23</x:v>
@@ -4387,13 +4387,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="M52" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="N52" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O52" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="P52" s="0" t="s">
         <x:v>34</x:v>
@@ -4411,12 +4411,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U52" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:21">
       <x:c r="A53" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>23</x:v>
@@ -4481,7 +4481,7 @@
     </x:row>
     <x:row r="54" spans="1:21">
       <x:c r="A54" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>23</x:v>
@@ -4517,7 +4517,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M54" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="N54" s="0" t="s">
         <x:v>22</x:v>
@@ -4546,7 +4546,7 @@
     </x:row>
     <x:row r="55" spans="1:21">
       <x:c r="A55" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>23</x:v>
@@ -4606,12 +4606,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U55" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:21">
       <x:c r="A56" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>23</x:v>
@@ -4626,7 +4626,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
         <x:v>23</x:v>
@@ -4647,7 +4647,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M56" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="N56" s="0" t="s">
         <x:v>23</x:v>
@@ -4671,12 +4671,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U56" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
       <x:c r="A57" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>23</x:v>
@@ -4741,7 +4741,7 @@
     </x:row>
     <x:row r="58" spans="1:21">
       <x:c r="A58" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>39</x:v>
@@ -4753,10 +4753,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="G58" s="0" t="s">
         <x:v>22</x:v>
@@ -4765,7 +4765,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I58" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="J58" s="0" t="s">
         <x:v>23</x:v>
@@ -4777,13 +4777,13 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="M58" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="N58" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O58" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="P58" s="0" t="s">
         <x:v>25</x:v>
@@ -4795,18 +4795,18 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="S58" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="T58" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="U58" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">
       <x:c r="A59" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>23</x:v>
@@ -4871,7 +4871,7 @@
     </x:row>
     <x:row r="60" spans="1:21">
       <x:c r="A60" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>23</x:v>
@@ -4886,7 +4886,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F60" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="G60" s="0" t="s">
         <x:v>22</x:v>
@@ -4907,7 +4907,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M60" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="N60" s="0" t="s">
         <x:v>23</x:v>
@@ -4931,7 +4931,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U60" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">
@@ -5155,7 +5155,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I64" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="J64" s="0" t="s">
         <x:v>38</x:v>
@@ -5350,7 +5350,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I67" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="J67" s="0" t="s">
         <x:v>23</x:v>
@@ -5406,7 +5406,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F68" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G68" s="0" t="s">
         <x:v>23</x:v>
@@ -5427,7 +5427,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="M68" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="N68" s="0" t="s">
         <x:v>24</x:v>
@@ -5687,7 +5687,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M72" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="N72" s="0" t="s">
         <x:v>23</x:v>
@@ -5926,7 +5926,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
         <x:v>22</x:v>
@@ -6148,7 +6148,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="O79" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="P79" s="0" t="s">
         <x:v>22</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -319,7 +319,7 @@
     <x:t>278</x:t>
   </x:si>
   <x:si>
-    <x:t>372</x:t>
+    <x:t>371</x:t>
   </x:si>
   <x:si>
     <x:t>47</x:t>
@@ -337,7 +337,7 @@
     <x:t>253</x:t>
   </x:si>
   <x:si>
-    <x:t>2843</x:t>
+    <x:t>2842</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -280,283 +280,289 @@
     <x:t>44</x:t>
   </x:si>
   <x:si>
+    <x:t>122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faribault</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fillmore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Freeborn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goodhue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hennepin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>185</x:t>
+  </x:si>
+  <x:si>
+    <x:t>233</x:t>
+  </x:si>
+  <x:si>
+    <x:t>278</x:t>
+  </x:si>
+  <x:si>
+    <x:t>371</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>479</x:t>
+  </x:si>
+  <x:si>
+    <x:t>346</x:t>
+  </x:si>
+  <x:si>
+    <x:t>414</x:t>
+  </x:si>
+  <x:si>
+    <x:t>253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2842</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Houston</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hubbard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Itasca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jackson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kanabec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kandiyohi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kittson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koochiching</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lac qui Parle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lyon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahnomen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Martin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>McLeod</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meeker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mille Lacs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Morrison</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Murray</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nicollet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nobles</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Norman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olmsted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>465</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Otter Tail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pennington</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pipestone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Polk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pope</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramsey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>770</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red Lake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Redwood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Renville</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roseau</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scott</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>286</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sherburne</x:t>
+  </x:si>
+  <x:si>
     <x:t>121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faribault</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fillmore</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Freeborn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goodhue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hennepin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>185</x:t>
-  </x:si>
-  <x:si>
-    <x:t>233</x:t>
-  </x:si>
-  <x:si>
-    <x:t>278</x:t>
-  </x:si>
-  <x:si>
-    <x:t>371</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>479</x:t>
-  </x:si>
-  <x:si>
-    <x:t>346</x:t>
-  </x:si>
-  <x:si>
-    <x:t>414</x:t>
-  </x:si>
-  <x:si>
-    <x:t>253</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2842</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Houston</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hubbard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Itasca</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jackson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kanabec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kandiyohi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kittson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Koochiching</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lac qui Parle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lincoln</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lyon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahnomen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Martin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>McLeod</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Meeker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mille Lacs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>152</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Morrison</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mower</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Murray</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nicollet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nobles</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Norman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olmsted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>465</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Otter Tail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pennington</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pipestone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Polk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pope</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ramsey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>164</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>770</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Red Lake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Redwood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Renville</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roseau</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scott</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>287</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sherburne</x:t>
   </x:si>
   <x:si>
     <x:t>Sibley</x:t>
@@ -2221,7 +2227,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
         <x:v>23</x:v>
@@ -4747,7 +4753,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
         <x:v>23</x:v>
@@ -4756,7 +4762,7 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G58" s="0" t="s">
         <x:v>22</x:v>
@@ -4765,7 +4771,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I58" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="J58" s="0" t="s">
         <x:v>23</x:v>
@@ -4777,13 +4783,13 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="M58" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N58" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O58" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="P58" s="0" t="s">
         <x:v>25</x:v>
@@ -4795,18 +4801,18 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="S58" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="T58" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="U58" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">
       <x:c r="A59" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>23</x:v>
@@ -4871,7 +4877,7 @@
     </x:row>
     <x:row r="60" spans="1:21">
       <x:c r="A60" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>23</x:v>
@@ -4886,7 +4892,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F60" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G60" s="0" t="s">
         <x:v>22</x:v>
@@ -4936,7 +4942,7 @@
     </x:row>
     <x:row r="61" spans="1:21">
       <x:c r="A61" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>38</x:v>
@@ -5001,7 +5007,7 @@
     </x:row>
     <x:row r="62" spans="1:21">
       <x:c r="A62" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>23</x:v>
@@ -5066,7 +5072,7 @@
     </x:row>
     <x:row r="63" spans="1:21">
       <x:c r="A63" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>23</x:v>
@@ -5131,13 +5137,13 @@
     </x:row>
     <x:row r="64" spans="1:21">
       <x:c r="A64" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
         <x:v>23</x:v>
@@ -5167,13 +5173,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="M64" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="N64" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="O64" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="P64" s="0" t="s">
         <x:v>38</x:v>
@@ -5191,12 +5197,12 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="U64" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
       <x:c r="A65" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>22</x:v>
@@ -5256,12 +5262,12 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="U65" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">
       <x:c r="A66" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>23</x:v>
@@ -5326,7 +5332,7 @@
     </x:row>
     <x:row r="67" spans="1:21">
       <x:c r="A67" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>23</x:v>
@@ -5362,7 +5368,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="M67" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="N67" s="0" t="s">
         <x:v>23</x:v>
@@ -5386,12 +5392,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U67" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:21">
       <x:c r="A68" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>35</x:v>
@@ -5427,13 +5433,13 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="M68" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="N68" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="O68" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="P68" s="0" t="s">
         <x:v>38</x:v>
@@ -5445,18 +5451,18 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="S68" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="T68" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="U68" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:21">
       <x:c r="A69" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>23</x:v>
@@ -5521,7 +5527,7 @@
     </x:row>
     <x:row r="70" spans="1:21">
       <x:c r="A70" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>23</x:v>
@@ -5581,12 +5587,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U70" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:21">
       <x:c r="A71" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>23</x:v>
@@ -5651,7 +5657,7 @@
     </x:row>
     <x:row r="72" spans="1:21">
       <x:c r="A72" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>23</x:v>
@@ -5716,7 +5722,7 @@
     </x:row>
     <x:row r="73" spans="1:21">
       <x:c r="A73" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>23</x:v>
@@ -5781,7 +5787,7 @@
     </x:row>
     <x:row r="74" spans="1:21">
       <x:c r="A74" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>23</x:v>
@@ -5846,7 +5852,7 @@
     </x:row>
     <x:row r="75" spans="1:21">
       <x:c r="A75" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>23</x:v>
@@ -5911,7 +5917,7 @@
     </x:row>
     <x:row r="76" spans="1:21">
       <x:c r="A76" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>62</x:v>
@@ -5947,7 +5953,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="M76" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="N76" s="0" t="s">
         <x:v>31</x:v>
@@ -5965,18 +5971,18 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="S76" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="T76" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
       <x:c r="U76" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:21">
       <x:c r="A77" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>23</x:v>
@@ -6041,7 +6047,7 @@
     </x:row>
     <x:row r="78" spans="1:21">
       <x:c r="A78" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>23</x:v>
@@ -6106,7 +6112,7 @@
     </x:row>
     <x:row r="79" spans="1:21">
       <x:c r="A79" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>23</x:v>
@@ -6166,18 +6172,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U79" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:21">
       <x:c r="A80" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
         <x:v>23</x:v>
@@ -6186,7 +6192,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="F80" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G80" s="0" t="s">
         <x:v>23</x:v>
@@ -6207,7 +6213,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="M80" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="N80" s="0" t="s">
         <x:v>34</x:v>
@@ -6225,18 +6231,18 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="S80" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="T80" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="U80" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:21">
       <x:c r="A81" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>23</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -313,13 +313,13 @@
     <x:t>185</x:t>
   </x:si>
   <x:si>
-    <x:t>233</x:t>
+    <x:t>234</x:t>
   </x:si>
   <x:si>
     <x:t>278</x:t>
   </x:si>
   <x:si>
-    <x:t>371</x:t>
+    <x:t>372</x:t>
   </x:si>
   <x:si>
     <x:t>47</x:t>
@@ -337,7 +337,7 @@
     <x:t>253</x:t>
   </x:si>
   <x:si>
-    <x:t>2842</x:t>
+    <x:t>2844</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -136,7 +136,10 @@
     <x:t>38</x:t>
   </x:si>
   <x:si>
-    <x:t>455</x:t>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>456</x:t>
   </x:si>
   <x:si>
     <x:t>Becker</x:t>
@@ -163,10 +166,13 @@
     <x:t>14</x:t>
   </x:si>
   <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
     <x:t>15</x:t>
   </x:si>
   <x:si>
-    <x:t>101</x:t>
+    <x:t>102</x:t>
   </x:si>
   <x:si>
     <x:t>Benton</x:t>
@@ -202,9 +208,6 @@
     <x:t>Carlton</x:t>
   </x:si>
   <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
     <x:t>78</x:t>
   </x:si>
   <x:si>
@@ -319,25 +322,28 @@
     <x:t>278</x:t>
   </x:si>
   <x:si>
-    <x:t>372</x:t>
+    <x:t>100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>371</x:t>
   </x:si>
   <x:si>
     <x:t>47</x:t>
   </x:si>
   <x:si>
-    <x:t>479</x:t>
-  </x:si>
-  <x:si>
-    <x:t>346</x:t>
-  </x:si>
-  <x:si>
-    <x:t>414</x:t>
+    <x:t>480</x:t>
+  </x:si>
+  <x:si>
+    <x:t>345</x:t>
+  </x:si>
+  <x:si>
+    <x:t>417</x:t>
   </x:si>
   <x:si>
     <x:t>253</x:t>
   </x:si>
   <x:si>
-    <x:t>2844</x:t>
+    <x:t>2845</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>
@@ -403,6 +409,9 @@
     <x:t>Martin</x:t>
   </x:si>
   <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
     <x:t>McLeod</x:t>
   </x:si>
   <x:si>
@@ -418,7 +427,7 @@
     <x:t>65</x:t>
   </x:si>
   <x:si>
-    <x:t>152</x:t>
+    <x:t>153</x:t>
   </x:si>
   <x:si>
     <x:t>Morrison</x:t>
@@ -472,12 +481,6 @@
     <x:t>Otter Tail</x:t>
   </x:si>
   <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
     <x:t>86</x:t>
   </x:si>
   <x:si>
@@ -515,9 +518,6 @@
   </x:si>
   <x:si>
     <x:t>98</x:t>
-  </x:si>
-  <x:si>
-    <x:t>102</x:t>
   </x:si>
   <x:si>
     <x:t>77</x:t>
@@ -1229,15 +1229,15 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="T3" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="U3" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:21">
       <x:c r="A4" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>38</x:v>
@@ -1249,7 +1249,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
         <x:v>27</x:v>
@@ -1273,7 +1273,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M4" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="N4" s="0" t="s">
         <x:v>23</x:v>
@@ -1291,18 +1291,18 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="S4" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="T4" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="U4" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:21">
       <x:c r="A5" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>38</x:v>
@@ -1317,7 +1317,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
         <x:v>22</x:v>
@@ -1326,7 +1326,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="J5" s="0" t="s">
         <x:v>23</x:v>
@@ -1344,7 +1344,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="O5" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="P5" s="0" t="s">
         <x:v>23</x:v>
@@ -1356,18 +1356,18 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="S5" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="T5" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="U5" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:21">
       <x:c r="A6" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>23</x:v>
@@ -1403,7 +1403,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M6" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N6" s="0" t="s">
         <x:v>23</x:v>
@@ -1427,18 +1427,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U6" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:21">
       <x:c r="A7" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>23</x:v>
@@ -1447,7 +1447,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
         <x:v>22</x:v>
@@ -1456,7 +1456,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="J7" s="0" t="s">
         <x:v>22</x:v>
@@ -1468,7 +1468,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="M7" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="N7" s="0" t="s">
         <x:v>23</x:v>
@@ -1492,12 +1492,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U7" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:21">
       <x:c r="A8" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>23</x:v>
@@ -1512,7 +1512,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
         <x:v>23</x:v>
@@ -1557,12 +1557,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U8" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:21">
       <x:c r="A9" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>22</x:v>
@@ -1586,7 +1586,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="J9" s="0" t="s">
         <x:v>23</x:v>
@@ -1598,7 +1598,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M9" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="N9" s="0" t="s">
         <x:v>23</x:v>
@@ -1622,12 +1622,12 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="U9" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:21">
       <x:c r="A10" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>38</x:v>
@@ -1642,7 +1642,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
         <x:v>23</x:v>
@@ -1651,7 +1651,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J10" s="0" t="s">
         <x:v>23</x:v>
@@ -1663,13 +1663,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="M10" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="N10" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="O10" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="P10" s="0" t="s">
         <x:v>23</x:v>
@@ -1687,12 +1687,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U10" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:21">
       <x:c r="A11" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>23</x:v>
@@ -1728,7 +1728,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M11" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="N11" s="0" t="s">
         <x:v>25</x:v>
@@ -1746,18 +1746,18 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="S11" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="T11" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="U11" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:21">
       <x:c r="A12" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>23</x:v>
@@ -1799,7 +1799,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O12" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P12" s="0" t="s">
         <x:v>23</x:v>
@@ -1817,39 +1817,39 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U12" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:21">
       <x:c r="A13" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F13" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="J13" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="K13" s="0" t="s">
         <x:v>23</x:v>
@@ -1858,19 +1858,19 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="M13" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N13" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="O13" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="P13" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="Q13" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="R13" s="0" t="s">
         <x:v>35</x:v>
@@ -1879,15 +1879,15 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="T13" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="U13" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:21">
       <x:c r="A14" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>23</x:v>
@@ -1923,36 +1923,36 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M14" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="N14" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="O14" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="P14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="R14" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="S14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="T14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="U14" s="1" t="s">
         <x:v>45</x:v>
-      </x:c>
-      <x:c r="N14" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="O14" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="P14" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="Q14" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="R14" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="S14" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="T14" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="U14" s="1" t="s">
-        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:21">
       <x:c r="A15" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>23</x:v>
@@ -2017,7 +2017,7 @@
     </x:row>
     <x:row r="16" spans="1:21">
       <x:c r="A16" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>38</x:v>
@@ -2053,13 +2053,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="M16" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="N16" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="O16" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P16" s="0" t="s">
         <x:v>34</x:v>
@@ -2071,24 +2071,24 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S16" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="T16" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U16" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:21">
       <x:c r="A17" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
         <x:v>23</x:v>
@@ -2097,34 +2097,34 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="J17" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="K17" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L17" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H17" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I17" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="J17" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="K17" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L17" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
       <x:c r="M17" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="N17" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="O17" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="P17" s="0" t="s">
         <x:v>22</x:v>
@@ -2136,18 +2136,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S17" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="T17" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="U17" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:21">
       <x:c r="A18" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>23</x:v>
@@ -2212,7 +2212,7 @@
     </x:row>
     <x:row r="19" spans="1:21">
       <x:c r="A19" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>23</x:v>
@@ -2227,7 +2227,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
         <x:v>23</x:v>
@@ -2248,7 +2248,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M19" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="N19" s="0" t="s">
         <x:v>38</x:v>
@@ -2272,12 +2272,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U19" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:21">
       <x:c r="A20" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>23</x:v>
@@ -2342,7 +2342,7 @@
     </x:row>
     <x:row r="21" spans="1:21">
       <x:c r="A21" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>23</x:v>
@@ -2407,7 +2407,7 @@
     </x:row>
     <x:row r="22" spans="1:21">
       <x:c r="A22" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>23</x:v>
@@ -2422,7 +2422,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
         <x:v>23</x:v>
@@ -2443,7 +2443,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M22" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="N22" s="0" t="s">
         <x:v>23</x:v>
@@ -2461,18 +2461,18 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="S22" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="T22" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U22" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:21">
       <x:c r="A23" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>23</x:v>
@@ -2487,7 +2487,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
         <x:v>23</x:v>
@@ -2508,13 +2508,13 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M23" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="N23" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O23" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="P23" s="0" t="s">
         <x:v>23</x:v>
@@ -2532,12 +2532,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U23" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:21">
       <x:c r="A24" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>23</x:v>
@@ -2602,13 +2602,13 @@
     </x:row>
     <x:row r="25" spans="1:21">
       <x:c r="A25" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
         <x:v>22</x:v>
@@ -2617,34 +2617,34 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="H25" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="J25" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="K25" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
       <x:c r="L25" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="M25" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N25" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="O25" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="P25" s="0" t="s">
         <x:v>31</x:v>
@@ -2656,18 +2656,18 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="S25" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="T25" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="U25" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:21">
       <x:c r="A26" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>23</x:v>
@@ -2732,7 +2732,7 @@
     </x:row>
     <x:row r="27" spans="1:21">
       <x:c r="A27" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>23</x:v>
@@ -2747,7 +2747,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
         <x:v>23</x:v>
@@ -2774,7 +2774,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O27" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="P27" s="0" t="s">
         <x:v>23</x:v>
@@ -2792,12 +2792,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U27" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
       <x:c r="A28" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>22</x:v>
@@ -2833,13 +2833,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M28" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N28" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O28" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="P28" s="0" t="s">
         <x:v>23</x:v>
@@ -2851,18 +2851,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S28" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="T28" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="U28" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:21">
       <x:c r="A29" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>23</x:v>
@@ -2898,7 +2898,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M29" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="N29" s="0" t="s">
         <x:v>26</x:v>
@@ -2916,18 +2916,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S29" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="T29" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="U29" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:21">
       <x:c r="A30" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>23</x:v>
@@ -2987,12 +2987,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U30" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:21">
       <x:c r="A31" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>23</x:v>
@@ -3034,7 +3034,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O31" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P31" s="0" t="s">
         <x:v>23</x:v>
@@ -3052,18 +3052,18 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U31" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:21">
       <x:c r="A32" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
         <x:v>23</x:v>
@@ -3072,7 +3072,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
         <x:v>23</x:v>
@@ -3081,7 +3081,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="I32" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="J32" s="0" t="s">
         <x:v>23</x:v>
@@ -3093,13 +3093,13 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="M32" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="N32" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O32" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="P32" s="0" t="s">
         <x:v>23</x:v>
@@ -3117,12 +3117,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U32" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:21">
       <x:c r="A33" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>23</x:v>
@@ -3187,7 +3187,7 @@
     </x:row>
     <x:row r="34" spans="1:21">
       <x:c r="A34" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>23</x:v>
@@ -3252,7 +3252,7 @@
     </x:row>
     <x:row r="35" spans="1:21">
       <x:c r="A35" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>23</x:v>
@@ -3317,7 +3317,7 @@
     </x:row>
     <x:row r="36" spans="1:21">
       <x:c r="A36" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>23</x:v>
@@ -3382,7 +3382,7 @@
     </x:row>
     <x:row r="37" spans="1:21">
       <x:c r="A37" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>22</x:v>
@@ -3424,7 +3424,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O37" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="P37" s="0" t="s">
         <x:v>23</x:v>
@@ -3442,12 +3442,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U37" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:21">
       <x:c r="A38" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>23</x:v>
@@ -3512,7 +3512,7 @@
     </x:row>
     <x:row r="39" spans="1:21">
       <x:c r="A39" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>23</x:v>
@@ -3536,7 +3536,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I39" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J39" s="0" t="s">
         <x:v>23</x:v>
@@ -3566,18 +3566,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S39" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="T39" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U39" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:21">
       <x:c r="A40" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>23</x:v>
@@ -3642,7 +3642,7 @@
     </x:row>
     <x:row r="41" spans="1:21">
       <x:c r="A41" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>23</x:v>
@@ -3678,7 +3678,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="M41" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="N41" s="0" t="s">
         <x:v>23</x:v>
@@ -3702,12 +3702,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U41" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
       <x:c r="A42" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>38</x:v>
@@ -3722,13 +3722,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="H42" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="I42" s="0" t="s">
         <x:v>29</x:v>
@@ -3743,7 +3743,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="M42" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="N42" s="0" t="s">
         <x:v>23</x:v>
@@ -3767,12 +3767,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U42" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:21">
       <x:c r="A43" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>23</x:v>
@@ -3808,7 +3808,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="M43" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N43" s="0" t="s">
         <x:v>22</x:v>
@@ -3832,12 +3832,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U43" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:21">
       <x:c r="A44" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>23</x:v>
@@ -3849,7 +3849,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E44" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F44" s="0" t="s">
         <x:v>31</x:v>
@@ -3861,7 +3861,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="I44" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="J44" s="0" t="s">
         <x:v>23</x:v>
@@ -3873,13 +3873,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="M44" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="N44" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O44" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="P44" s="0" t="s">
         <x:v>38</x:v>
@@ -3897,12 +3897,12 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="U44" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:21">
       <x:c r="A45" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>23</x:v>
@@ -3944,7 +3944,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O45" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="P45" s="0" t="s">
         <x:v>23</x:v>
@@ -3962,12 +3962,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U45" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:21">
       <x:c r="A46" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>38</x:v>
@@ -3991,7 +3991,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I46" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J46" s="0" t="s">
         <x:v>23</x:v>
@@ -4027,12 +4027,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U46" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:21">
       <x:c r="A47" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>23</x:v>
@@ -4097,7 +4097,7 @@
     </x:row>
     <x:row r="48" spans="1:21">
       <x:c r="A48" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>22</x:v>
@@ -4109,10 +4109,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F48" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G48" s="0" t="s">
         <x:v>23</x:v>
@@ -4133,7 +4133,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M48" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N48" s="0" t="s">
         <x:v>23</x:v>
@@ -4157,12 +4157,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U48" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:21">
       <x:c r="A49" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>29</x:v>
@@ -4198,7 +4198,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M49" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="N49" s="0" t="s">
         <x:v>22</x:v>
@@ -4222,12 +4222,12 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="U49" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
       <x:c r="A50" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>23</x:v>
@@ -4292,13 +4292,13 @@
     </x:row>
     <x:row r="51" spans="1:21">
       <x:c r="A51" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
         <x:v>23</x:v>
@@ -4307,7 +4307,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
         <x:v>38</x:v>
@@ -4316,7 +4316,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I51" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="J51" s="0" t="s">
         <x:v>23</x:v>
@@ -4328,13 +4328,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="M51" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="N51" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="O51" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="P51" s="0" t="s">
         <x:v>29</x:v>
@@ -4346,18 +4346,18 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="S51" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="T51" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="U51" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:21">
       <x:c r="A52" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>23</x:v>
@@ -4372,7 +4372,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F52" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G52" s="0" t="s">
         <x:v>23</x:v>
@@ -4393,13 +4393,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="M52" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="N52" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O52" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="P52" s="0" t="s">
         <x:v>34</x:v>
@@ -4417,12 +4417,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U52" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:21">
       <x:c r="A53" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>23</x:v>
@@ -4437,7 +4437,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F53" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G53" s="0" t="s">
         <x:v>23</x:v>
@@ -4458,13 +4458,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M53" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N53" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="O53" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="P53" s="0" t="s">
         <x:v>23</x:v>
@@ -4476,7 +4476,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S53" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="T53" s="0" t="s">
         <x:v>23</x:v>
@@ -4487,7 +4487,7 @@
     </x:row>
     <x:row r="54" spans="1:21">
       <x:c r="A54" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>23</x:v>
@@ -4523,13 +4523,13 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M54" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="N54" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="O54" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="P54" s="0" t="s">
         <x:v>23</x:v>
@@ -4547,12 +4547,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U54" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:21">
       <x:c r="A55" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>23</x:v>
@@ -4612,12 +4612,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U55" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:21">
       <x:c r="A56" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>23</x:v>
@@ -4632,7 +4632,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
         <x:v>23</x:v>
@@ -4653,7 +4653,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M56" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="N56" s="0" t="s">
         <x:v>23</x:v>
@@ -4677,12 +4677,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U56" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
       <x:c r="A57" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>23</x:v>
@@ -4747,22 +4747,22 @@
     </x:row>
     <x:row r="58" spans="1:21">
       <x:c r="A58" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="G58" s="0" t="s">
         <x:v>22</x:v>
@@ -4771,7 +4771,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I58" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="J58" s="0" t="s">
         <x:v>23</x:v>
@@ -4780,16 +4780,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L58" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="M58" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="N58" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O58" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="P58" s="0" t="s">
         <x:v>25</x:v>
@@ -4798,7 +4798,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="R58" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="S58" s="0" t="s">
         <x:v>168</x:v>
@@ -4913,7 +4913,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M60" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="N60" s="0" t="s">
         <x:v>23</x:v>
@@ -4937,7 +4937,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U60" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">
@@ -5132,7 +5132,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U63" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:21">
@@ -5161,7 +5161,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I64" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J64" s="0" t="s">
         <x:v>38</x:v>
@@ -5188,10 +5188,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R64" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="S64" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="T64" s="0" t="s">
         <x:v>26</x:v>
@@ -5217,7 +5217,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F65" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G65" s="0" t="s">
         <x:v>23</x:v>
@@ -5226,7 +5226,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I65" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="J65" s="0" t="s">
         <x:v>23</x:v>
@@ -5235,16 +5235,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L65" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="M65" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N65" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="O65" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="P65" s="0" t="s">
         <x:v>23</x:v>
@@ -5338,7 +5338,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D67" s="0" t="s">
         <x:v>23</x:v>
@@ -5347,7 +5347,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F67" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G67" s="0" t="s">
         <x:v>23</x:v>
@@ -5356,7 +5356,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I67" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="J67" s="0" t="s">
         <x:v>23</x:v>
@@ -5386,7 +5386,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="S67" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="T67" s="0" t="s">
         <x:v>23</x:v>
@@ -5412,7 +5412,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F68" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="G68" s="0" t="s">
         <x:v>23</x:v>
@@ -5421,7 +5421,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I68" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="J68" s="0" t="s">
         <x:v>38</x:v>
@@ -5430,7 +5430,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L68" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="M68" s="0" t="s">
         <x:v>168</x:v>
@@ -5454,7 +5454,7 @@
         <x:v>189</x:v>
       </x:c>
       <x:c r="T68" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="U68" s="1" t="s">
         <x:v>190</x:v>
@@ -5498,13 +5498,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="M69" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="N69" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="O69" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="P69" s="0" t="s">
         <x:v>23</x:v>
@@ -5522,7 +5522,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U69" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:21">
@@ -5693,7 +5693,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M72" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="N72" s="0" t="s">
         <x:v>23</x:v>
@@ -5717,7 +5717,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U72" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:21">
@@ -5829,7 +5829,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O74" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="P74" s="0" t="s">
         <x:v>23</x:v>
@@ -5912,7 +5912,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U75" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:21">
@@ -5920,10 +5920,10 @@
         <x:v>199</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D76" s="0" t="s">
         <x:v>23</x:v>
@@ -5932,7 +5932,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F76" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G76" s="0" t="s">
         <x:v>22</x:v>
@@ -5959,7 +5959,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="O76" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="P76" s="0" t="s">
         <x:v>38</x:v>
@@ -5974,7 +5974,7 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="T76" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="U76" s="1" t="s">
         <x:v>202</x:v>
@@ -6042,7 +6042,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U77" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:21">
@@ -6154,7 +6154,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="O79" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="P79" s="0" t="s">
         <x:v>22</x:v>
@@ -6189,7 +6189,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E80" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F80" s="0" t="s">
         <x:v>189</x:v>
@@ -6201,16 +6201,16 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="I80" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="J80" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="K80" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L80" s="0" t="s">
         <x:v>45</x:v>
-      </x:c>
-      <x:c r="J80" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="K80" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L80" s="0" t="s">
-        <x:v>44</x:v>
       </x:c>
       <x:c r="M80" s="0" t="s">
         <x:v>208</x:v>
@@ -6219,7 +6219,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="O80" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="P80" s="0" t="s">
         <x:v>38</x:v>
@@ -6302,7 +6302,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U81" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -184,340 +184,343 @@
     <x:t>Blue Earth</x:t>
   </x:si>
   <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brown</x:t>
+  </x:si>
+  <x:si>
     <x:t>23</x:t>
   </x:si>
   <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57</x:t>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carlton</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carver</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cass</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chisago</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clearwater</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cottonwood</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crow Wing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dakota</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dodge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Douglas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faribault</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fillmore</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Freeborn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goodhue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hennepin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>185</x:t>
+  </x:si>
+  <x:si>
+    <x:t>234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>278</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>371</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>480</x:t>
+  </x:si>
+  <x:si>
+    <x:t>345</x:t>
+  </x:si>
+  <x:si>
+    <x:t>417</x:t>
+  </x:si>
+  <x:si>
+    <x:t>253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2845</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Houston</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hubbard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Itasca</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jackson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kanabec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kandiyohi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kittson</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koochiching</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lac qui Parle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lyon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahnomen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Martin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>McLeod</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Meeker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mille Lacs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Morrison</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Murray</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nicollet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nobles</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Norman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olmsted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>465</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Otter Tail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pennington</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pipestone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Polk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pope</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramsey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>98</x:t>
   </x:si>
   <x:si>
     <x:t>165</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brown</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carlton</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carver</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cass</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chisago</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>228</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clearwater</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cottonwood</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crow Wing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>210</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dakota</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>183</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dodge</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Douglas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faribault</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fillmore</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Freeborn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goodhue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hennepin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>185</x:t>
-  </x:si>
-  <x:si>
-    <x:t>234</x:t>
-  </x:si>
-  <x:si>
-    <x:t>278</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>371</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>480</x:t>
-  </x:si>
-  <x:si>
-    <x:t>345</x:t>
-  </x:si>
-  <x:si>
-    <x:t>417</x:t>
-  </x:si>
-  <x:si>
-    <x:t>253</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2845</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Houston</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hubbard</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Itasca</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jackson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kanabec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kandiyohi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>163</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kittson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Koochiching</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lac qui Parle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lincoln</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lyon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahnomen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Martin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>McLeod</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Meeker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mille Lacs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>153</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Morrison</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mower</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Murray</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nicollet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nobles</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Norman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olmsted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>465</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Otter Tail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pennington</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pine</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pipestone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Polk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pope</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ramsey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>98</x:t>
   </x:si>
   <x:si>
     <x:t>77</x:t>
@@ -1512,7 +1515,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
         <x:v>23</x:v>
@@ -1557,12 +1560,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U8" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:21">
       <x:c r="A9" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>22</x:v>
@@ -1622,12 +1625,12 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="U9" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:21">
       <x:c r="A10" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>38</x:v>
@@ -1663,7 +1666,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="M10" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="N10" s="0" t="s">
         <x:v>38</x:v>
@@ -1687,12 +1690,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U10" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:21">
       <x:c r="A11" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>23</x:v>
@@ -1752,12 +1755,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U11" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:21">
       <x:c r="A12" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>23</x:v>
@@ -1817,12 +1820,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U12" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:21">
       <x:c r="A13" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>24</x:v>
@@ -1858,19 +1861,19 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="M13" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="N13" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="O13" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="P13" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="Q13" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="R13" s="0" t="s">
         <x:v>35</x:v>
@@ -1882,12 +1885,12 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="U13" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:21">
       <x:c r="A14" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>23</x:v>
@@ -1952,7 +1955,7 @@
     </x:row>
     <x:row r="15" spans="1:21">
       <x:c r="A15" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>23</x:v>
@@ -2017,7 +2020,7 @@
     </x:row>
     <x:row r="16" spans="1:21">
       <x:c r="A16" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>38</x:v>
@@ -2053,7 +2056,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="M16" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="N16" s="0" t="s">
         <x:v>22</x:v>
@@ -2071,18 +2074,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S16" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="T16" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="U16" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:21">
       <x:c r="A17" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>34</x:v>
@@ -2097,7 +2100,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
         <x:v>23</x:v>
@@ -2124,7 +2127,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="O17" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="P17" s="0" t="s">
         <x:v>22</x:v>
@@ -2136,18 +2139,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="S17" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="T17" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="U17" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:21">
       <x:c r="A18" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>23</x:v>
@@ -2212,7 +2215,7 @@
     </x:row>
     <x:row r="19" spans="1:21">
       <x:c r="A19" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>23</x:v>
@@ -2248,7 +2251,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M19" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="N19" s="0" t="s">
         <x:v>38</x:v>
@@ -2272,12 +2275,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U19" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:21">
       <x:c r="A20" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>23</x:v>
@@ -2342,7 +2345,7 @@
     </x:row>
     <x:row r="21" spans="1:21">
       <x:c r="A21" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>23</x:v>
@@ -2407,7 +2410,7 @@
     </x:row>
     <x:row r="22" spans="1:21">
       <x:c r="A22" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>23</x:v>
@@ -2422,7 +2425,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
         <x:v>23</x:v>
@@ -2443,7 +2446,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M22" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="N22" s="0" t="s">
         <x:v>23</x:v>
@@ -2467,12 +2470,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U22" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:21">
       <x:c r="A23" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>23</x:v>
@@ -2487,7 +2490,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
         <x:v>23</x:v>
@@ -2508,7 +2511,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M23" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N23" s="0" t="s">
         <x:v>23</x:v>
@@ -2532,12 +2535,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U23" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:21">
       <x:c r="A24" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>23</x:v>
@@ -2573,7 +2576,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M24" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="N24" s="0" t="s">
         <x:v>23</x:v>
@@ -2597,18 +2600,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U24" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:21">
       <x:c r="A25" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
         <x:v>22</x:v>
@@ -2617,16 +2620,16 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="H25" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="J25" s="0" t="s">
         <x:v>54</x:v>
@@ -2635,16 +2638,16 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="L25" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="M25" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="N25" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="O25" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="P25" s="0" t="s">
         <x:v>31</x:v>
@@ -2656,18 +2659,18 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="S25" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="T25" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="U25" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:21">
       <x:c r="A26" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>23</x:v>
@@ -2732,7 +2735,7 @@
     </x:row>
     <x:row r="27" spans="1:21">
       <x:c r="A27" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>23</x:v>
@@ -2747,7 +2750,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
         <x:v>23</x:v>
@@ -2792,12 +2795,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U27" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:21">
       <x:c r="A28" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>22</x:v>
@@ -2862,7 +2865,7 @@
     </x:row>
     <x:row r="29" spans="1:21">
       <x:c r="A29" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
         <x:v>23</x:v>
@@ -2898,7 +2901,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M29" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="N29" s="0" t="s">
         <x:v>26</x:v>
@@ -2922,12 +2925,12 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="U29" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:21">
       <x:c r="A30" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>23</x:v>
@@ -2992,7 +2995,7 @@
     </x:row>
     <x:row r="31" spans="1:21">
       <x:c r="A31" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>23</x:v>
@@ -3057,13 +3060,13 @@
     </x:row>
     <x:row r="32" spans="1:21">
       <x:c r="A32" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
         <x:v>23</x:v>
@@ -3093,13 +3096,13 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="M32" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="N32" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="O32" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="P32" s="0" t="s">
         <x:v>23</x:v>
@@ -3117,12 +3120,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U32" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:21">
       <x:c r="A33" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
         <x:v>23</x:v>
@@ -3187,7 +3190,7 @@
     </x:row>
     <x:row r="34" spans="1:21">
       <x:c r="A34" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>23</x:v>
@@ -3252,7 +3255,7 @@
     </x:row>
     <x:row r="35" spans="1:21">
       <x:c r="A35" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>23</x:v>
@@ -3317,7 +3320,7 @@
     </x:row>
     <x:row r="36" spans="1:21">
       <x:c r="A36" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>23</x:v>
@@ -3382,7 +3385,7 @@
     </x:row>
     <x:row r="37" spans="1:21">
       <x:c r="A37" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
         <x:v>22</x:v>
@@ -3442,12 +3445,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U37" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:21">
       <x:c r="A38" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
         <x:v>23</x:v>
@@ -3512,7 +3515,7 @@
     </x:row>
     <x:row r="39" spans="1:21">
       <x:c r="A39" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>23</x:v>
@@ -3572,12 +3575,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U39" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:21">
       <x:c r="A40" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>23</x:v>
@@ -3642,7 +3645,7 @@
     </x:row>
     <x:row r="41" spans="1:21">
       <x:c r="A41" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>23</x:v>
@@ -3702,12 +3705,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U41" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:21">
       <x:c r="A42" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>38</x:v>
@@ -3722,7 +3725,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F42" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
         <x:v>23</x:v>
@@ -3743,7 +3746,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="M42" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="N42" s="0" t="s">
         <x:v>23</x:v>
@@ -3767,12 +3770,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U42" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:21">
       <x:c r="A43" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>23</x:v>
@@ -3808,7 +3811,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="M43" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="N43" s="0" t="s">
         <x:v>22</x:v>
@@ -3837,7 +3840,7 @@
     </x:row>
     <x:row r="44" spans="1:21">
       <x:c r="A44" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>23</x:v>
@@ -3861,7 +3864,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="I44" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="J44" s="0" t="s">
         <x:v>23</x:v>
@@ -3873,7 +3876,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="M44" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="N44" s="0" t="s">
         <x:v>23</x:v>
@@ -3897,12 +3900,12 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="U44" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:21">
       <x:c r="A45" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>23</x:v>
@@ -3944,7 +3947,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O45" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P45" s="0" t="s">
         <x:v>23</x:v>
@@ -3962,12 +3965,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U45" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:21">
       <x:c r="A46" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>38</x:v>
@@ -4027,12 +4030,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U46" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:21">
       <x:c r="A47" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>23</x:v>
@@ -4097,7 +4100,7 @@
     </x:row>
     <x:row r="48" spans="1:21">
       <x:c r="A48" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>22</x:v>
@@ -4112,7 +4115,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="F48" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G48" s="0" t="s">
         <x:v>23</x:v>
@@ -4157,12 +4160,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U48" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:21">
       <x:c r="A49" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>29</x:v>
@@ -4198,7 +4201,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M49" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="N49" s="0" t="s">
         <x:v>22</x:v>
@@ -4222,12 +4225,12 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="U49" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
       <x:c r="A50" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>23</x:v>
@@ -4292,13 +4295,13 @@
     </x:row>
     <x:row r="51" spans="1:21">
       <x:c r="A51" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
         <x:v>23</x:v>
@@ -4307,7 +4310,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
         <x:v>38</x:v>
@@ -4316,7 +4319,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="I51" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="J51" s="0" t="s">
         <x:v>23</x:v>
@@ -4328,13 +4331,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="M51" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="N51" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="O51" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="P51" s="0" t="s">
         <x:v>29</x:v>
@@ -4352,12 +4355,12 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="U51" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:21">
       <x:c r="A52" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>23</x:v>
@@ -4399,7 +4402,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="O52" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="P52" s="0" t="s">
         <x:v>34</x:v>
@@ -4417,12 +4420,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U52" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:21">
       <x:c r="A53" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>23</x:v>
@@ -4464,7 +4467,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="O53" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="P53" s="0" t="s">
         <x:v>23</x:v>
@@ -4487,7 +4490,7 @@
     </x:row>
     <x:row r="54" spans="1:21">
       <x:c r="A54" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>23</x:v>
@@ -4523,7 +4526,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="M54" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="N54" s="0" t="s">
         <x:v>22</x:v>
@@ -4552,7 +4555,7 @@
     </x:row>
     <x:row r="55" spans="1:21">
       <x:c r="A55" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>23</x:v>
@@ -4612,7 +4615,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U55" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:21">
@@ -4632,7 +4635,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F56" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
         <x:v>23</x:v>
@@ -4759,7 +4762,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E58" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
         <x:v>166</x:v>
@@ -4780,10 +4783,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L58" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="M58" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="N58" s="0" t="s">
         <x:v>23</x:v>
@@ -4801,18 +4804,18 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="S58" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="T58" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="U58" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">
       <x:c r="A59" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>23</x:v>
@@ -4877,7 +4880,7 @@
     </x:row>
     <x:row r="60" spans="1:21">
       <x:c r="A60" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
         <x:v>23</x:v>
@@ -4892,7 +4895,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="F60" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="G60" s="0" t="s">
         <x:v>22</x:v>
@@ -4913,7 +4916,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M60" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="N60" s="0" t="s">
         <x:v>23</x:v>
@@ -4937,12 +4940,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U60" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:21">
       <x:c r="A61" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>38</x:v>
@@ -5007,7 +5010,7 @@
     </x:row>
     <x:row r="62" spans="1:21">
       <x:c r="A62" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>23</x:v>
@@ -5072,7 +5075,7 @@
     </x:row>
     <x:row r="63" spans="1:21">
       <x:c r="A63" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>23</x:v>
@@ -5137,13 +5140,13 @@
     </x:row>
     <x:row r="64" spans="1:21">
       <x:c r="A64" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
         <x:v>23</x:v>
@@ -5173,13 +5176,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="M64" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="N64" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="O64" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="P64" s="0" t="s">
         <x:v>38</x:v>
@@ -5188,21 +5191,21 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="R64" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="S64" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="T64" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="U64" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
       <x:c r="A65" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>22</x:v>
@@ -5244,7 +5247,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="O65" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="P65" s="0" t="s">
         <x:v>23</x:v>
@@ -5262,12 +5265,12 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="U65" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">
       <x:c r="A66" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>23</x:v>
@@ -5332,7 +5335,7 @@
     </x:row>
     <x:row r="67" spans="1:21">
       <x:c r="A67" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>23</x:v>
@@ -5356,7 +5359,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I67" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="J67" s="0" t="s">
         <x:v>23</x:v>
@@ -5368,7 +5371,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="M67" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="N67" s="0" t="s">
         <x:v>23</x:v>
@@ -5392,12 +5395,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U67" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:21">
       <x:c r="A68" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>35</x:v>
@@ -5412,7 +5415,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F68" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="G68" s="0" t="s">
         <x:v>23</x:v>
@@ -5421,7 +5424,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I68" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="J68" s="0" t="s">
         <x:v>38</x:v>
@@ -5433,13 +5436,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="M68" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="N68" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="O68" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="P68" s="0" t="s">
         <x:v>38</x:v>
@@ -5451,18 +5454,18 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="S68" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="T68" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="U68" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:21">
       <x:c r="A69" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>23</x:v>
@@ -5522,12 +5525,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U69" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:21">
       <x:c r="A70" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>23</x:v>
@@ -5587,12 +5590,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U70" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:21">
       <x:c r="A71" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>23</x:v>
@@ -5657,7 +5660,7 @@
     </x:row>
     <x:row r="72" spans="1:21">
       <x:c r="A72" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>23</x:v>
@@ -5693,7 +5696,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M72" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="N72" s="0" t="s">
         <x:v>23</x:v>
@@ -5717,12 +5720,12 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="U72" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:21">
       <x:c r="A73" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>23</x:v>
@@ -5787,7 +5790,7 @@
     </x:row>
     <x:row r="74" spans="1:21">
       <x:c r="A74" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>23</x:v>
@@ -5852,7 +5855,7 @@
     </x:row>
     <x:row r="75" spans="1:21">
       <x:c r="A75" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>23</x:v>
@@ -5917,13 +5920,13 @@
     </x:row>
     <x:row r="76" spans="1:21">
       <x:c r="A76" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="D76" s="0" t="s">
         <x:v>23</x:v>
@@ -5953,7 +5956,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="M76" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="N76" s="0" t="s">
         <x:v>31</x:v>
@@ -5971,18 +5974,18 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="S76" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="T76" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="U76" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:21">
       <x:c r="A77" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>23</x:v>
@@ -6047,7 +6050,7 @@
     </x:row>
     <x:row r="78" spans="1:21">
       <x:c r="A78" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>23</x:v>
@@ -6112,7 +6115,7 @@
     </x:row>
     <x:row r="79" spans="1:21">
       <x:c r="A79" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>23</x:v>
@@ -6154,7 +6157,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="O79" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="P79" s="0" t="s">
         <x:v>22</x:v>
@@ -6172,18 +6175,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U79" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:21">
       <x:c r="A80" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
         <x:v>23</x:v>
@@ -6192,7 +6195,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="F80" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="G80" s="0" t="s">
         <x:v>23</x:v>
@@ -6213,7 +6216,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="M80" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="N80" s="0" t="s">
         <x:v>34</x:v>
@@ -6231,18 +6234,18 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="S80" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="T80" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="U80" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:21">
       <x:c r="A81" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>23</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -271,10 +271,10 @@
     <x:t>35</x:t>
   </x:si>
   <x:si>
-    <x:t>54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>183</x:t>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>184</x:t>
   </x:si>
   <x:si>
     <x:t>Dodge</x:t>
@@ -316,7 +316,7 @@
     <x:t>Hennepin</x:t>
   </x:si>
   <x:si>
-    <x:t>185</x:t>
+    <x:t>186</x:t>
   </x:si>
   <x:si>
     <x:t>234</x:t>
@@ -325,7 +325,7 @@
     <x:t>278</x:t>
   </x:si>
   <x:si>
-    <x:t>100</x:t>
+    <x:t>99</x:t>
   </x:si>
   <x:si>
     <x:t>371</x:t>
@@ -334,7 +334,7 @@
     <x:t>47</x:t>
   </x:si>
   <x:si>
-    <x:t>480</x:t>
+    <x:t>479</x:t>
   </x:si>
   <x:si>
     <x:t>345</x:t>
@@ -346,7 +346,7 @@
     <x:t>253</x:t>
   </x:si>
   <x:si>
-    <x:t>2845</x:t>
+    <x:t>2844</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>
@@ -436,9 +436,6 @@
     <x:t>Morrison</x:t>
   </x:si>
   <x:si>
-    <x:t>55</x:t>
-  </x:si>
-  <x:si>
     <x:t>Mower</x:t>
   </x:si>
   <x:si>
@@ -553,13 +550,13 @@
     <x:t>Scott</x:t>
   </x:si>
   <x:si>
-    <x:t>64</x:t>
+    <x:t>63</x:t>
   </x:si>
   <x:si>
     <x:t>59</x:t>
   </x:si>
   <x:si>
-    <x:t>286</x:t>
+    <x:t>285</x:t>
   </x:si>
   <x:si>
     <x:t>Sherburne</x:t>
@@ -3965,12 +3962,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U45" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:21">
       <x:c r="A46" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>38</x:v>
@@ -4030,12 +4027,12 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="U46" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:21">
       <x:c r="A47" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>23</x:v>
@@ -4100,7 +4097,7 @@
     </x:row>
     <x:row r="48" spans="1:21">
       <x:c r="A48" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>22</x:v>
@@ -4165,7 +4162,7 @@
     </x:row>
     <x:row r="49" spans="1:21">
       <x:c r="A49" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>29</x:v>
@@ -4201,7 +4198,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M49" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="N49" s="0" t="s">
         <x:v>22</x:v>
@@ -4225,12 +4222,12 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="U49" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:21">
       <x:c r="A50" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
         <x:v>23</x:v>
@@ -4295,7 +4292,7 @@
     </x:row>
     <x:row r="51" spans="1:21">
       <x:c r="A51" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
         <x:v>46</x:v>
@@ -4310,16 +4307,16 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="F51" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="G51" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I51" s="0" t="s">
         <x:v>150</x:v>
-      </x:c>
-      <x:c r="G51" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="H51" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I51" s="0" t="s">
-        <x:v>151</x:v>
       </x:c>
       <x:c r="J51" s="0" t="s">
         <x:v>23</x:v>
@@ -4331,13 +4328,13 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="M51" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="N51" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="O51" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="P51" s="0" t="s">
         <x:v>29</x:v>
@@ -4355,12 +4352,12 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="U51" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:21">
       <x:c r="A52" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
         <x:v>23</x:v>
@@ -4420,12 +4417,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U52" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:21">
       <x:c r="A53" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>23</x:v>
@@ -4490,7 +4487,7 @@
     </x:row>
     <x:row r="54" spans="1:21">
       <x:c r="A54" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>23</x:v>
@@ -4555,7 +4552,7 @@
     </x:row>
     <x:row r="55" spans="1:21">
       <x:c r="A55" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
         <x:v>23</x:v>
@@ -4620,7 +4617,7 @@
     </x:row>
     <x:row r="56" spans="1:21">
       <x:c r="A56" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
         <x:v>23</x:v>
@@ -4656,7 +4653,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="M56" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="N56" s="0" t="s">
         <x:v>23</x:v>
@@ -4680,12 +4677,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U56" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:21">
       <x:c r="A57" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>23</x:v>
@@ -4750,13 +4747,13 @@
     </x:row>
     <x:row r="58" spans="1:21">
       <x:c r="A58" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D58" s="0" t="s">
         <x:v>23</x:v>
@@ -4765,7 +4762,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="F58" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G58" s="0" t="s">
         <x:v>22</x:v>
@@ -4774,7 +4771,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="I58" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="J58" s="0" t="s">
         <x:v>23</x:v>
@@ -4786,7 +4783,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="M58" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="N58" s="0" t="s">
         <x:v>23</x:v>
@@ -4804,18 +4801,18 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="S58" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="T58" s="0" t="s">
         <x:v>169</x:v>
       </x:c>
-      <x:c r="T58" s="0" t="s">
+      <x:c r="U58" s="1" t="s">
         <x:v>170</x:v>
-      </x:c>
-      <x:c r="U58" s="1" t="s">
-        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:21">
       <x:c r="A59" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
         <x:v>23</x:v>
@@ -4880,22 +4877,22 @@
     </x:row>
     <x:row r="60" spans="1:21">
       <x:c r="A60" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C60" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D60" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E60" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F60" s="0" t="s">
         <x:v>173</x:v>
-      </x:c>
-      <x:c r="B60" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C60" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D60" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E60" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F60" s="0" t="s">
-        <x:v>174</x:v>
       </x:c>
       <x:c r="G60" s="0" t="s">
         <x:v>22</x:v>
@@ -4945,7 +4942,7 @@
     </x:row>
     <x:row r="61" spans="1:21">
       <x:c r="A61" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>38</x:v>
@@ -5010,7 +5007,7 @@
     </x:row>
     <x:row r="62" spans="1:21">
       <x:c r="A62" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>23</x:v>
@@ -5075,7 +5072,7 @@
     </x:row>
     <x:row r="63" spans="1:21">
       <x:c r="A63" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
         <x:v>23</x:v>
@@ -5140,13 +5137,13 @@
     </x:row>
     <x:row r="64" spans="1:21">
       <x:c r="A64" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D64" s="0" t="s">
         <x:v>23</x:v>
@@ -5176,13 +5173,13 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="M64" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="N64" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="O64" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="P64" s="0" t="s">
         <x:v>38</x:v>
@@ -5200,12 +5197,12 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="U64" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:21">
       <x:c r="A65" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>22</x:v>
@@ -5265,12 +5262,12 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="U65" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:21">
       <x:c r="A66" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>23</x:v>
@@ -5335,7 +5332,7 @@
     </x:row>
     <x:row r="67" spans="1:21">
       <x:c r="A67" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>23</x:v>
@@ -5359,7 +5356,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="I67" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="J67" s="0" t="s">
         <x:v>23</x:v>
@@ -5371,7 +5368,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="M67" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="N67" s="0" t="s">
         <x:v>23</x:v>
@@ -5395,12 +5392,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U67" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:21">
       <x:c r="A68" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
         <x:v>35</x:v>
@@ -5415,7 +5412,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="F68" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G68" s="0" t="s">
         <x:v>23</x:v>
@@ -5436,36 +5433,36 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="M68" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="N68" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="O68" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="P68" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="Q68" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="R68" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="S68" s="0" t="s">
         <x:v>189</x:v>
-      </x:c>
-      <x:c r="P68" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="Q68" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="R68" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="S68" s="0" t="s">
-        <x:v>190</x:v>
       </x:c>
       <x:c r="T68" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="U68" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:21">
       <x:c r="A69" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
         <x:v>23</x:v>
@@ -5530,7 +5527,7 @@
     </x:row>
     <x:row r="70" spans="1:21">
       <x:c r="A70" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>23</x:v>
@@ -5590,12 +5587,12 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U70" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:21">
       <x:c r="A71" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
         <x:v>23</x:v>
@@ -5660,7 +5657,7 @@
     </x:row>
     <x:row r="72" spans="1:21">
       <x:c r="A72" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>23</x:v>
@@ -5725,7 +5722,7 @@
     </x:row>
     <x:row r="73" spans="1:21">
       <x:c r="A73" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>23</x:v>
@@ -5790,7 +5787,7 @@
     </x:row>
     <x:row r="74" spans="1:21">
       <x:c r="A74" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>23</x:v>
@@ -5855,7 +5852,7 @@
     </x:row>
     <x:row r="75" spans="1:21">
       <x:c r="A75" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>23</x:v>
@@ -5920,7 +5917,7 @@
     </x:row>
     <x:row r="76" spans="1:21">
       <x:c r="A76" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
         <x:v>40</x:v>
@@ -5956,7 +5953,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="M76" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="N76" s="0" t="s">
         <x:v>31</x:v>
@@ -5974,18 +5971,18 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="S76" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="T76" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="U76" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:21">
       <x:c r="A77" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B77" s="0" t="s">
         <x:v>23</x:v>
@@ -6050,7 +6047,7 @@
     </x:row>
     <x:row r="78" spans="1:21">
       <x:c r="A78" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B78" s="0" t="s">
         <x:v>23</x:v>
@@ -6115,7 +6112,7 @@
     </x:row>
     <x:row r="79" spans="1:21">
       <x:c r="A79" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="B79" s="0" t="s">
         <x:v>23</x:v>
@@ -6175,18 +6172,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U79" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:21">
       <x:c r="A80" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B80" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D80" s="0" t="s">
         <x:v>23</x:v>
@@ -6195,7 +6192,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="F80" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="G80" s="0" t="s">
         <x:v>23</x:v>
@@ -6216,7 +6213,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="M80" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="N80" s="0" t="s">
         <x:v>34</x:v>
@@ -6234,18 +6231,18 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="S80" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="T80" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="U80" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:21">
       <x:c r="A81" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="B81" s="0" t="s">
         <x:v>23</x:v>

--- a/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
+++ b/store/arrests/ArrestsDrugByCountyDownloadData_ReportYear_2024.xlsx
@@ -319,7 +319,7 @@
     <x:t>186</x:t>
   </x:si>
   <x:si>
-    <x:t>234</x:t>
+    <x:t>235</x:t>
   </x:si>
   <x:si>
     <x:t>278</x:t>
@@ -337,7 +337,7 @@
     <x:t>479</x:t>
   </x:si>
   <x:si>
-    <x:t>345</x:t>
+    <x:t>346</x:t>
   </x:si>
   <x:si>
     <x:t>417</x:t>
@@ -346,7 +346,7 @@
     <x:t>253</x:t>
   </x:si>
   <x:si>
-    <x:t>2844</x:t>
+    <x:t>2846</x:t>
   </x:si>
   <x:si>
     <x:t>Houston</x:t>
